--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esaotegroup-my.sharepoint.com/personal/marco_todde_esaote_com/Documents/INTEGRATION/FSE/accreditamento/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esaotegroup.sharepoint.com/sites/EbitIT/INT/Progetti di Integrazione/IT - Italia/__FSE/Accreditamento/it-fse-accreditamento/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{0554E3F4-1FF1-41C4-99A0-467012434CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6927470F-0556-4950-B7F8-25CE15E1D8C1}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{0554E3F4-1FF1-41C4-99A0-467012434CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{626DB9E4-1532-4D2B-8A3A-E51AE8F2E803}"/>
   <bookViews>
-    <workbookView xWindow="58380" yWindow="-960" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1050" windowWidth="26250" windowHeight="14370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -687,6 +687,36 @@
   </si>
   <si>
     <t>subject_application_version: 2.1b34.x</t>
+  </si>
+  <si>
+    <t>5778b020f3522159</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.dc99d82c032f3b614725e1eeb1b868b4ef1dc22a6340a6187aeacc41e824920c.4200b408ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T16:18:24.143Z</t>
+  </si>
+  <si>
+    <t>l'applicativo non gestisce le conclusioni come campo separato dal testo del referto</t>
+  </si>
+  <si>
+    <t>2023-03-08T17:21:18.743Z</t>
+  </si>
+  <si>
+    <t>729f283b4adfc6d4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.187859189abe6ac7e64b26f66ea72529bab08fd6772df590fbf1422e7e57dc6e.e00595294b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.acd69857c2b944e280f2745e5db8eaa0cddd510501b35e875236f7f2ca46f6e7.df223dfdab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e78202ef5d70343b</t>
+  </si>
+  <si>
+    <t>2023-03-08T17:36:30.200Z</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2640,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,11 +2909,21 @@
       <c r="E10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
+      <c r="F10" s="17">
+        <v>44993</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
@@ -2913,12 +2953,24 @@
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="F11" s="17">
+        <v>44993</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
@@ -2947,11 +2999,21 @@
       <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="F12" s="17">
+        <v>44993</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
@@ -19796,12 +19858,30 @@
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
+    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
+    <ds:schemaRef ds:uri="74204614-352d-415a-b69e-46d10468735d"/>
+    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esaotegroup.sharepoint.com/sites/EbitIT/INT/Progetti di Integrazione/IT - Italia/__FSE/Accreditamento/it-fse-accreditamento/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{0554E3F4-1FF1-41C4-99A0-467012434CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{626DB9E4-1532-4D2B-8A3A-E51AE8F2E803}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17187878-87FD-4F0F-8AD2-4F0EF35AAA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1050" windowWidth="26250" windowHeight="14370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1380" windowWidth="28695" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="221">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -717,6 +717,246 @@
   </si>
   <si>
     <t>2023-03-08T17:36:30.200Z</t>
+  </si>
+  <si>
+    <t>c049c710b19711c7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.39e5f3ab703f95bbef517b6ec82973d0e6e2cb349d7ae5f2196fcb2bbcec4f4f.c28f8357be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-09T10:10:47.263Z</t>
+  </si>
+  <si>
+    <t>storia clinica e suggerimenti per il medico non sono campi gestiti dall'applicativo</t>
+  </si>
+  <si>
+    <t>948da432939ef3c4</t>
+  </si>
+  <si>
+    <t>2023-03-09T11:26:03.933Z</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>"title : "Campo token JWT non valido.",   "detail" : "Il campo purpose_of_use non Ã¨ valorizzato"</t>
+  </si>
+  <si>
+    <t>8131dd0fa415407c</t>
+  </si>
+  <si>
+    <t>2023-03-09T11:42:48.063Z</t>
+  </si>
+  <si>
+    <t>title : "Campo token JWT non valido.", "detail" : "Il campo action_id non Ã¨ corretto"</t>
+  </si>
+  <si>
+    <t>per eseguireil test è stato forzato a mano il campo purpose of use vuoto.</t>
+  </si>
+  <si>
+    <t>per eseguireil test è stato forzato a mano il campo action id a TEST</t>
+  </si>
+  <si>
+    <t>4814701ee9ca56b3</t>
+  </si>
+  <si>
+    <t>"title" : "Campo token JWT non valido.", "detail" : "Il campo person_id non Ã¨ valorizzato", "instance" : "/jwt-mandatory-field-missing"</t>
+  </si>
+  <si>
+    <t>l'applicativo non consente l'invio senza la presenza del Codice Fiscale, per i test è stato forzato vuoto e bypassati i sistemi di validazione interni.</t>
+  </si>
+  <si>
+    <t>2023-03-09T13:15:16.300Z</t>
+  </si>
+  <si>
+    <t>2023-03-09T14:52:20.840Z</t>
+  </si>
+  <si>
+    <t>aa4bfb227bc23ebe</t>
+  </si>
+  <si>
+    <t>"title" : "Campo token JWT non valido.", "detail" : "Il codice fiscale nel campo person_id non Ã¨ corretto", "instance" : "/jwt-mandatory-field-malformed"</t>
+  </si>
+  <si>
+    <t>l'applicativo consente i vaori N e V, è stato forzato per il test il valore R</t>
+  </si>
+  <si>
+    <t>l'applicativo non consente la mancanza del given name, pertanto è stato rimosso manualmente per consentire il test</t>
+  </si>
+  <si>
+    <t>l'applicativo non consente la non presenza del sesso, pertanto è stato forzato il valore NB per il test</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.d43db25c2f4b229f30e9c81157c14c0835981ca037d922fb8f9aa4e09a7d9614.1d70dd2fa9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a852df465e3a1c90</t>
+  </si>
+  <si>
+    <t>2023-03-09T18:03:26.003Z</t>
+  </si>
+  <si>
+    <t>forzato a mano il valore TEST al posto di RAD_PROG</t>
+  </si>
+  <si>
+    <t>"title" : "Errore vocabolario.", "detail" : "Almeno uno dei seguenti vocaboli non Ã¨ censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]"</t>
+  </si>
+  <si>
+    <t>24070f0d2e7edcc5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.c19ef7d788f989ff108e6e583d34d384583c9076e12fa72baf7832f00fe8ba7d.c4c85aac9c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-09T18:09:54.123Z</t>
+  </si>
+  <si>
+    <t>061acbdd878facd1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.7e47426487b5267543d2ce4cc47ec5e54be2c15090f7b9d8a9fae95cc68b0410.9d803137bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-09T18:33:08.007Z</t>
+  </si>
+  <si>
+    <t>[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25']</t>
+  </si>
+  <si>
+    <t>[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
+  </si>
+  <si>
+    <t>[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.49110f3f289fa31fae0a56a0858d124dc6b935439a027ebe743404f3421abe0d.438a3de211^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a196940c8791029b</t>
+  </si>
+  <si>
+    <t>2023-03-09T18:45:12.037Z</t>
+  </si>
+  <si>
+    <t>ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
+  </si>
+  <si>
+    <t>3b77b98b1790acc5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.5e1a1ba27b43f664120a4120dcc523e92f1918b160d9308349cf5c0f52012861.f1f7b00d92^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-09T19:20:58.127Z</t>
+  </si>
+  <si>
+    <t>rimosso manualmente il valore dell'Id extension relativo all'accesison number, inibiti i controlli del nostro applicativo per consentire l'uscita del campo vuoto</t>
+  </si>
+  <si>
+    <t>ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
+  </si>
+  <si>
+    <t>rimosso manualmente il valore del code relativo all'esame eseguito, inibiti i controlli del nostro applicativo per consentire l'uscita del campo vuoto</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.adec4041ef26c5484b026e1aa96c362797ed2ee5ecd93f637425be550ef94737.b20f7c60a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>63a4619345a62ec4</t>
+  </si>
+  <si>
+    <t>2023-03-09T19:42:30.107Z</t>
+  </si>
+  <si>
+    <t>[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.]</t>
+  </si>
+  <si>
+    <t>è stato forzato il campo text del referto a uscire vuoto, altrimenti sempre valorizzato</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.8f503e8d243c24d381de611fa6be934518ea7fd9a9db2aeae9d83061a561b456.6f849fd633^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>86613404958f7d21</t>
+  </si>
+  <si>
+    <t>2023-03-09T20:00:42.050Z</t>
+  </si>
+  <si>
+    <t>Il motore di integrazione attende un tempo configurabile prima di andare in timeout. Passato tale periodo, l'evento viene inserito in una coda di uscita gestibile dall'utente tramite una consolle di monitoraggio. Il pdf contiene comunque il CDA2.</t>
+  </si>
+  <si>
+    <t>la section/text relativa ai Precedenti Esami eseguiti non è gestita dall'applicativo</t>
+  </si>
+  <si>
+    <t>l'anamnesi patologica nella sezione storia clinica non è gestita dall'applicativo.</t>
+  </si>
+  <si>
+    <t>il grado di parentela nella sezione storia clinica non è gestito dall'applicativo.</t>
+  </si>
+  <si>
+    <t>l'intervallo di tempo nella sezione storia clinica non è gestito dall'applicativo.</t>
+  </si>
+  <si>
+    <t>l'allergia nella sezione storia clinica non è gestita dall'applicativo.</t>
+  </si>
+  <si>
+    <t>la sezione observation/value relativa alle diagnosi non è gestita dall'applicativo</t>
+  </si>
+  <si>
+    <t>"title" : "Errore semantico.", "detail" : "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
+  </si>
+  <si>
+    <t>forzatoa la tipologia di accesso con un valore non ammesso (TEST)</t>
+  </si>
+  <si>
+    <t>2023-03-10T11:43:18.057Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.0d337ebc8389d91549c1d20c1e4c2696fdb533515daa0cbb48468cd00527f7e2.bf97a18973^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>52fd375a8c189cb0</t>
+  </si>
+  <si>
+    <t>2023-03-10T13:07:46.997Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.287f835b5e7251d5c219cdf94b1d479d291c97afcb0986fe5c9ac7768dd3e476.2f453a8ba4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>64607fd7aac52204</t>
+  </si>
+  <si>
+    <t>l'applicativo non consente di lasciar vuota la città di residenza, abbiamo svuotato a mano il campo per eseguire il test.</t>
+  </si>
+  <si>
+    <t>[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.ae1bedff0c8d0c0a7088ef67d679b2b40ad56a80edd9c6914c91a4d9965108ea.c3c79b1fe3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>524749a8a936d158</t>
+  </si>
+  <si>
+    <t>2023-03-10T13:27:06.087Z</t>
+  </si>
+  <si>
+    <t>ERROR: -1,-1 cvc-datatype-valid.1.2.3: '' is not a valid value of union type 'uid'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'root' on element 'id' is not valid with respect to its type, 'uid'.</t>
+  </si>
+  <si>
+    <t>la sezione entry non può non comparire, è stato forzato manualmente per il test</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.58c14aff31fea2913f120badf52c0b8580eea52b4073c5dc07208fd0488e6dae.c290099235^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>607117b26a53e155</t>
+  </si>
+  <si>
+    <t>2023-03-10T13:59:50.070Z</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1190,6 +1430,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2640,7 +2883,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,7 +3257,9 @@
       <c r="J12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="19"/>
+      <c r="K12" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -3043,11 +3288,21 @@
       <c r="E13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
+      <c r="F13" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
@@ -3077,15 +3332,29 @@
       <c r="E14" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="F14" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="N14" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -3111,15 +3380,29 @@
       <c r="E15" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="F15" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="N15" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -3129,7 +3412,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>47</v>
       </c>
@@ -3149,11 +3432,15 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+      <c r="N16" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -3181,15 +3468,29 @@
       <c r="E17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="F17" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="N17" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -3215,15 +3516,27 @@
       <c r="E18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
+      <c r="F18" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="N18" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -3249,15 +3562,29 @@
       <c r="E19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="F19" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+      <c r="N19" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -3283,12 +3610,24 @@
       <c r="E20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="F20" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -3317,15 +3656,29 @@
       <c r="E21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="F21" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="N21" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -3351,15 +3704,29 @@
       <c r="E22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="F22" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
+      <c r="N22" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -3385,15 +3752,29 @@
       <c r="E23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="F23" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
+      <c r="N23" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -3419,15 +3800,27 @@
       <c r="E24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="F24" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
+      <c r="N24" s="19" t="s">
+        <v>212</v>
+      </c>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -3453,15 +3846,29 @@
       <c r="E25" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="F25" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="N25" s="19" t="s">
+        <v>181</v>
+      </c>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
@@ -3487,15 +3894,29 @@
       <c r="E26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="F26" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
+      <c r="N26" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -3521,15 +3942,29 @@
       <c r="E27" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="F27" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="N27" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -3555,12 +3990,16 @@
       <c r="E28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="J28" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -3589,15 +4028,29 @@
       <c r="E29" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="F29" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>217</v>
+      </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
+      <c r="N29" s="19" t="s">
+        <v>216</v>
+      </c>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -3627,8 +4080,12 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="J30" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -3661,8 +4118,12 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+      <c r="J31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>199</v>
+      </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
@@ -3695,8 +4156,12 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="J32" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
@@ -3729,8 +4194,12 @@
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="J33" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>201</v>
+      </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -3763,8 +4232,12 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="J34" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>202</v>
+      </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
@@ -3793,15 +4266,29 @@
       <c r="E35" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
+      <c r="F35" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
+      <c r="N35" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -17338,8 +17825,8 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -19567,15 +20054,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
@@ -19587,7 +20065,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -19837,15 +20315,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
@@ -19864,7 +20343,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19884,6 +20363,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5177C3FE-E172-4B39-977E-7A4BA2283719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1DE15F-3254-4B1B-A229-80CA15471A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="228">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -956,9 +956,6 @@
     <t>2023-03-10T13:59:50.070Z</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>per eseguireil test è stato forzato a mano il campo purpose of use vuoto</t>
   </si>
   <si>
@@ -969,6 +966,19 @@
   </si>
   <si>
     <t xml:space="preserve"> l'evento viene inserito in una coda di uscita gestibile dall'utente tramite una consolle di monitoraggio. La coda è configurabile per avvisare automaticamente l'Help Desk</t>
+  </si>
+  <si>
+    <t>non verificabile</t>
+  </si>
+  <si>
+    <t>non verifcabile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.  
+</t>
+  </si>
+  <si>
+    <t>EBIT SRL</t>
   </si>
 </sst>
 </file>
@@ -1419,6 +1429,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1439,15 +1458,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1744,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC6FE8D-20B5-4094-9F18-656AE8EE60BF}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,11 +2904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T830"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,7 +2924,7 @@
     <col min="16" max="16" width="27.140625" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
-    <col min="19" max="19" width="31.85546875" style="48" customWidth="1"/>
+    <col min="19" max="19" width="31.85546875" style="36" customWidth="1"/>
     <col min="20" max="20" width="31.85546875" style="32" customWidth="1"/>
     <col min="21" max="30" width="8.85546875" customWidth="1"/>
   </cols>
@@ -2934,16 +2944,18 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="46"/>
+      <c r="S1" s="34"/>
       <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="40"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2957,18 +2969,18 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="46"/>
+      <c r="S2" s="34"/>
       <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="40"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2982,16 +2994,16 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="46"/>
+      <c r="S3" s="34"/>
       <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3006,16 +3018,16 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="46"/>
+      <c r="S4" s="34"/>
       <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="40"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3029,12 +3041,12 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="46"/>
+      <c r="S5" s="34"/>
       <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3049,7 +3061,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="46"/>
+      <c r="S6" s="34"/>
       <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -3069,7 +3081,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="46"/>
+      <c r="S7" s="34"/>
       <c r="T7" s="31"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3086,7 +3098,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="46"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,7 +3202,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="20"/>
-      <c r="S10" s="47"/>
+      <c r="S10" s="35"/>
       <c r="T10" s="30" t="s">
         <v>124</v>
       </c>
@@ -3236,7 +3248,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="20"/>
-      <c r="S11" s="47"/>
+      <c r="S11" s="35"/>
       <c r="T11" s="30" t="s">
         <v>124</v>
       </c>
@@ -3282,7 +3294,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="20"/>
-      <c r="S12" s="47"/>
+      <c r="S12" s="35"/>
       <c r="T12" s="30" t="s">
         <v>124</v>
       </c>
@@ -3326,7 +3338,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="20"/>
-      <c r="S13" s="47"/>
+      <c r="S13" s="35"/>
       <c r="T13" s="30" t="s">
         <v>124</v>
       </c>
@@ -3362,20 +3374,26 @@
       <c r="J14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N14" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="O14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20"/>
-      <c r="S14" s="47" t="s">
-        <v>221</v>
+      <c r="S14" s="35" t="s">
+        <v>220</v>
       </c>
       <c r="T14" s="30" t="s">
         <v>125</v>
@@ -3413,16 +3431,24 @@
         <v>40</v>
       </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N15" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="O15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
-      <c r="S15" s="47" t="s">
+      <c r="S15" s="35" t="s">
         <v>152</v>
       </c>
       <c r="T15" s="30" t="s">
@@ -3462,13 +3488,13 @@
         <v>40</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="47"/>
+      <c r="S16" s="35"/>
       <c r="T16" s="30" t="s">
         <v>125</v>
       </c>
@@ -3505,16 +3531,24 @@
         <v>40</v>
       </c>
       <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="L17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N17" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
+      <c r="O17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20"/>
-      <c r="S17" s="47" t="s">
+      <c r="S17" s="35" t="s">
         <v>155</v>
       </c>
       <c r="T17" s="30" t="s">
@@ -3570,8 +3604,8 @@
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
-      <c r="S18" s="47" t="s">
-        <v>222</v>
+      <c r="S18" s="35" t="s">
+        <v>221</v>
       </c>
       <c r="T18" s="30" t="s">
         <v>125</v>
@@ -3609,16 +3643,24 @@
         <v>40</v>
       </c>
       <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="L19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N19" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="O19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
-      <c r="S19" s="47" t="s">
+      <c r="S19" s="35" t="s">
         <v>160</v>
       </c>
       <c r="T19" s="30" t="s">
@@ -3657,14 +3699,24 @@
         <v>40</v>
       </c>
       <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="L20" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
-      <c r="S20" s="47" t="s">
+      <c r="S20" s="35" t="s">
         <v>210</v>
       </c>
       <c r="T20" s="30" t="s">
@@ -3703,16 +3755,24 @@
         <v>40</v>
       </c>
       <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="L21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N21" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
+      <c r="O21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
-      <c r="S21" s="47" t="s">
+      <c r="S21" s="35" t="s">
         <v>161</v>
       </c>
       <c r="T21" s="30" t="s">
@@ -3751,16 +3811,24 @@
         <v>40</v>
       </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="L22" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N22" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
+      <c r="O22" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
-      <c r="S22" s="47" t="s">
+      <c r="S22" s="35" t="s">
         <v>162</v>
       </c>
       <c r="T22" s="30" t="s">
@@ -3799,16 +3867,24 @@
         <v>40</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="L23" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N23" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="O23" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
-      <c r="S23" s="47" t="s">
+      <c r="S23" s="35" t="s">
         <v>166</v>
       </c>
       <c r="T23" s="30" t="s">
@@ -3864,8 +3940,8 @@
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="47" t="s">
-        <v>223</v>
+      <c r="S24" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="T24" s="30" t="s">
         <v>125</v>
@@ -3903,16 +3979,24 @@
         <v>40</v>
       </c>
       <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="L25" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N25" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
+      <c r="O25" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="47" t="s">
+      <c r="S25" s="35" t="s">
         <v>184</v>
       </c>
       <c r="T25" s="30" t="s">
@@ -3951,16 +4035,24 @@
         <v>40</v>
       </c>
       <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
+      <c r="L26" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N26" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
+      <c r="O26" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="47" t="s">
+      <c r="S26" s="35" t="s">
         <v>186</v>
       </c>
       <c r="T26" s="30" t="s">
@@ -3999,16 +4091,24 @@
         <v>40</v>
       </c>
       <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="L27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N27" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="O27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="47" t="s">
+      <c r="S27" s="35" t="s">
         <v>191</v>
       </c>
       <c r="T27" s="30" t="s">
@@ -4048,7 +4148,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="47"/>
+      <c r="S28" s="35"/>
       <c r="T28" s="30" t="s">
         <v>125</v>
       </c>
@@ -4085,16 +4185,24 @@
         <v>40</v>
       </c>
       <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="L29" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N29" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
+      <c r="O29" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
-      <c r="S29" s="47" t="s">
+      <c r="S29" s="35" t="s">
         <v>216</v>
       </c>
       <c r="T29" s="30" t="s">
@@ -4134,7 +4242,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="20"/>
-      <c r="S30" s="47"/>
+      <c r="S30" s="35"/>
       <c r="T30" s="30" t="s">
         <v>125</v>
       </c>
@@ -4172,7 +4280,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="20"/>
-      <c r="S31" s="47"/>
+      <c r="S31" s="35"/>
       <c r="T31" s="30" t="s">
         <v>125</v>
       </c>
@@ -4210,7 +4318,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="20"/>
-      <c r="S32" s="47"/>
+      <c r="S32" s="35"/>
       <c r="T32" s="30" t="s">
         <v>125</v>
       </c>
@@ -4248,7 +4356,7 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="20"/>
-      <c r="S33" s="47"/>
+      <c r="S33" s="35"/>
       <c r="T33" s="30" t="s">
         <v>125</v>
       </c>
@@ -4286,7 +4394,7 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="20"/>
-      <c r="S34" s="47"/>
+      <c r="S34" s="35"/>
       <c r="T34" s="30" t="s">
         <v>125</v>
       </c>
@@ -4323,16 +4431,24 @@
         <v>40</v>
       </c>
       <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="L35" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="N35" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
+      <c r="O35" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
-      <c r="S35" s="47" t="s">
+      <c r="S35" s="35" t="s">
         <v>203</v>
       </c>
       <c r="T35" s="30" t="s">
@@ -4353,7 +4469,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="46"/>
+      <c r="S36" s="34"/>
       <c r="T36" s="31"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -4370,7 +4486,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="46"/>
+      <c r="S37" s="34"/>
       <c r="T37" s="31"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4387,7 +4503,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="46"/>
+      <c r="S38" s="34"/>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -4404,7 +4520,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="46"/>
+      <c r="S39" s="34"/>
       <c r="T39" s="31"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4421,7 +4537,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="46"/>
+      <c r="S40" s="34"/>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4438,7 +4554,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="46"/>
+      <c r="S41" s="34"/>
       <c r="T41" s="31"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -4455,7 +4571,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="46"/>
+      <c r="S42" s="34"/>
       <c r="T42" s="31"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -4472,7 +4588,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="46"/>
+      <c r="S43" s="34"/>
       <c r="T43" s="31"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -4489,7 +4605,7 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="46"/>
+      <c r="S44" s="34"/>
       <c r="T44" s="31"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -4506,7 +4622,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="46"/>
+      <c r="S45" s="34"/>
       <c r="T45" s="31"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -4523,7 +4639,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="46"/>
+      <c r="S46" s="34"/>
       <c r="T46" s="31"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4540,7 +4656,7 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="46"/>
+      <c r="S47" s="34"/>
       <c r="T47" s="31"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4557,7 +4673,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="46"/>
+      <c r="S48" s="34"/>
       <c r="T48" s="31"/>
     </row>
     <row r="49" spans="6:20" x14ac:dyDescent="0.25">
@@ -4574,7 +4690,7 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="46"/>
+      <c r="S49" s="34"/>
       <c r="T49" s="31"/>
     </row>
     <row r="50" spans="6:20" x14ac:dyDescent="0.25">
@@ -4591,7 +4707,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="46"/>
+      <c r="S50" s="34"/>
       <c r="T50" s="31"/>
     </row>
     <row r="51" spans="6:20" x14ac:dyDescent="0.25">
@@ -4608,7 +4724,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="46"/>
+      <c r="S51" s="34"/>
       <c r="T51" s="31"/>
     </row>
     <row r="52" spans="6:20" x14ac:dyDescent="0.25">
@@ -4625,7 +4741,7 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="46"/>
+      <c r="S52" s="34"/>
       <c r="T52" s="31"/>
     </row>
     <row r="53" spans="6:20" x14ac:dyDescent="0.25">
@@ -4642,7 +4758,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="46"/>
+      <c r="S53" s="34"/>
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="6:20" x14ac:dyDescent="0.25">
@@ -4659,7 +4775,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="46"/>
+      <c r="S54" s="34"/>
       <c r="T54" s="31"/>
     </row>
     <row r="55" spans="6:20" x14ac:dyDescent="0.25">
@@ -4676,7 +4792,7 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="9"/>
-      <c r="S55" s="46"/>
+      <c r="S55" s="34"/>
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="6:20" x14ac:dyDescent="0.25">
@@ -4693,7 +4809,7 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="46"/>
+      <c r="S56" s="34"/>
       <c r="T56" s="31"/>
     </row>
     <row r="57" spans="6:20" x14ac:dyDescent="0.25">
@@ -4710,7 +4826,7 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="46"/>
+      <c r="S57" s="34"/>
       <c r="T57" s="31"/>
     </row>
     <row r="58" spans="6:20" x14ac:dyDescent="0.25">
@@ -4727,7 +4843,7 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="46"/>
+      <c r="S58" s="34"/>
       <c r="T58" s="31"/>
     </row>
     <row r="59" spans="6:20" x14ac:dyDescent="0.25">
@@ -4744,7 +4860,7 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="9"/>
-      <c r="S59" s="46"/>
+      <c r="S59" s="34"/>
       <c r="T59" s="31"/>
     </row>
     <row r="60" spans="6:20" x14ac:dyDescent="0.25">
@@ -4761,7 +4877,7 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="9"/>
-      <c r="S60" s="46"/>
+      <c r="S60" s="34"/>
       <c r="T60" s="31"/>
     </row>
     <row r="61" spans="6:20" x14ac:dyDescent="0.25">
@@ -4778,7 +4894,7 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="9"/>
-      <c r="S61" s="46"/>
+      <c r="S61" s="34"/>
       <c r="T61" s="31"/>
     </row>
     <row r="62" spans="6:20" x14ac:dyDescent="0.25">
@@ -4795,7 +4911,7 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="46"/>
+      <c r="S62" s="34"/>
       <c r="T62" s="31"/>
     </row>
     <row r="63" spans="6:20" x14ac:dyDescent="0.25">
@@ -4812,7 +4928,7 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="9"/>
-      <c r="S63" s="46"/>
+      <c r="S63" s="34"/>
       <c r="T63" s="31"/>
     </row>
     <row r="64" spans="6:20" x14ac:dyDescent="0.25">
@@ -4829,7 +4945,7 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="46"/>
+      <c r="S64" s="34"/>
       <c r="T64" s="31"/>
     </row>
     <row r="65" spans="6:20" x14ac:dyDescent="0.25">
@@ -4846,7 +4962,7 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="9"/>
-      <c r="S65" s="46"/>
+      <c r="S65" s="34"/>
       <c r="T65" s="31"/>
     </row>
     <row r="66" spans="6:20" x14ac:dyDescent="0.25">
@@ -4863,7 +4979,7 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="9"/>
-      <c r="S66" s="46"/>
+      <c r="S66" s="34"/>
       <c r="T66" s="31"/>
     </row>
     <row r="67" spans="6:20" x14ac:dyDescent="0.25">
@@ -4880,7 +4996,7 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="9"/>
-      <c r="S67" s="46"/>
+      <c r="S67" s="34"/>
       <c r="T67" s="31"/>
     </row>
     <row r="68" spans="6:20" x14ac:dyDescent="0.25">
@@ -4897,7 +5013,7 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="9"/>
-      <c r="S68" s="46"/>
+      <c r="S68" s="34"/>
       <c r="T68" s="31"/>
     </row>
     <row r="69" spans="6:20" x14ac:dyDescent="0.25">
@@ -4914,7 +5030,7 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="9"/>
-      <c r="S69" s="46"/>
+      <c r="S69" s="34"/>
       <c r="T69" s="31"/>
     </row>
     <row r="70" spans="6:20" x14ac:dyDescent="0.25">
@@ -4931,7 +5047,7 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="46"/>
+      <c r="S70" s="34"/>
       <c r="T70" s="31"/>
     </row>
     <row r="71" spans="6:20" x14ac:dyDescent="0.25">
@@ -4948,7 +5064,7 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="9"/>
-      <c r="S71" s="46"/>
+      <c r="S71" s="34"/>
       <c r="T71" s="31"/>
     </row>
     <row r="72" spans="6:20" x14ac:dyDescent="0.25">
@@ -4965,7 +5081,7 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="46"/>
+      <c r="S72" s="34"/>
       <c r="T72" s="31"/>
     </row>
     <row r="73" spans="6:20" x14ac:dyDescent="0.25">
@@ -4982,7 +5098,7 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="9"/>
-      <c r="S73" s="46"/>
+      <c r="S73" s="34"/>
       <c r="T73" s="31"/>
     </row>
     <row r="74" spans="6:20" x14ac:dyDescent="0.25">
@@ -4999,7 +5115,7 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="9"/>
-      <c r="S74" s="46"/>
+      <c r="S74" s="34"/>
       <c r="T74" s="31"/>
     </row>
     <row r="75" spans="6:20" x14ac:dyDescent="0.25">
@@ -5016,7 +5132,7 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="9"/>
-      <c r="S75" s="46"/>
+      <c r="S75" s="34"/>
       <c r="T75" s="31"/>
     </row>
     <row r="76" spans="6:20" x14ac:dyDescent="0.25">
@@ -5033,7 +5149,7 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="9"/>
-      <c r="S76" s="46"/>
+      <c r="S76" s="34"/>
       <c r="T76" s="31"/>
     </row>
     <row r="77" spans="6:20" x14ac:dyDescent="0.25">
@@ -5050,7 +5166,7 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="9"/>
-      <c r="S77" s="46"/>
+      <c r="S77" s="34"/>
       <c r="T77" s="31"/>
     </row>
     <row r="78" spans="6:20" x14ac:dyDescent="0.25">
@@ -5067,7 +5183,7 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="9"/>
-      <c r="S78" s="46"/>
+      <c r="S78" s="34"/>
       <c r="T78" s="31"/>
     </row>
     <row r="79" spans="6:20" x14ac:dyDescent="0.25">
@@ -5084,7 +5200,7 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="9"/>
-      <c r="S79" s="46"/>
+      <c r="S79" s="34"/>
       <c r="T79" s="31"/>
     </row>
     <row r="80" spans="6:20" x14ac:dyDescent="0.25">
@@ -5101,7 +5217,7 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="9"/>
-      <c r="S80" s="46"/>
+      <c r="S80" s="34"/>
       <c r="T80" s="31"/>
     </row>
     <row r="81" spans="6:20" x14ac:dyDescent="0.25">
@@ -5118,7 +5234,7 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="9"/>
-      <c r="S81" s="46"/>
+      <c r="S81" s="34"/>
       <c r="T81" s="31"/>
     </row>
     <row r="82" spans="6:20" x14ac:dyDescent="0.25">
@@ -5135,7 +5251,7 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="9"/>
-      <c r="S82" s="46"/>
+      <c r="S82" s="34"/>
       <c r="T82" s="31"/>
     </row>
     <row r="83" spans="6:20" x14ac:dyDescent="0.25">
@@ -5152,7 +5268,7 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="9"/>
-      <c r="S83" s="46"/>
+      <c r="S83" s="34"/>
       <c r="T83" s="31"/>
     </row>
     <row r="84" spans="6:20" x14ac:dyDescent="0.25">
@@ -5169,7 +5285,7 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="9"/>
-      <c r="S84" s="46"/>
+      <c r="S84" s="34"/>
       <c r="T84" s="31"/>
     </row>
     <row r="85" spans="6:20" x14ac:dyDescent="0.25">
@@ -5186,7 +5302,7 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="9"/>
-      <c r="S85" s="46"/>
+      <c r="S85" s="34"/>
       <c r="T85" s="31"/>
     </row>
     <row r="86" spans="6:20" x14ac:dyDescent="0.25">
@@ -5203,7 +5319,7 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="9"/>
-      <c r="S86" s="46"/>
+      <c r="S86" s="34"/>
       <c r="T86" s="31"/>
     </row>
     <row r="87" spans="6:20" x14ac:dyDescent="0.25">
@@ -5220,7 +5336,7 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="9"/>
-      <c r="S87" s="46"/>
+      <c r="S87" s="34"/>
       <c r="T87" s="31"/>
     </row>
     <row r="88" spans="6:20" x14ac:dyDescent="0.25">
@@ -5237,7 +5353,7 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="9"/>
-      <c r="S88" s="46"/>
+      <c r="S88" s="34"/>
       <c r="T88" s="31"/>
     </row>
     <row r="89" spans="6:20" x14ac:dyDescent="0.25">
@@ -5254,7 +5370,7 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="9"/>
-      <c r="S89" s="46"/>
+      <c r="S89" s="34"/>
       <c r="T89" s="31"/>
     </row>
     <row r="90" spans="6:20" x14ac:dyDescent="0.25">
@@ -5271,7 +5387,7 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="9"/>
-      <c r="S90" s="46"/>
+      <c r="S90" s="34"/>
       <c r="T90" s="31"/>
     </row>
     <row r="91" spans="6:20" x14ac:dyDescent="0.25">
@@ -5288,7 +5404,7 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="9"/>
-      <c r="S91" s="46"/>
+      <c r="S91" s="34"/>
       <c r="T91" s="31"/>
     </row>
     <row r="92" spans="6:20" x14ac:dyDescent="0.25">
@@ -5305,7 +5421,7 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="9"/>
-      <c r="S92" s="46"/>
+      <c r="S92" s="34"/>
       <c r="T92" s="31"/>
     </row>
     <row r="93" spans="6:20" x14ac:dyDescent="0.25">
@@ -5322,7 +5438,7 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="9"/>
-      <c r="S93" s="46"/>
+      <c r="S93" s="34"/>
       <c r="T93" s="31"/>
     </row>
     <row r="94" spans="6:20" x14ac:dyDescent="0.25">
@@ -5339,7 +5455,7 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="9"/>
-      <c r="S94" s="46"/>
+      <c r="S94" s="34"/>
       <c r="T94" s="31"/>
     </row>
     <row r="95" spans="6:20" x14ac:dyDescent="0.25">
@@ -5356,7 +5472,7 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="9"/>
-      <c r="S95" s="46"/>
+      <c r="S95" s="34"/>
       <c r="T95" s="31"/>
     </row>
     <row r="96" spans="6:20" x14ac:dyDescent="0.25">
@@ -5373,7 +5489,7 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="9"/>
-      <c r="S96" s="46"/>
+      <c r="S96" s="34"/>
       <c r="T96" s="31"/>
     </row>
     <row r="97" spans="6:20" x14ac:dyDescent="0.25">
@@ -5390,7 +5506,7 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="9"/>
-      <c r="S97" s="46"/>
+      <c r="S97" s="34"/>
       <c r="T97" s="31"/>
     </row>
     <row r="98" spans="6:20" x14ac:dyDescent="0.25">
@@ -5407,7 +5523,7 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="9"/>
-      <c r="S98" s="46"/>
+      <c r="S98" s="34"/>
       <c r="T98" s="31"/>
     </row>
     <row r="99" spans="6:20" x14ac:dyDescent="0.25">
@@ -5424,7 +5540,7 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="9"/>
-      <c r="S99" s="46"/>
+      <c r="S99" s="34"/>
       <c r="T99" s="31"/>
     </row>
     <row r="100" spans="6:20" x14ac:dyDescent="0.25">
@@ -5441,7 +5557,7 @@
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="9"/>
-      <c r="S100" s="46"/>
+      <c r="S100" s="34"/>
       <c r="T100" s="31"/>
     </row>
     <row r="101" spans="6:20" x14ac:dyDescent="0.25">
@@ -5458,7 +5574,7 @@
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="9"/>
-      <c r="S101" s="46"/>
+      <c r="S101" s="34"/>
       <c r="T101" s="31"/>
     </row>
     <row r="102" spans="6:20" x14ac:dyDescent="0.25">
@@ -5475,7 +5591,7 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="9"/>
-      <c r="S102" s="46"/>
+      <c r="S102" s="34"/>
       <c r="T102" s="31"/>
     </row>
     <row r="103" spans="6:20" x14ac:dyDescent="0.25">
@@ -5492,7 +5608,7 @@
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="9"/>
-      <c r="S103" s="46"/>
+      <c r="S103" s="34"/>
       <c r="T103" s="31"/>
     </row>
     <row r="104" spans="6:20" x14ac:dyDescent="0.25">
@@ -5509,7 +5625,7 @@
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="9"/>
-      <c r="S104" s="46"/>
+      <c r="S104" s="34"/>
       <c r="T104" s="31"/>
     </row>
     <row r="105" spans="6:20" x14ac:dyDescent="0.25">
@@ -5526,7 +5642,7 @@
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="9"/>
-      <c r="S105" s="46"/>
+      <c r="S105" s="34"/>
       <c r="T105" s="31"/>
     </row>
     <row r="106" spans="6:20" x14ac:dyDescent="0.25">
@@ -5543,7 +5659,7 @@
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="9"/>
-      <c r="S106" s="46"/>
+      <c r="S106" s="34"/>
       <c r="T106" s="31"/>
     </row>
     <row r="107" spans="6:20" x14ac:dyDescent="0.25">
@@ -5560,7 +5676,7 @@
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="9"/>
-      <c r="S107" s="46"/>
+      <c r="S107" s="34"/>
       <c r="T107" s="31"/>
     </row>
     <row r="108" spans="6:20" x14ac:dyDescent="0.25">
@@ -5577,7 +5693,7 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="9"/>
-      <c r="S108" s="46"/>
+      <c r="S108" s="34"/>
       <c r="T108" s="31"/>
     </row>
     <row r="109" spans="6:20" x14ac:dyDescent="0.25">
@@ -5594,7 +5710,7 @@
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="9"/>
-      <c r="S109" s="46"/>
+      <c r="S109" s="34"/>
       <c r="T109" s="31"/>
     </row>
     <row r="110" spans="6:20" x14ac:dyDescent="0.25">
@@ -5611,7 +5727,7 @@
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="9"/>
-      <c r="S110" s="46"/>
+      <c r="S110" s="34"/>
       <c r="T110" s="31"/>
     </row>
     <row r="111" spans="6:20" x14ac:dyDescent="0.25">
@@ -5628,7 +5744,7 @@
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="9"/>
-      <c r="S111" s="46"/>
+      <c r="S111" s="34"/>
       <c r="T111" s="31"/>
     </row>
     <row r="112" spans="6:20" x14ac:dyDescent="0.25">
@@ -5645,7 +5761,7 @@
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="9"/>
-      <c r="S112" s="46"/>
+      <c r="S112" s="34"/>
       <c r="T112" s="31"/>
     </row>
     <row r="113" spans="6:20" x14ac:dyDescent="0.25">
@@ -5662,7 +5778,7 @@
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="9"/>
-      <c r="S113" s="46"/>
+      <c r="S113" s="34"/>
       <c r="T113" s="31"/>
     </row>
     <row r="114" spans="6:20" x14ac:dyDescent="0.25">
@@ -5679,7 +5795,7 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="9"/>
-      <c r="S114" s="46"/>
+      <c r="S114" s="34"/>
       <c r="T114" s="31"/>
     </row>
     <row r="115" spans="6:20" x14ac:dyDescent="0.25">
@@ -5696,7 +5812,7 @@
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="9"/>
-      <c r="S115" s="46"/>
+      <c r="S115" s="34"/>
       <c r="T115" s="31"/>
     </row>
     <row r="116" spans="6:20" x14ac:dyDescent="0.25">
@@ -5713,7 +5829,7 @@
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="9"/>
-      <c r="S116" s="46"/>
+      <c r="S116" s="34"/>
       <c r="T116" s="31"/>
     </row>
     <row r="117" spans="6:20" x14ac:dyDescent="0.25">
@@ -5730,7 +5846,7 @@
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
       <c r="R117" s="9"/>
-      <c r="S117" s="46"/>
+      <c r="S117" s="34"/>
       <c r="T117" s="31"/>
     </row>
     <row r="118" spans="6:20" x14ac:dyDescent="0.25">
@@ -5747,7 +5863,7 @@
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="9"/>
-      <c r="S118" s="46"/>
+      <c r="S118" s="34"/>
       <c r="T118" s="31"/>
     </row>
     <row r="119" spans="6:20" x14ac:dyDescent="0.25">
@@ -5764,7 +5880,7 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="9"/>
-      <c r="S119" s="46"/>
+      <c r="S119" s="34"/>
       <c r="T119" s="31"/>
     </row>
     <row r="120" spans="6:20" x14ac:dyDescent="0.25">
@@ -5781,7 +5897,7 @@
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="9"/>
-      <c r="S120" s="46"/>
+      <c r="S120" s="34"/>
       <c r="T120" s="31"/>
     </row>
     <row r="121" spans="6:20" x14ac:dyDescent="0.25">
@@ -5798,7 +5914,7 @@
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="9"/>
-      <c r="S121" s="46"/>
+      <c r="S121" s="34"/>
       <c r="T121" s="31"/>
     </row>
     <row r="122" spans="6:20" x14ac:dyDescent="0.25">
@@ -5815,7 +5931,7 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="R122" s="9"/>
-      <c r="S122" s="46"/>
+      <c r="S122" s="34"/>
       <c r="T122" s="31"/>
     </row>
     <row r="123" spans="6:20" x14ac:dyDescent="0.25">
@@ -5832,7 +5948,7 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="R123" s="9"/>
-      <c r="S123" s="46"/>
+      <c r="S123" s="34"/>
       <c r="T123" s="31"/>
     </row>
     <row r="124" spans="6:20" x14ac:dyDescent="0.25">
@@ -5849,7 +5965,7 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="R124" s="9"/>
-      <c r="S124" s="46"/>
+      <c r="S124" s="34"/>
       <c r="T124" s="31"/>
     </row>
     <row r="125" spans="6:20" x14ac:dyDescent="0.25">
@@ -5866,7 +5982,7 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="R125" s="9"/>
-      <c r="S125" s="46"/>
+      <c r="S125" s="34"/>
       <c r="T125" s="31"/>
     </row>
     <row r="126" spans="6:20" x14ac:dyDescent="0.25">
@@ -5883,7 +5999,7 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="R126" s="9"/>
-      <c r="S126" s="46"/>
+      <c r="S126" s="34"/>
       <c r="T126" s="31"/>
     </row>
     <row r="127" spans="6:20" x14ac:dyDescent="0.25">
@@ -5900,7 +6016,7 @@
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
       <c r="R127" s="9"/>
-      <c r="S127" s="46"/>
+      <c r="S127" s="34"/>
       <c r="T127" s="31"/>
     </row>
     <row r="128" spans="6:20" x14ac:dyDescent="0.25">
@@ -5917,7 +6033,7 @@
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
       <c r="R128" s="9"/>
-      <c r="S128" s="46"/>
+      <c r="S128" s="34"/>
       <c r="T128" s="31"/>
     </row>
     <row r="129" spans="6:20" x14ac:dyDescent="0.25">
@@ -5934,7 +6050,7 @@
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="9"/>
-      <c r="S129" s="46"/>
+      <c r="S129" s="34"/>
       <c r="T129" s="31"/>
     </row>
     <row r="130" spans="6:20" x14ac:dyDescent="0.25">
@@ -5951,7 +6067,7 @@
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="9"/>
-      <c r="S130" s="46"/>
+      <c r="S130" s="34"/>
       <c r="T130" s="31"/>
     </row>
     <row r="131" spans="6:20" x14ac:dyDescent="0.25">
@@ -5968,7 +6084,7 @@
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
       <c r="R131" s="9"/>
-      <c r="S131" s="46"/>
+      <c r="S131" s="34"/>
       <c r="T131" s="31"/>
     </row>
     <row r="132" spans="6:20" x14ac:dyDescent="0.25">
@@ -5985,7 +6101,7 @@
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
       <c r="R132" s="9"/>
-      <c r="S132" s="46"/>
+      <c r="S132" s="34"/>
       <c r="T132" s="31"/>
     </row>
     <row r="133" spans="6:20" x14ac:dyDescent="0.25">
@@ -6002,7 +6118,7 @@
       <c r="P133" s="8"/>
       <c r="Q133" s="8"/>
       <c r="R133" s="9"/>
-      <c r="S133" s="46"/>
+      <c r="S133" s="34"/>
       <c r="T133" s="31"/>
     </row>
     <row r="134" spans="6:20" x14ac:dyDescent="0.25">
@@ -6019,7 +6135,7 @@
       <c r="P134" s="8"/>
       <c r="Q134" s="8"/>
       <c r="R134" s="9"/>
-      <c r="S134" s="46"/>
+      <c r="S134" s="34"/>
       <c r="T134" s="31"/>
     </row>
     <row r="135" spans="6:20" x14ac:dyDescent="0.25">
@@ -6036,7 +6152,7 @@
       <c r="P135" s="8"/>
       <c r="Q135" s="8"/>
       <c r="R135" s="9"/>
-      <c r="S135" s="46"/>
+      <c r="S135" s="34"/>
       <c r="T135" s="31"/>
     </row>
     <row r="136" spans="6:20" x14ac:dyDescent="0.25">
@@ -6053,7 +6169,7 @@
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
       <c r="R136" s="9"/>
-      <c r="S136" s="46"/>
+      <c r="S136" s="34"/>
       <c r="T136" s="31"/>
     </row>
     <row r="137" spans="6:20" x14ac:dyDescent="0.25">
@@ -6070,7 +6186,7 @@
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
       <c r="R137" s="9"/>
-      <c r="S137" s="46"/>
+      <c r="S137" s="34"/>
       <c r="T137" s="31"/>
     </row>
     <row r="138" spans="6:20" x14ac:dyDescent="0.25">
@@ -6087,7 +6203,7 @@
       <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
       <c r="R138" s="9"/>
-      <c r="S138" s="46"/>
+      <c r="S138" s="34"/>
       <c r="T138" s="31"/>
     </row>
     <row r="139" spans="6:20" x14ac:dyDescent="0.25">
@@ -6104,7 +6220,7 @@
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
       <c r="R139" s="9"/>
-      <c r="S139" s="46"/>
+      <c r="S139" s="34"/>
       <c r="T139" s="31"/>
     </row>
     <row r="140" spans="6:20" x14ac:dyDescent="0.25">
@@ -6121,7 +6237,7 @@
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
       <c r="R140" s="9"/>
-      <c r="S140" s="46"/>
+      <c r="S140" s="34"/>
       <c r="T140" s="31"/>
     </row>
     <row r="141" spans="6:20" x14ac:dyDescent="0.25">
@@ -6138,7 +6254,7 @@
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
       <c r="R141" s="9"/>
-      <c r="S141" s="46"/>
+      <c r="S141" s="34"/>
       <c r="T141" s="31"/>
     </row>
     <row r="142" spans="6:20" x14ac:dyDescent="0.25">
@@ -6155,7 +6271,7 @@
       <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
       <c r="R142" s="9"/>
-      <c r="S142" s="46"/>
+      <c r="S142" s="34"/>
       <c r="T142" s="31"/>
     </row>
     <row r="143" spans="6:20" x14ac:dyDescent="0.25">
@@ -6172,7 +6288,7 @@
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
       <c r="R143" s="9"/>
-      <c r="S143" s="46"/>
+      <c r="S143" s="34"/>
       <c r="T143" s="31"/>
     </row>
     <row r="144" spans="6:20" x14ac:dyDescent="0.25">
@@ -6189,7 +6305,7 @@
       <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
       <c r="R144" s="9"/>
-      <c r="S144" s="46"/>
+      <c r="S144" s="34"/>
       <c r="T144" s="31"/>
     </row>
     <row r="145" spans="6:20" x14ac:dyDescent="0.25">
@@ -6206,7 +6322,7 @@
       <c r="P145" s="8"/>
       <c r="Q145" s="8"/>
       <c r="R145" s="9"/>
-      <c r="S145" s="46"/>
+      <c r="S145" s="34"/>
       <c r="T145" s="31"/>
     </row>
     <row r="146" spans="6:20" x14ac:dyDescent="0.25">
@@ -6223,7 +6339,7 @@
       <c r="P146" s="8"/>
       <c r="Q146" s="8"/>
       <c r="R146" s="9"/>
-      <c r="S146" s="46"/>
+      <c r="S146" s="34"/>
       <c r="T146" s="31"/>
     </row>
     <row r="147" spans="6:20" x14ac:dyDescent="0.25">
@@ -6240,7 +6356,7 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="9"/>
-      <c r="S147" s="46"/>
+      <c r="S147" s="34"/>
       <c r="T147" s="31"/>
     </row>
     <row r="148" spans="6:20" x14ac:dyDescent="0.25">
@@ -6257,7 +6373,7 @@
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="9"/>
-      <c r="S148" s="46"/>
+      <c r="S148" s="34"/>
       <c r="T148" s="31"/>
     </row>
     <row r="149" spans="6:20" x14ac:dyDescent="0.25">
@@ -6274,7 +6390,7 @@
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
       <c r="R149" s="9"/>
-      <c r="S149" s="46"/>
+      <c r="S149" s="34"/>
       <c r="T149" s="31"/>
     </row>
     <row r="150" spans="6:20" x14ac:dyDescent="0.25">
@@ -6291,7 +6407,7 @@
       <c r="P150" s="8"/>
       <c r="Q150" s="8"/>
       <c r="R150" s="9"/>
-      <c r="S150" s="46"/>
+      <c r="S150" s="34"/>
       <c r="T150" s="31"/>
     </row>
     <row r="151" spans="6:20" x14ac:dyDescent="0.25">
@@ -6308,7 +6424,7 @@
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
       <c r="R151" s="9"/>
-      <c r="S151" s="46"/>
+      <c r="S151" s="34"/>
       <c r="T151" s="31"/>
     </row>
     <row r="152" spans="6:20" x14ac:dyDescent="0.25">
@@ -6325,7 +6441,7 @@
       <c r="P152" s="8"/>
       <c r="Q152" s="8"/>
       <c r="R152" s="9"/>
-      <c r="S152" s="46"/>
+      <c r="S152" s="34"/>
       <c r="T152" s="31"/>
     </row>
     <row r="153" spans="6:20" x14ac:dyDescent="0.25">
@@ -6342,7 +6458,7 @@
       <c r="P153" s="8"/>
       <c r="Q153" s="8"/>
       <c r="R153" s="9"/>
-      <c r="S153" s="46"/>
+      <c r="S153" s="34"/>
       <c r="T153" s="31"/>
     </row>
     <row r="154" spans="6:20" x14ac:dyDescent="0.25">
@@ -6359,7 +6475,7 @@
       <c r="P154" s="8"/>
       <c r="Q154" s="8"/>
       <c r="R154" s="9"/>
-      <c r="S154" s="46"/>
+      <c r="S154" s="34"/>
       <c r="T154" s="31"/>
     </row>
     <row r="155" spans="6:20" x14ac:dyDescent="0.25">
@@ -6376,7 +6492,7 @@
       <c r="P155" s="8"/>
       <c r="Q155" s="8"/>
       <c r="R155" s="9"/>
-      <c r="S155" s="46"/>
+      <c r="S155" s="34"/>
       <c r="T155" s="31"/>
     </row>
     <row r="156" spans="6:20" x14ac:dyDescent="0.25">
@@ -6393,7 +6509,7 @@
       <c r="P156" s="8"/>
       <c r="Q156" s="8"/>
       <c r="R156" s="9"/>
-      <c r="S156" s="46"/>
+      <c r="S156" s="34"/>
       <c r="T156" s="31"/>
     </row>
     <row r="157" spans="6:20" x14ac:dyDescent="0.25">
@@ -6410,7 +6526,7 @@
       <c r="P157" s="8"/>
       <c r="Q157" s="8"/>
       <c r="R157" s="9"/>
-      <c r="S157" s="46"/>
+      <c r="S157" s="34"/>
       <c r="T157" s="31"/>
     </row>
     <row r="158" spans="6:20" x14ac:dyDescent="0.25">
@@ -6427,7 +6543,7 @@
       <c r="P158" s="8"/>
       <c r="Q158" s="8"/>
       <c r="R158" s="9"/>
-      <c r="S158" s="46"/>
+      <c r="S158" s="34"/>
       <c r="T158" s="31"/>
     </row>
     <row r="159" spans="6:20" x14ac:dyDescent="0.25">
@@ -6444,7 +6560,7 @@
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
       <c r="R159" s="9"/>
-      <c r="S159" s="46"/>
+      <c r="S159" s="34"/>
       <c r="T159" s="31"/>
     </row>
     <row r="160" spans="6:20" x14ac:dyDescent="0.25">
@@ -6461,7 +6577,7 @@
       <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
       <c r="R160" s="9"/>
-      <c r="S160" s="46"/>
+      <c r="S160" s="34"/>
       <c r="T160" s="31"/>
     </row>
     <row r="161" spans="6:20" x14ac:dyDescent="0.25">
@@ -6478,7 +6594,7 @@
       <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
       <c r="R161" s="9"/>
-      <c r="S161" s="46"/>
+      <c r="S161" s="34"/>
       <c r="T161" s="31"/>
     </row>
     <row r="162" spans="6:20" x14ac:dyDescent="0.25">
@@ -6495,7 +6611,7 @@
       <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
       <c r="R162" s="9"/>
-      <c r="S162" s="46"/>
+      <c r="S162" s="34"/>
       <c r="T162" s="31"/>
     </row>
     <row r="163" spans="6:20" x14ac:dyDescent="0.25">
@@ -6512,7 +6628,7 @@
       <c r="P163" s="8"/>
       <c r="Q163" s="8"/>
       <c r="R163" s="9"/>
-      <c r="S163" s="46"/>
+      <c r="S163" s="34"/>
       <c r="T163" s="31"/>
     </row>
     <row r="164" spans="6:20" x14ac:dyDescent="0.25">
@@ -6529,7 +6645,7 @@
       <c r="P164" s="8"/>
       <c r="Q164" s="8"/>
       <c r="R164" s="9"/>
-      <c r="S164" s="46"/>
+      <c r="S164" s="34"/>
       <c r="T164" s="31"/>
     </row>
     <row r="165" spans="6:20" x14ac:dyDescent="0.25">
@@ -6546,7 +6662,7 @@
       <c r="P165" s="8"/>
       <c r="Q165" s="8"/>
       <c r="R165" s="9"/>
-      <c r="S165" s="46"/>
+      <c r="S165" s="34"/>
       <c r="T165" s="31"/>
     </row>
     <row r="166" spans="6:20" x14ac:dyDescent="0.25">
@@ -6563,7 +6679,7 @@
       <c r="P166" s="8"/>
       <c r="Q166" s="8"/>
       <c r="R166" s="9"/>
-      <c r="S166" s="46"/>
+      <c r="S166" s="34"/>
       <c r="T166" s="31"/>
     </row>
     <row r="167" spans="6:20" x14ac:dyDescent="0.25">
@@ -6580,7 +6696,7 @@
       <c r="P167" s="8"/>
       <c r="Q167" s="8"/>
       <c r="R167" s="9"/>
-      <c r="S167" s="46"/>
+      <c r="S167" s="34"/>
       <c r="T167" s="31"/>
     </row>
     <row r="168" spans="6:20" x14ac:dyDescent="0.25">
@@ -6597,7 +6713,7 @@
       <c r="P168" s="8"/>
       <c r="Q168" s="8"/>
       <c r="R168" s="9"/>
-      <c r="S168" s="46"/>
+      <c r="S168" s="34"/>
       <c r="T168" s="31"/>
     </row>
     <row r="169" spans="6:20" x14ac:dyDescent="0.25">
@@ -6614,7 +6730,7 @@
       <c r="P169" s="8"/>
       <c r="Q169" s="8"/>
       <c r="R169" s="9"/>
-      <c r="S169" s="46"/>
+      <c r="S169" s="34"/>
       <c r="T169" s="31"/>
     </row>
     <row r="170" spans="6:20" x14ac:dyDescent="0.25">
@@ -6631,7 +6747,7 @@
       <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
       <c r="R170" s="9"/>
-      <c r="S170" s="46"/>
+      <c r="S170" s="34"/>
       <c r="T170" s="31"/>
     </row>
     <row r="171" spans="6:20" x14ac:dyDescent="0.25">
@@ -6648,7 +6764,7 @@
       <c r="P171" s="8"/>
       <c r="Q171" s="8"/>
       <c r="R171" s="9"/>
-      <c r="S171" s="46"/>
+      <c r="S171" s="34"/>
       <c r="T171" s="31"/>
     </row>
     <row r="172" spans="6:20" x14ac:dyDescent="0.25">
@@ -6665,7 +6781,7 @@
       <c r="P172" s="8"/>
       <c r="Q172" s="8"/>
       <c r="R172" s="9"/>
-      <c r="S172" s="46"/>
+      <c r="S172" s="34"/>
       <c r="T172" s="31"/>
     </row>
     <row r="173" spans="6:20" x14ac:dyDescent="0.25">
@@ -6682,7 +6798,7 @@
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
       <c r="R173" s="9"/>
-      <c r="S173" s="46"/>
+      <c r="S173" s="34"/>
       <c r="T173" s="31"/>
     </row>
     <row r="174" spans="6:20" x14ac:dyDescent="0.25">
@@ -6699,7 +6815,7 @@
       <c r="P174" s="8"/>
       <c r="Q174" s="8"/>
       <c r="R174" s="9"/>
-      <c r="S174" s="46"/>
+      <c r="S174" s="34"/>
       <c r="T174" s="31"/>
     </row>
     <row r="175" spans="6:20" x14ac:dyDescent="0.25">
@@ -6716,7 +6832,7 @@
       <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
       <c r="R175" s="9"/>
-      <c r="S175" s="46"/>
+      <c r="S175" s="34"/>
       <c r="T175" s="31"/>
     </row>
     <row r="176" spans="6:20" x14ac:dyDescent="0.25">
@@ -6733,7 +6849,7 @@
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="9"/>
-      <c r="S176" s="46"/>
+      <c r="S176" s="34"/>
       <c r="T176" s="31"/>
     </row>
     <row r="177" spans="6:20" x14ac:dyDescent="0.25">
@@ -6750,7 +6866,7 @@
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
       <c r="R177" s="9"/>
-      <c r="S177" s="46"/>
+      <c r="S177" s="34"/>
       <c r="T177" s="31"/>
     </row>
     <row r="178" spans="6:20" x14ac:dyDescent="0.25">
@@ -6767,7 +6883,7 @@
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="9"/>
-      <c r="S178" s="46"/>
+      <c r="S178" s="34"/>
       <c r="T178" s="31"/>
     </row>
     <row r="179" spans="6:20" x14ac:dyDescent="0.25">
@@ -6784,7 +6900,7 @@
       <c r="P179" s="8"/>
       <c r="Q179" s="8"/>
       <c r="R179" s="9"/>
-      <c r="S179" s="46"/>
+      <c r="S179" s="34"/>
       <c r="T179" s="31"/>
     </row>
     <row r="180" spans="6:20" x14ac:dyDescent="0.25">
@@ -6801,7 +6917,7 @@
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="9"/>
-      <c r="S180" s="46"/>
+      <c r="S180" s="34"/>
       <c r="T180" s="31"/>
     </row>
     <row r="181" spans="6:20" x14ac:dyDescent="0.25">
@@ -6818,7 +6934,7 @@
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="9"/>
-      <c r="S181" s="46"/>
+      <c r="S181" s="34"/>
       <c r="T181" s="31"/>
     </row>
     <row r="182" spans="6:20" x14ac:dyDescent="0.25">
@@ -6835,7 +6951,7 @@
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="9"/>
-      <c r="S182" s="46"/>
+      <c r="S182" s="34"/>
       <c r="T182" s="31"/>
     </row>
     <row r="183" spans="6:20" x14ac:dyDescent="0.25">
@@ -6852,7 +6968,7 @@
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="9"/>
-      <c r="S183" s="46"/>
+      <c r="S183" s="34"/>
       <c r="T183" s="31"/>
     </row>
     <row r="184" spans="6:20" x14ac:dyDescent="0.25">
@@ -6869,7 +6985,7 @@
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="9"/>
-      <c r="S184" s="46"/>
+      <c r="S184" s="34"/>
       <c r="T184" s="31"/>
     </row>
     <row r="185" spans="6:20" x14ac:dyDescent="0.25">
@@ -6886,7 +7002,7 @@
       <c r="P185" s="8"/>
       <c r="Q185" s="8"/>
       <c r="R185" s="9"/>
-      <c r="S185" s="46"/>
+      <c r="S185" s="34"/>
       <c r="T185" s="31"/>
     </row>
     <row r="186" spans="6:20" x14ac:dyDescent="0.25">
@@ -6903,7 +7019,7 @@
       <c r="P186" s="8"/>
       <c r="Q186" s="8"/>
       <c r="R186" s="9"/>
-      <c r="S186" s="46"/>
+      <c r="S186" s="34"/>
       <c r="T186" s="31"/>
     </row>
     <row r="187" spans="6:20" x14ac:dyDescent="0.25">
@@ -6920,7 +7036,7 @@
       <c r="P187" s="8"/>
       <c r="Q187" s="8"/>
       <c r="R187" s="9"/>
-      <c r="S187" s="46"/>
+      <c r="S187" s="34"/>
       <c r="T187" s="31"/>
     </row>
     <row r="188" spans="6:20" x14ac:dyDescent="0.25">
@@ -6937,7 +7053,7 @@
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
       <c r="R188" s="9"/>
-      <c r="S188" s="46"/>
+      <c r="S188" s="34"/>
       <c r="T188" s="31"/>
     </row>
     <row r="189" spans="6:20" x14ac:dyDescent="0.25">
@@ -6954,7 +7070,7 @@
       <c r="P189" s="8"/>
       <c r="Q189" s="8"/>
       <c r="R189" s="9"/>
-      <c r="S189" s="46"/>
+      <c r="S189" s="34"/>
       <c r="T189" s="31"/>
     </row>
     <row r="190" spans="6:20" x14ac:dyDescent="0.25">
@@ -6971,7 +7087,7 @@
       <c r="P190" s="8"/>
       <c r="Q190" s="8"/>
       <c r="R190" s="9"/>
-      <c r="S190" s="46"/>
+      <c r="S190" s="34"/>
       <c r="T190" s="31"/>
     </row>
     <row r="191" spans="6:20" x14ac:dyDescent="0.25">
@@ -6988,7 +7104,7 @@
       <c r="P191" s="8"/>
       <c r="Q191" s="8"/>
       <c r="R191" s="9"/>
-      <c r="S191" s="46"/>
+      <c r="S191" s="34"/>
       <c r="T191" s="31"/>
     </row>
     <row r="192" spans="6:20" x14ac:dyDescent="0.25">
@@ -7005,7 +7121,7 @@
       <c r="P192" s="8"/>
       <c r="Q192" s="8"/>
       <c r="R192" s="9"/>
-      <c r="S192" s="46"/>
+      <c r="S192" s="34"/>
       <c r="T192" s="31"/>
     </row>
     <row r="193" spans="6:20" x14ac:dyDescent="0.25">
@@ -7022,7 +7138,7 @@
       <c r="P193" s="8"/>
       <c r="Q193" s="8"/>
       <c r="R193" s="9"/>
-      <c r="S193" s="46"/>
+      <c r="S193" s="34"/>
       <c r="T193" s="31"/>
     </row>
     <row r="194" spans="6:20" x14ac:dyDescent="0.25">
@@ -7039,7 +7155,7 @@
       <c r="P194" s="8"/>
       <c r="Q194" s="8"/>
       <c r="R194" s="9"/>
-      <c r="S194" s="46"/>
+      <c r="S194" s="34"/>
       <c r="T194" s="31"/>
     </row>
     <row r="195" spans="6:20" x14ac:dyDescent="0.25">
@@ -7056,7 +7172,7 @@
       <c r="P195" s="8"/>
       <c r="Q195" s="8"/>
       <c r="R195" s="9"/>
-      <c r="S195" s="46"/>
+      <c r="S195" s="34"/>
       <c r="T195" s="31"/>
     </row>
     <row r="196" spans="6:20" x14ac:dyDescent="0.25">
@@ -7073,7 +7189,7 @@
       <c r="P196" s="8"/>
       <c r="Q196" s="8"/>
       <c r="R196" s="9"/>
-      <c r="S196" s="46"/>
+      <c r="S196" s="34"/>
       <c r="T196" s="31"/>
     </row>
     <row r="197" spans="6:20" x14ac:dyDescent="0.25">
@@ -7090,7 +7206,7 @@
       <c r="P197" s="8"/>
       <c r="Q197" s="8"/>
       <c r="R197" s="9"/>
-      <c r="S197" s="46"/>
+      <c r="S197" s="34"/>
       <c r="T197" s="31"/>
     </row>
     <row r="198" spans="6:20" x14ac:dyDescent="0.25">
@@ -7107,7 +7223,7 @@
       <c r="P198" s="8"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="9"/>
-      <c r="S198" s="46"/>
+      <c r="S198" s="34"/>
       <c r="T198" s="31"/>
     </row>
     <row r="199" spans="6:20" x14ac:dyDescent="0.25">
@@ -7124,7 +7240,7 @@
       <c r="P199" s="8"/>
       <c r="Q199" s="8"/>
       <c r="R199" s="9"/>
-      <c r="S199" s="46"/>
+      <c r="S199" s="34"/>
       <c r="T199" s="31"/>
     </row>
     <row r="200" spans="6:20" x14ac:dyDescent="0.25">
@@ -7141,7 +7257,7 @@
       <c r="P200" s="8"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="9"/>
-      <c r="S200" s="46"/>
+      <c r="S200" s="34"/>
       <c r="T200" s="31"/>
     </row>
     <row r="201" spans="6:20" x14ac:dyDescent="0.25">
@@ -7158,7 +7274,7 @@
       <c r="P201" s="8"/>
       <c r="Q201" s="8"/>
       <c r="R201" s="9"/>
-      <c r="S201" s="46"/>
+      <c r="S201" s="34"/>
       <c r="T201" s="31"/>
     </row>
     <row r="202" spans="6:20" x14ac:dyDescent="0.25">
@@ -7175,7 +7291,7 @@
       <c r="P202" s="8"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="9"/>
-      <c r="S202" s="46"/>
+      <c r="S202" s="34"/>
       <c r="T202" s="31"/>
     </row>
     <row r="203" spans="6:20" x14ac:dyDescent="0.25">
@@ -7192,7 +7308,7 @@
       <c r="P203" s="8"/>
       <c r="Q203" s="8"/>
       <c r="R203" s="9"/>
-      <c r="S203" s="46"/>
+      <c r="S203" s="34"/>
       <c r="T203" s="31"/>
     </row>
     <row r="204" spans="6:20" x14ac:dyDescent="0.25">
@@ -7209,7 +7325,7 @@
       <c r="P204" s="8"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="9"/>
-      <c r="S204" s="46"/>
+      <c r="S204" s="34"/>
       <c r="T204" s="31"/>
     </row>
     <row r="205" spans="6:20" x14ac:dyDescent="0.25">
@@ -7226,7 +7342,7 @@
       <c r="P205" s="8"/>
       <c r="Q205" s="8"/>
       <c r="R205" s="9"/>
-      <c r="S205" s="46"/>
+      <c r="S205" s="34"/>
       <c r="T205" s="31"/>
     </row>
     <row r="206" spans="6:20" x14ac:dyDescent="0.25">
@@ -7243,7 +7359,7 @@
       <c r="P206" s="8"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="9"/>
-      <c r="S206" s="46"/>
+      <c r="S206" s="34"/>
       <c r="T206" s="31"/>
     </row>
     <row r="207" spans="6:20" x14ac:dyDescent="0.25">
@@ -7260,7 +7376,7 @@
       <c r="P207" s="8"/>
       <c r="Q207" s="8"/>
       <c r="R207" s="9"/>
-      <c r="S207" s="46"/>
+      <c r="S207" s="34"/>
       <c r="T207" s="31"/>
     </row>
     <row r="208" spans="6:20" x14ac:dyDescent="0.25">
@@ -7277,7 +7393,7 @@
       <c r="P208" s="8"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="9"/>
-      <c r="S208" s="46"/>
+      <c r="S208" s="34"/>
       <c r="T208" s="31"/>
     </row>
     <row r="209" spans="6:20" x14ac:dyDescent="0.25">
@@ -7294,7 +7410,7 @@
       <c r="P209" s="8"/>
       <c r="Q209" s="8"/>
       <c r="R209" s="9"/>
-      <c r="S209" s="46"/>
+      <c r="S209" s="34"/>
       <c r="T209" s="31"/>
     </row>
     <row r="210" spans="6:20" x14ac:dyDescent="0.25">
@@ -7311,7 +7427,7 @@
       <c r="P210" s="8"/>
       <c r="Q210" s="8"/>
       <c r="R210" s="9"/>
-      <c r="S210" s="46"/>
+      <c r="S210" s="34"/>
       <c r="T210" s="31"/>
     </row>
     <row r="211" spans="6:20" x14ac:dyDescent="0.25">
@@ -7328,7 +7444,7 @@
       <c r="P211" s="8"/>
       <c r="Q211" s="8"/>
       <c r="R211" s="9"/>
-      <c r="S211" s="46"/>
+      <c r="S211" s="34"/>
       <c r="T211" s="31"/>
     </row>
     <row r="212" spans="6:20" x14ac:dyDescent="0.25">
@@ -7345,7 +7461,7 @@
       <c r="P212" s="8"/>
       <c r="Q212" s="8"/>
       <c r="R212" s="9"/>
-      <c r="S212" s="46"/>
+      <c r="S212" s="34"/>
       <c r="T212" s="31"/>
     </row>
     <row r="213" spans="6:20" x14ac:dyDescent="0.25">
@@ -7362,7 +7478,7 @@
       <c r="P213" s="8"/>
       <c r="Q213" s="8"/>
       <c r="R213" s="9"/>
-      <c r="S213" s="46"/>
+      <c r="S213" s="34"/>
       <c r="T213" s="31"/>
     </row>
     <row r="214" spans="6:20" x14ac:dyDescent="0.25">
@@ -7379,7 +7495,7 @@
       <c r="P214" s="8"/>
       <c r="Q214" s="8"/>
       <c r="R214" s="9"/>
-      <c r="S214" s="46"/>
+      <c r="S214" s="34"/>
       <c r="T214" s="31"/>
     </row>
     <row r="215" spans="6:20" x14ac:dyDescent="0.25">
@@ -7396,7 +7512,7 @@
       <c r="P215" s="8"/>
       <c r="Q215" s="8"/>
       <c r="R215" s="9"/>
-      <c r="S215" s="46"/>
+      <c r="S215" s="34"/>
       <c r="T215" s="31"/>
     </row>
     <row r="216" spans="6:20" x14ac:dyDescent="0.25">
@@ -7413,7 +7529,7 @@
       <c r="P216" s="8"/>
       <c r="Q216" s="8"/>
       <c r="R216" s="9"/>
-      <c r="S216" s="46"/>
+      <c r="S216" s="34"/>
       <c r="T216" s="31"/>
     </row>
     <row r="217" spans="6:20" x14ac:dyDescent="0.25">
@@ -7430,7 +7546,7 @@
       <c r="P217" s="8"/>
       <c r="Q217" s="8"/>
       <c r="R217" s="9"/>
-      <c r="S217" s="46"/>
+      <c r="S217" s="34"/>
       <c r="T217" s="31"/>
     </row>
     <row r="218" spans="6:20" x14ac:dyDescent="0.25">
@@ -7447,7 +7563,7 @@
       <c r="P218" s="8"/>
       <c r="Q218" s="8"/>
       <c r="R218" s="9"/>
-      <c r="S218" s="46"/>
+      <c r="S218" s="34"/>
       <c r="T218" s="31"/>
     </row>
     <row r="219" spans="6:20" x14ac:dyDescent="0.25">
@@ -7464,7 +7580,7 @@
       <c r="P219" s="8"/>
       <c r="Q219" s="8"/>
       <c r="R219" s="9"/>
-      <c r="S219" s="46"/>
+      <c r="S219" s="34"/>
       <c r="T219" s="31"/>
     </row>
     <row r="220" spans="6:20" x14ac:dyDescent="0.25">
@@ -7481,7 +7597,7 @@
       <c r="P220" s="8"/>
       <c r="Q220" s="8"/>
       <c r="R220" s="9"/>
-      <c r="S220" s="46"/>
+      <c r="S220" s="34"/>
       <c r="T220" s="31"/>
     </row>
     <row r="221" spans="6:20" x14ac:dyDescent="0.25">
@@ -7498,7 +7614,7 @@
       <c r="P221" s="8"/>
       <c r="Q221" s="8"/>
       <c r="R221" s="9"/>
-      <c r="S221" s="46"/>
+      <c r="S221" s="34"/>
       <c r="T221" s="31"/>
     </row>
     <row r="222" spans="6:20" x14ac:dyDescent="0.25">
@@ -7515,7 +7631,7 @@
       <c r="P222" s="8"/>
       <c r="Q222" s="8"/>
       <c r="R222" s="9"/>
-      <c r="S222" s="46"/>
+      <c r="S222" s="34"/>
       <c r="T222" s="31"/>
     </row>
     <row r="223" spans="6:20" x14ac:dyDescent="0.25">
@@ -7532,7 +7648,7 @@
       <c r="P223" s="8"/>
       <c r="Q223" s="8"/>
       <c r="R223" s="9"/>
-      <c r="S223" s="46"/>
+      <c r="S223" s="34"/>
       <c r="T223" s="31"/>
     </row>
     <row r="224" spans="6:20" x14ac:dyDescent="0.25">
@@ -7549,7 +7665,7 @@
       <c r="P224" s="8"/>
       <c r="Q224" s="8"/>
       <c r="R224" s="9"/>
-      <c r="S224" s="46"/>
+      <c r="S224" s="34"/>
       <c r="T224" s="31"/>
     </row>
     <row r="225" spans="6:20" x14ac:dyDescent="0.25">
@@ -7566,7 +7682,7 @@
       <c r="P225" s="8"/>
       <c r="Q225" s="8"/>
       <c r="R225" s="9"/>
-      <c r="S225" s="46"/>
+      <c r="S225" s="34"/>
       <c r="T225" s="31"/>
     </row>
     <row r="226" spans="6:20" x14ac:dyDescent="0.25">
@@ -7583,7 +7699,7 @@
       <c r="P226" s="8"/>
       <c r="Q226" s="8"/>
       <c r="R226" s="9"/>
-      <c r="S226" s="46"/>
+      <c r="S226" s="34"/>
       <c r="T226" s="31"/>
     </row>
     <row r="227" spans="6:20" x14ac:dyDescent="0.25">
@@ -7600,7 +7716,7 @@
       <c r="P227" s="8"/>
       <c r="Q227" s="8"/>
       <c r="R227" s="9"/>
-      <c r="S227" s="46"/>
+      <c r="S227" s="34"/>
       <c r="T227" s="31"/>
     </row>
     <row r="228" spans="6:20" x14ac:dyDescent="0.25">
@@ -7617,7 +7733,7 @@
       <c r="P228" s="8"/>
       <c r="Q228" s="8"/>
       <c r="R228" s="9"/>
-      <c r="S228" s="46"/>
+      <c r="S228" s="34"/>
       <c r="T228" s="31"/>
     </row>
     <row r="229" spans="6:20" x14ac:dyDescent="0.25">
@@ -7634,7 +7750,7 @@
       <c r="P229" s="8"/>
       <c r="Q229" s="8"/>
       <c r="R229" s="9"/>
-      <c r="S229" s="46"/>
+      <c r="S229" s="34"/>
       <c r="T229" s="31"/>
     </row>
     <row r="230" spans="6:20" x14ac:dyDescent="0.25">
@@ -7651,7 +7767,7 @@
       <c r="P230" s="8"/>
       <c r="Q230" s="8"/>
       <c r="R230" s="9"/>
-      <c r="S230" s="46"/>
+      <c r="S230" s="34"/>
       <c r="T230" s="31"/>
     </row>
     <row r="231" spans="6:20" x14ac:dyDescent="0.25">
@@ -7668,7 +7784,7 @@
       <c r="P231" s="8"/>
       <c r="Q231" s="8"/>
       <c r="R231" s="9"/>
-      <c r="S231" s="46"/>
+      <c r="S231" s="34"/>
       <c r="T231" s="31"/>
     </row>
     <row r="232" spans="6:20" x14ac:dyDescent="0.25">
@@ -7685,7 +7801,7 @@
       <c r="P232" s="8"/>
       <c r="Q232" s="8"/>
       <c r="R232" s="9"/>
-      <c r="S232" s="46"/>
+      <c r="S232" s="34"/>
       <c r="T232" s="31"/>
     </row>
     <row r="233" spans="6:20" x14ac:dyDescent="0.25">
@@ -7702,7 +7818,7 @@
       <c r="P233" s="8"/>
       <c r="Q233" s="8"/>
       <c r="R233" s="9"/>
-      <c r="S233" s="46"/>
+      <c r="S233" s="34"/>
       <c r="T233" s="31"/>
     </row>
     <row r="234" spans="6:20" x14ac:dyDescent="0.25">
@@ -7719,7 +7835,7 @@
       <c r="P234" s="8"/>
       <c r="Q234" s="8"/>
       <c r="R234" s="9"/>
-      <c r="S234" s="46"/>
+      <c r="S234" s="34"/>
       <c r="T234" s="31"/>
     </row>
     <row r="235" spans="6:20" x14ac:dyDescent="0.25">
@@ -7736,7 +7852,7 @@
       <c r="P235" s="8"/>
       <c r="Q235" s="8"/>
       <c r="R235" s="9"/>
-      <c r="S235" s="46"/>
+      <c r="S235" s="34"/>
       <c r="T235" s="31"/>
     </row>
     <row r="236" spans="6:20" x14ac:dyDescent="0.25">
@@ -7753,7 +7869,7 @@
       <c r="P236" s="8"/>
       <c r="Q236" s="8"/>
       <c r="R236" s="9"/>
-      <c r="S236" s="46"/>
+      <c r="S236" s="34"/>
       <c r="T236" s="31"/>
     </row>
     <row r="237" spans="6:20" x14ac:dyDescent="0.25">
@@ -7770,7 +7886,7 @@
       <c r="P237" s="8"/>
       <c r="Q237" s="8"/>
       <c r="R237" s="9"/>
-      <c r="S237" s="46"/>
+      <c r="S237" s="34"/>
       <c r="T237" s="31"/>
     </row>
     <row r="238" spans="6:20" x14ac:dyDescent="0.25">
@@ -7787,7 +7903,7 @@
       <c r="P238" s="8"/>
       <c r="Q238" s="8"/>
       <c r="R238" s="9"/>
-      <c r="S238" s="46"/>
+      <c r="S238" s="34"/>
       <c r="T238" s="31"/>
     </row>
     <row r="239" spans="6:20" x14ac:dyDescent="0.25">
@@ -7804,7 +7920,7 @@
       <c r="P239" s="8"/>
       <c r="Q239" s="8"/>
       <c r="R239" s="9"/>
-      <c r="S239" s="46"/>
+      <c r="S239" s="34"/>
       <c r="T239" s="31"/>
     </row>
     <row r="240" spans="6:20" x14ac:dyDescent="0.25">
@@ -7821,7 +7937,7 @@
       <c r="P240" s="8"/>
       <c r="Q240" s="8"/>
       <c r="R240" s="9"/>
-      <c r="S240" s="46"/>
+      <c r="S240" s="34"/>
       <c r="T240" s="31"/>
     </row>
     <row r="241" spans="6:20" x14ac:dyDescent="0.25">
@@ -7838,7 +7954,7 @@
       <c r="P241" s="8"/>
       <c r="Q241" s="8"/>
       <c r="R241" s="9"/>
-      <c r="S241" s="46"/>
+      <c r="S241" s="34"/>
       <c r="T241" s="31"/>
     </row>
     <row r="242" spans="6:20" x14ac:dyDescent="0.25">
@@ -7855,7 +7971,7 @@
       <c r="P242" s="8"/>
       <c r="Q242" s="8"/>
       <c r="R242" s="9"/>
-      <c r="S242" s="46"/>
+      <c r="S242" s="34"/>
       <c r="T242" s="31"/>
     </row>
     <row r="243" spans="6:20" x14ac:dyDescent="0.25">
@@ -7872,7 +7988,7 @@
       <c r="P243" s="8"/>
       <c r="Q243" s="8"/>
       <c r="R243" s="9"/>
-      <c r="S243" s="46"/>
+      <c r="S243" s="34"/>
       <c r="T243" s="31"/>
     </row>
     <row r="244" spans="6:20" x14ac:dyDescent="0.25">
@@ -7889,7 +8005,7 @@
       <c r="P244" s="8"/>
       <c r="Q244" s="8"/>
       <c r="R244" s="9"/>
-      <c r="S244" s="46"/>
+      <c r="S244" s="34"/>
       <c r="T244" s="31"/>
     </row>
     <row r="245" spans="6:20" x14ac:dyDescent="0.25">
@@ -7906,7 +8022,7 @@
       <c r="P245" s="8"/>
       <c r="Q245" s="8"/>
       <c r="R245" s="9"/>
-      <c r="S245" s="46"/>
+      <c r="S245" s="34"/>
       <c r="T245" s="31"/>
     </row>
     <row r="246" spans="6:20" x14ac:dyDescent="0.25">
@@ -7923,7 +8039,7 @@
       <c r="P246" s="8"/>
       <c r="Q246" s="8"/>
       <c r="R246" s="9"/>
-      <c r="S246" s="46"/>
+      <c r="S246" s="34"/>
       <c r="T246" s="31"/>
     </row>
     <row r="247" spans="6:20" x14ac:dyDescent="0.25">
@@ -7940,7 +8056,7 @@
       <c r="P247" s="8"/>
       <c r="Q247" s="8"/>
       <c r="R247" s="9"/>
-      <c r="S247" s="46"/>
+      <c r="S247" s="34"/>
       <c r="T247" s="31"/>
     </row>
     <row r="248" spans="6:20" x14ac:dyDescent="0.25">
@@ -7957,7 +8073,7 @@
       <c r="P248" s="8"/>
       <c r="Q248" s="8"/>
       <c r="R248" s="9"/>
-      <c r="S248" s="46"/>
+      <c r="S248" s="34"/>
       <c r="T248" s="31"/>
     </row>
     <row r="249" spans="6:20" x14ac:dyDescent="0.25">
@@ -7974,7 +8090,7 @@
       <c r="P249" s="8"/>
       <c r="Q249" s="8"/>
       <c r="R249" s="9"/>
-      <c r="S249" s="46"/>
+      <c r="S249" s="34"/>
       <c r="T249" s="31"/>
     </row>
     <row r="250" spans="6:20" x14ac:dyDescent="0.25">
@@ -7991,7 +8107,7 @@
       <c r="P250" s="8"/>
       <c r="Q250" s="8"/>
       <c r="R250" s="9"/>
-      <c r="S250" s="46"/>
+      <c r="S250" s="34"/>
       <c r="T250" s="31"/>
     </row>
     <row r="251" spans="6:20" x14ac:dyDescent="0.25">
@@ -8008,7 +8124,7 @@
       <c r="P251" s="8"/>
       <c r="Q251" s="8"/>
       <c r="R251" s="9"/>
-      <c r="S251" s="46"/>
+      <c r="S251" s="34"/>
       <c r="T251" s="31"/>
     </row>
     <row r="252" spans="6:20" x14ac:dyDescent="0.25">
@@ -8025,7 +8141,7 @@
       <c r="P252" s="8"/>
       <c r="Q252" s="8"/>
       <c r="R252" s="9"/>
-      <c r="S252" s="46"/>
+      <c r="S252" s="34"/>
       <c r="T252" s="31"/>
     </row>
     <row r="253" spans="6:20" x14ac:dyDescent="0.25">
@@ -8042,7 +8158,7 @@
       <c r="P253" s="8"/>
       <c r="Q253" s="8"/>
       <c r="R253" s="9"/>
-      <c r="S253" s="46"/>
+      <c r="S253" s="34"/>
       <c r="T253" s="31"/>
     </row>
     <row r="254" spans="6:20" x14ac:dyDescent="0.25">
@@ -8059,7 +8175,7 @@
       <c r="P254" s="8"/>
       <c r="Q254" s="8"/>
       <c r="R254" s="9"/>
-      <c r="S254" s="46"/>
+      <c r="S254" s="34"/>
       <c r="T254" s="31"/>
     </row>
     <row r="255" spans="6:20" x14ac:dyDescent="0.25">
@@ -8076,7 +8192,7 @@
       <c r="P255" s="8"/>
       <c r="Q255" s="8"/>
       <c r="R255" s="9"/>
-      <c r="S255" s="46"/>
+      <c r="S255" s="34"/>
       <c r="T255" s="31"/>
     </row>
     <row r="256" spans="6:20" x14ac:dyDescent="0.25">
@@ -8093,7 +8209,7 @@
       <c r="P256" s="8"/>
       <c r="Q256" s="8"/>
       <c r="R256" s="9"/>
-      <c r="S256" s="46"/>
+      <c r="S256" s="34"/>
       <c r="T256" s="31"/>
     </row>
     <row r="257" spans="6:20" x14ac:dyDescent="0.25">
@@ -8110,7 +8226,7 @@
       <c r="P257" s="8"/>
       <c r="Q257" s="8"/>
       <c r="R257" s="9"/>
-      <c r="S257" s="46"/>
+      <c r="S257" s="34"/>
       <c r="T257" s="31"/>
     </row>
     <row r="258" spans="6:20" x14ac:dyDescent="0.25">
@@ -8127,7 +8243,7 @@
       <c r="P258" s="8"/>
       <c r="Q258" s="8"/>
       <c r="R258" s="9"/>
-      <c r="S258" s="46"/>
+      <c r="S258" s="34"/>
       <c r="T258" s="31"/>
     </row>
     <row r="259" spans="6:20" x14ac:dyDescent="0.25">
@@ -8144,7 +8260,7 @@
       <c r="P259" s="8"/>
       <c r="Q259" s="8"/>
       <c r="R259" s="9"/>
-      <c r="S259" s="46"/>
+      <c r="S259" s="34"/>
       <c r="T259" s="31"/>
     </row>
     <row r="260" spans="6:20" x14ac:dyDescent="0.25">
@@ -8161,7 +8277,7 @@
       <c r="P260" s="8"/>
       <c r="Q260" s="8"/>
       <c r="R260" s="9"/>
-      <c r="S260" s="46"/>
+      <c r="S260" s="34"/>
       <c r="T260" s="31"/>
     </row>
     <row r="261" spans="6:20" x14ac:dyDescent="0.25">
@@ -8178,7 +8294,7 @@
       <c r="P261" s="8"/>
       <c r="Q261" s="8"/>
       <c r="R261" s="9"/>
-      <c r="S261" s="46"/>
+      <c r="S261" s="34"/>
       <c r="T261" s="31"/>
     </row>
     <row r="262" spans="6:20" x14ac:dyDescent="0.25">
@@ -8195,7 +8311,7 @@
       <c r="P262" s="8"/>
       <c r="Q262" s="8"/>
       <c r="R262" s="9"/>
-      <c r="S262" s="46"/>
+      <c r="S262" s="34"/>
       <c r="T262" s="31"/>
     </row>
     <row r="263" spans="6:20" x14ac:dyDescent="0.25">
@@ -8212,7 +8328,7 @@
       <c r="P263" s="8"/>
       <c r="Q263" s="8"/>
       <c r="R263" s="9"/>
-      <c r="S263" s="46"/>
+      <c r="S263" s="34"/>
       <c r="T263" s="31"/>
     </row>
     <row r="264" spans="6:20" x14ac:dyDescent="0.25">
@@ -8229,7 +8345,7 @@
       <c r="P264" s="8"/>
       <c r="Q264" s="8"/>
       <c r="R264" s="9"/>
-      <c r="S264" s="46"/>
+      <c r="S264" s="34"/>
       <c r="T264" s="31"/>
     </row>
     <row r="265" spans="6:20" x14ac:dyDescent="0.25">
@@ -8246,7 +8362,7 @@
       <c r="P265" s="8"/>
       <c r="Q265" s="8"/>
       <c r="R265" s="9"/>
-      <c r="S265" s="46"/>
+      <c r="S265" s="34"/>
       <c r="T265" s="31"/>
     </row>
     <row r="266" spans="6:20" x14ac:dyDescent="0.25">
@@ -8263,7 +8379,7 @@
       <c r="P266" s="8"/>
       <c r="Q266" s="8"/>
       <c r="R266" s="9"/>
-      <c r="S266" s="46"/>
+      <c r="S266" s="34"/>
       <c r="T266" s="31"/>
     </row>
     <row r="267" spans="6:20" x14ac:dyDescent="0.25">
@@ -8280,7 +8396,7 @@
       <c r="P267" s="8"/>
       <c r="Q267" s="8"/>
       <c r="R267" s="9"/>
-      <c r="S267" s="46"/>
+      <c r="S267" s="34"/>
       <c r="T267" s="31"/>
     </row>
     <row r="268" spans="6:20" x14ac:dyDescent="0.25">
@@ -8297,7 +8413,7 @@
       <c r="P268" s="8"/>
       <c r="Q268" s="8"/>
       <c r="R268" s="9"/>
-      <c r="S268" s="46"/>
+      <c r="S268" s="34"/>
       <c r="T268" s="31"/>
     </row>
     <row r="269" spans="6:20" x14ac:dyDescent="0.25">
@@ -8314,7 +8430,7 @@
       <c r="P269" s="8"/>
       <c r="Q269" s="8"/>
       <c r="R269" s="9"/>
-      <c r="S269" s="46"/>
+      <c r="S269" s="34"/>
       <c r="T269" s="31"/>
     </row>
     <row r="270" spans="6:20" x14ac:dyDescent="0.25">
@@ -8331,7 +8447,7 @@
       <c r="P270" s="8"/>
       <c r="Q270" s="8"/>
       <c r="R270" s="9"/>
-      <c r="S270" s="46"/>
+      <c r="S270" s="34"/>
       <c r="T270" s="31"/>
     </row>
     <row r="271" spans="6:20" x14ac:dyDescent="0.25">
@@ -8348,7 +8464,7 @@
       <c r="P271" s="8"/>
       <c r="Q271" s="8"/>
       <c r="R271" s="9"/>
-      <c r="S271" s="46"/>
+      <c r="S271" s="34"/>
       <c r="T271" s="31"/>
     </row>
     <row r="272" spans="6:20" x14ac:dyDescent="0.25">
@@ -8365,7 +8481,7 @@
       <c r="P272" s="8"/>
       <c r="Q272" s="8"/>
       <c r="R272" s="9"/>
-      <c r="S272" s="46"/>
+      <c r="S272" s="34"/>
       <c r="T272" s="31"/>
     </row>
     <row r="273" spans="6:20" x14ac:dyDescent="0.25">
@@ -8382,7 +8498,7 @@
       <c r="P273" s="8"/>
       <c r="Q273" s="8"/>
       <c r="R273" s="9"/>
-      <c r="S273" s="46"/>
+      <c r="S273" s="34"/>
       <c r="T273" s="31"/>
     </row>
     <row r="274" spans="6:20" x14ac:dyDescent="0.25">
@@ -8399,7 +8515,7 @@
       <c r="P274" s="8"/>
       <c r="Q274" s="8"/>
       <c r="R274" s="9"/>
-      <c r="S274" s="46"/>
+      <c r="S274" s="34"/>
       <c r="T274" s="31"/>
     </row>
     <row r="275" spans="6:20" x14ac:dyDescent="0.25">
@@ -8416,7 +8532,7 @@
       <c r="P275" s="8"/>
       <c r="Q275" s="8"/>
       <c r="R275" s="9"/>
-      <c r="S275" s="46"/>
+      <c r="S275" s="34"/>
       <c r="T275" s="31"/>
     </row>
     <row r="276" spans="6:20" x14ac:dyDescent="0.25">
@@ -8433,7 +8549,7 @@
       <c r="P276" s="8"/>
       <c r="Q276" s="8"/>
       <c r="R276" s="9"/>
-      <c r="S276" s="46"/>
+      <c r="S276" s="34"/>
       <c r="T276" s="31"/>
     </row>
     <row r="277" spans="6:20" x14ac:dyDescent="0.25">
@@ -8450,7 +8566,7 @@
       <c r="P277" s="8"/>
       <c r="Q277" s="8"/>
       <c r="R277" s="9"/>
-      <c r="S277" s="46"/>
+      <c r="S277" s="34"/>
       <c r="T277" s="31"/>
     </row>
     <row r="278" spans="6:20" x14ac:dyDescent="0.25">
@@ -8467,7 +8583,7 @@
       <c r="P278" s="8"/>
       <c r="Q278" s="8"/>
       <c r="R278" s="9"/>
-      <c r="S278" s="46"/>
+      <c r="S278" s="34"/>
       <c r="T278" s="31"/>
     </row>
     <row r="279" spans="6:20" x14ac:dyDescent="0.25">
@@ -8484,7 +8600,7 @@
       <c r="P279" s="8"/>
       <c r="Q279" s="8"/>
       <c r="R279" s="9"/>
-      <c r="S279" s="46"/>
+      <c r="S279" s="34"/>
       <c r="T279" s="31"/>
     </row>
     <row r="280" spans="6:20" x14ac:dyDescent="0.25">
@@ -8501,7 +8617,7 @@
       <c r="P280" s="8"/>
       <c r="Q280" s="8"/>
       <c r="R280" s="9"/>
-      <c r="S280" s="46"/>
+      <c r="S280" s="34"/>
       <c r="T280" s="31"/>
     </row>
     <row r="281" spans="6:20" x14ac:dyDescent="0.25">
@@ -8518,7 +8634,7 @@
       <c r="P281" s="8"/>
       <c r="Q281" s="8"/>
       <c r="R281" s="9"/>
-      <c r="S281" s="46"/>
+      <c r="S281" s="34"/>
       <c r="T281" s="31"/>
     </row>
     <row r="282" spans="6:20" x14ac:dyDescent="0.25">
@@ -8535,7 +8651,7 @@
       <c r="P282" s="8"/>
       <c r="Q282" s="8"/>
       <c r="R282" s="9"/>
-      <c r="S282" s="46"/>
+      <c r="S282" s="34"/>
       <c r="T282" s="31"/>
     </row>
     <row r="283" spans="6:20" x14ac:dyDescent="0.25">
@@ -8552,7 +8668,7 @@
       <c r="P283" s="8"/>
       <c r="Q283" s="8"/>
       <c r="R283" s="9"/>
-      <c r="S283" s="46"/>
+      <c r="S283" s="34"/>
       <c r="T283" s="31"/>
     </row>
     <row r="284" spans="6:20" x14ac:dyDescent="0.25">
@@ -8569,7 +8685,7 @@
       <c r="P284" s="8"/>
       <c r="Q284" s="8"/>
       <c r="R284" s="9"/>
-      <c r="S284" s="46"/>
+      <c r="S284" s="34"/>
       <c r="T284" s="31"/>
     </row>
     <row r="285" spans="6:20" x14ac:dyDescent="0.25">
@@ -8586,7 +8702,7 @@
       <c r="P285" s="8"/>
       <c r="Q285" s="8"/>
       <c r="R285" s="9"/>
-      <c r="S285" s="46"/>
+      <c r="S285" s="34"/>
       <c r="T285" s="31"/>
     </row>
     <row r="286" spans="6:20" x14ac:dyDescent="0.25">
@@ -8603,7 +8719,7 @@
       <c r="P286" s="8"/>
       <c r="Q286" s="8"/>
       <c r="R286" s="9"/>
-      <c r="S286" s="46"/>
+      <c r="S286" s="34"/>
       <c r="T286" s="31"/>
     </row>
     <row r="287" spans="6:20" x14ac:dyDescent="0.25">
@@ -8620,7 +8736,7 @@
       <c r="P287" s="8"/>
       <c r="Q287" s="8"/>
       <c r="R287" s="9"/>
-      <c r="S287" s="46"/>
+      <c r="S287" s="34"/>
       <c r="T287" s="31"/>
     </row>
     <row r="288" spans="6:20" x14ac:dyDescent="0.25">
@@ -8637,7 +8753,7 @@
       <c r="P288" s="8"/>
       <c r="Q288" s="8"/>
       <c r="R288" s="9"/>
-      <c r="S288" s="46"/>
+      <c r="S288" s="34"/>
       <c r="T288" s="31"/>
     </row>
     <row r="289" spans="6:20" x14ac:dyDescent="0.25">
@@ -8654,7 +8770,7 @@
       <c r="P289" s="8"/>
       <c r="Q289" s="8"/>
       <c r="R289" s="9"/>
-      <c r="S289" s="46"/>
+      <c r="S289" s="34"/>
       <c r="T289" s="31"/>
     </row>
     <row r="290" spans="6:20" x14ac:dyDescent="0.25">
@@ -8671,7 +8787,7 @@
       <c r="P290" s="8"/>
       <c r="Q290" s="8"/>
       <c r="R290" s="9"/>
-      <c r="S290" s="46"/>
+      <c r="S290" s="34"/>
       <c r="T290" s="31"/>
     </row>
     <row r="291" spans="6:20" x14ac:dyDescent="0.25">
@@ -8688,7 +8804,7 @@
       <c r="P291" s="8"/>
       <c r="Q291" s="8"/>
       <c r="R291" s="9"/>
-      <c r="S291" s="46"/>
+      <c r="S291" s="34"/>
       <c r="T291" s="31"/>
     </row>
     <row r="292" spans="6:20" x14ac:dyDescent="0.25">
@@ -8705,7 +8821,7 @@
       <c r="P292" s="8"/>
       <c r="Q292" s="8"/>
       <c r="R292" s="9"/>
-      <c r="S292" s="46"/>
+      <c r="S292" s="34"/>
       <c r="T292" s="31"/>
     </row>
     <row r="293" spans="6:20" x14ac:dyDescent="0.25">
@@ -8722,7 +8838,7 @@
       <c r="P293" s="8"/>
       <c r="Q293" s="8"/>
       <c r="R293" s="9"/>
-      <c r="S293" s="46"/>
+      <c r="S293" s="34"/>
       <c r="T293" s="31"/>
     </row>
     <row r="294" spans="6:20" x14ac:dyDescent="0.25">
@@ -8739,7 +8855,7 @@
       <c r="P294" s="8"/>
       <c r="Q294" s="8"/>
       <c r="R294" s="9"/>
-      <c r="S294" s="46"/>
+      <c r="S294" s="34"/>
       <c r="T294" s="31"/>
     </row>
     <row r="295" spans="6:20" x14ac:dyDescent="0.25">
@@ -8756,7 +8872,7 @@
       <c r="P295" s="8"/>
       <c r="Q295" s="8"/>
       <c r="R295" s="9"/>
-      <c r="S295" s="46"/>
+      <c r="S295" s="34"/>
       <c r="T295" s="31"/>
     </row>
     <row r="296" spans="6:20" x14ac:dyDescent="0.25">
@@ -8773,7 +8889,7 @@
       <c r="P296" s="8"/>
       <c r="Q296" s="8"/>
       <c r="R296" s="9"/>
-      <c r="S296" s="46"/>
+      <c r="S296" s="34"/>
       <c r="T296" s="31"/>
     </row>
     <row r="297" spans="6:20" x14ac:dyDescent="0.25">
@@ -8790,7 +8906,7 @@
       <c r="P297" s="8"/>
       <c r="Q297" s="8"/>
       <c r="R297" s="9"/>
-      <c r="S297" s="46"/>
+      <c r="S297" s="34"/>
       <c r="T297" s="31"/>
     </row>
     <row r="298" spans="6:20" x14ac:dyDescent="0.25">
@@ -8807,7 +8923,7 @@
       <c r="P298" s="8"/>
       <c r="Q298" s="8"/>
       <c r="R298" s="9"/>
-      <c r="S298" s="46"/>
+      <c r="S298" s="34"/>
       <c r="T298" s="31"/>
     </row>
     <row r="299" spans="6:20" x14ac:dyDescent="0.25">
@@ -8824,7 +8940,7 @@
       <c r="P299" s="8"/>
       <c r="Q299" s="8"/>
       <c r="R299" s="9"/>
-      <c r="S299" s="46"/>
+      <c r="S299" s="34"/>
       <c r="T299" s="31"/>
     </row>
     <row r="300" spans="6:20" x14ac:dyDescent="0.25">
@@ -8841,7 +8957,7 @@
       <c r="P300" s="8"/>
       <c r="Q300" s="8"/>
       <c r="R300" s="9"/>
-      <c r="S300" s="46"/>
+      <c r="S300" s="34"/>
       <c r="T300" s="31"/>
     </row>
     <row r="301" spans="6:20" x14ac:dyDescent="0.25">
@@ -8858,7 +8974,7 @@
       <c r="P301" s="8"/>
       <c r="Q301" s="8"/>
       <c r="R301" s="9"/>
-      <c r="S301" s="46"/>
+      <c r="S301" s="34"/>
       <c r="T301" s="31"/>
     </row>
     <row r="302" spans="6:20" x14ac:dyDescent="0.25">
@@ -8875,7 +8991,7 @@
       <c r="P302" s="8"/>
       <c r="Q302" s="8"/>
       <c r="R302" s="9"/>
-      <c r="S302" s="46"/>
+      <c r="S302" s="34"/>
       <c r="T302" s="31"/>
     </row>
     <row r="303" spans="6:20" x14ac:dyDescent="0.25">
@@ -8892,7 +9008,7 @@
       <c r="P303" s="8"/>
       <c r="Q303" s="8"/>
       <c r="R303" s="9"/>
-      <c r="S303" s="46"/>
+      <c r="S303" s="34"/>
       <c r="T303" s="31"/>
     </row>
     <row r="304" spans="6:20" x14ac:dyDescent="0.25">
@@ -8909,7 +9025,7 @@
       <c r="P304" s="8"/>
       <c r="Q304" s="8"/>
       <c r="R304" s="9"/>
-      <c r="S304" s="46"/>
+      <c r="S304" s="34"/>
       <c r="T304" s="31"/>
     </row>
     <row r="305" spans="6:20" x14ac:dyDescent="0.25">
@@ -8926,7 +9042,7 @@
       <c r="P305" s="8"/>
       <c r="Q305" s="8"/>
       <c r="R305" s="9"/>
-      <c r="S305" s="46"/>
+      <c r="S305" s="34"/>
       <c r="T305" s="31"/>
     </row>
     <row r="306" spans="6:20" x14ac:dyDescent="0.25">
@@ -8943,7 +9059,7 @@
       <c r="P306" s="8"/>
       <c r="Q306" s="8"/>
       <c r="R306" s="9"/>
-      <c r="S306" s="46"/>
+      <c r="S306" s="34"/>
       <c r="T306" s="31"/>
     </row>
     <row r="307" spans="6:20" x14ac:dyDescent="0.25">
@@ -8960,7 +9076,7 @@
       <c r="P307" s="8"/>
       <c r="Q307" s="8"/>
       <c r="R307" s="9"/>
-      <c r="S307" s="46"/>
+      <c r="S307" s="34"/>
       <c r="T307" s="31"/>
     </row>
     <row r="308" spans="6:20" x14ac:dyDescent="0.25">
@@ -8977,7 +9093,7 @@
       <c r="P308" s="8"/>
       <c r="Q308" s="8"/>
       <c r="R308" s="9"/>
-      <c r="S308" s="46"/>
+      <c r="S308" s="34"/>
       <c r="T308" s="31"/>
     </row>
     <row r="309" spans="6:20" x14ac:dyDescent="0.25">
@@ -8994,7 +9110,7 @@
       <c r="P309" s="8"/>
       <c r="Q309" s="8"/>
       <c r="R309" s="9"/>
-      <c r="S309" s="46"/>
+      <c r="S309" s="34"/>
       <c r="T309" s="31"/>
     </row>
     <row r="310" spans="6:20" x14ac:dyDescent="0.25">
@@ -9011,7 +9127,7 @@
       <c r="P310" s="8"/>
       <c r="Q310" s="8"/>
       <c r="R310" s="9"/>
-      <c r="S310" s="46"/>
+      <c r="S310" s="34"/>
       <c r="T310" s="31"/>
     </row>
     <row r="311" spans="6:20" x14ac:dyDescent="0.25">
@@ -9028,7 +9144,7 @@
       <c r="P311" s="8"/>
       <c r="Q311" s="8"/>
       <c r="R311" s="9"/>
-      <c r="S311" s="46"/>
+      <c r="S311" s="34"/>
       <c r="T311" s="31"/>
     </row>
     <row r="312" spans="6:20" x14ac:dyDescent="0.25">
@@ -9045,7 +9161,7 @@
       <c r="P312" s="8"/>
       <c r="Q312" s="8"/>
       <c r="R312" s="9"/>
-      <c r="S312" s="46"/>
+      <c r="S312" s="34"/>
       <c r="T312" s="31"/>
     </row>
     <row r="313" spans="6:20" x14ac:dyDescent="0.25">
@@ -9062,7 +9178,7 @@
       <c r="P313" s="8"/>
       <c r="Q313" s="8"/>
       <c r="R313" s="9"/>
-      <c r="S313" s="46"/>
+      <c r="S313" s="34"/>
       <c r="T313" s="31"/>
     </row>
     <row r="314" spans="6:20" x14ac:dyDescent="0.25">
@@ -9079,7 +9195,7 @@
       <c r="P314" s="8"/>
       <c r="Q314" s="8"/>
       <c r="R314" s="9"/>
-      <c r="S314" s="46"/>
+      <c r="S314" s="34"/>
       <c r="T314" s="31"/>
     </row>
     <row r="315" spans="6:20" x14ac:dyDescent="0.25">
@@ -9096,7 +9212,7 @@
       <c r="P315" s="8"/>
       <c r="Q315" s="8"/>
       <c r="R315" s="9"/>
-      <c r="S315" s="46"/>
+      <c r="S315" s="34"/>
       <c r="T315" s="31"/>
     </row>
     <row r="316" spans="6:20" x14ac:dyDescent="0.25">
@@ -9113,7 +9229,7 @@
       <c r="P316" s="8"/>
       <c r="Q316" s="8"/>
       <c r="R316" s="9"/>
-      <c r="S316" s="46"/>
+      <c r="S316" s="34"/>
       <c r="T316" s="31"/>
     </row>
     <row r="317" spans="6:20" x14ac:dyDescent="0.25">
@@ -9130,7 +9246,7 @@
       <c r="P317" s="8"/>
       <c r="Q317" s="8"/>
       <c r="R317" s="9"/>
-      <c r="S317" s="46"/>
+      <c r="S317" s="34"/>
       <c r="T317" s="31"/>
     </row>
     <row r="318" spans="6:20" x14ac:dyDescent="0.25">
@@ -9147,7 +9263,7 @@
       <c r="P318" s="8"/>
       <c r="Q318" s="8"/>
       <c r="R318" s="9"/>
-      <c r="S318" s="46"/>
+      <c r="S318" s="34"/>
       <c r="T318" s="31"/>
     </row>
     <row r="319" spans="6:20" x14ac:dyDescent="0.25">
@@ -9164,7 +9280,7 @@
       <c r="P319" s="8"/>
       <c r="Q319" s="8"/>
       <c r="R319" s="9"/>
-      <c r="S319" s="46"/>
+      <c r="S319" s="34"/>
       <c r="T319" s="31"/>
     </row>
     <row r="320" spans="6:20" x14ac:dyDescent="0.25">
@@ -9181,7 +9297,7 @@
       <c r="P320" s="8"/>
       <c r="Q320" s="8"/>
       <c r="R320" s="9"/>
-      <c r="S320" s="46"/>
+      <c r="S320" s="34"/>
       <c r="T320" s="31"/>
     </row>
     <row r="321" spans="6:20" x14ac:dyDescent="0.25">
@@ -9198,7 +9314,7 @@
       <c r="P321" s="8"/>
       <c r="Q321" s="8"/>
       <c r="R321" s="9"/>
-      <c r="S321" s="46"/>
+      <c r="S321" s="34"/>
       <c r="T321" s="31"/>
     </row>
     <row r="322" spans="6:20" x14ac:dyDescent="0.25">
@@ -9215,7 +9331,7 @@
       <c r="P322" s="8"/>
       <c r="Q322" s="8"/>
       <c r="R322" s="9"/>
-      <c r="S322" s="46"/>
+      <c r="S322" s="34"/>
       <c r="T322" s="31"/>
     </row>
     <row r="323" spans="6:20" x14ac:dyDescent="0.25">
@@ -9232,7 +9348,7 @@
       <c r="P323" s="8"/>
       <c r="Q323" s="8"/>
       <c r="R323" s="9"/>
-      <c r="S323" s="46"/>
+      <c r="S323" s="34"/>
       <c r="T323" s="31"/>
     </row>
     <row r="324" spans="6:20" x14ac:dyDescent="0.25">
@@ -9249,7 +9365,7 @@
       <c r="P324" s="8"/>
       <c r="Q324" s="8"/>
       <c r="R324" s="9"/>
-      <c r="S324" s="46"/>
+      <c r="S324" s="34"/>
       <c r="T324" s="31"/>
     </row>
     <row r="325" spans="6:20" x14ac:dyDescent="0.25">
@@ -9266,7 +9382,7 @@
       <c r="P325" s="8"/>
       <c r="Q325" s="8"/>
       <c r="R325" s="9"/>
-      <c r="S325" s="46"/>
+      <c r="S325" s="34"/>
       <c r="T325" s="31"/>
     </row>
     <row r="326" spans="6:20" x14ac:dyDescent="0.25">
@@ -9283,7 +9399,7 @@
       <c r="P326" s="8"/>
       <c r="Q326" s="8"/>
       <c r="R326" s="9"/>
-      <c r="S326" s="46"/>
+      <c r="S326" s="34"/>
       <c r="T326" s="31"/>
     </row>
     <row r="327" spans="6:20" x14ac:dyDescent="0.25">
@@ -9300,7 +9416,7 @@
       <c r="P327" s="8"/>
       <c r="Q327" s="8"/>
       <c r="R327" s="9"/>
-      <c r="S327" s="46"/>
+      <c r="S327" s="34"/>
       <c r="T327" s="31"/>
     </row>
     <row r="328" spans="6:20" x14ac:dyDescent="0.25">
@@ -9317,7 +9433,7 @@
       <c r="P328" s="8"/>
       <c r="Q328" s="8"/>
       <c r="R328" s="9"/>
-      <c r="S328" s="46"/>
+      <c r="S328" s="34"/>
       <c r="T328" s="31"/>
     </row>
     <row r="329" spans="6:20" x14ac:dyDescent="0.25">
@@ -9334,7 +9450,7 @@
       <c r="P329" s="8"/>
       <c r="Q329" s="8"/>
       <c r="R329" s="9"/>
-      <c r="S329" s="46"/>
+      <c r="S329" s="34"/>
       <c r="T329" s="31"/>
     </row>
     <row r="330" spans="6:20" x14ac:dyDescent="0.25">
@@ -9351,7 +9467,7 @@
       <c r="P330" s="8"/>
       <c r="Q330" s="8"/>
       <c r="R330" s="9"/>
-      <c r="S330" s="46"/>
+      <c r="S330" s="34"/>
       <c r="T330" s="31"/>
     </row>
     <row r="331" spans="6:20" x14ac:dyDescent="0.25">
@@ -9368,7 +9484,7 @@
       <c r="P331" s="8"/>
       <c r="Q331" s="8"/>
       <c r="R331" s="9"/>
-      <c r="S331" s="46"/>
+      <c r="S331" s="34"/>
       <c r="T331" s="31"/>
     </row>
     <row r="332" spans="6:20" x14ac:dyDescent="0.25">
@@ -9385,7 +9501,7 @@
       <c r="P332" s="8"/>
       <c r="Q332" s="8"/>
       <c r="R332" s="9"/>
-      <c r="S332" s="46"/>
+      <c r="S332" s="34"/>
       <c r="T332" s="31"/>
     </row>
     <row r="333" spans="6:20" x14ac:dyDescent="0.25">
@@ -9402,7 +9518,7 @@
       <c r="P333" s="8"/>
       <c r="Q333" s="8"/>
       <c r="R333" s="9"/>
-      <c r="S333" s="46"/>
+      <c r="S333" s="34"/>
       <c r="T333" s="31"/>
     </row>
     <row r="334" spans="6:20" x14ac:dyDescent="0.25">
@@ -9419,7 +9535,7 @@
       <c r="P334" s="8"/>
       <c r="Q334" s="8"/>
       <c r="R334" s="9"/>
-      <c r="S334" s="46"/>
+      <c r="S334" s="34"/>
       <c r="T334" s="31"/>
     </row>
     <row r="335" spans="6:20" x14ac:dyDescent="0.25">
@@ -9436,7 +9552,7 @@
       <c r="P335" s="8"/>
       <c r="Q335" s="8"/>
       <c r="R335" s="9"/>
-      <c r="S335" s="46"/>
+      <c r="S335" s="34"/>
       <c r="T335" s="31"/>
     </row>
     <row r="336" spans="6:20" x14ac:dyDescent="0.25">
@@ -9453,7 +9569,7 @@
       <c r="P336" s="8"/>
       <c r="Q336" s="8"/>
       <c r="R336" s="9"/>
-      <c r="S336" s="46"/>
+      <c r="S336" s="34"/>
       <c r="T336" s="31"/>
     </row>
     <row r="337" spans="6:20" x14ac:dyDescent="0.25">
@@ -9470,7 +9586,7 @@
       <c r="P337" s="8"/>
       <c r="Q337" s="8"/>
       <c r="R337" s="9"/>
-      <c r="S337" s="46"/>
+      <c r="S337" s="34"/>
       <c r="T337" s="31"/>
     </row>
     <row r="338" spans="6:20" x14ac:dyDescent="0.25">
@@ -9487,7 +9603,7 @@
       <c r="P338" s="8"/>
       <c r="Q338" s="8"/>
       <c r="R338" s="9"/>
-      <c r="S338" s="46"/>
+      <c r="S338" s="34"/>
       <c r="T338" s="31"/>
     </row>
     <row r="339" spans="6:20" x14ac:dyDescent="0.25">
@@ -9504,7 +9620,7 @@
       <c r="P339" s="8"/>
       <c r="Q339" s="8"/>
       <c r="R339" s="9"/>
-      <c r="S339" s="46"/>
+      <c r="S339" s="34"/>
       <c r="T339" s="31"/>
     </row>
     <row r="340" spans="6:20" x14ac:dyDescent="0.25">
@@ -9521,7 +9637,7 @@
       <c r="P340" s="8"/>
       <c r="Q340" s="8"/>
       <c r="R340" s="9"/>
-      <c r="S340" s="46"/>
+      <c r="S340" s="34"/>
       <c r="T340" s="31"/>
     </row>
     <row r="341" spans="6:20" x14ac:dyDescent="0.25">
@@ -9538,7 +9654,7 @@
       <c r="P341" s="8"/>
       <c r="Q341" s="8"/>
       <c r="R341" s="9"/>
-      <c r="S341" s="46"/>
+      <c r="S341" s="34"/>
       <c r="T341" s="31"/>
     </row>
     <row r="342" spans="6:20" x14ac:dyDescent="0.25">
@@ -9555,7 +9671,7 @@
       <c r="P342" s="8"/>
       <c r="Q342" s="8"/>
       <c r="R342" s="9"/>
-      <c r="S342" s="46"/>
+      <c r="S342" s="34"/>
       <c r="T342" s="31"/>
     </row>
     <row r="343" spans="6:20" x14ac:dyDescent="0.25">
@@ -9572,7 +9688,7 @@
       <c r="P343" s="8"/>
       <c r="Q343" s="8"/>
       <c r="R343" s="9"/>
-      <c r="S343" s="46"/>
+      <c r="S343" s="34"/>
       <c r="T343" s="31"/>
     </row>
     <row r="344" spans="6:20" x14ac:dyDescent="0.25">
@@ -9589,7 +9705,7 @@
       <c r="P344" s="8"/>
       <c r="Q344" s="8"/>
       <c r="R344" s="9"/>
-      <c r="S344" s="46"/>
+      <c r="S344" s="34"/>
       <c r="T344" s="31"/>
     </row>
     <row r="345" spans="6:20" x14ac:dyDescent="0.25">
@@ -9606,7 +9722,7 @@
       <c r="P345" s="8"/>
       <c r="Q345" s="8"/>
       <c r="R345" s="9"/>
-      <c r="S345" s="46"/>
+      <c r="S345" s="34"/>
       <c r="T345" s="31"/>
     </row>
     <row r="346" spans="6:20" x14ac:dyDescent="0.25">
@@ -9623,7 +9739,7 @@
       <c r="P346" s="8"/>
       <c r="Q346" s="8"/>
       <c r="R346" s="9"/>
-      <c r="S346" s="46"/>
+      <c r="S346" s="34"/>
       <c r="T346" s="31"/>
     </row>
     <row r="347" spans="6:20" x14ac:dyDescent="0.25">
@@ -9640,7 +9756,7 @@
       <c r="P347" s="8"/>
       <c r="Q347" s="8"/>
       <c r="R347" s="9"/>
-      <c r="S347" s="46"/>
+      <c r="S347" s="34"/>
       <c r="T347" s="31"/>
     </row>
     <row r="348" spans="6:20" x14ac:dyDescent="0.25">
@@ -9657,7 +9773,7 @@
       <c r="P348" s="8"/>
       <c r="Q348" s="8"/>
       <c r="R348" s="9"/>
-      <c r="S348" s="46"/>
+      <c r="S348" s="34"/>
       <c r="T348" s="31"/>
     </row>
     <row r="349" spans="6:20" x14ac:dyDescent="0.25">
@@ -9674,7 +9790,7 @@
       <c r="P349" s="8"/>
       <c r="Q349" s="8"/>
       <c r="R349" s="9"/>
-      <c r="S349" s="46"/>
+      <c r="S349" s="34"/>
       <c r="T349" s="31"/>
     </row>
     <row r="350" spans="6:20" x14ac:dyDescent="0.25">
@@ -9691,7 +9807,7 @@
       <c r="P350" s="8"/>
       <c r="Q350" s="8"/>
       <c r="R350" s="9"/>
-      <c r="S350" s="46"/>
+      <c r="S350" s="34"/>
       <c r="T350" s="31"/>
     </row>
     <row r="351" spans="6:20" x14ac:dyDescent="0.25">
@@ -9708,7 +9824,7 @@
       <c r="P351" s="8"/>
       <c r="Q351" s="8"/>
       <c r="R351" s="9"/>
-      <c r="S351" s="46"/>
+      <c r="S351" s="34"/>
       <c r="T351" s="31"/>
     </row>
     <row r="352" spans="6:20" x14ac:dyDescent="0.25">
@@ -9725,7 +9841,7 @@
       <c r="P352" s="8"/>
       <c r="Q352" s="8"/>
       <c r="R352" s="9"/>
-      <c r="S352" s="46"/>
+      <c r="S352" s="34"/>
       <c r="T352" s="31"/>
     </row>
     <row r="353" spans="6:20" x14ac:dyDescent="0.25">
@@ -9742,7 +9858,7 @@
       <c r="P353" s="8"/>
       <c r="Q353" s="8"/>
       <c r="R353" s="9"/>
-      <c r="S353" s="46"/>
+      <c r="S353" s="34"/>
       <c r="T353" s="31"/>
     </row>
     <row r="354" spans="6:20" x14ac:dyDescent="0.25">
@@ -9759,7 +9875,7 @@
       <c r="P354" s="8"/>
       <c r="Q354" s="8"/>
       <c r="R354" s="9"/>
-      <c r="S354" s="46"/>
+      <c r="S354" s="34"/>
       <c r="T354" s="31"/>
     </row>
     <row r="355" spans="6:20" x14ac:dyDescent="0.25">
@@ -9776,7 +9892,7 @@
       <c r="P355" s="8"/>
       <c r="Q355" s="8"/>
       <c r="R355" s="9"/>
-      <c r="S355" s="46"/>
+      <c r="S355" s="34"/>
       <c r="T355" s="31"/>
     </row>
     <row r="356" spans="6:20" x14ac:dyDescent="0.25">
@@ -9793,7 +9909,7 @@
       <c r="P356" s="8"/>
       <c r="Q356" s="8"/>
       <c r="R356" s="9"/>
-      <c r="S356" s="46"/>
+      <c r="S356" s="34"/>
       <c r="T356" s="31"/>
     </row>
     <row r="357" spans="6:20" x14ac:dyDescent="0.25">
@@ -9810,7 +9926,7 @@
       <c r="P357" s="8"/>
       <c r="Q357" s="8"/>
       <c r="R357" s="9"/>
-      <c r="S357" s="46"/>
+      <c r="S357" s="34"/>
       <c r="T357" s="31"/>
     </row>
     <row r="358" spans="6:20" x14ac:dyDescent="0.25">
@@ -9827,7 +9943,7 @@
       <c r="P358" s="8"/>
       <c r="Q358" s="8"/>
       <c r="R358" s="9"/>
-      <c r="S358" s="46"/>
+      <c r="S358" s="34"/>
       <c r="T358" s="31"/>
     </row>
     <row r="359" spans="6:20" x14ac:dyDescent="0.25">
@@ -9844,7 +9960,7 @@
       <c r="P359" s="8"/>
       <c r="Q359" s="8"/>
       <c r="R359" s="9"/>
-      <c r="S359" s="46"/>
+      <c r="S359" s="34"/>
       <c r="T359" s="31"/>
     </row>
     <row r="360" spans="6:20" x14ac:dyDescent="0.25">
@@ -9861,7 +9977,7 @@
       <c r="P360" s="8"/>
       <c r="Q360" s="8"/>
       <c r="R360" s="9"/>
-      <c r="S360" s="46"/>
+      <c r="S360" s="34"/>
       <c r="T360" s="31"/>
     </row>
     <row r="361" spans="6:20" x14ac:dyDescent="0.25">
@@ -9878,7 +9994,7 @@
       <c r="P361" s="8"/>
       <c r="Q361" s="8"/>
       <c r="R361" s="9"/>
-      <c r="S361" s="46"/>
+      <c r="S361" s="34"/>
       <c r="T361" s="31"/>
     </row>
     <row r="362" spans="6:20" x14ac:dyDescent="0.25">
@@ -9895,7 +10011,7 @@
       <c r="P362" s="8"/>
       <c r="Q362" s="8"/>
       <c r="R362" s="9"/>
-      <c r="S362" s="46"/>
+      <c r="S362" s="34"/>
       <c r="T362" s="31"/>
     </row>
     <row r="363" spans="6:20" x14ac:dyDescent="0.25">
@@ -9912,7 +10028,7 @@
       <c r="P363" s="8"/>
       <c r="Q363" s="8"/>
       <c r="R363" s="9"/>
-      <c r="S363" s="46"/>
+      <c r="S363" s="34"/>
       <c r="T363" s="31"/>
     </row>
     <row r="364" spans="6:20" x14ac:dyDescent="0.25">
@@ -9929,7 +10045,7 @@
       <c r="P364" s="8"/>
       <c r="Q364" s="8"/>
       <c r="R364" s="9"/>
-      <c r="S364" s="46"/>
+      <c r="S364" s="34"/>
       <c r="T364" s="31"/>
     </row>
     <row r="365" spans="6:20" x14ac:dyDescent="0.25">
@@ -9946,7 +10062,7 @@
       <c r="P365" s="8"/>
       <c r="Q365" s="8"/>
       <c r="R365" s="9"/>
-      <c r="S365" s="46"/>
+      <c r="S365" s="34"/>
       <c r="T365" s="31"/>
     </row>
     <row r="366" spans="6:20" x14ac:dyDescent="0.25">
@@ -9963,7 +10079,7 @@
       <c r="P366" s="8"/>
       <c r="Q366" s="8"/>
       <c r="R366" s="9"/>
-      <c r="S366" s="46"/>
+      <c r="S366" s="34"/>
       <c r="T366" s="31"/>
     </row>
     <row r="367" spans="6:20" x14ac:dyDescent="0.25">
@@ -9980,7 +10096,7 @@
       <c r="P367" s="8"/>
       <c r="Q367" s="8"/>
       <c r="R367" s="9"/>
-      <c r="S367" s="46"/>
+      <c r="S367" s="34"/>
       <c r="T367" s="31"/>
     </row>
     <row r="368" spans="6:20" x14ac:dyDescent="0.25">
@@ -9997,7 +10113,7 @@
       <c r="P368" s="8"/>
       <c r="Q368" s="8"/>
       <c r="R368" s="9"/>
-      <c r="S368" s="46"/>
+      <c r="S368" s="34"/>
       <c r="T368" s="31"/>
     </row>
     <row r="369" spans="6:20" x14ac:dyDescent="0.25">
@@ -10014,7 +10130,7 @@
       <c r="P369" s="8"/>
       <c r="Q369" s="8"/>
       <c r="R369" s="9"/>
-      <c r="S369" s="46"/>
+      <c r="S369" s="34"/>
       <c r="T369" s="31"/>
     </row>
     <row r="370" spans="6:20" x14ac:dyDescent="0.25">
@@ -10031,7 +10147,7 @@
       <c r="P370" s="8"/>
       <c r="Q370" s="8"/>
       <c r="R370" s="9"/>
-      <c r="S370" s="46"/>
+      <c r="S370" s="34"/>
       <c r="T370" s="31"/>
     </row>
     <row r="371" spans="6:20" x14ac:dyDescent="0.25">
@@ -10048,7 +10164,7 @@
       <c r="P371" s="8"/>
       <c r="Q371" s="8"/>
       <c r="R371" s="9"/>
-      <c r="S371" s="46"/>
+      <c r="S371" s="34"/>
       <c r="T371" s="31"/>
     </row>
     <row r="372" spans="6:20" x14ac:dyDescent="0.25">
@@ -10065,7 +10181,7 @@
       <c r="P372" s="8"/>
       <c r="Q372" s="8"/>
       <c r="R372" s="9"/>
-      <c r="S372" s="46"/>
+      <c r="S372" s="34"/>
       <c r="T372" s="31"/>
     </row>
     <row r="373" spans="6:20" x14ac:dyDescent="0.25">
@@ -10082,7 +10198,7 @@
       <c r="P373" s="8"/>
       <c r="Q373" s="8"/>
       <c r="R373" s="9"/>
-      <c r="S373" s="46"/>
+      <c r="S373" s="34"/>
       <c r="T373" s="31"/>
     </row>
     <row r="374" spans="6:20" x14ac:dyDescent="0.25">
@@ -10099,7 +10215,7 @@
       <c r="P374" s="8"/>
       <c r="Q374" s="8"/>
       <c r="R374" s="9"/>
-      <c r="S374" s="46"/>
+      <c r="S374" s="34"/>
       <c r="T374" s="31"/>
     </row>
     <row r="375" spans="6:20" x14ac:dyDescent="0.25">
@@ -10116,7 +10232,7 @@
       <c r="P375" s="8"/>
       <c r="Q375" s="8"/>
       <c r="R375" s="9"/>
-      <c r="S375" s="46"/>
+      <c r="S375" s="34"/>
       <c r="T375" s="31"/>
     </row>
     <row r="376" spans="6:20" x14ac:dyDescent="0.25">
@@ -10133,7 +10249,7 @@
       <c r="P376" s="8"/>
       <c r="Q376" s="8"/>
       <c r="R376" s="9"/>
-      <c r="S376" s="46"/>
+      <c r="S376" s="34"/>
       <c r="T376" s="31"/>
     </row>
     <row r="377" spans="6:20" x14ac:dyDescent="0.25">
@@ -10150,7 +10266,7 @@
       <c r="P377" s="8"/>
       <c r="Q377" s="8"/>
       <c r="R377" s="9"/>
-      <c r="S377" s="46"/>
+      <c r="S377" s="34"/>
       <c r="T377" s="31"/>
     </row>
     <row r="378" spans="6:20" x14ac:dyDescent="0.25">
@@ -10167,7 +10283,7 @@
       <c r="P378" s="8"/>
       <c r="Q378" s="8"/>
       <c r="R378" s="9"/>
-      <c r="S378" s="46"/>
+      <c r="S378" s="34"/>
       <c r="T378" s="31"/>
     </row>
     <row r="379" spans="6:20" x14ac:dyDescent="0.25">
@@ -10184,7 +10300,7 @@
       <c r="P379" s="8"/>
       <c r="Q379" s="8"/>
       <c r="R379" s="9"/>
-      <c r="S379" s="46"/>
+      <c r="S379" s="34"/>
       <c r="T379" s="31"/>
     </row>
     <row r="380" spans="6:20" x14ac:dyDescent="0.25">
@@ -10201,7 +10317,7 @@
       <c r="P380" s="8"/>
       <c r="Q380" s="8"/>
       <c r="R380" s="9"/>
-      <c r="S380" s="46"/>
+      <c r="S380" s="34"/>
       <c r="T380" s="31"/>
     </row>
     <row r="381" spans="6:20" x14ac:dyDescent="0.25">
@@ -10218,7 +10334,7 @@
       <c r="P381" s="8"/>
       <c r="Q381" s="8"/>
       <c r="R381" s="9"/>
-      <c r="S381" s="46"/>
+      <c r="S381" s="34"/>
       <c r="T381" s="31"/>
     </row>
     <row r="382" spans="6:20" x14ac:dyDescent="0.25">
@@ -10235,7 +10351,7 @@
       <c r="P382" s="8"/>
       <c r="Q382" s="8"/>
       <c r="R382" s="9"/>
-      <c r="S382" s="46"/>
+      <c r="S382" s="34"/>
       <c r="T382" s="31"/>
     </row>
     <row r="383" spans="6:20" x14ac:dyDescent="0.25">
@@ -10252,7 +10368,7 @@
       <c r="P383" s="8"/>
       <c r="Q383" s="8"/>
       <c r="R383" s="9"/>
-      <c r="S383" s="46"/>
+      <c r="S383" s="34"/>
       <c r="T383" s="31"/>
     </row>
     <row r="384" spans="6:20" x14ac:dyDescent="0.25">
@@ -10269,7 +10385,7 @@
       <c r="P384" s="8"/>
       <c r="Q384" s="8"/>
       <c r="R384" s="9"/>
-      <c r="S384" s="46"/>
+      <c r="S384" s="34"/>
       <c r="T384" s="31"/>
     </row>
     <row r="385" spans="6:20" x14ac:dyDescent="0.25">
@@ -10286,7 +10402,7 @@
       <c r="P385" s="8"/>
       <c r="Q385" s="8"/>
       <c r="R385" s="9"/>
-      <c r="S385" s="46"/>
+      <c r="S385" s="34"/>
       <c r="T385" s="31"/>
     </row>
     <row r="386" spans="6:20" x14ac:dyDescent="0.25">
@@ -10303,7 +10419,7 @@
       <c r="P386" s="8"/>
       <c r="Q386" s="8"/>
       <c r="R386" s="9"/>
-      <c r="S386" s="46"/>
+      <c r="S386" s="34"/>
       <c r="T386" s="31"/>
     </row>
     <row r="387" spans="6:20" x14ac:dyDescent="0.25">
@@ -10320,7 +10436,7 @@
       <c r="P387" s="8"/>
       <c r="Q387" s="8"/>
       <c r="R387" s="9"/>
-      <c r="S387" s="46"/>
+      <c r="S387" s="34"/>
       <c r="T387" s="31"/>
     </row>
     <row r="388" spans="6:20" x14ac:dyDescent="0.25">
@@ -10337,7 +10453,7 @@
       <c r="P388" s="8"/>
       <c r="Q388" s="8"/>
       <c r="R388" s="9"/>
-      <c r="S388" s="46"/>
+      <c r="S388" s="34"/>
       <c r="T388" s="31"/>
     </row>
     <row r="389" spans="6:20" x14ac:dyDescent="0.25">
@@ -10354,7 +10470,7 @@
       <c r="P389" s="8"/>
       <c r="Q389" s="8"/>
       <c r="R389" s="9"/>
-      <c r="S389" s="46"/>
+      <c r="S389" s="34"/>
       <c r="T389" s="31"/>
     </row>
     <row r="390" spans="6:20" x14ac:dyDescent="0.25">
@@ -10371,7 +10487,7 @@
       <c r="P390" s="8"/>
       <c r="Q390" s="8"/>
       <c r="R390" s="9"/>
-      <c r="S390" s="46"/>
+      <c r="S390" s="34"/>
       <c r="T390" s="31"/>
     </row>
     <row r="391" spans="6:20" x14ac:dyDescent="0.25">
@@ -10388,7 +10504,7 @@
       <c r="P391" s="8"/>
       <c r="Q391" s="8"/>
       <c r="R391" s="9"/>
-      <c r="S391" s="46"/>
+      <c r="S391" s="34"/>
       <c r="T391" s="31"/>
     </row>
     <row r="392" spans="6:20" x14ac:dyDescent="0.25">
@@ -10405,7 +10521,7 @@
       <c r="P392" s="8"/>
       <c r="Q392" s="8"/>
       <c r="R392" s="9"/>
-      <c r="S392" s="46"/>
+      <c r="S392" s="34"/>
       <c r="T392" s="31"/>
     </row>
     <row r="393" spans="6:20" x14ac:dyDescent="0.25">
@@ -10422,7 +10538,7 @@
       <c r="P393" s="8"/>
       <c r="Q393" s="8"/>
       <c r="R393" s="9"/>
-      <c r="S393" s="46"/>
+      <c r="S393" s="34"/>
       <c r="T393" s="31"/>
     </row>
     <row r="394" spans="6:20" x14ac:dyDescent="0.25">
@@ -10439,7 +10555,7 @@
       <c r="P394" s="8"/>
       <c r="Q394" s="8"/>
       <c r="R394" s="9"/>
-      <c r="S394" s="46"/>
+      <c r="S394" s="34"/>
       <c r="T394" s="31"/>
     </row>
     <row r="395" spans="6:20" x14ac:dyDescent="0.25">
@@ -10456,7 +10572,7 @@
       <c r="P395" s="8"/>
       <c r="Q395" s="8"/>
       <c r="R395" s="9"/>
-      <c r="S395" s="46"/>
+      <c r="S395" s="34"/>
       <c r="T395" s="31"/>
     </row>
     <row r="396" spans="6:20" x14ac:dyDescent="0.25">
@@ -10473,7 +10589,7 @@
       <c r="P396" s="8"/>
       <c r="Q396" s="8"/>
       <c r="R396" s="9"/>
-      <c r="S396" s="46"/>
+      <c r="S396" s="34"/>
       <c r="T396" s="31"/>
     </row>
     <row r="397" spans="6:20" x14ac:dyDescent="0.25">
@@ -10490,7 +10606,7 @@
       <c r="P397" s="8"/>
       <c r="Q397" s="8"/>
       <c r="R397" s="9"/>
-      <c r="S397" s="46"/>
+      <c r="S397" s="34"/>
       <c r="T397" s="31"/>
     </row>
     <row r="398" spans="6:20" x14ac:dyDescent="0.25">
@@ -10507,7 +10623,7 @@
       <c r="P398" s="8"/>
       <c r="Q398" s="8"/>
       <c r="R398" s="9"/>
-      <c r="S398" s="46"/>
+      <c r="S398" s="34"/>
       <c r="T398" s="31"/>
     </row>
     <row r="399" spans="6:20" x14ac:dyDescent="0.25">
@@ -10524,7 +10640,7 @@
       <c r="P399" s="8"/>
       <c r="Q399" s="8"/>
       <c r="R399" s="9"/>
-      <c r="S399" s="46"/>
+      <c r="S399" s="34"/>
       <c r="T399" s="31"/>
     </row>
     <row r="400" spans="6:20" x14ac:dyDescent="0.25">
@@ -10541,7 +10657,7 @@
       <c r="P400" s="8"/>
       <c r="Q400" s="8"/>
       <c r="R400" s="9"/>
-      <c r="S400" s="46"/>
+      <c r="S400" s="34"/>
       <c r="T400" s="31"/>
     </row>
     <row r="401" spans="6:20" x14ac:dyDescent="0.25">
@@ -10558,7 +10674,7 @@
       <c r="P401" s="8"/>
       <c r="Q401" s="8"/>
       <c r="R401" s="9"/>
-      <c r="S401" s="46"/>
+      <c r="S401" s="34"/>
       <c r="T401" s="31"/>
     </row>
     <row r="402" spans="6:20" x14ac:dyDescent="0.25">
@@ -10575,7 +10691,7 @@
       <c r="P402" s="8"/>
       <c r="Q402" s="8"/>
       <c r="R402" s="9"/>
-      <c r="S402" s="46"/>
+      <c r="S402" s="34"/>
       <c r="T402" s="31"/>
     </row>
     <row r="403" spans="6:20" x14ac:dyDescent="0.25">
@@ -10592,7 +10708,7 @@
       <c r="P403" s="8"/>
       <c r="Q403" s="8"/>
       <c r="R403" s="9"/>
-      <c r="S403" s="46"/>
+      <c r="S403" s="34"/>
       <c r="T403" s="31"/>
     </row>
     <row r="404" spans="6:20" x14ac:dyDescent="0.25">
@@ -10609,7 +10725,7 @@
       <c r="P404" s="8"/>
       <c r="Q404" s="8"/>
       <c r="R404" s="9"/>
-      <c r="S404" s="46"/>
+      <c r="S404" s="34"/>
       <c r="T404" s="31"/>
     </row>
     <row r="405" spans="6:20" x14ac:dyDescent="0.25">
@@ -10626,7 +10742,7 @@
       <c r="P405" s="8"/>
       <c r="Q405" s="8"/>
       <c r="R405" s="9"/>
-      <c r="S405" s="46"/>
+      <c r="S405" s="34"/>
       <c r="T405" s="31"/>
     </row>
     <row r="406" spans="6:20" x14ac:dyDescent="0.25">
@@ -10643,7 +10759,7 @@
       <c r="P406" s="8"/>
       <c r="Q406" s="8"/>
       <c r="R406" s="9"/>
-      <c r="S406" s="46"/>
+      <c r="S406" s="34"/>
       <c r="T406" s="31"/>
     </row>
     <row r="407" spans="6:20" x14ac:dyDescent="0.25">
@@ -10660,7 +10776,7 @@
       <c r="P407" s="8"/>
       <c r="Q407" s="8"/>
       <c r="R407" s="9"/>
-      <c r="S407" s="46"/>
+      <c r="S407" s="34"/>
       <c r="T407" s="31"/>
     </row>
     <row r="408" spans="6:20" x14ac:dyDescent="0.25">
@@ -10677,7 +10793,7 @@
       <c r="P408" s="8"/>
       <c r="Q408" s="8"/>
       <c r="R408" s="9"/>
-      <c r="S408" s="46"/>
+      <c r="S408" s="34"/>
       <c r="T408" s="31"/>
     </row>
     <row r="409" spans="6:20" x14ac:dyDescent="0.25">
@@ -10694,7 +10810,7 @@
       <c r="P409" s="8"/>
       <c r="Q409" s="8"/>
       <c r="R409" s="9"/>
-      <c r="S409" s="46"/>
+      <c r="S409" s="34"/>
       <c r="T409" s="31"/>
     </row>
     <row r="410" spans="6:20" x14ac:dyDescent="0.25">
@@ -10711,7 +10827,7 @@
       <c r="P410" s="8"/>
       <c r="Q410" s="8"/>
       <c r="R410" s="9"/>
-      <c r="S410" s="46"/>
+      <c r="S410" s="34"/>
       <c r="T410" s="31"/>
     </row>
     <row r="411" spans="6:20" x14ac:dyDescent="0.25">
@@ -10728,7 +10844,7 @@
       <c r="P411" s="8"/>
       <c r="Q411" s="8"/>
       <c r="R411" s="9"/>
-      <c r="S411" s="46"/>
+      <c r="S411" s="34"/>
       <c r="T411" s="31"/>
     </row>
     <row r="412" spans="6:20" x14ac:dyDescent="0.25">
@@ -10745,7 +10861,7 @@
       <c r="P412" s="8"/>
       <c r="Q412" s="8"/>
       <c r="R412" s="9"/>
-      <c r="S412" s="46"/>
+      <c r="S412" s="34"/>
       <c r="T412" s="31"/>
     </row>
     <row r="413" spans="6:20" x14ac:dyDescent="0.25">
@@ -10762,7 +10878,7 @@
       <c r="P413" s="8"/>
       <c r="Q413" s="8"/>
       <c r="R413" s="9"/>
-      <c r="S413" s="46"/>
+      <c r="S413" s="34"/>
       <c r="T413" s="31"/>
     </row>
     <row r="414" spans="6:20" x14ac:dyDescent="0.25">
@@ -10779,7 +10895,7 @@
       <c r="P414" s="8"/>
       <c r="Q414" s="8"/>
       <c r="R414" s="9"/>
-      <c r="S414" s="46"/>
+      <c r="S414" s="34"/>
       <c r="T414" s="31"/>
     </row>
     <row r="415" spans="6:20" x14ac:dyDescent="0.25">
@@ -10796,7 +10912,7 @@
       <c r="P415" s="8"/>
       <c r="Q415" s="8"/>
       <c r="R415" s="9"/>
-      <c r="S415" s="46"/>
+      <c r="S415" s="34"/>
       <c r="T415" s="31"/>
     </row>
     <row r="416" spans="6:20" x14ac:dyDescent="0.25">
@@ -10813,7 +10929,7 @@
       <c r="P416" s="8"/>
       <c r="Q416" s="8"/>
       <c r="R416" s="9"/>
-      <c r="S416" s="46"/>
+      <c r="S416" s="34"/>
       <c r="T416" s="31"/>
     </row>
     <row r="417" spans="6:20" x14ac:dyDescent="0.25">
@@ -10830,7 +10946,7 @@
       <c r="P417" s="8"/>
       <c r="Q417" s="8"/>
       <c r="R417" s="9"/>
-      <c r="S417" s="46"/>
+      <c r="S417" s="34"/>
       <c r="T417" s="31"/>
     </row>
     <row r="418" spans="6:20" x14ac:dyDescent="0.25">
@@ -10847,7 +10963,7 @@
       <c r="P418" s="8"/>
       <c r="Q418" s="8"/>
       <c r="R418" s="9"/>
-      <c r="S418" s="46"/>
+      <c r="S418" s="34"/>
       <c r="T418" s="31"/>
     </row>
     <row r="419" spans="6:20" x14ac:dyDescent="0.25">
@@ -10864,7 +10980,7 @@
       <c r="P419" s="8"/>
       <c r="Q419" s="8"/>
       <c r="R419" s="9"/>
-      <c r="S419" s="46"/>
+      <c r="S419" s="34"/>
       <c r="T419" s="31"/>
     </row>
     <row r="420" spans="6:20" x14ac:dyDescent="0.25">
@@ -10881,7 +10997,7 @@
       <c r="P420" s="8"/>
       <c r="Q420" s="8"/>
       <c r="R420" s="9"/>
-      <c r="S420" s="46"/>
+      <c r="S420" s="34"/>
       <c r="T420" s="31"/>
     </row>
     <row r="421" spans="6:20" x14ac:dyDescent="0.25">
@@ -10898,7 +11014,7 @@
       <c r="P421" s="8"/>
       <c r="Q421" s="8"/>
       <c r="R421" s="9"/>
-      <c r="S421" s="46"/>
+      <c r="S421" s="34"/>
       <c r="T421" s="31"/>
     </row>
     <row r="422" spans="6:20" x14ac:dyDescent="0.25">
@@ -10915,7 +11031,7 @@
       <c r="P422" s="8"/>
       <c r="Q422" s="8"/>
       <c r="R422" s="9"/>
-      <c r="S422" s="46"/>
+      <c r="S422" s="34"/>
       <c r="T422" s="31"/>
     </row>
     <row r="423" spans="6:20" x14ac:dyDescent="0.25">
@@ -10932,7 +11048,7 @@
       <c r="P423" s="8"/>
       <c r="Q423" s="8"/>
       <c r="R423" s="9"/>
-      <c r="S423" s="46"/>
+      <c r="S423" s="34"/>
       <c r="T423" s="31"/>
     </row>
     <row r="424" spans="6:20" x14ac:dyDescent="0.25">
@@ -10949,7 +11065,7 @@
       <c r="P424" s="8"/>
       <c r="Q424" s="8"/>
       <c r="R424" s="9"/>
-      <c r="S424" s="46"/>
+      <c r="S424" s="34"/>
       <c r="T424" s="31"/>
     </row>
     <row r="425" spans="6:20" x14ac:dyDescent="0.25">
@@ -10966,7 +11082,7 @@
       <c r="P425" s="8"/>
       <c r="Q425" s="8"/>
       <c r="R425" s="9"/>
-      <c r="S425" s="46"/>
+      <c r="S425" s="34"/>
       <c r="T425" s="31"/>
     </row>
     <row r="426" spans="6:20" x14ac:dyDescent="0.25">
@@ -10983,7 +11099,7 @@
       <c r="P426" s="8"/>
       <c r="Q426" s="8"/>
       <c r="R426" s="9"/>
-      <c r="S426" s="46"/>
+      <c r="S426" s="34"/>
       <c r="T426" s="31"/>
     </row>
     <row r="427" spans="6:20" x14ac:dyDescent="0.25">
@@ -11000,7 +11116,7 @@
       <c r="P427" s="8"/>
       <c r="Q427" s="8"/>
       <c r="R427" s="9"/>
-      <c r="S427" s="46"/>
+      <c r="S427" s="34"/>
       <c r="T427" s="31"/>
     </row>
     <row r="428" spans="6:20" x14ac:dyDescent="0.25">
@@ -11017,7 +11133,7 @@
       <c r="P428" s="8"/>
       <c r="Q428" s="8"/>
       <c r="R428" s="9"/>
-      <c r="S428" s="46"/>
+      <c r="S428" s="34"/>
       <c r="T428" s="31"/>
     </row>
     <row r="429" spans="6:20" x14ac:dyDescent="0.25">
@@ -11034,7 +11150,7 @@
       <c r="P429" s="8"/>
       <c r="Q429" s="8"/>
       <c r="R429" s="9"/>
-      <c r="S429" s="46"/>
+      <c r="S429" s="34"/>
       <c r="T429" s="31"/>
     </row>
     <row r="430" spans="6:20" x14ac:dyDescent="0.25">
@@ -11051,7 +11167,7 @@
       <c r="P430" s="8"/>
       <c r="Q430" s="8"/>
       <c r="R430" s="9"/>
-      <c r="S430" s="46"/>
+      <c r="S430" s="34"/>
       <c r="T430" s="31"/>
     </row>
     <row r="431" spans="6:20" x14ac:dyDescent="0.25">
@@ -11068,7 +11184,7 @@
       <c r="P431" s="8"/>
       <c r="Q431" s="8"/>
       <c r="R431" s="9"/>
-      <c r="S431" s="46"/>
+      <c r="S431" s="34"/>
       <c r="T431" s="31"/>
     </row>
     <row r="432" spans="6:20" x14ac:dyDescent="0.25">
@@ -11085,7 +11201,7 @@
       <c r="P432" s="8"/>
       <c r="Q432" s="8"/>
       <c r="R432" s="9"/>
-      <c r="S432" s="46"/>
+      <c r="S432" s="34"/>
       <c r="T432" s="31"/>
     </row>
     <row r="433" spans="6:20" x14ac:dyDescent="0.25">
@@ -11102,7 +11218,7 @@
       <c r="P433" s="8"/>
       <c r="Q433" s="8"/>
       <c r="R433" s="9"/>
-      <c r="S433" s="46"/>
+      <c r="S433" s="34"/>
       <c r="T433" s="31"/>
     </row>
     <row r="434" spans="6:20" x14ac:dyDescent="0.25">
@@ -11119,7 +11235,7 @@
       <c r="P434" s="8"/>
       <c r="Q434" s="8"/>
       <c r="R434" s="9"/>
-      <c r="S434" s="46"/>
+      <c r="S434" s="34"/>
       <c r="T434" s="31"/>
     </row>
     <row r="435" spans="6:20" x14ac:dyDescent="0.25">
@@ -11136,7 +11252,7 @@
       <c r="P435" s="8"/>
       <c r="Q435" s="8"/>
       <c r="R435" s="9"/>
-      <c r="S435" s="46"/>
+      <c r="S435" s="34"/>
       <c r="T435" s="31"/>
     </row>
     <row r="436" spans="6:20" x14ac:dyDescent="0.25">
@@ -11153,7 +11269,7 @@
       <c r="P436" s="8"/>
       <c r="Q436" s="8"/>
       <c r="R436" s="9"/>
-      <c r="S436" s="46"/>
+      <c r="S436" s="34"/>
       <c r="T436" s="31"/>
     </row>
     <row r="437" spans="6:20" x14ac:dyDescent="0.25">
@@ -11170,7 +11286,7 @@
       <c r="P437" s="8"/>
       <c r="Q437" s="8"/>
       <c r="R437" s="9"/>
-      <c r="S437" s="46"/>
+      <c r="S437" s="34"/>
       <c r="T437" s="31"/>
     </row>
     <row r="438" spans="6:20" x14ac:dyDescent="0.25">
@@ -11187,7 +11303,7 @@
       <c r="P438" s="8"/>
       <c r="Q438" s="8"/>
       <c r="R438" s="9"/>
-      <c r="S438" s="46"/>
+      <c r="S438" s="34"/>
       <c r="T438" s="31"/>
     </row>
     <row r="439" spans="6:20" x14ac:dyDescent="0.25">
@@ -11204,7 +11320,7 @@
       <c r="P439" s="8"/>
       <c r="Q439" s="8"/>
       <c r="R439" s="9"/>
-      <c r="S439" s="46"/>
+      <c r="S439" s="34"/>
       <c r="T439" s="31"/>
     </row>
     <row r="440" spans="6:20" x14ac:dyDescent="0.25">
@@ -11221,7 +11337,7 @@
       <c r="P440" s="8"/>
       <c r="Q440" s="8"/>
       <c r="R440" s="9"/>
-      <c r="S440" s="46"/>
+      <c r="S440" s="34"/>
       <c r="T440" s="31"/>
     </row>
     <row r="441" spans="6:20" x14ac:dyDescent="0.25">
@@ -11238,7 +11354,7 @@
       <c r="P441" s="8"/>
       <c r="Q441" s="8"/>
       <c r="R441" s="9"/>
-      <c r="S441" s="46"/>
+      <c r="S441" s="34"/>
       <c r="T441" s="31"/>
     </row>
     <row r="442" spans="6:20" x14ac:dyDescent="0.25">
@@ -11255,7 +11371,7 @@
       <c r="P442" s="8"/>
       <c r="Q442" s="8"/>
       <c r="R442" s="9"/>
-      <c r="S442" s="46"/>
+      <c r="S442" s="34"/>
       <c r="T442" s="31"/>
     </row>
     <row r="443" spans="6:20" x14ac:dyDescent="0.25">
@@ -11272,7 +11388,7 @@
       <c r="P443" s="8"/>
       <c r="Q443" s="8"/>
       <c r="R443" s="9"/>
-      <c r="S443" s="46"/>
+      <c r="S443" s="34"/>
       <c r="T443" s="31"/>
     </row>
     <row r="444" spans="6:20" x14ac:dyDescent="0.25">
@@ -11289,7 +11405,7 @@
       <c r="P444" s="8"/>
       <c r="Q444" s="8"/>
       <c r="R444" s="9"/>
-      <c r="S444" s="46"/>
+      <c r="S444" s="34"/>
       <c r="T444" s="31"/>
     </row>
     <row r="445" spans="6:20" x14ac:dyDescent="0.25">
@@ -11306,7 +11422,7 @@
       <c r="P445" s="8"/>
       <c r="Q445" s="8"/>
       <c r="R445" s="9"/>
-      <c r="S445" s="46"/>
+      <c r="S445" s="34"/>
       <c r="T445" s="31"/>
     </row>
     <row r="446" spans="6:20" x14ac:dyDescent="0.25">
@@ -11323,7 +11439,7 @@
       <c r="P446" s="8"/>
       <c r="Q446" s="8"/>
       <c r="R446" s="9"/>
-      <c r="S446" s="46"/>
+      <c r="S446" s="34"/>
       <c r="T446" s="31"/>
     </row>
     <row r="447" spans="6:20" x14ac:dyDescent="0.25">
@@ -11340,7 +11456,7 @@
       <c r="P447" s="8"/>
       <c r="Q447" s="8"/>
       <c r="R447" s="9"/>
-      <c r="S447" s="46"/>
+      <c r="S447" s="34"/>
       <c r="T447" s="31"/>
     </row>
     <row r="448" spans="6:20" x14ac:dyDescent="0.25">
@@ -11357,7 +11473,7 @@
       <c r="P448" s="8"/>
       <c r="Q448" s="8"/>
       <c r="R448" s="9"/>
-      <c r="S448" s="46"/>
+      <c r="S448" s="34"/>
       <c r="T448" s="31"/>
     </row>
     <row r="449" spans="6:20" x14ac:dyDescent="0.25">
@@ -11374,7 +11490,7 @@
       <c r="P449" s="8"/>
       <c r="Q449" s="8"/>
       <c r="R449" s="9"/>
-      <c r="S449" s="46"/>
+      <c r="S449" s="34"/>
       <c r="T449" s="31"/>
     </row>
     <row r="450" spans="6:20" x14ac:dyDescent="0.25">
@@ -11391,7 +11507,7 @@
       <c r="P450" s="8"/>
       <c r="Q450" s="8"/>
       <c r="R450" s="9"/>
-      <c r="S450" s="46"/>
+      <c r="S450" s="34"/>
       <c r="T450" s="31"/>
     </row>
     <row r="451" spans="6:20" x14ac:dyDescent="0.25">
@@ -11408,7 +11524,7 @@
       <c r="P451" s="8"/>
       <c r="Q451" s="8"/>
       <c r="R451" s="9"/>
-      <c r="S451" s="46"/>
+      <c r="S451" s="34"/>
       <c r="T451" s="31"/>
     </row>
     <row r="452" spans="6:20" x14ac:dyDescent="0.25">
@@ -11425,7 +11541,7 @@
       <c r="P452" s="8"/>
       <c r="Q452" s="8"/>
       <c r="R452" s="9"/>
-      <c r="S452" s="46"/>
+      <c r="S452" s="34"/>
       <c r="T452" s="31"/>
     </row>
     <row r="453" spans="6:20" x14ac:dyDescent="0.25">
@@ -11442,7 +11558,7 @@
       <c r="P453" s="8"/>
       <c r="Q453" s="8"/>
       <c r="R453" s="9"/>
-      <c r="S453" s="46"/>
+      <c r="S453" s="34"/>
       <c r="T453" s="31"/>
     </row>
     <row r="454" spans="6:20" x14ac:dyDescent="0.25">
@@ -11459,7 +11575,7 @@
       <c r="P454" s="8"/>
       <c r="Q454" s="8"/>
       <c r="R454" s="9"/>
-      <c r="S454" s="46"/>
+      <c r="S454" s="34"/>
       <c r="T454" s="31"/>
     </row>
     <row r="455" spans="6:20" x14ac:dyDescent="0.25">
@@ -11476,7 +11592,7 @@
       <c r="P455" s="8"/>
       <c r="Q455" s="8"/>
       <c r="R455" s="9"/>
-      <c r="S455" s="46"/>
+      <c r="S455" s="34"/>
       <c r="T455" s="31"/>
     </row>
     <row r="456" spans="6:20" x14ac:dyDescent="0.25">
@@ -11493,7 +11609,7 @@
       <c r="P456" s="8"/>
       <c r="Q456" s="8"/>
       <c r="R456" s="9"/>
-      <c r="S456" s="46"/>
+      <c r="S456" s="34"/>
       <c r="T456" s="31"/>
     </row>
     <row r="457" spans="6:20" x14ac:dyDescent="0.25">
@@ -11510,7 +11626,7 @@
       <c r="P457" s="8"/>
       <c r="Q457" s="8"/>
       <c r="R457" s="9"/>
-      <c r="S457" s="46"/>
+      <c r="S457" s="34"/>
       <c r="T457" s="31"/>
     </row>
     <row r="458" spans="6:20" x14ac:dyDescent="0.25">
@@ -11527,7 +11643,7 @@
       <c r="P458" s="8"/>
       <c r="Q458" s="8"/>
       <c r="R458" s="9"/>
-      <c r="S458" s="46"/>
+      <c r="S458" s="34"/>
       <c r="T458" s="31"/>
     </row>
     <row r="459" spans="6:20" x14ac:dyDescent="0.25">
@@ -11544,7 +11660,7 @@
       <c r="P459" s="8"/>
       <c r="Q459" s="8"/>
       <c r="R459" s="9"/>
-      <c r="S459" s="46"/>
+      <c r="S459" s="34"/>
       <c r="T459" s="31"/>
     </row>
     <row r="460" spans="6:20" x14ac:dyDescent="0.25">
@@ -11561,7 +11677,7 @@
       <c r="P460" s="8"/>
       <c r="Q460" s="8"/>
       <c r="R460" s="9"/>
-      <c r="S460" s="46"/>
+      <c r="S460" s="34"/>
       <c r="T460" s="31"/>
     </row>
     <row r="461" spans="6:20" x14ac:dyDescent="0.25">
@@ -11578,7 +11694,7 @@
       <c r="P461" s="8"/>
       <c r="Q461" s="8"/>
       <c r="R461" s="9"/>
-      <c r="S461" s="46"/>
+      <c r="S461" s="34"/>
       <c r="T461" s="31"/>
     </row>
     <row r="462" spans="6:20" x14ac:dyDescent="0.25">
@@ -11595,7 +11711,7 @@
       <c r="P462" s="8"/>
       <c r="Q462" s="8"/>
       <c r="R462" s="9"/>
-      <c r="S462" s="46"/>
+      <c r="S462" s="34"/>
       <c r="T462" s="31"/>
     </row>
     <row r="463" spans="6:20" x14ac:dyDescent="0.25">
@@ -11612,7 +11728,7 @@
       <c r="P463" s="8"/>
       <c r="Q463" s="8"/>
       <c r="R463" s="9"/>
-      <c r="S463" s="46"/>
+      <c r="S463" s="34"/>
       <c r="T463" s="31"/>
     </row>
     <row r="464" spans="6:20" x14ac:dyDescent="0.25">
@@ -11629,7 +11745,7 @@
       <c r="P464" s="8"/>
       <c r="Q464" s="8"/>
       <c r="R464" s="9"/>
-      <c r="S464" s="46"/>
+      <c r="S464" s="34"/>
       <c r="T464" s="31"/>
     </row>
     <row r="465" spans="6:20" x14ac:dyDescent="0.25">
@@ -11646,7 +11762,7 @@
       <c r="P465" s="8"/>
       <c r="Q465" s="8"/>
       <c r="R465" s="9"/>
-      <c r="S465" s="46"/>
+      <c r="S465" s="34"/>
       <c r="T465" s="31"/>
     </row>
     <row r="466" spans="6:20" x14ac:dyDescent="0.25">
@@ -11663,7 +11779,7 @@
       <c r="P466" s="8"/>
       <c r="Q466" s="8"/>
       <c r="R466" s="9"/>
-      <c r="S466" s="46"/>
+      <c r="S466" s="34"/>
       <c r="T466" s="31"/>
     </row>
     <row r="467" spans="6:20" x14ac:dyDescent="0.25">
@@ -11680,7 +11796,7 @@
       <c r="P467" s="8"/>
       <c r="Q467" s="8"/>
       <c r="R467" s="9"/>
-      <c r="S467" s="46"/>
+      <c r="S467" s="34"/>
       <c r="T467" s="31"/>
     </row>
     <row r="468" spans="6:20" x14ac:dyDescent="0.25">
@@ -11697,7 +11813,7 @@
       <c r="P468" s="8"/>
       <c r="Q468" s="8"/>
       <c r="R468" s="9"/>
-      <c r="S468" s="46"/>
+      <c r="S468" s="34"/>
       <c r="T468" s="31"/>
     </row>
     <row r="469" spans="6:20" x14ac:dyDescent="0.25">
@@ -11714,7 +11830,7 @@
       <c r="P469" s="8"/>
       <c r="Q469" s="8"/>
       <c r="R469" s="9"/>
-      <c r="S469" s="46"/>
+      <c r="S469" s="34"/>
       <c r="T469" s="31"/>
     </row>
     <row r="470" spans="6:20" x14ac:dyDescent="0.25">
@@ -11731,7 +11847,7 @@
       <c r="P470" s="8"/>
       <c r="Q470" s="8"/>
       <c r="R470" s="9"/>
-      <c r="S470" s="46"/>
+      <c r="S470" s="34"/>
       <c r="T470" s="31"/>
     </row>
     <row r="471" spans="6:20" x14ac:dyDescent="0.25">
@@ -11748,7 +11864,7 @@
       <c r="P471" s="8"/>
       <c r="Q471" s="8"/>
       <c r="R471" s="9"/>
-      <c r="S471" s="46"/>
+      <c r="S471" s="34"/>
       <c r="T471" s="31"/>
     </row>
     <row r="472" spans="6:20" x14ac:dyDescent="0.25">
@@ -11765,7 +11881,7 @@
       <c r="P472" s="8"/>
       <c r="Q472" s="8"/>
       <c r="R472" s="9"/>
-      <c r="S472" s="46"/>
+      <c r="S472" s="34"/>
       <c r="T472" s="31"/>
     </row>
     <row r="473" spans="6:20" x14ac:dyDescent="0.25">
@@ -11782,7 +11898,7 @@
       <c r="P473" s="8"/>
       <c r="Q473" s="8"/>
       <c r="R473" s="9"/>
-      <c r="S473" s="46"/>
+      <c r="S473" s="34"/>
       <c r="T473" s="31"/>
     </row>
     <row r="474" spans="6:20" x14ac:dyDescent="0.25">
@@ -11799,7 +11915,7 @@
       <c r="P474" s="8"/>
       <c r="Q474" s="8"/>
       <c r="R474" s="9"/>
-      <c r="S474" s="46"/>
+      <c r="S474" s="34"/>
       <c r="T474" s="31"/>
     </row>
     <row r="475" spans="6:20" x14ac:dyDescent="0.25">
@@ -11816,7 +11932,7 @@
       <c r="P475" s="8"/>
       <c r="Q475" s="8"/>
       <c r="R475" s="9"/>
-      <c r="S475" s="46"/>
+      <c r="S475" s="34"/>
       <c r="T475" s="31"/>
     </row>
     <row r="476" spans="6:20" x14ac:dyDescent="0.25">
@@ -11833,7 +11949,7 @@
       <c r="P476" s="8"/>
       <c r="Q476" s="8"/>
       <c r="R476" s="9"/>
-      <c r="S476" s="46"/>
+      <c r="S476" s="34"/>
       <c r="T476" s="31"/>
     </row>
     <row r="477" spans="6:20" x14ac:dyDescent="0.25">
@@ -11850,7 +11966,7 @@
       <c r="P477" s="8"/>
       <c r="Q477" s="8"/>
       <c r="R477" s="9"/>
-      <c r="S477" s="46"/>
+      <c r="S477" s="34"/>
       <c r="T477" s="31"/>
     </row>
     <row r="478" spans="6:20" x14ac:dyDescent="0.25">
@@ -11867,7 +11983,7 @@
       <c r="P478" s="8"/>
       <c r="Q478" s="8"/>
       <c r="R478" s="9"/>
-      <c r="S478" s="46"/>
+      <c r="S478" s="34"/>
       <c r="T478" s="31"/>
     </row>
     <row r="479" spans="6:20" x14ac:dyDescent="0.25">
@@ -11884,7 +12000,7 @@
       <c r="P479" s="8"/>
       <c r="Q479" s="8"/>
       <c r="R479" s="9"/>
-      <c r="S479" s="46"/>
+      <c r="S479" s="34"/>
       <c r="T479" s="31"/>
     </row>
     <row r="480" spans="6:20" x14ac:dyDescent="0.25">
@@ -11901,7 +12017,7 @@
       <c r="P480" s="8"/>
       <c r="Q480" s="8"/>
       <c r="R480" s="9"/>
-      <c r="S480" s="46"/>
+      <c r="S480" s="34"/>
       <c r="T480" s="31"/>
     </row>
     <row r="481" spans="6:20" x14ac:dyDescent="0.25">
@@ -11918,7 +12034,7 @@
       <c r="P481" s="8"/>
       <c r="Q481" s="8"/>
       <c r="R481" s="9"/>
-      <c r="S481" s="46"/>
+      <c r="S481" s="34"/>
       <c r="T481" s="31"/>
     </row>
     <row r="482" spans="6:20" x14ac:dyDescent="0.25">
@@ -11935,7 +12051,7 @@
       <c r="P482" s="8"/>
       <c r="Q482" s="8"/>
       <c r="R482" s="9"/>
-      <c r="S482" s="46"/>
+      <c r="S482" s="34"/>
       <c r="T482" s="31"/>
     </row>
     <row r="483" spans="6:20" x14ac:dyDescent="0.25">
@@ -11952,7 +12068,7 @@
       <c r="P483" s="8"/>
       <c r="Q483" s="8"/>
       <c r="R483" s="9"/>
-      <c r="S483" s="46"/>
+      <c r="S483" s="34"/>
       <c r="T483" s="31"/>
     </row>
     <row r="484" spans="6:20" x14ac:dyDescent="0.25">
@@ -11969,7 +12085,7 @@
       <c r="P484" s="8"/>
       <c r="Q484" s="8"/>
       <c r="R484" s="9"/>
-      <c r="S484" s="46"/>
+      <c r="S484" s="34"/>
       <c r="T484" s="31"/>
     </row>
     <row r="485" spans="6:20" x14ac:dyDescent="0.25">
@@ -11986,7 +12102,7 @@
       <c r="P485" s="8"/>
       <c r="Q485" s="8"/>
       <c r="R485" s="9"/>
-      <c r="S485" s="46"/>
+      <c r="S485" s="34"/>
       <c r="T485" s="31"/>
     </row>
     <row r="486" spans="6:20" x14ac:dyDescent="0.25">
@@ -12003,7 +12119,7 @@
       <c r="P486" s="8"/>
       <c r="Q486" s="8"/>
       <c r="R486" s="9"/>
-      <c r="S486" s="46"/>
+      <c r="S486" s="34"/>
       <c r="T486" s="31"/>
     </row>
     <row r="487" spans="6:20" x14ac:dyDescent="0.25">
@@ -12020,7 +12136,7 @@
       <c r="P487" s="8"/>
       <c r="Q487" s="8"/>
       <c r="R487" s="9"/>
-      <c r="S487" s="46"/>
+      <c r="S487" s="34"/>
       <c r="T487" s="31"/>
     </row>
     <row r="488" spans="6:20" x14ac:dyDescent="0.25">
@@ -12037,7 +12153,7 @@
       <c r="P488" s="8"/>
       <c r="Q488" s="8"/>
       <c r="R488" s="9"/>
-      <c r="S488" s="46"/>
+      <c r="S488" s="34"/>
       <c r="T488" s="31"/>
     </row>
     <row r="489" spans="6:20" x14ac:dyDescent="0.25">
@@ -12054,7 +12170,7 @@
       <c r="P489" s="8"/>
       <c r="Q489" s="8"/>
       <c r="R489" s="9"/>
-      <c r="S489" s="46"/>
+      <c r="S489" s="34"/>
       <c r="T489" s="31"/>
     </row>
     <row r="490" spans="6:20" x14ac:dyDescent="0.25">
@@ -12071,7 +12187,7 @@
       <c r="P490" s="8"/>
       <c r="Q490" s="8"/>
       <c r="R490" s="9"/>
-      <c r="S490" s="46"/>
+      <c r="S490" s="34"/>
       <c r="T490" s="31"/>
     </row>
     <row r="491" spans="6:20" x14ac:dyDescent="0.25">
@@ -12088,7 +12204,7 @@
       <c r="P491" s="8"/>
       <c r="Q491" s="8"/>
       <c r="R491" s="9"/>
-      <c r="S491" s="46"/>
+      <c r="S491" s="34"/>
       <c r="T491" s="31"/>
     </row>
     <row r="492" spans="6:20" x14ac:dyDescent="0.25">
@@ -12105,7 +12221,7 @@
       <c r="P492" s="8"/>
       <c r="Q492" s="8"/>
       <c r="R492" s="9"/>
-      <c r="S492" s="46"/>
+      <c r="S492" s="34"/>
       <c r="T492" s="31"/>
     </row>
     <row r="493" spans="6:20" x14ac:dyDescent="0.25">
@@ -12122,7 +12238,7 @@
       <c r="P493" s="8"/>
       <c r="Q493" s="8"/>
       <c r="R493" s="9"/>
-      <c r="S493" s="46"/>
+      <c r="S493" s="34"/>
       <c r="T493" s="31"/>
     </row>
     <row r="494" spans="6:20" x14ac:dyDescent="0.25">
@@ -12139,7 +12255,7 @@
       <c r="P494" s="8"/>
       <c r="Q494" s="8"/>
       <c r="R494" s="9"/>
-      <c r="S494" s="46"/>
+      <c r="S494" s="34"/>
       <c r="T494" s="31"/>
     </row>
     <row r="495" spans="6:20" x14ac:dyDescent="0.25">
@@ -12156,7 +12272,7 @@
       <c r="P495" s="8"/>
       <c r="Q495" s="8"/>
       <c r="R495" s="9"/>
-      <c r="S495" s="46"/>
+      <c r="S495" s="34"/>
       <c r="T495" s="31"/>
     </row>
     <row r="496" spans="6:20" x14ac:dyDescent="0.25">
@@ -12173,7 +12289,7 @@
       <c r="P496" s="8"/>
       <c r="Q496" s="8"/>
       <c r="R496" s="9"/>
-      <c r="S496" s="46"/>
+      <c r="S496" s="34"/>
       <c r="T496" s="31"/>
     </row>
     <row r="497" spans="6:20" x14ac:dyDescent="0.25">
@@ -12190,7 +12306,7 @@
       <c r="P497" s="8"/>
       <c r="Q497" s="8"/>
       <c r="R497" s="9"/>
-      <c r="S497" s="46"/>
+      <c r="S497" s="34"/>
       <c r="T497" s="31"/>
     </row>
     <row r="498" spans="6:20" x14ac:dyDescent="0.25">
@@ -12207,7 +12323,7 @@
       <c r="P498" s="8"/>
       <c r="Q498" s="8"/>
       <c r="R498" s="9"/>
-      <c r="S498" s="46"/>
+      <c r="S498" s="34"/>
       <c r="T498" s="31"/>
     </row>
     <row r="499" spans="6:20" x14ac:dyDescent="0.25">
@@ -12224,7 +12340,7 @@
       <c r="P499" s="8"/>
       <c r="Q499" s="8"/>
       <c r="R499" s="9"/>
-      <c r="S499" s="46"/>
+      <c r="S499" s="34"/>
       <c r="T499" s="31"/>
     </row>
     <row r="500" spans="6:20" x14ac:dyDescent="0.25">
@@ -12241,7 +12357,7 @@
       <c r="P500" s="8"/>
       <c r="Q500" s="8"/>
       <c r="R500" s="9"/>
-      <c r="S500" s="46"/>
+      <c r="S500" s="34"/>
       <c r="T500" s="31"/>
     </row>
     <row r="501" spans="6:20" x14ac:dyDescent="0.25">
@@ -12258,7 +12374,7 @@
       <c r="P501" s="8"/>
       <c r="Q501" s="8"/>
       <c r="R501" s="9"/>
-      <c r="S501" s="46"/>
+      <c r="S501" s="34"/>
       <c r="T501" s="31"/>
     </row>
     <row r="502" spans="6:20" x14ac:dyDescent="0.25">
@@ -12275,7 +12391,7 @@
       <c r="P502" s="8"/>
       <c r="Q502" s="8"/>
       <c r="R502" s="9"/>
-      <c r="S502" s="46"/>
+      <c r="S502" s="34"/>
       <c r="T502" s="31"/>
     </row>
     <row r="503" spans="6:20" x14ac:dyDescent="0.25">
@@ -12292,7 +12408,7 @@
       <c r="P503" s="8"/>
       <c r="Q503" s="8"/>
       <c r="R503" s="9"/>
-      <c r="S503" s="46"/>
+      <c r="S503" s="34"/>
       <c r="T503" s="31"/>
     </row>
     <row r="504" spans="6:20" x14ac:dyDescent="0.25">
@@ -12309,7 +12425,7 @@
       <c r="P504" s="8"/>
       <c r="Q504" s="8"/>
       <c r="R504" s="9"/>
-      <c r="S504" s="46"/>
+      <c r="S504" s="34"/>
       <c r="T504" s="31"/>
     </row>
     <row r="505" spans="6:20" x14ac:dyDescent="0.25">
@@ -12326,7 +12442,7 @@
       <c r="P505" s="8"/>
       <c r="Q505" s="8"/>
       <c r="R505" s="9"/>
-      <c r="S505" s="46"/>
+      <c r="S505" s="34"/>
       <c r="T505" s="31"/>
     </row>
     <row r="506" spans="6:20" x14ac:dyDescent="0.25">
@@ -12343,7 +12459,7 @@
       <c r="P506" s="8"/>
       <c r="Q506" s="8"/>
       <c r="R506" s="9"/>
-      <c r="S506" s="46"/>
+      <c r="S506" s="34"/>
       <c r="T506" s="31"/>
     </row>
     <row r="507" spans="6:20" x14ac:dyDescent="0.25">
@@ -12360,7 +12476,7 @@
       <c r="P507" s="8"/>
       <c r="Q507" s="8"/>
       <c r="R507" s="9"/>
-      <c r="S507" s="46"/>
+      <c r="S507" s="34"/>
       <c r="T507" s="31"/>
     </row>
     <row r="508" spans="6:20" x14ac:dyDescent="0.25">
@@ -12377,7 +12493,7 @@
       <c r="P508" s="8"/>
       <c r="Q508" s="8"/>
       <c r="R508" s="9"/>
-      <c r="S508" s="46"/>
+      <c r="S508" s="34"/>
       <c r="T508" s="31"/>
     </row>
     <row r="509" spans="6:20" x14ac:dyDescent="0.25">
@@ -12394,7 +12510,7 @@
       <c r="P509" s="8"/>
       <c r="Q509" s="8"/>
       <c r="R509" s="9"/>
-      <c r="S509" s="46"/>
+      <c r="S509" s="34"/>
       <c r="T509" s="31"/>
     </row>
     <row r="510" spans="6:20" x14ac:dyDescent="0.25">
@@ -12411,7 +12527,7 @@
       <c r="P510" s="8"/>
       <c r="Q510" s="8"/>
       <c r="R510" s="9"/>
-      <c r="S510" s="46"/>
+      <c r="S510" s="34"/>
       <c r="T510" s="31"/>
     </row>
     <row r="511" spans="6:20" x14ac:dyDescent="0.25">
@@ -12428,7 +12544,7 @@
       <c r="P511" s="8"/>
       <c r="Q511" s="8"/>
       <c r="R511" s="9"/>
-      <c r="S511" s="46"/>
+      <c r="S511" s="34"/>
       <c r="T511" s="31"/>
     </row>
     <row r="512" spans="6:20" x14ac:dyDescent="0.25">
@@ -12445,7 +12561,7 @@
       <c r="P512" s="8"/>
       <c r="Q512" s="8"/>
       <c r="R512" s="9"/>
-      <c r="S512" s="46"/>
+      <c r="S512" s="34"/>
       <c r="T512" s="31"/>
     </row>
     <row r="513" spans="6:20" x14ac:dyDescent="0.25">
@@ -12462,7 +12578,7 @@
       <c r="P513" s="8"/>
       <c r="Q513" s="8"/>
       <c r="R513" s="9"/>
-      <c r="S513" s="46"/>
+      <c r="S513" s="34"/>
       <c r="T513" s="31"/>
     </row>
     <row r="514" spans="6:20" x14ac:dyDescent="0.25">
@@ -12479,7 +12595,7 @@
       <c r="P514" s="8"/>
       <c r="Q514" s="8"/>
       <c r="R514" s="9"/>
-      <c r="S514" s="46"/>
+      <c r="S514" s="34"/>
       <c r="T514" s="31"/>
     </row>
     <row r="515" spans="6:20" x14ac:dyDescent="0.25">
@@ -12496,7 +12612,7 @@
       <c r="P515" s="8"/>
       <c r="Q515" s="8"/>
       <c r="R515" s="9"/>
-      <c r="S515" s="46"/>
+      <c r="S515" s="34"/>
       <c r="T515" s="31"/>
     </row>
     <row r="516" spans="6:20" x14ac:dyDescent="0.25">
@@ -12513,7 +12629,7 @@
       <c r="P516" s="8"/>
       <c r="Q516" s="8"/>
       <c r="R516" s="9"/>
-      <c r="S516" s="46"/>
+      <c r="S516" s="34"/>
       <c r="T516" s="31"/>
     </row>
     <row r="517" spans="6:20" x14ac:dyDescent="0.25">
@@ -12530,7 +12646,7 @@
       <c r="P517" s="8"/>
       <c r="Q517" s="8"/>
       <c r="R517" s="9"/>
-      <c r="S517" s="46"/>
+      <c r="S517" s="34"/>
       <c r="T517" s="31"/>
     </row>
     <row r="518" spans="6:20" x14ac:dyDescent="0.25">
@@ -12547,7 +12663,7 @@
       <c r="P518" s="8"/>
       <c r="Q518" s="8"/>
       <c r="R518" s="9"/>
-      <c r="S518" s="46"/>
+      <c r="S518" s="34"/>
       <c r="T518" s="31"/>
     </row>
     <row r="519" spans="6:20" x14ac:dyDescent="0.25">
@@ -12564,7 +12680,7 @@
       <c r="P519" s="8"/>
       <c r="Q519" s="8"/>
       <c r="R519" s="9"/>
-      <c r="S519" s="46"/>
+      <c r="S519" s="34"/>
       <c r="T519" s="31"/>
     </row>
     <row r="520" spans="6:20" x14ac:dyDescent="0.25">
@@ -12581,7 +12697,7 @@
       <c r="P520" s="8"/>
       <c r="Q520" s="8"/>
       <c r="R520" s="9"/>
-      <c r="S520" s="46"/>
+      <c r="S520" s="34"/>
       <c r="T520" s="31"/>
     </row>
     <row r="521" spans="6:20" x14ac:dyDescent="0.25">
@@ -12598,7 +12714,7 @@
       <c r="P521" s="8"/>
       <c r="Q521" s="8"/>
       <c r="R521" s="9"/>
-      <c r="S521" s="46"/>
+      <c r="S521" s="34"/>
       <c r="T521" s="31"/>
     </row>
     <row r="522" spans="6:20" x14ac:dyDescent="0.25">
@@ -12615,7 +12731,7 @@
       <c r="P522" s="8"/>
       <c r="Q522" s="8"/>
       <c r="R522" s="9"/>
-      <c r="S522" s="46"/>
+      <c r="S522" s="34"/>
       <c r="T522" s="31"/>
     </row>
     <row r="523" spans="6:20" x14ac:dyDescent="0.25">
@@ -12632,7 +12748,7 @@
       <c r="P523" s="8"/>
       <c r="Q523" s="8"/>
       <c r="R523" s="9"/>
-      <c r="S523" s="46"/>
+      <c r="S523" s="34"/>
       <c r="T523" s="31"/>
     </row>
     <row r="524" spans="6:20" x14ac:dyDescent="0.25">
@@ -12649,7 +12765,7 @@
       <c r="P524" s="8"/>
       <c r="Q524" s="8"/>
       <c r="R524" s="9"/>
-      <c r="S524" s="46"/>
+      <c r="S524" s="34"/>
       <c r="T524" s="31"/>
     </row>
     <row r="525" spans="6:20" x14ac:dyDescent="0.25">
@@ -12666,7 +12782,7 @@
       <c r="P525" s="8"/>
       <c r="Q525" s="8"/>
       <c r="R525" s="9"/>
-      <c r="S525" s="46"/>
+      <c r="S525" s="34"/>
       <c r="T525" s="31"/>
     </row>
     <row r="526" spans="6:20" x14ac:dyDescent="0.25">
@@ -12683,7 +12799,7 @@
       <c r="P526" s="8"/>
       <c r="Q526" s="8"/>
       <c r="R526" s="9"/>
-      <c r="S526" s="46"/>
+      <c r="S526" s="34"/>
       <c r="T526" s="31"/>
     </row>
     <row r="527" spans="6:20" x14ac:dyDescent="0.25">
@@ -12700,7 +12816,7 @@
       <c r="P527" s="8"/>
       <c r="Q527" s="8"/>
       <c r="R527" s="9"/>
-      <c r="S527" s="46"/>
+      <c r="S527" s="34"/>
       <c r="T527" s="31"/>
     </row>
     <row r="528" spans="6:20" x14ac:dyDescent="0.25">
@@ -12717,7 +12833,7 @@
       <c r="P528" s="8"/>
       <c r="Q528" s="8"/>
       <c r="R528" s="9"/>
-      <c r="S528" s="46"/>
+      <c r="S528" s="34"/>
       <c r="T528" s="31"/>
     </row>
     <row r="529" spans="6:20" x14ac:dyDescent="0.25">
@@ -12734,7 +12850,7 @@
       <c r="P529" s="8"/>
       <c r="Q529" s="8"/>
       <c r="R529" s="9"/>
-      <c r="S529" s="46"/>
+      <c r="S529" s="34"/>
       <c r="T529" s="31"/>
     </row>
     <row r="530" spans="6:20" x14ac:dyDescent="0.25">
@@ -12751,7 +12867,7 @@
       <c r="P530" s="8"/>
       <c r="Q530" s="8"/>
       <c r="R530" s="9"/>
-      <c r="S530" s="46"/>
+      <c r="S530" s="34"/>
       <c r="T530" s="31"/>
     </row>
     <row r="531" spans="6:20" x14ac:dyDescent="0.25">
@@ -12768,7 +12884,7 @@
       <c r="P531" s="8"/>
       <c r="Q531" s="8"/>
       <c r="R531" s="9"/>
-      <c r="S531" s="46"/>
+      <c r="S531" s="34"/>
       <c r="T531" s="31"/>
     </row>
     <row r="532" spans="6:20" x14ac:dyDescent="0.25">
@@ -12785,7 +12901,7 @@
       <c r="P532" s="8"/>
       <c r="Q532" s="8"/>
       <c r="R532" s="9"/>
-      <c r="S532" s="46"/>
+      <c r="S532" s="34"/>
       <c r="T532" s="31"/>
     </row>
     <row r="533" spans="6:20" x14ac:dyDescent="0.25">
@@ -12802,7 +12918,7 @@
       <c r="P533" s="8"/>
       <c r="Q533" s="8"/>
       <c r="R533" s="9"/>
-      <c r="S533" s="46"/>
+      <c r="S533" s="34"/>
       <c r="T533" s="31"/>
     </row>
     <row r="534" spans="6:20" x14ac:dyDescent="0.25">
@@ -12819,7 +12935,7 @@
       <c r="P534" s="8"/>
       <c r="Q534" s="8"/>
       <c r="R534" s="9"/>
-      <c r="S534" s="46"/>
+      <c r="S534" s="34"/>
       <c r="T534" s="31"/>
     </row>
     <row r="535" spans="6:20" x14ac:dyDescent="0.25">
@@ -12836,7 +12952,7 @@
       <c r="P535" s="8"/>
       <c r="Q535" s="8"/>
       <c r="R535" s="9"/>
-      <c r="S535" s="46"/>
+      <c r="S535" s="34"/>
       <c r="T535" s="31"/>
     </row>
     <row r="536" spans="6:20" x14ac:dyDescent="0.25">
@@ -12853,7 +12969,7 @@
       <c r="P536" s="8"/>
       <c r="Q536" s="8"/>
       <c r="R536" s="9"/>
-      <c r="S536" s="46"/>
+      <c r="S536" s="34"/>
       <c r="T536" s="31"/>
     </row>
     <row r="537" spans="6:20" x14ac:dyDescent="0.25">
@@ -12870,7 +12986,7 @@
       <c r="P537" s="8"/>
       <c r="Q537" s="8"/>
       <c r="R537" s="9"/>
-      <c r="S537" s="46"/>
+      <c r="S537" s="34"/>
       <c r="T537" s="31"/>
     </row>
     <row r="538" spans="6:20" x14ac:dyDescent="0.25">
@@ -12887,7 +13003,7 @@
       <c r="P538" s="8"/>
       <c r="Q538" s="8"/>
       <c r="R538" s="9"/>
-      <c r="S538" s="46"/>
+      <c r="S538" s="34"/>
       <c r="T538" s="31"/>
     </row>
     <row r="539" spans="6:20" x14ac:dyDescent="0.25">
@@ -12904,7 +13020,7 @@
       <c r="P539" s="8"/>
       <c r="Q539" s="8"/>
       <c r="R539" s="9"/>
-      <c r="S539" s="46"/>
+      <c r="S539" s="34"/>
       <c r="T539" s="31"/>
     </row>
     <row r="540" spans="6:20" x14ac:dyDescent="0.25">
@@ -12921,7 +13037,7 @@
       <c r="P540" s="8"/>
       <c r="Q540" s="8"/>
       <c r="R540" s="9"/>
-      <c r="S540" s="46"/>
+      <c r="S540" s="34"/>
       <c r="T540" s="31"/>
     </row>
     <row r="541" spans="6:20" x14ac:dyDescent="0.25">
@@ -12938,7 +13054,7 @@
       <c r="P541" s="8"/>
       <c r="Q541" s="8"/>
       <c r="R541" s="9"/>
-      <c r="S541" s="46"/>
+      <c r="S541" s="34"/>
       <c r="T541" s="31"/>
     </row>
     <row r="542" spans="6:20" x14ac:dyDescent="0.25">
@@ -12955,7 +13071,7 @@
       <c r="P542" s="8"/>
       <c r="Q542" s="8"/>
       <c r="R542" s="9"/>
-      <c r="S542" s="46"/>
+      <c r="S542" s="34"/>
       <c r="T542" s="31"/>
     </row>
     <row r="543" spans="6:20" x14ac:dyDescent="0.25">
@@ -12972,7 +13088,7 @@
       <c r="P543" s="8"/>
       <c r="Q543" s="8"/>
       <c r="R543" s="9"/>
-      <c r="S543" s="46"/>
+      <c r="S543" s="34"/>
       <c r="T543" s="31"/>
     </row>
     <row r="544" spans="6:20" x14ac:dyDescent="0.25">
@@ -12989,7 +13105,7 @@
       <c r="P544" s="8"/>
       <c r="Q544" s="8"/>
       <c r="R544" s="9"/>
-      <c r="S544" s="46"/>
+      <c r="S544" s="34"/>
       <c r="T544" s="31"/>
     </row>
     <row r="545" spans="6:20" x14ac:dyDescent="0.25">
@@ -13006,7 +13122,7 @@
       <c r="P545" s="8"/>
       <c r="Q545" s="8"/>
       <c r="R545" s="9"/>
-      <c r="S545" s="46"/>
+      <c r="S545" s="34"/>
       <c r="T545" s="31"/>
     </row>
     <row r="546" spans="6:20" x14ac:dyDescent="0.25">
@@ -13023,7 +13139,7 @@
       <c r="P546" s="8"/>
       <c r="Q546" s="8"/>
       <c r="R546" s="9"/>
-      <c r="S546" s="46"/>
+      <c r="S546" s="34"/>
       <c r="T546" s="31"/>
     </row>
     <row r="547" spans="6:20" x14ac:dyDescent="0.25">
@@ -13040,7 +13156,7 @@
       <c r="P547" s="8"/>
       <c r="Q547" s="8"/>
       <c r="R547" s="9"/>
-      <c r="S547" s="46"/>
+      <c r="S547" s="34"/>
       <c r="T547" s="31"/>
     </row>
     <row r="548" spans="6:20" x14ac:dyDescent="0.25">
@@ -13057,7 +13173,7 @@
       <c r="P548" s="8"/>
       <c r="Q548" s="8"/>
       <c r="R548" s="9"/>
-      <c r="S548" s="46"/>
+      <c r="S548" s="34"/>
       <c r="T548" s="31"/>
     </row>
     <row r="549" spans="6:20" x14ac:dyDescent="0.25">
@@ -13074,7 +13190,7 @@
       <c r="P549" s="8"/>
       <c r="Q549" s="8"/>
       <c r="R549" s="9"/>
-      <c r="S549" s="46"/>
+      <c r="S549" s="34"/>
       <c r="T549" s="31"/>
     </row>
     <row r="550" spans="6:20" x14ac:dyDescent="0.25">
@@ -13091,7 +13207,7 @@
       <c r="P550" s="8"/>
       <c r="Q550" s="8"/>
       <c r="R550" s="9"/>
-      <c r="S550" s="46"/>
+      <c r="S550" s="34"/>
       <c r="T550" s="31"/>
     </row>
     <row r="551" spans="6:20" x14ac:dyDescent="0.25">
@@ -13108,7 +13224,7 @@
       <c r="P551" s="8"/>
       <c r="Q551" s="8"/>
       <c r="R551" s="9"/>
-      <c r="S551" s="46"/>
+      <c r="S551" s="34"/>
       <c r="T551" s="31"/>
     </row>
     <row r="552" spans="6:20" x14ac:dyDescent="0.25">
@@ -13125,7 +13241,7 @@
       <c r="P552" s="8"/>
       <c r="Q552" s="8"/>
       <c r="R552" s="9"/>
-      <c r="S552" s="46"/>
+      <c r="S552" s="34"/>
       <c r="T552" s="31"/>
     </row>
     <row r="553" spans="6:20" x14ac:dyDescent="0.25">
@@ -13142,7 +13258,7 @@
       <c r="P553" s="8"/>
       <c r="Q553" s="8"/>
       <c r="R553" s="9"/>
-      <c r="S553" s="46"/>
+      <c r="S553" s="34"/>
       <c r="T553" s="31"/>
     </row>
     <row r="554" spans="6:20" x14ac:dyDescent="0.25">
@@ -13159,7 +13275,7 @@
       <c r="P554" s="8"/>
       <c r="Q554" s="8"/>
       <c r="R554" s="9"/>
-      <c r="S554" s="46"/>
+      <c r="S554" s="34"/>
       <c r="T554" s="31"/>
     </row>
     <row r="555" spans="6:20" x14ac:dyDescent="0.25">
@@ -13176,7 +13292,7 @@
       <c r="P555" s="8"/>
       <c r="Q555" s="8"/>
       <c r="R555" s="9"/>
-      <c r="S555" s="46"/>
+      <c r="S555" s="34"/>
       <c r="T555" s="31"/>
     </row>
     <row r="556" spans="6:20" x14ac:dyDescent="0.25">
@@ -13193,7 +13309,7 @@
       <c r="P556" s="8"/>
       <c r="Q556" s="8"/>
       <c r="R556" s="9"/>
-      <c r="S556" s="46"/>
+      <c r="S556" s="34"/>
       <c r="T556" s="31"/>
     </row>
     <row r="557" spans="6:20" x14ac:dyDescent="0.25">
@@ -13210,7 +13326,7 @@
       <c r="P557" s="8"/>
       <c r="Q557" s="8"/>
       <c r="R557" s="9"/>
-      <c r="S557" s="46"/>
+      <c r="S557" s="34"/>
       <c r="T557" s="31"/>
     </row>
     <row r="558" spans="6:20" x14ac:dyDescent="0.25">
@@ -13227,7 +13343,7 @@
       <c r="P558" s="8"/>
       <c r="Q558" s="8"/>
       <c r="R558" s="9"/>
-      <c r="S558" s="46"/>
+      <c r="S558" s="34"/>
       <c r="T558" s="31"/>
     </row>
     <row r="559" spans="6:20" x14ac:dyDescent="0.25">
@@ -13244,7 +13360,7 @@
       <c r="P559" s="8"/>
       <c r="Q559" s="8"/>
       <c r="R559" s="9"/>
-      <c r="S559" s="46"/>
+      <c r="S559" s="34"/>
       <c r="T559" s="31"/>
     </row>
     <row r="560" spans="6:20" x14ac:dyDescent="0.25">
@@ -13261,7 +13377,7 @@
       <c r="P560" s="8"/>
       <c r="Q560" s="8"/>
       <c r="R560" s="9"/>
-      <c r="S560" s="46"/>
+      <c r="S560" s="34"/>
       <c r="T560" s="31"/>
     </row>
     <row r="561" spans="6:20" x14ac:dyDescent="0.25">
@@ -13278,7 +13394,7 @@
       <c r="P561" s="8"/>
       <c r="Q561" s="8"/>
       <c r="R561" s="9"/>
-      <c r="S561" s="46"/>
+      <c r="S561" s="34"/>
       <c r="T561" s="31"/>
     </row>
     <row r="562" spans="6:20" x14ac:dyDescent="0.25">
@@ -13295,7 +13411,7 @@
       <c r="P562" s="8"/>
       <c r="Q562" s="8"/>
       <c r="R562" s="9"/>
-      <c r="S562" s="46"/>
+      <c r="S562" s="34"/>
       <c r="T562" s="31"/>
     </row>
     <row r="563" spans="6:20" x14ac:dyDescent="0.25">
@@ -13312,7 +13428,7 @@
       <c r="P563" s="8"/>
       <c r="Q563" s="8"/>
       <c r="R563" s="9"/>
-      <c r="S563" s="46"/>
+      <c r="S563" s="34"/>
       <c r="T563" s="31"/>
     </row>
     <row r="564" spans="6:20" x14ac:dyDescent="0.25">
@@ -13329,7 +13445,7 @@
       <c r="P564" s="8"/>
       <c r="Q564" s="8"/>
       <c r="R564" s="9"/>
-      <c r="S564" s="46"/>
+      <c r="S564" s="34"/>
       <c r="T564" s="31"/>
     </row>
     <row r="565" spans="6:20" x14ac:dyDescent="0.25">
@@ -13346,7 +13462,7 @@
       <c r="P565" s="8"/>
       <c r="Q565" s="8"/>
       <c r="R565" s="9"/>
-      <c r="S565" s="46"/>
+      <c r="S565" s="34"/>
       <c r="T565" s="31"/>
     </row>
     <row r="566" spans="6:20" x14ac:dyDescent="0.25">
@@ -13363,7 +13479,7 @@
       <c r="P566" s="8"/>
       <c r="Q566" s="8"/>
       <c r="R566" s="9"/>
-      <c r="S566" s="46"/>
+      <c r="S566" s="34"/>
       <c r="T566" s="31"/>
     </row>
     <row r="567" spans="6:20" x14ac:dyDescent="0.25">
@@ -13380,7 +13496,7 @@
       <c r="P567" s="8"/>
       <c r="Q567" s="8"/>
       <c r="R567" s="9"/>
-      <c r="S567" s="46"/>
+      <c r="S567" s="34"/>
       <c r="T567" s="31"/>
     </row>
     <row r="568" spans="6:20" x14ac:dyDescent="0.25">
@@ -13397,7 +13513,7 @@
       <c r="P568" s="8"/>
       <c r="Q568" s="8"/>
       <c r="R568" s="9"/>
-      <c r="S568" s="46"/>
+      <c r="S568" s="34"/>
       <c r="T568" s="31"/>
     </row>
     <row r="569" spans="6:20" x14ac:dyDescent="0.25">
@@ -13414,7 +13530,7 @@
       <c r="P569" s="8"/>
       <c r="Q569" s="8"/>
       <c r="R569" s="9"/>
-      <c r="S569" s="46"/>
+      <c r="S569" s="34"/>
       <c r="T569" s="31"/>
     </row>
     <row r="570" spans="6:20" x14ac:dyDescent="0.25">
@@ -13431,7 +13547,7 @@
       <c r="P570" s="8"/>
       <c r="Q570" s="8"/>
       <c r="R570" s="9"/>
-      <c r="S570" s="46"/>
+      <c r="S570" s="34"/>
       <c r="T570" s="31"/>
     </row>
     <row r="571" spans="6:20" x14ac:dyDescent="0.25">
@@ -13448,7 +13564,7 @@
       <c r="P571" s="8"/>
       <c r="Q571" s="8"/>
       <c r="R571" s="9"/>
-      <c r="S571" s="46"/>
+      <c r="S571" s="34"/>
       <c r="T571" s="31"/>
     </row>
     <row r="572" spans="6:20" x14ac:dyDescent="0.25">
@@ -13465,7 +13581,7 @@
       <c r="P572" s="8"/>
       <c r="Q572" s="8"/>
       <c r="R572" s="9"/>
-      <c r="S572" s="46"/>
+      <c r="S572" s="34"/>
       <c r="T572" s="31"/>
     </row>
     <row r="573" spans="6:20" x14ac:dyDescent="0.25">
@@ -13482,7 +13598,7 @@
       <c r="P573" s="8"/>
       <c r="Q573" s="8"/>
       <c r="R573" s="9"/>
-      <c r="S573" s="46"/>
+      <c r="S573" s="34"/>
       <c r="T573" s="31"/>
     </row>
     <row r="574" spans="6:20" x14ac:dyDescent="0.25">
@@ -13499,7 +13615,7 @@
       <c r="P574" s="8"/>
       <c r="Q574" s="8"/>
       <c r="R574" s="9"/>
-      <c r="S574" s="46"/>
+      <c r="S574" s="34"/>
       <c r="T574" s="31"/>
     </row>
     <row r="575" spans="6:20" x14ac:dyDescent="0.25">
@@ -13516,7 +13632,7 @@
       <c r="P575" s="8"/>
       <c r="Q575" s="8"/>
       <c r="R575" s="9"/>
-      <c r="S575" s="46"/>
+      <c r="S575" s="34"/>
       <c r="T575" s="31"/>
     </row>
     <row r="576" spans="6:20" x14ac:dyDescent="0.25">
@@ -13533,7 +13649,7 @@
       <c r="P576" s="8"/>
       <c r="Q576" s="8"/>
       <c r="R576" s="9"/>
-      <c r="S576" s="46"/>
+      <c r="S576" s="34"/>
       <c r="T576" s="31"/>
     </row>
     <row r="577" spans="6:20" x14ac:dyDescent="0.25">
@@ -13550,7 +13666,7 @@
       <c r="P577" s="8"/>
       <c r="Q577" s="8"/>
       <c r="R577" s="9"/>
-      <c r="S577" s="46"/>
+      <c r="S577" s="34"/>
       <c r="T577" s="31"/>
     </row>
     <row r="578" spans="6:20" x14ac:dyDescent="0.25">
@@ -13567,7 +13683,7 @@
       <c r="P578" s="8"/>
       <c r="Q578" s="8"/>
       <c r="R578" s="9"/>
-      <c r="S578" s="46"/>
+      <c r="S578" s="34"/>
       <c r="T578" s="31"/>
     </row>
     <row r="579" spans="6:20" x14ac:dyDescent="0.25">
@@ -13584,7 +13700,7 @@
       <c r="P579" s="8"/>
       <c r="Q579" s="8"/>
       <c r="R579" s="9"/>
-      <c r="S579" s="46"/>
+      <c r="S579" s="34"/>
       <c r="T579" s="31"/>
     </row>
     <row r="580" spans="6:20" x14ac:dyDescent="0.25">
@@ -13601,7 +13717,7 @@
       <c r="P580" s="8"/>
       <c r="Q580" s="8"/>
       <c r="R580" s="9"/>
-      <c r="S580" s="46"/>
+      <c r="S580" s="34"/>
       <c r="T580" s="31"/>
     </row>
     <row r="581" spans="6:20" x14ac:dyDescent="0.25">
@@ -13618,7 +13734,7 @@
       <c r="P581" s="8"/>
       <c r="Q581" s="8"/>
       <c r="R581" s="9"/>
-      <c r="S581" s="46"/>
+      <c r="S581" s="34"/>
       <c r="T581" s="31"/>
     </row>
     <row r="582" spans="6:20" x14ac:dyDescent="0.25">
@@ -13635,7 +13751,7 @@
       <c r="P582" s="8"/>
       <c r="Q582" s="8"/>
       <c r="R582" s="9"/>
-      <c r="S582" s="46"/>
+      <c r="S582" s="34"/>
       <c r="T582" s="31"/>
     </row>
     <row r="583" spans="6:20" x14ac:dyDescent="0.25">
@@ -13652,7 +13768,7 @@
       <c r="P583" s="8"/>
       <c r="Q583" s="8"/>
       <c r="R583" s="9"/>
-      <c r="S583" s="46"/>
+      <c r="S583" s="34"/>
       <c r="T583" s="31"/>
     </row>
     <row r="584" spans="6:20" x14ac:dyDescent="0.25">
@@ -13669,7 +13785,7 @@
       <c r="P584" s="8"/>
       <c r="Q584" s="8"/>
       <c r="R584" s="9"/>
-      <c r="S584" s="46"/>
+      <c r="S584" s="34"/>
       <c r="T584" s="31"/>
     </row>
     <row r="585" spans="6:20" x14ac:dyDescent="0.25">
@@ -13686,7 +13802,7 @@
       <c r="P585" s="8"/>
       <c r="Q585" s="8"/>
       <c r="R585" s="9"/>
-      <c r="S585" s="46"/>
+      <c r="S585" s="34"/>
       <c r="T585" s="31"/>
     </row>
     <row r="586" spans="6:20" x14ac:dyDescent="0.25">
@@ -13703,7 +13819,7 @@
       <c r="P586" s="8"/>
       <c r="Q586" s="8"/>
       <c r="R586" s="9"/>
-      <c r="S586" s="46"/>
+      <c r="S586" s="34"/>
       <c r="T586" s="31"/>
     </row>
     <row r="587" spans="6:20" x14ac:dyDescent="0.25">
@@ -13720,7 +13836,7 @@
       <c r="P587" s="8"/>
       <c r="Q587" s="8"/>
       <c r="R587" s="9"/>
-      <c r="S587" s="46"/>
+      <c r="S587" s="34"/>
       <c r="T587" s="31"/>
     </row>
     <row r="588" spans="6:20" x14ac:dyDescent="0.25">
@@ -13737,7 +13853,7 @@
       <c r="P588" s="8"/>
       <c r="Q588" s="8"/>
       <c r="R588" s="9"/>
-      <c r="S588" s="46"/>
+      <c r="S588" s="34"/>
       <c r="T588" s="31"/>
     </row>
     <row r="589" spans="6:20" x14ac:dyDescent="0.25">
@@ -13754,7 +13870,7 @@
       <c r="P589" s="8"/>
       <c r="Q589" s="8"/>
       <c r="R589" s="9"/>
-      <c r="S589" s="46"/>
+      <c r="S589" s="34"/>
       <c r="T589" s="31"/>
     </row>
     <row r="590" spans="6:20" x14ac:dyDescent="0.25">
@@ -13771,7 +13887,7 @@
       <c r="P590" s="8"/>
       <c r="Q590" s="8"/>
       <c r="R590" s="9"/>
-      <c r="S590" s="46"/>
+      <c r="S590" s="34"/>
       <c r="T590" s="31"/>
     </row>
     <row r="591" spans="6:20" x14ac:dyDescent="0.25">
@@ -13788,7 +13904,7 @@
       <c r="P591" s="8"/>
       <c r="Q591" s="8"/>
       <c r="R591" s="9"/>
-      <c r="S591" s="46"/>
+      <c r="S591" s="34"/>
       <c r="T591" s="31"/>
     </row>
     <row r="592" spans="6:20" x14ac:dyDescent="0.25">
@@ -13805,7 +13921,7 @@
       <c r="P592" s="8"/>
       <c r="Q592" s="8"/>
       <c r="R592" s="9"/>
-      <c r="S592" s="46"/>
+      <c r="S592" s="34"/>
       <c r="T592" s="31"/>
     </row>
     <row r="593" spans="6:20" x14ac:dyDescent="0.25">
@@ -13822,7 +13938,7 @@
       <c r="P593" s="8"/>
       <c r="Q593" s="8"/>
       <c r="R593" s="9"/>
-      <c r="S593" s="46"/>
+      <c r="S593" s="34"/>
       <c r="T593" s="31"/>
     </row>
     <row r="594" spans="6:20" x14ac:dyDescent="0.25">
@@ -13839,7 +13955,7 @@
       <c r="P594" s="8"/>
       <c r="Q594" s="8"/>
       <c r="R594" s="9"/>
-      <c r="S594" s="46"/>
+      <c r="S594" s="34"/>
       <c r="T594" s="31"/>
     </row>
     <row r="595" spans="6:20" x14ac:dyDescent="0.25">
@@ -13856,7 +13972,7 @@
       <c r="P595" s="8"/>
       <c r="Q595" s="8"/>
       <c r="R595" s="9"/>
-      <c r="S595" s="46"/>
+      <c r="S595" s="34"/>
       <c r="T595" s="31"/>
     </row>
     <row r="596" spans="6:20" x14ac:dyDescent="0.25">
@@ -13873,7 +13989,7 @@
       <c r="P596" s="8"/>
       <c r="Q596" s="8"/>
       <c r="R596" s="9"/>
-      <c r="S596" s="46"/>
+      <c r="S596" s="34"/>
       <c r="T596" s="31"/>
     </row>
     <row r="597" spans="6:20" x14ac:dyDescent="0.25">
@@ -13890,7 +14006,7 @@
       <c r="P597" s="8"/>
       <c r="Q597" s="8"/>
       <c r="R597" s="9"/>
-      <c r="S597" s="46"/>
+      <c r="S597" s="34"/>
       <c r="T597" s="31"/>
     </row>
     <row r="598" spans="6:20" x14ac:dyDescent="0.25">
@@ -13907,7 +14023,7 @@
       <c r="P598" s="8"/>
       <c r="Q598" s="8"/>
       <c r="R598" s="9"/>
-      <c r="S598" s="46"/>
+      <c r="S598" s="34"/>
       <c r="T598" s="31"/>
     </row>
     <row r="599" spans="6:20" x14ac:dyDescent="0.25">
@@ -13924,7 +14040,7 @@
       <c r="P599" s="8"/>
       <c r="Q599" s="8"/>
       <c r="R599" s="9"/>
-      <c r="S599" s="46"/>
+      <c r="S599" s="34"/>
       <c r="T599" s="31"/>
     </row>
     <row r="600" spans="6:20" x14ac:dyDescent="0.25">
@@ -13941,7 +14057,7 @@
       <c r="P600" s="8"/>
       <c r="Q600" s="8"/>
       <c r="R600" s="9"/>
-      <c r="S600" s="46"/>
+      <c r="S600" s="34"/>
       <c r="T600" s="31"/>
     </row>
     <row r="601" spans="6:20" x14ac:dyDescent="0.25">
@@ -13958,7 +14074,7 @@
       <c r="P601" s="8"/>
       <c r="Q601" s="8"/>
       <c r="R601" s="9"/>
-      <c r="S601" s="46"/>
+      <c r="S601" s="34"/>
       <c r="T601" s="31"/>
     </row>
     <row r="602" spans="6:20" x14ac:dyDescent="0.25">
@@ -13975,7 +14091,7 @@
       <c r="P602" s="8"/>
       <c r="Q602" s="8"/>
       <c r="R602" s="9"/>
-      <c r="S602" s="46"/>
+      <c r="S602" s="34"/>
       <c r="T602" s="31"/>
     </row>
     <row r="603" spans="6:20" x14ac:dyDescent="0.25">
@@ -13992,7 +14108,7 @@
       <c r="P603" s="8"/>
       <c r="Q603" s="8"/>
       <c r="R603" s="9"/>
-      <c r="S603" s="46"/>
+      <c r="S603" s="34"/>
       <c r="T603" s="31"/>
     </row>
     <row r="604" spans="6:20" x14ac:dyDescent="0.25">
@@ -14009,7 +14125,7 @@
       <c r="P604" s="8"/>
       <c r="Q604" s="8"/>
       <c r="R604" s="9"/>
-      <c r="S604" s="46"/>
+      <c r="S604" s="34"/>
       <c r="T604" s="31"/>
     </row>
     <row r="605" spans="6:20" x14ac:dyDescent="0.25">
@@ -14026,7 +14142,7 @@
       <c r="P605" s="8"/>
       <c r="Q605" s="8"/>
       <c r="R605" s="9"/>
-      <c r="S605" s="46"/>
+      <c r="S605" s="34"/>
       <c r="T605" s="31"/>
     </row>
     <row r="606" spans="6:20" x14ac:dyDescent="0.25">
@@ -14043,7 +14159,7 @@
       <c r="P606" s="8"/>
       <c r="Q606" s="8"/>
       <c r="R606" s="9"/>
-      <c r="S606" s="46"/>
+      <c r="S606" s="34"/>
       <c r="T606" s="31"/>
     </row>
     <row r="607" spans="6:20" x14ac:dyDescent="0.25">
@@ -14060,7 +14176,7 @@
       <c r="P607" s="8"/>
       <c r="Q607" s="8"/>
       <c r="R607" s="9"/>
-      <c r="S607" s="46"/>
+      <c r="S607" s="34"/>
       <c r="T607" s="31"/>
     </row>
     <row r="608" spans="6:20" x14ac:dyDescent="0.25">
@@ -14077,7 +14193,7 @@
       <c r="P608" s="8"/>
       <c r="Q608" s="8"/>
       <c r="R608" s="9"/>
-      <c r="S608" s="46"/>
+      <c r="S608" s="34"/>
       <c r="T608" s="31"/>
     </row>
     <row r="609" spans="6:20" x14ac:dyDescent="0.25">
@@ -14094,7 +14210,7 @@
       <c r="P609" s="8"/>
       <c r="Q609" s="8"/>
       <c r="R609" s="9"/>
-      <c r="S609" s="46"/>
+      <c r="S609" s="34"/>
       <c r="T609" s="31"/>
     </row>
     <row r="610" spans="6:20" x14ac:dyDescent="0.25">
@@ -14111,7 +14227,7 @@
       <c r="P610" s="8"/>
       <c r="Q610" s="8"/>
       <c r="R610" s="9"/>
-      <c r="S610" s="46"/>
+      <c r="S610" s="34"/>
       <c r="T610" s="31"/>
     </row>
     <row r="611" spans="6:20" x14ac:dyDescent="0.25">
@@ -14128,7 +14244,7 @@
       <c r="P611" s="8"/>
       <c r="Q611" s="8"/>
       <c r="R611" s="9"/>
-      <c r="S611" s="46"/>
+      <c r="S611" s="34"/>
       <c r="T611" s="31"/>
     </row>
     <row r="612" spans="6:20" x14ac:dyDescent="0.25">
@@ -14145,7 +14261,7 @@
       <c r="P612" s="8"/>
       <c r="Q612" s="8"/>
       <c r="R612" s="9"/>
-      <c r="S612" s="46"/>
+      <c r="S612" s="34"/>
       <c r="T612" s="31"/>
     </row>
     <row r="613" spans="6:20" x14ac:dyDescent="0.25">
@@ -14162,7 +14278,7 @@
       <c r="P613" s="8"/>
       <c r="Q613" s="8"/>
       <c r="R613" s="9"/>
-      <c r="S613" s="46"/>
+      <c r="S613" s="34"/>
       <c r="T613" s="31"/>
     </row>
     <row r="614" spans="6:20" x14ac:dyDescent="0.25">
@@ -14179,7 +14295,7 @@
       <c r="P614" s="8"/>
       <c r="Q614" s="8"/>
       <c r="R614" s="9"/>
-      <c r="S614" s="46"/>
+      <c r="S614" s="34"/>
       <c r="T614" s="31"/>
     </row>
     <row r="615" spans="6:20" x14ac:dyDescent="0.25">
@@ -14196,7 +14312,7 @@
       <c r="P615" s="8"/>
       <c r="Q615" s="8"/>
       <c r="R615" s="9"/>
-      <c r="S615" s="46"/>
+      <c r="S615" s="34"/>
       <c r="T615" s="31"/>
     </row>
     <row r="616" spans="6:20" x14ac:dyDescent="0.25">
@@ -14213,7 +14329,7 @@
       <c r="P616" s="8"/>
       <c r="Q616" s="8"/>
       <c r="R616" s="9"/>
-      <c r="S616" s="46"/>
+      <c r="S616" s="34"/>
       <c r="T616" s="31"/>
     </row>
     <row r="617" spans="6:20" x14ac:dyDescent="0.25">
@@ -14230,7 +14346,7 @@
       <c r="P617" s="8"/>
       <c r="Q617" s="8"/>
       <c r="R617" s="9"/>
-      <c r="S617" s="46"/>
+      <c r="S617" s="34"/>
       <c r="T617" s="31"/>
     </row>
     <row r="618" spans="6:20" x14ac:dyDescent="0.25">
@@ -14247,7 +14363,7 @@
       <c r="P618" s="8"/>
       <c r="Q618" s="8"/>
       <c r="R618" s="9"/>
-      <c r="S618" s="46"/>
+      <c r="S618" s="34"/>
       <c r="T618" s="31"/>
     </row>
     <row r="619" spans="6:20" x14ac:dyDescent="0.25">
@@ -14264,7 +14380,7 @@
       <c r="P619" s="8"/>
       <c r="Q619" s="8"/>
       <c r="R619" s="9"/>
-      <c r="S619" s="46"/>
+      <c r="S619" s="34"/>
       <c r="T619" s="31"/>
     </row>
     <row r="620" spans="6:20" x14ac:dyDescent="0.25">
@@ -14281,7 +14397,7 @@
       <c r="P620" s="8"/>
       <c r="Q620" s="8"/>
       <c r="R620" s="9"/>
-      <c r="S620" s="46"/>
+      <c r="S620" s="34"/>
       <c r="T620" s="31"/>
     </row>
     <row r="621" spans="6:20" x14ac:dyDescent="0.25">
@@ -14298,7 +14414,7 @@
       <c r="P621" s="8"/>
       <c r="Q621" s="8"/>
       <c r="R621" s="9"/>
-      <c r="S621" s="46"/>
+      <c r="S621" s="34"/>
       <c r="T621" s="31"/>
     </row>
     <row r="622" spans="6:20" x14ac:dyDescent="0.25">
@@ -14315,7 +14431,7 @@
       <c r="P622" s="8"/>
       <c r="Q622" s="8"/>
       <c r="R622" s="9"/>
-      <c r="S622" s="46"/>
+      <c r="S622" s="34"/>
       <c r="T622" s="31"/>
     </row>
     <row r="623" spans="6:20" x14ac:dyDescent="0.25">
@@ -14332,7 +14448,7 @@
       <c r="P623" s="8"/>
       <c r="Q623" s="8"/>
       <c r="R623" s="9"/>
-      <c r="S623" s="46"/>
+      <c r="S623" s="34"/>
       <c r="T623" s="31"/>
     </row>
     <row r="624" spans="6:20" x14ac:dyDescent="0.25">
@@ -14349,7 +14465,7 @@
       <c r="P624" s="8"/>
       <c r="Q624" s="8"/>
       <c r="R624" s="9"/>
-      <c r="S624" s="46"/>
+      <c r="S624" s="34"/>
       <c r="T624" s="31"/>
     </row>
     <row r="625" spans="6:20" x14ac:dyDescent="0.25">
@@ -14366,7 +14482,7 @@
       <c r="P625" s="8"/>
       <c r="Q625" s="8"/>
       <c r="R625" s="9"/>
-      <c r="S625" s="46"/>
+      <c r="S625" s="34"/>
       <c r="T625" s="31"/>
     </row>
     <row r="626" spans="6:20" x14ac:dyDescent="0.25">
@@ -14383,7 +14499,7 @@
       <c r="P626" s="8"/>
       <c r="Q626" s="8"/>
       <c r="R626" s="9"/>
-      <c r="S626" s="46"/>
+      <c r="S626" s="34"/>
       <c r="T626" s="31"/>
     </row>
     <row r="627" spans="6:20" x14ac:dyDescent="0.25">
@@ -14400,7 +14516,7 @@
       <c r="P627" s="8"/>
       <c r="Q627" s="8"/>
       <c r="R627" s="9"/>
-      <c r="S627" s="46"/>
+      <c r="S627" s="34"/>
       <c r="T627" s="31"/>
     </row>
     <row r="628" spans="6:20" x14ac:dyDescent="0.25">
@@ -14417,7 +14533,7 @@
       <c r="P628" s="8"/>
       <c r="Q628" s="8"/>
       <c r="R628" s="9"/>
-      <c r="S628" s="46"/>
+      <c r="S628" s="34"/>
       <c r="T628" s="31"/>
     </row>
     <row r="629" spans="6:20" x14ac:dyDescent="0.25">
@@ -14434,7 +14550,7 @@
       <c r="P629" s="8"/>
       <c r="Q629" s="8"/>
       <c r="R629" s="9"/>
-      <c r="S629" s="46"/>
+      <c r="S629" s="34"/>
       <c r="T629" s="31"/>
     </row>
     <row r="630" spans="6:20" x14ac:dyDescent="0.25">
@@ -14451,7 +14567,7 @@
       <c r="P630" s="8"/>
       <c r="Q630" s="8"/>
       <c r="R630" s="9"/>
-      <c r="S630" s="46"/>
+      <c r="S630" s="34"/>
       <c r="T630" s="31"/>
     </row>
     <row r="631" spans="6:20" x14ac:dyDescent="0.25">
@@ -14468,7 +14584,7 @@
       <c r="P631" s="8"/>
       <c r="Q631" s="8"/>
       <c r="R631" s="9"/>
-      <c r="S631" s="46"/>
+      <c r="S631" s="34"/>
       <c r="T631" s="31"/>
     </row>
     <row r="632" spans="6:20" x14ac:dyDescent="0.25">
@@ -14485,7 +14601,7 @@
       <c r="P632" s="8"/>
       <c r="Q632" s="8"/>
       <c r="R632" s="9"/>
-      <c r="S632" s="46"/>
+      <c r="S632" s="34"/>
       <c r="T632" s="31"/>
     </row>
     <row r="633" spans="6:20" x14ac:dyDescent="0.25">
@@ -14502,7 +14618,7 @@
       <c r="P633" s="8"/>
       <c r="Q633" s="8"/>
       <c r="R633" s="9"/>
-      <c r="S633" s="46"/>
+      <c r="S633" s="34"/>
       <c r="T633" s="31"/>
     </row>
     <row r="634" spans="6:20" x14ac:dyDescent="0.25">
@@ -14519,7 +14635,7 @@
       <c r="P634" s="8"/>
       <c r="Q634" s="8"/>
       <c r="R634" s="9"/>
-      <c r="S634" s="46"/>
+      <c r="S634" s="34"/>
       <c r="T634" s="31"/>
     </row>
     <row r="635" spans="6:20" x14ac:dyDescent="0.25">
@@ -14536,7 +14652,7 @@
       <c r="P635" s="8"/>
       <c r="Q635" s="8"/>
       <c r="R635" s="9"/>
-      <c r="S635" s="46"/>
+      <c r="S635" s="34"/>
       <c r="T635" s="31"/>
     </row>
     <row r="636" spans="6:20" x14ac:dyDescent="0.25">
@@ -14553,7 +14669,7 @@
       <c r="P636" s="8"/>
       <c r="Q636" s="8"/>
       <c r="R636" s="9"/>
-      <c r="S636" s="46"/>
+      <c r="S636" s="34"/>
       <c r="T636" s="31"/>
     </row>
     <row r="637" spans="6:20" x14ac:dyDescent="0.25">
@@ -14570,7 +14686,7 @@
       <c r="P637" s="8"/>
       <c r="Q637" s="8"/>
       <c r="R637" s="9"/>
-      <c r="S637" s="46"/>
+      <c r="S637" s="34"/>
       <c r="T637" s="31"/>
     </row>
     <row r="638" spans="6:20" x14ac:dyDescent="0.25">
@@ -14587,7 +14703,7 @@
       <c r="P638" s="8"/>
       <c r="Q638" s="8"/>
       <c r="R638" s="9"/>
-      <c r="S638" s="46"/>
+      <c r="S638" s="34"/>
       <c r="T638" s="31"/>
     </row>
     <row r="639" spans="6:20" x14ac:dyDescent="0.25">
@@ -14604,7 +14720,7 @@
       <c r="P639" s="8"/>
       <c r="Q639" s="8"/>
       <c r="R639" s="9"/>
-      <c r="S639" s="46"/>
+      <c r="S639" s="34"/>
       <c r="T639" s="31"/>
     </row>
     <row r="640" spans="6:20" x14ac:dyDescent="0.25">
@@ -14621,7 +14737,7 @@
       <c r="P640" s="8"/>
       <c r="Q640" s="8"/>
       <c r="R640" s="9"/>
-      <c r="S640" s="46"/>
+      <c r="S640" s="34"/>
       <c r="T640" s="31"/>
     </row>
     <row r="641" spans="6:20" x14ac:dyDescent="0.25">
@@ -14638,7 +14754,7 @@
       <c r="P641" s="8"/>
       <c r="Q641" s="8"/>
       <c r="R641" s="9"/>
-      <c r="S641" s="46"/>
+      <c r="S641" s="34"/>
       <c r="T641" s="31"/>
     </row>
     <row r="642" spans="6:20" x14ac:dyDescent="0.25">
@@ -14655,7 +14771,7 @@
       <c r="P642" s="8"/>
       <c r="Q642" s="8"/>
       <c r="R642" s="9"/>
-      <c r="S642" s="46"/>
+      <c r="S642" s="34"/>
       <c r="T642" s="31"/>
     </row>
     <row r="643" spans="6:20" x14ac:dyDescent="0.25">
@@ -14672,7 +14788,7 @@
       <c r="P643" s="8"/>
       <c r="Q643" s="8"/>
       <c r="R643" s="9"/>
-      <c r="S643" s="46"/>
+      <c r="S643" s="34"/>
       <c r="T643" s="31"/>
     </row>
     <row r="644" spans="6:20" x14ac:dyDescent="0.25">
@@ -14689,7 +14805,7 @@
       <c r="P644" s="8"/>
       <c r="Q644" s="8"/>
       <c r="R644" s="9"/>
-      <c r="S644" s="46"/>
+      <c r="S644" s="34"/>
       <c r="T644" s="31"/>
     </row>
     <row r="645" spans="6:20" x14ac:dyDescent="0.25">
@@ -14706,7 +14822,7 @@
       <c r="P645" s="8"/>
       <c r="Q645" s="8"/>
       <c r="R645" s="9"/>
-      <c r="S645" s="46"/>
+      <c r="S645" s="34"/>
       <c r="T645" s="31"/>
     </row>
     <row r="646" spans="6:20" x14ac:dyDescent="0.25">
@@ -14723,7 +14839,7 @@
       <c r="P646" s="8"/>
       <c r="Q646" s="8"/>
       <c r="R646" s="9"/>
-      <c r="S646" s="46"/>
+      <c r="S646" s="34"/>
       <c r="T646" s="31"/>
     </row>
     <row r="647" spans="6:20" x14ac:dyDescent="0.25">
@@ -14740,7 +14856,7 @@
       <c r="P647" s="8"/>
       <c r="Q647" s="8"/>
       <c r="R647" s="9"/>
-      <c r="S647" s="46"/>
+      <c r="S647" s="34"/>
       <c r="T647" s="31"/>
     </row>
     <row r="648" spans="6:20" x14ac:dyDescent="0.25">
@@ -14757,7 +14873,7 @@
       <c r="P648" s="8"/>
       <c r="Q648" s="8"/>
       <c r="R648" s="9"/>
-      <c r="S648" s="46"/>
+      <c r="S648" s="34"/>
       <c r="T648" s="31"/>
     </row>
     <row r="649" spans="6:20" x14ac:dyDescent="0.25">
@@ -14774,7 +14890,7 @@
       <c r="P649" s="8"/>
       <c r="Q649" s="8"/>
       <c r="R649" s="9"/>
-      <c r="S649" s="46"/>
+      <c r="S649" s="34"/>
       <c r="T649" s="31"/>
     </row>
     <row r="650" spans="6:20" x14ac:dyDescent="0.25">
@@ -14791,7 +14907,7 @@
       <c r="P650" s="8"/>
       <c r="Q650" s="8"/>
       <c r="R650" s="9"/>
-      <c r="S650" s="46"/>
+      <c r="S650" s="34"/>
       <c r="T650" s="31"/>
     </row>
     <row r="651" spans="6:20" x14ac:dyDescent="0.25">
@@ -14808,7 +14924,7 @@
       <c r="P651" s="8"/>
       <c r="Q651" s="8"/>
       <c r="R651" s="9"/>
-      <c r="S651" s="46"/>
+      <c r="S651" s="34"/>
       <c r="T651" s="31"/>
     </row>
     <row r="652" spans="6:20" x14ac:dyDescent="0.25">
@@ -14825,7 +14941,7 @@
       <c r="P652" s="8"/>
       <c r="Q652" s="8"/>
       <c r="R652" s="9"/>
-      <c r="S652" s="46"/>
+      <c r="S652" s="34"/>
       <c r="T652" s="31"/>
     </row>
     <row r="653" spans="6:20" x14ac:dyDescent="0.25">
@@ -14842,7 +14958,7 @@
       <c r="P653" s="8"/>
       <c r="Q653" s="8"/>
       <c r="R653" s="9"/>
-      <c r="S653" s="46"/>
+      <c r="S653" s="34"/>
       <c r="T653" s="31"/>
     </row>
     <row r="654" spans="6:20" x14ac:dyDescent="0.25">
@@ -14859,7 +14975,7 @@
       <c r="P654" s="8"/>
       <c r="Q654" s="8"/>
       <c r="R654" s="9"/>
-      <c r="S654" s="46"/>
+      <c r="S654" s="34"/>
       <c r="T654" s="31"/>
     </row>
     <row r="655" spans="6:20" x14ac:dyDescent="0.25">
@@ -14876,7 +14992,7 @@
       <c r="P655" s="8"/>
       <c r="Q655" s="8"/>
       <c r="R655" s="9"/>
-      <c r="S655" s="46"/>
+      <c r="S655" s="34"/>
       <c r="T655" s="31"/>
     </row>
     <row r="656" spans="6:20" x14ac:dyDescent="0.25">
@@ -14893,7 +15009,7 @@
       <c r="P656" s="8"/>
       <c r="Q656" s="8"/>
       <c r="R656" s="9"/>
-      <c r="S656" s="46"/>
+      <c r="S656" s="34"/>
       <c r="T656" s="31"/>
     </row>
     <row r="657" spans="6:20" x14ac:dyDescent="0.25">
@@ -14910,7 +15026,7 @@
       <c r="P657" s="8"/>
       <c r="Q657" s="8"/>
       <c r="R657" s="9"/>
-      <c r="S657" s="46"/>
+      <c r="S657" s="34"/>
       <c r="T657" s="31"/>
     </row>
     <row r="658" spans="6:20" x14ac:dyDescent="0.25">
@@ -14927,7 +15043,7 @@
       <c r="P658" s="8"/>
       <c r="Q658" s="8"/>
       <c r="R658" s="9"/>
-      <c r="S658" s="46"/>
+      <c r="S658" s="34"/>
       <c r="T658" s="31"/>
     </row>
     <row r="659" spans="6:20" x14ac:dyDescent="0.25">
@@ -14944,7 +15060,7 @@
       <c r="P659" s="8"/>
       <c r="Q659" s="8"/>
       <c r="R659" s="9"/>
-      <c r="S659" s="46"/>
+      <c r="S659" s="34"/>
       <c r="T659" s="31"/>
     </row>
     <row r="660" spans="6:20" x14ac:dyDescent="0.25">
@@ -14961,7 +15077,7 @@
       <c r="P660" s="8"/>
       <c r="Q660" s="8"/>
       <c r="R660" s="9"/>
-      <c r="S660" s="46"/>
+      <c r="S660" s="34"/>
       <c r="T660" s="31"/>
     </row>
     <row r="661" spans="6:20" x14ac:dyDescent="0.25">
@@ -14978,7 +15094,7 @@
       <c r="P661" s="8"/>
       <c r="Q661" s="8"/>
       <c r="R661" s="9"/>
-      <c r="S661" s="46"/>
+      <c r="S661" s="34"/>
       <c r="T661" s="31"/>
     </row>
     <row r="662" spans="6:20" x14ac:dyDescent="0.25">
@@ -14995,7 +15111,7 @@
       <c r="P662" s="8"/>
       <c r="Q662" s="8"/>
       <c r="R662" s="9"/>
-      <c r="S662" s="46"/>
+      <c r="S662" s="34"/>
       <c r="T662" s="31"/>
     </row>
     <row r="663" spans="6:20" x14ac:dyDescent="0.25">
@@ -15012,7 +15128,7 @@
       <c r="P663" s="8"/>
       <c r="Q663" s="8"/>
       <c r="R663" s="9"/>
-      <c r="S663" s="46"/>
+      <c r="S663" s="34"/>
       <c r="T663" s="31"/>
     </row>
     <row r="664" spans="6:20" x14ac:dyDescent="0.25">
@@ -15029,7 +15145,7 @@
       <c r="P664" s="8"/>
       <c r="Q664" s="8"/>
       <c r="R664" s="9"/>
-      <c r="S664" s="46"/>
+      <c r="S664" s="34"/>
       <c r="T664" s="31"/>
     </row>
     <row r="665" spans="6:20" x14ac:dyDescent="0.25">
@@ -15046,7 +15162,7 @@
       <c r="P665" s="8"/>
       <c r="Q665" s="8"/>
       <c r="R665" s="9"/>
-      <c r="S665" s="46"/>
+      <c r="S665" s="34"/>
       <c r="T665" s="31"/>
     </row>
     <row r="666" spans="6:20" x14ac:dyDescent="0.25">
@@ -15063,7 +15179,7 @@
       <c r="P666" s="8"/>
       <c r="Q666" s="8"/>
       <c r="R666" s="9"/>
-      <c r="S666" s="46"/>
+      <c r="S666" s="34"/>
       <c r="T666" s="31"/>
     </row>
     <row r="667" spans="6:20" x14ac:dyDescent="0.25">
@@ -15080,7 +15196,7 @@
       <c r="P667" s="8"/>
       <c r="Q667" s="8"/>
       <c r="R667" s="9"/>
-      <c r="S667" s="46"/>
+      <c r="S667" s="34"/>
       <c r="T667" s="31"/>
     </row>
     <row r="668" spans="6:20" x14ac:dyDescent="0.25">
@@ -15097,7 +15213,7 @@
       <c r="P668" s="8"/>
       <c r="Q668" s="8"/>
       <c r="R668" s="9"/>
-      <c r="S668" s="46"/>
+      <c r="S668" s="34"/>
       <c r="T668" s="31"/>
     </row>
     <row r="669" spans="6:20" x14ac:dyDescent="0.25">
@@ -15114,7 +15230,7 @@
       <c r="P669" s="8"/>
       <c r="Q669" s="8"/>
       <c r="R669" s="9"/>
-      <c r="S669" s="46"/>
+      <c r="S669" s="34"/>
       <c r="T669" s="31"/>
     </row>
     <row r="670" spans="6:20" x14ac:dyDescent="0.25">
@@ -15131,7 +15247,7 @@
       <c r="P670" s="8"/>
       <c r="Q670" s="8"/>
       <c r="R670" s="9"/>
-      <c r="S670" s="46"/>
+      <c r="S670" s="34"/>
       <c r="T670" s="31"/>
     </row>
     <row r="671" spans="6:20" x14ac:dyDescent="0.25">
@@ -15148,7 +15264,7 @@
       <c r="P671" s="8"/>
       <c r="Q671" s="8"/>
       <c r="R671" s="9"/>
-      <c r="S671" s="46"/>
+      <c r="S671" s="34"/>
       <c r="T671" s="31"/>
     </row>
     <row r="672" spans="6:20" x14ac:dyDescent="0.25">
@@ -15165,7 +15281,7 @@
       <c r="P672" s="8"/>
       <c r="Q672" s="8"/>
       <c r="R672" s="9"/>
-      <c r="S672" s="46"/>
+      <c r="S672" s="34"/>
       <c r="T672" s="31"/>
     </row>
     <row r="673" spans="6:20" x14ac:dyDescent="0.25">
@@ -15182,7 +15298,7 @@
       <c r="P673" s="8"/>
       <c r="Q673" s="8"/>
       <c r="R673" s="9"/>
-      <c r="S673" s="46"/>
+      <c r="S673" s="34"/>
       <c r="T673" s="31"/>
     </row>
     <row r="674" spans="6:20" x14ac:dyDescent="0.25">
@@ -15199,7 +15315,7 @@
       <c r="P674" s="8"/>
       <c r="Q674" s="8"/>
       <c r="R674" s="9"/>
-      <c r="S674" s="46"/>
+      <c r="S674" s="34"/>
       <c r="T674" s="31"/>
     </row>
     <row r="675" spans="6:20" x14ac:dyDescent="0.25">
@@ -15216,7 +15332,7 @@
       <c r="P675" s="8"/>
       <c r="Q675" s="8"/>
       <c r="R675" s="9"/>
-      <c r="S675" s="46"/>
+      <c r="S675" s="34"/>
       <c r="T675" s="31"/>
     </row>
     <row r="676" spans="6:20" x14ac:dyDescent="0.25">
@@ -15233,7 +15349,7 @@
       <c r="P676" s="8"/>
       <c r="Q676" s="8"/>
       <c r="R676" s="9"/>
-      <c r="S676" s="46"/>
+      <c r="S676" s="34"/>
       <c r="T676" s="31"/>
     </row>
     <row r="677" spans="6:20" x14ac:dyDescent="0.25">
@@ -15250,7 +15366,7 @@
       <c r="P677" s="8"/>
       <c r="Q677" s="8"/>
       <c r="R677" s="9"/>
-      <c r="S677" s="46"/>
+      <c r="S677" s="34"/>
       <c r="T677" s="31"/>
     </row>
     <row r="678" spans="6:20" x14ac:dyDescent="0.25">
@@ -15267,7 +15383,7 @@
       <c r="P678" s="8"/>
       <c r="Q678" s="8"/>
       <c r="R678" s="9"/>
-      <c r="S678" s="46"/>
+      <c r="S678" s="34"/>
       <c r="T678" s="31"/>
     </row>
     <row r="679" spans="6:20" x14ac:dyDescent="0.25">
@@ -15284,7 +15400,7 @@
       <c r="P679" s="8"/>
       <c r="Q679" s="8"/>
       <c r="R679" s="9"/>
-      <c r="S679" s="46"/>
+      <c r="S679" s="34"/>
       <c r="T679" s="31"/>
     </row>
     <row r="680" spans="6:20" x14ac:dyDescent="0.25">
@@ -15301,7 +15417,7 @@
       <c r="P680" s="8"/>
       <c r="Q680" s="8"/>
       <c r="R680" s="9"/>
-      <c r="S680" s="46"/>
+      <c r="S680" s="34"/>
       <c r="T680" s="31"/>
     </row>
     <row r="681" spans="6:20" x14ac:dyDescent="0.25">
@@ -15318,7 +15434,7 @@
       <c r="P681" s="8"/>
       <c r="Q681" s="8"/>
       <c r="R681" s="9"/>
-      <c r="S681" s="46"/>
+      <c r="S681" s="34"/>
       <c r="T681" s="31"/>
     </row>
     <row r="682" spans="6:20" x14ac:dyDescent="0.25">
@@ -15335,7 +15451,7 @@
       <c r="P682" s="8"/>
       <c r="Q682" s="8"/>
       <c r="R682" s="9"/>
-      <c r="S682" s="46"/>
+      <c r="S682" s="34"/>
       <c r="T682" s="31"/>
     </row>
     <row r="683" spans="6:20" x14ac:dyDescent="0.25">
@@ -15352,7 +15468,7 @@
       <c r="P683" s="8"/>
       <c r="Q683" s="8"/>
       <c r="R683" s="9"/>
-      <c r="S683" s="46"/>
+      <c r="S683" s="34"/>
       <c r="T683" s="31"/>
     </row>
     <row r="684" spans="6:20" x14ac:dyDescent="0.25">
@@ -15369,7 +15485,7 @@
       <c r="P684" s="8"/>
       <c r="Q684" s="8"/>
       <c r="R684" s="9"/>
-      <c r="S684" s="46"/>
+      <c r="S684" s="34"/>
       <c r="T684" s="31"/>
     </row>
     <row r="685" spans="6:20" x14ac:dyDescent="0.25">
@@ -15386,7 +15502,7 @@
       <c r="P685" s="8"/>
       <c r="Q685" s="8"/>
       <c r="R685" s="9"/>
-      <c r="S685" s="46"/>
+      <c r="S685" s="34"/>
       <c r="T685" s="31"/>
     </row>
     <row r="686" spans="6:20" x14ac:dyDescent="0.25">
@@ -15403,7 +15519,7 @@
       <c r="P686" s="8"/>
       <c r="Q686" s="8"/>
       <c r="R686" s="9"/>
-      <c r="S686" s="46"/>
+      <c r="S686" s="34"/>
       <c r="T686" s="31"/>
     </row>
     <row r="687" spans="6:20" x14ac:dyDescent="0.25">
@@ -15420,7 +15536,7 @@
       <c r="P687" s="8"/>
       <c r="Q687" s="8"/>
       <c r="R687" s="9"/>
-      <c r="S687" s="46"/>
+      <c r="S687" s="34"/>
       <c r="T687" s="31"/>
     </row>
     <row r="688" spans="6:20" x14ac:dyDescent="0.25">
@@ -15437,7 +15553,7 @@
       <c r="P688" s="8"/>
       <c r="Q688" s="8"/>
       <c r="R688" s="9"/>
-      <c r="S688" s="46"/>
+      <c r="S688" s="34"/>
       <c r="T688" s="31"/>
     </row>
     <row r="689" spans="6:20" x14ac:dyDescent="0.25">
@@ -15454,7 +15570,7 @@
       <c r="P689" s="8"/>
       <c r="Q689" s="8"/>
       <c r="R689" s="9"/>
-      <c r="S689" s="46"/>
+      <c r="S689" s="34"/>
       <c r="T689" s="31"/>
     </row>
     <row r="690" spans="6:20" x14ac:dyDescent="0.25">
@@ -15471,7 +15587,7 @@
       <c r="P690" s="8"/>
       <c r="Q690" s="8"/>
       <c r="R690" s="9"/>
-      <c r="S690" s="46"/>
+      <c r="S690" s="34"/>
       <c r="T690" s="31"/>
     </row>
     <row r="691" spans="6:20" x14ac:dyDescent="0.25">
@@ -15488,7 +15604,7 @@
       <c r="P691" s="8"/>
       <c r="Q691" s="8"/>
       <c r="R691" s="9"/>
-      <c r="S691" s="46"/>
+      <c r="S691" s="34"/>
       <c r="T691" s="31"/>
     </row>
     <row r="692" spans="6:20" x14ac:dyDescent="0.25">
@@ -15505,7 +15621,7 @@
       <c r="P692" s="8"/>
       <c r="Q692" s="8"/>
       <c r="R692" s="9"/>
-      <c r="S692" s="46"/>
+      <c r="S692" s="34"/>
       <c r="T692" s="31"/>
     </row>
     <row r="693" spans="6:20" x14ac:dyDescent="0.25">
@@ -15522,7 +15638,7 @@
       <c r="P693" s="8"/>
       <c r="Q693" s="8"/>
       <c r="R693" s="9"/>
-      <c r="S693" s="46"/>
+      <c r="S693" s="34"/>
       <c r="T693" s="31"/>
     </row>
     <row r="694" spans="6:20" x14ac:dyDescent="0.25">
@@ -15539,7 +15655,7 @@
       <c r="P694" s="8"/>
       <c r="Q694" s="8"/>
       <c r="R694" s="9"/>
-      <c r="S694" s="46"/>
+      <c r="S694" s="34"/>
       <c r="T694" s="31"/>
     </row>
     <row r="695" spans="6:20" x14ac:dyDescent="0.25">
@@ -15556,7 +15672,7 @@
       <c r="P695" s="8"/>
       <c r="Q695" s="8"/>
       <c r="R695" s="9"/>
-      <c r="S695" s="46"/>
+      <c r="S695" s="34"/>
       <c r="T695" s="31"/>
     </row>
     <row r="696" spans="6:20" x14ac:dyDescent="0.25">
@@ -15573,7 +15689,7 @@
       <c r="P696" s="8"/>
       <c r="Q696" s="8"/>
       <c r="R696" s="9"/>
-      <c r="S696" s="46"/>
+      <c r="S696" s="34"/>
       <c r="T696" s="31"/>
     </row>
     <row r="697" spans="6:20" x14ac:dyDescent="0.25">
@@ -15590,7 +15706,7 @@
       <c r="P697" s="8"/>
       <c r="Q697" s="8"/>
       <c r="R697" s="9"/>
-      <c r="S697" s="46"/>
+      <c r="S697" s="34"/>
       <c r="T697" s="31"/>
     </row>
     <row r="698" spans="6:20" x14ac:dyDescent="0.25">
@@ -15607,7 +15723,7 @@
       <c r="P698" s="8"/>
       <c r="Q698" s="8"/>
       <c r="R698" s="9"/>
-      <c r="S698" s="46"/>
+      <c r="S698" s="34"/>
       <c r="T698" s="31"/>
     </row>
     <row r="699" spans="6:20" x14ac:dyDescent="0.25">
@@ -15624,7 +15740,7 @@
       <c r="P699" s="8"/>
       <c r="Q699" s="8"/>
       <c r="R699" s="9"/>
-      <c r="S699" s="46"/>
+      <c r="S699" s="34"/>
       <c r="T699" s="31"/>
     </row>
     <row r="700" spans="6:20" x14ac:dyDescent="0.25">
@@ -15641,7 +15757,7 @@
       <c r="P700" s="8"/>
       <c r="Q700" s="8"/>
       <c r="R700" s="9"/>
-      <c r="S700" s="46"/>
+      <c r="S700" s="34"/>
       <c r="T700" s="31"/>
     </row>
     <row r="701" spans="6:20" x14ac:dyDescent="0.25">
@@ -15658,7 +15774,7 @@
       <c r="P701" s="8"/>
       <c r="Q701" s="8"/>
       <c r="R701" s="9"/>
-      <c r="S701" s="46"/>
+      <c r="S701" s="34"/>
       <c r="T701" s="31"/>
     </row>
     <row r="702" spans="6:20" x14ac:dyDescent="0.25">
@@ -15675,7 +15791,7 @@
       <c r="P702" s="8"/>
       <c r="Q702" s="8"/>
       <c r="R702" s="9"/>
-      <c r="S702" s="46"/>
+      <c r="S702" s="34"/>
       <c r="T702" s="31"/>
     </row>
     <row r="703" spans="6:20" x14ac:dyDescent="0.25">
@@ -15692,7 +15808,7 @@
       <c r="P703" s="8"/>
       <c r="Q703" s="8"/>
       <c r="R703" s="9"/>
-      <c r="S703" s="46"/>
+      <c r="S703" s="34"/>
       <c r="T703" s="31"/>
     </row>
     <row r="704" spans="6:20" x14ac:dyDescent="0.25">
@@ -15709,7 +15825,7 @@
       <c r="P704" s="8"/>
       <c r="Q704" s="8"/>
       <c r="R704" s="9"/>
-      <c r="S704" s="46"/>
+      <c r="S704" s="34"/>
       <c r="T704" s="31"/>
     </row>
     <row r="705" spans="6:20" x14ac:dyDescent="0.25">
@@ -15726,7 +15842,7 @@
       <c r="P705" s="8"/>
       <c r="Q705" s="8"/>
       <c r="R705" s="9"/>
-      <c r="S705" s="46"/>
+      <c r="S705" s="34"/>
       <c r="T705" s="31"/>
     </row>
     <row r="706" spans="6:20" x14ac:dyDescent="0.25">
@@ -15743,7 +15859,7 @@
       <c r="P706" s="8"/>
       <c r="Q706" s="8"/>
       <c r="R706" s="9"/>
-      <c r="S706" s="46"/>
+      <c r="S706" s="34"/>
       <c r="T706" s="31"/>
     </row>
     <row r="707" spans="6:20" x14ac:dyDescent="0.25">
@@ -15760,7 +15876,7 @@
       <c r="P707" s="8"/>
       <c r="Q707" s="8"/>
       <c r="R707" s="9"/>
-      <c r="S707" s="46"/>
+      <c r="S707" s="34"/>
       <c r="T707" s="31"/>
     </row>
     <row r="708" spans="6:20" x14ac:dyDescent="0.25">
@@ -15777,7 +15893,7 @@
       <c r="P708" s="8"/>
       <c r="Q708" s="8"/>
       <c r="R708" s="9"/>
-      <c r="S708" s="46"/>
+      <c r="S708" s="34"/>
       <c r="T708" s="31"/>
     </row>
     <row r="709" spans="6:20" x14ac:dyDescent="0.25">
@@ -15794,7 +15910,7 @@
       <c r="P709" s="8"/>
       <c r="Q709" s="8"/>
       <c r="R709" s="9"/>
-      <c r="S709" s="46"/>
+      <c r="S709" s="34"/>
       <c r="T709" s="31"/>
     </row>
     <row r="710" spans="6:20" x14ac:dyDescent="0.25">
@@ -15811,7 +15927,7 @@
       <c r="P710" s="8"/>
       <c r="Q710" s="8"/>
       <c r="R710" s="9"/>
-      <c r="S710" s="46"/>
+      <c r="S710" s="34"/>
       <c r="T710" s="31"/>
     </row>
     <row r="711" spans="6:20" x14ac:dyDescent="0.25">
@@ -15828,7 +15944,7 @@
       <c r="P711" s="8"/>
       <c r="Q711" s="8"/>
       <c r="R711" s="9"/>
-      <c r="S711" s="46"/>
+      <c r="S711" s="34"/>
       <c r="T711" s="31"/>
     </row>
     <row r="712" spans="6:20" x14ac:dyDescent="0.25">
@@ -15845,7 +15961,7 @@
       <c r="P712" s="8"/>
       <c r="Q712" s="8"/>
       <c r="R712" s="9"/>
-      <c r="S712" s="46"/>
+      <c r="S712" s="34"/>
       <c r="T712" s="31"/>
     </row>
     <row r="713" spans="6:20" x14ac:dyDescent="0.25">
@@ -15862,7 +15978,7 @@
       <c r="P713" s="8"/>
       <c r="Q713" s="8"/>
       <c r="R713" s="9"/>
-      <c r="S713" s="46"/>
+      <c r="S713" s="34"/>
       <c r="T713" s="31"/>
     </row>
     <row r="714" spans="6:20" x14ac:dyDescent="0.25">
@@ -15879,7 +15995,7 @@
       <c r="P714" s="8"/>
       <c r="Q714" s="8"/>
       <c r="R714" s="9"/>
-      <c r="S714" s="46"/>
+      <c r="S714" s="34"/>
       <c r="T714" s="31"/>
     </row>
     <row r="715" spans="6:20" x14ac:dyDescent="0.25">
@@ -15896,7 +16012,7 @@
       <c r="P715" s="8"/>
       <c r="Q715" s="8"/>
       <c r="R715" s="9"/>
-      <c r="S715" s="46"/>
+      <c r="S715" s="34"/>
       <c r="T715" s="31"/>
     </row>
     <row r="716" spans="6:20" x14ac:dyDescent="0.25">
@@ -15913,7 +16029,7 @@
       <c r="P716" s="8"/>
       <c r="Q716" s="8"/>
       <c r="R716" s="9"/>
-      <c r="S716" s="46"/>
+      <c r="S716" s="34"/>
       <c r="T716" s="31"/>
     </row>
     <row r="717" spans="6:20" x14ac:dyDescent="0.25">
@@ -15930,7 +16046,7 @@
       <c r="P717" s="8"/>
       <c r="Q717" s="8"/>
       <c r="R717" s="9"/>
-      <c r="S717" s="46"/>
+      <c r="S717" s="34"/>
       <c r="T717" s="31"/>
     </row>
     <row r="718" spans="6:20" x14ac:dyDescent="0.25">
@@ -15947,7 +16063,7 @@
       <c r="P718" s="8"/>
       <c r="Q718" s="8"/>
       <c r="R718" s="9"/>
-      <c r="S718" s="46"/>
+      <c r="S718" s="34"/>
       <c r="T718" s="31"/>
     </row>
     <row r="719" spans="6:20" x14ac:dyDescent="0.25">
@@ -15964,7 +16080,7 @@
       <c r="P719" s="8"/>
       <c r="Q719" s="8"/>
       <c r="R719" s="9"/>
-      <c r="S719" s="46"/>
+      <c r="S719" s="34"/>
       <c r="T719" s="31"/>
     </row>
     <row r="720" spans="6:20" x14ac:dyDescent="0.25">
@@ -15981,7 +16097,7 @@
       <c r="P720" s="8"/>
       <c r="Q720" s="8"/>
       <c r="R720" s="9"/>
-      <c r="S720" s="46"/>
+      <c r="S720" s="34"/>
       <c r="T720" s="31"/>
     </row>
     <row r="721" spans="6:20" x14ac:dyDescent="0.25">
@@ -15998,7 +16114,7 @@
       <c r="P721" s="8"/>
       <c r="Q721" s="8"/>
       <c r="R721" s="9"/>
-      <c r="S721" s="46"/>
+      <c r="S721" s="34"/>
       <c r="T721" s="31"/>
     </row>
     <row r="722" spans="6:20" x14ac:dyDescent="0.25">
@@ -16015,7 +16131,7 @@
       <c r="P722" s="8"/>
       <c r="Q722" s="8"/>
       <c r="R722" s="9"/>
-      <c r="S722" s="46"/>
+      <c r="S722" s="34"/>
       <c r="T722" s="31"/>
     </row>
     <row r="723" spans="6:20" x14ac:dyDescent="0.25">
@@ -16032,7 +16148,7 @@
       <c r="P723" s="8"/>
       <c r="Q723" s="8"/>
       <c r="R723" s="9"/>
-      <c r="S723" s="46"/>
+      <c r="S723" s="34"/>
       <c r="T723" s="31"/>
     </row>
     <row r="724" spans="6:20" x14ac:dyDescent="0.25">
@@ -16049,7 +16165,7 @@
       <c r="P724" s="8"/>
       <c r="Q724" s="8"/>
       <c r="R724" s="9"/>
-      <c r="S724" s="46"/>
+      <c r="S724" s="34"/>
       <c r="T724" s="31"/>
     </row>
     <row r="725" spans="6:20" x14ac:dyDescent="0.25">
@@ -16066,7 +16182,7 @@
       <c r="P725" s="8"/>
       <c r="Q725" s="8"/>
       <c r="R725" s="9"/>
-      <c r="S725" s="46"/>
+      <c r="S725" s="34"/>
       <c r="T725" s="31"/>
     </row>
     <row r="726" spans="6:20" x14ac:dyDescent="0.25">
@@ -16083,7 +16199,7 @@
       <c r="P726" s="8"/>
       <c r="Q726" s="8"/>
       <c r="R726" s="9"/>
-      <c r="S726" s="46"/>
+      <c r="S726" s="34"/>
       <c r="T726" s="31"/>
     </row>
     <row r="727" spans="6:20" x14ac:dyDescent="0.25">
@@ -16100,7 +16216,7 @@
       <c r="P727" s="8"/>
       <c r="Q727" s="8"/>
       <c r="R727" s="9"/>
-      <c r="S727" s="46"/>
+      <c r="S727" s="34"/>
       <c r="T727" s="31"/>
     </row>
     <row r="728" spans="6:20" x14ac:dyDescent="0.25">
@@ -16117,7 +16233,7 @@
       <c r="P728" s="8"/>
       <c r="Q728" s="8"/>
       <c r="R728" s="9"/>
-      <c r="S728" s="46"/>
+      <c r="S728" s="34"/>
       <c r="T728" s="31"/>
     </row>
     <row r="729" spans="6:20" x14ac:dyDescent="0.25">
@@ -16134,7 +16250,7 @@
       <c r="P729" s="8"/>
       <c r="Q729" s="8"/>
       <c r="R729" s="9"/>
-      <c r="S729" s="46"/>
+      <c r="S729" s="34"/>
       <c r="T729" s="31"/>
     </row>
     <row r="730" spans="6:20" x14ac:dyDescent="0.25">
@@ -16151,7 +16267,7 @@
       <c r="P730" s="8"/>
       <c r="Q730" s="8"/>
       <c r="R730" s="9"/>
-      <c r="S730" s="46"/>
+      <c r="S730" s="34"/>
       <c r="T730" s="31"/>
     </row>
     <row r="731" spans="6:20" x14ac:dyDescent="0.25">
@@ -16168,7 +16284,7 @@
       <c r="P731" s="8"/>
       <c r="Q731" s="8"/>
       <c r="R731" s="9"/>
-      <c r="S731" s="46"/>
+      <c r="S731" s="34"/>
       <c r="T731" s="31"/>
     </row>
     <row r="732" spans="6:20" x14ac:dyDescent="0.25">
@@ -16185,7 +16301,7 @@
       <c r="P732" s="8"/>
       <c r="Q732" s="8"/>
       <c r="R732" s="9"/>
-      <c r="S732" s="46"/>
+      <c r="S732" s="34"/>
       <c r="T732" s="31"/>
     </row>
     <row r="733" spans="6:20" x14ac:dyDescent="0.25">
@@ -16202,7 +16318,7 @@
       <c r="P733" s="8"/>
       <c r="Q733" s="8"/>
       <c r="R733" s="9"/>
-      <c r="S733" s="46"/>
+      <c r="S733" s="34"/>
       <c r="T733" s="31"/>
     </row>
     <row r="734" spans="6:20" x14ac:dyDescent="0.25">
@@ -16219,7 +16335,7 @@
       <c r="P734" s="8"/>
       <c r="Q734" s="8"/>
       <c r="R734" s="9"/>
-      <c r="S734" s="46"/>
+      <c r="S734" s="34"/>
       <c r="T734" s="31"/>
     </row>
     <row r="735" spans="6:20" x14ac:dyDescent="0.25">
@@ -16236,7 +16352,7 @@
       <c r="P735" s="8"/>
       <c r="Q735" s="8"/>
       <c r="R735" s="9"/>
-      <c r="S735" s="46"/>
+      <c r="S735" s="34"/>
       <c r="T735" s="31"/>
     </row>
     <row r="736" spans="6:20" x14ac:dyDescent="0.25">
@@ -16253,7 +16369,7 @@
       <c r="P736" s="8"/>
       <c r="Q736" s="8"/>
       <c r="R736" s="9"/>
-      <c r="S736" s="46"/>
+      <c r="S736" s="34"/>
       <c r="T736" s="31"/>
     </row>
     <row r="737" spans="6:20" x14ac:dyDescent="0.25">
@@ -16270,7 +16386,7 @@
       <c r="P737" s="8"/>
       <c r="Q737" s="8"/>
       <c r="R737" s="9"/>
-      <c r="S737" s="46"/>
+      <c r="S737" s="34"/>
       <c r="T737" s="31"/>
     </row>
     <row r="738" spans="6:20" x14ac:dyDescent="0.25">
@@ -16287,7 +16403,7 @@
       <c r="P738" s="8"/>
       <c r="Q738" s="8"/>
       <c r="R738" s="9"/>
-      <c r="S738" s="46"/>
+      <c r="S738" s="34"/>
       <c r="T738" s="31"/>
     </row>
     <row r="739" spans="6:20" x14ac:dyDescent="0.25">
@@ -16304,7 +16420,7 @@
       <c r="P739" s="8"/>
       <c r="Q739" s="8"/>
       <c r="R739" s="9"/>
-      <c r="S739" s="46"/>
+      <c r="S739" s="34"/>
       <c r="T739" s="31"/>
     </row>
     <row r="740" spans="6:20" x14ac:dyDescent="0.25">
@@ -16321,7 +16437,7 @@
       <c r="P740" s="8"/>
       <c r="Q740" s="8"/>
       <c r="R740" s="9"/>
-      <c r="S740" s="46"/>
+      <c r="S740" s="34"/>
       <c r="T740" s="31"/>
     </row>
     <row r="741" spans="6:20" x14ac:dyDescent="0.25">
@@ -16338,7 +16454,7 @@
       <c r="P741" s="8"/>
       <c r="Q741" s="8"/>
       <c r="R741" s="9"/>
-      <c r="S741" s="46"/>
+      <c r="S741" s="34"/>
       <c r="T741" s="31"/>
     </row>
     <row r="742" spans="6:20" x14ac:dyDescent="0.25">
@@ -16355,7 +16471,7 @@
       <c r="P742" s="8"/>
       <c r="Q742" s="8"/>
       <c r="R742" s="9"/>
-      <c r="S742" s="46"/>
+      <c r="S742" s="34"/>
       <c r="T742" s="31"/>
     </row>
     <row r="743" spans="6:20" x14ac:dyDescent="0.25">
@@ -16372,7 +16488,7 @@
       <c r="P743" s="8"/>
       <c r="Q743" s="8"/>
       <c r="R743" s="9"/>
-      <c r="S743" s="46"/>
+      <c r="S743" s="34"/>
       <c r="T743" s="31"/>
     </row>
     <row r="744" spans="6:20" x14ac:dyDescent="0.25">
@@ -16389,7 +16505,7 @@
       <c r="P744" s="8"/>
       <c r="Q744" s="8"/>
       <c r="R744" s="9"/>
-      <c r="S744" s="46"/>
+      <c r="S744" s="34"/>
       <c r="T744" s="31"/>
     </row>
     <row r="745" spans="6:20" x14ac:dyDescent="0.25">
@@ -16406,7 +16522,7 @@
       <c r="P745" s="8"/>
       <c r="Q745" s="8"/>
       <c r="R745" s="9"/>
-      <c r="S745" s="46"/>
+      <c r="S745" s="34"/>
       <c r="T745" s="31"/>
     </row>
     <row r="746" spans="6:20" x14ac:dyDescent="0.25">
@@ -16423,7 +16539,7 @@
       <c r="P746" s="8"/>
       <c r="Q746" s="8"/>
       <c r="R746" s="9"/>
-      <c r="S746" s="46"/>
+      <c r="S746" s="34"/>
       <c r="T746" s="31"/>
     </row>
     <row r="747" spans="6:20" x14ac:dyDescent="0.25">
@@ -16440,7 +16556,7 @@
       <c r="P747" s="8"/>
       <c r="Q747" s="8"/>
       <c r="R747" s="9"/>
-      <c r="S747" s="46"/>
+      <c r="S747" s="34"/>
       <c r="T747" s="31"/>
     </row>
     <row r="748" spans="6:20" x14ac:dyDescent="0.25">
@@ -16457,7 +16573,7 @@
       <c r="P748" s="8"/>
       <c r="Q748" s="8"/>
       <c r="R748" s="9"/>
-      <c r="S748" s="46"/>
+      <c r="S748" s="34"/>
       <c r="T748" s="31"/>
     </row>
     <row r="749" spans="6:20" x14ac:dyDescent="0.25">
@@ -16474,7 +16590,7 @@
       <c r="P749" s="8"/>
       <c r="Q749" s="8"/>
       <c r="R749" s="9"/>
-      <c r="S749" s="46"/>
+      <c r="S749" s="34"/>
       <c r="T749" s="31"/>
     </row>
     <row r="750" spans="6:20" x14ac:dyDescent="0.25">
@@ -16491,7 +16607,7 @@
       <c r="P750" s="8"/>
       <c r="Q750" s="8"/>
       <c r="R750" s="9"/>
-      <c r="S750" s="46"/>
+      <c r="S750" s="34"/>
       <c r="T750" s="31"/>
     </row>
     <row r="751" spans="6:20" x14ac:dyDescent="0.25">
@@ -16508,7 +16624,7 @@
       <c r="P751" s="8"/>
       <c r="Q751" s="8"/>
       <c r="R751" s="9"/>
-      <c r="S751" s="46"/>
+      <c r="S751" s="34"/>
       <c r="T751" s="31"/>
     </row>
     <row r="752" spans="6:20" x14ac:dyDescent="0.25">
@@ -16525,7 +16641,7 @@
       <c r="P752" s="8"/>
       <c r="Q752" s="8"/>
       <c r="R752" s="9"/>
-      <c r="S752" s="46"/>
+      <c r="S752" s="34"/>
       <c r="T752" s="31"/>
     </row>
     <row r="753" spans="6:20" x14ac:dyDescent="0.25">
@@ -16542,7 +16658,7 @@
       <c r="P753" s="8"/>
       <c r="Q753" s="8"/>
       <c r="R753" s="9"/>
-      <c r="S753" s="46"/>
+      <c r="S753" s="34"/>
       <c r="T753" s="31"/>
     </row>
     <row r="754" spans="6:20" x14ac:dyDescent="0.25">
@@ -16559,7 +16675,7 @@
       <c r="P754" s="8"/>
       <c r="Q754" s="8"/>
       <c r="R754" s="9"/>
-      <c r="S754" s="46"/>
+      <c r="S754" s="34"/>
       <c r="T754" s="31"/>
     </row>
     <row r="755" spans="6:20" x14ac:dyDescent="0.25">
@@ -16576,7 +16692,7 @@
       <c r="P755" s="8"/>
       <c r="Q755" s="8"/>
       <c r="R755" s="9"/>
-      <c r="S755" s="46"/>
+      <c r="S755" s="34"/>
       <c r="T755" s="31"/>
     </row>
     <row r="756" spans="6:20" x14ac:dyDescent="0.25">
@@ -16593,7 +16709,7 @@
       <c r="P756" s="8"/>
       <c r="Q756" s="8"/>
       <c r="R756" s="9"/>
-      <c r="S756" s="46"/>
+      <c r="S756" s="34"/>
       <c r="T756" s="31"/>
     </row>
     <row r="757" spans="6:20" x14ac:dyDescent="0.25">
@@ -16610,7 +16726,7 @@
       <c r="P757" s="8"/>
       <c r="Q757" s="8"/>
       <c r="R757" s="9"/>
-      <c r="S757" s="46"/>
+      <c r="S757" s="34"/>
       <c r="T757" s="31"/>
     </row>
     <row r="758" spans="6:20" x14ac:dyDescent="0.25">
@@ -16627,7 +16743,7 @@
       <c r="P758" s="8"/>
       <c r="Q758" s="8"/>
       <c r="R758" s="9"/>
-      <c r="S758" s="46"/>
+      <c r="S758" s="34"/>
       <c r="T758" s="31"/>
     </row>
     <row r="759" spans="6:20" x14ac:dyDescent="0.25">
@@ -16644,7 +16760,7 @@
       <c r="P759" s="8"/>
       <c r="Q759" s="8"/>
       <c r="R759" s="9"/>
-      <c r="S759" s="46"/>
+      <c r="S759" s="34"/>
       <c r="T759" s="31"/>
     </row>
     <row r="760" spans="6:20" x14ac:dyDescent="0.25">
@@ -16661,7 +16777,7 @@
       <c r="P760" s="8"/>
       <c r="Q760" s="8"/>
       <c r="R760" s="9"/>
-      <c r="S760" s="46"/>
+      <c r="S760" s="34"/>
       <c r="T760" s="31"/>
     </row>
     <row r="761" spans="6:20" x14ac:dyDescent="0.25">
@@ -16678,7 +16794,7 @@
       <c r="P761" s="8"/>
       <c r="Q761" s="8"/>
       <c r="R761" s="9"/>
-      <c r="S761" s="46"/>
+      <c r="S761" s="34"/>
       <c r="T761" s="31"/>
     </row>
     <row r="762" spans="6:20" x14ac:dyDescent="0.25">
@@ -16695,7 +16811,7 @@
       <c r="P762" s="8"/>
       <c r="Q762" s="8"/>
       <c r="R762" s="9"/>
-      <c r="S762" s="46"/>
+      <c r="S762" s="34"/>
       <c r="T762" s="31"/>
     </row>
     <row r="763" spans="6:20" x14ac:dyDescent="0.25">
@@ -16712,7 +16828,7 @@
       <c r="P763" s="8"/>
       <c r="Q763" s="8"/>
       <c r="R763" s="9"/>
-      <c r="S763" s="46"/>
+      <c r="S763" s="34"/>
       <c r="T763" s="31"/>
     </row>
     <row r="764" spans="6:20" x14ac:dyDescent="0.25">
@@ -16729,7 +16845,7 @@
       <c r="P764" s="8"/>
       <c r="Q764" s="8"/>
       <c r="R764" s="9"/>
-      <c r="S764" s="46"/>
+      <c r="S764" s="34"/>
       <c r="T764" s="31"/>
     </row>
     <row r="765" spans="6:20" x14ac:dyDescent="0.25">
@@ -16746,7 +16862,7 @@
       <c r="P765" s="8"/>
       <c r="Q765" s="8"/>
       <c r="R765" s="9"/>
-      <c r="S765" s="46"/>
+      <c r="S765" s="34"/>
       <c r="T765" s="31"/>
     </row>
     <row r="766" spans="6:20" x14ac:dyDescent="0.25">
@@ -16763,7 +16879,7 @@
       <c r="P766" s="8"/>
       <c r="Q766" s="8"/>
       <c r="R766" s="9"/>
-      <c r="S766" s="46"/>
+      <c r="S766" s="34"/>
       <c r="T766" s="31"/>
     </row>
     <row r="767" spans="6:20" x14ac:dyDescent="0.25">
@@ -16780,7 +16896,7 @@
       <c r="P767" s="8"/>
       <c r="Q767" s="8"/>
       <c r="R767" s="9"/>
-      <c r="S767" s="46"/>
+      <c r="S767" s="34"/>
       <c r="T767" s="31"/>
     </row>
     <row r="768" spans="6:20" x14ac:dyDescent="0.25">
@@ -16797,7 +16913,7 @@
       <c r="P768" s="8"/>
       <c r="Q768" s="8"/>
       <c r="R768" s="9"/>
-      <c r="S768" s="46"/>
+      <c r="S768" s="34"/>
       <c r="T768" s="31"/>
     </row>
     <row r="769" spans="6:20" x14ac:dyDescent="0.25">
@@ -16814,7 +16930,7 @@
       <c r="P769" s="8"/>
       <c r="Q769" s="8"/>
       <c r="R769" s="9"/>
-      <c r="S769" s="46"/>
+      <c r="S769" s="34"/>
       <c r="T769" s="31"/>
     </row>
     <row r="770" spans="6:20" x14ac:dyDescent="0.25">
@@ -16831,7 +16947,7 @@
       <c r="P770" s="8"/>
       <c r="Q770" s="8"/>
       <c r="R770" s="9"/>
-      <c r="S770" s="46"/>
+      <c r="S770" s="34"/>
       <c r="T770" s="31"/>
     </row>
     <row r="771" spans="6:20" x14ac:dyDescent="0.25">
@@ -16848,7 +16964,7 @@
       <c r="P771" s="8"/>
       <c r="Q771" s="8"/>
       <c r="R771" s="9"/>
-      <c r="S771" s="46"/>
+      <c r="S771" s="34"/>
       <c r="T771" s="31"/>
     </row>
     <row r="772" spans="6:20" x14ac:dyDescent="0.25">
@@ -16865,7 +16981,7 @@
       <c r="P772" s="8"/>
       <c r="Q772" s="8"/>
       <c r="R772" s="9"/>
-      <c r="S772" s="46"/>
+      <c r="S772" s="34"/>
       <c r="T772" s="31"/>
     </row>
     <row r="773" spans="6:20" x14ac:dyDescent="0.25">
@@ -16882,7 +16998,7 @@
       <c r="P773" s="8"/>
       <c r="Q773" s="8"/>
       <c r="R773" s="9"/>
-      <c r="S773" s="46"/>
+      <c r="S773" s="34"/>
       <c r="T773" s="31"/>
     </row>
     <row r="774" spans="6:20" x14ac:dyDescent="0.25">
@@ -16899,7 +17015,7 @@
       <c r="P774" s="8"/>
       <c r="Q774" s="8"/>
       <c r="R774" s="9"/>
-      <c r="S774" s="46"/>
+      <c r="S774" s="34"/>
       <c r="T774" s="31"/>
     </row>
     <row r="775" spans="6:20" x14ac:dyDescent="0.25">
@@ -16916,7 +17032,7 @@
       <c r="P775" s="8"/>
       <c r="Q775" s="8"/>
       <c r="R775" s="9"/>
-      <c r="S775" s="46"/>
+      <c r="S775" s="34"/>
       <c r="T775" s="31"/>
     </row>
     <row r="776" spans="6:20" x14ac:dyDescent="0.25">
@@ -16933,7 +17049,7 @@
       <c r="P776" s="8"/>
       <c r="Q776" s="8"/>
       <c r="R776" s="9"/>
-      <c r="S776" s="46"/>
+      <c r="S776" s="34"/>
       <c r="T776" s="31"/>
     </row>
     <row r="777" spans="6:20" x14ac:dyDescent="0.25">
@@ -16950,7 +17066,7 @@
       <c r="P777" s="8"/>
       <c r="Q777" s="8"/>
       <c r="R777" s="9"/>
-      <c r="S777" s="46"/>
+      <c r="S777" s="34"/>
       <c r="T777" s="31"/>
     </row>
     <row r="778" spans="6:20" x14ac:dyDescent="0.25">
@@ -16967,7 +17083,7 @@
       <c r="P778" s="8"/>
       <c r="Q778" s="8"/>
       <c r="R778" s="9"/>
-      <c r="S778" s="46"/>
+      <c r="S778" s="34"/>
       <c r="T778" s="31"/>
     </row>
     <row r="779" spans="6:20" x14ac:dyDescent="0.25">
@@ -16984,7 +17100,7 @@
       <c r="P779" s="8"/>
       <c r="Q779" s="8"/>
       <c r="R779" s="9"/>
-      <c r="S779" s="46"/>
+      <c r="S779" s="34"/>
       <c r="T779" s="31"/>
     </row>
     <row r="780" spans="6:20" x14ac:dyDescent="0.25">
@@ -17001,7 +17117,7 @@
       <c r="P780" s="8"/>
       <c r="Q780" s="8"/>
       <c r="R780" s="9"/>
-      <c r="S780" s="46"/>
+      <c r="S780" s="34"/>
       <c r="T780" s="31"/>
     </row>
     <row r="781" spans="6:20" x14ac:dyDescent="0.25">
@@ -17018,7 +17134,7 @@
       <c r="P781" s="8"/>
       <c r="Q781" s="8"/>
       <c r="R781" s="9"/>
-      <c r="S781" s="46"/>
+      <c r="S781" s="34"/>
       <c r="T781" s="31"/>
     </row>
     <row r="782" spans="6:20" x14ac:dyDescent="0.25">
@@ -17035,7 +17151,7 @@
       <c r="P782" s="8"/>
       <c r="Q782" s="8"/>
       <c r="R782" s="9"/>
-      <c r="S782" s="46"/>
+      <c r="S782" s="34"/>
       <c r="T782" s="31"/>
     </row>
     <row r="783" spans="6:20" x14ac:dyDescent="0.25">
@@ -17052,7 +17168,7 @@
       <c r="P783" s="8"/>
       <c r="Q783" s="8"/>
       <c r="R783" s="9"/>
-      <c r="S783" s="46"/>
+      <c r="S783" s="34"/>
       <c r="T783" s="31"/>
     </row>
     <row r="784" spans="6:20" x14ac:dyDescent="0.25">
@@ -17069,7 +17185,7 @@
       <c r="P784" s="8"/>
       <c r="Q784" s="8"/>
       <c r="R784" s="9"/>
-      <c r="S784" s="46"/>
+      <c r="S784" s="34"/>
       <c r="T784" s="31"/>
     </row>
     <row r="785" spans="6:20" x14ac:dyDescent="0.25">
@@ -17086,7 +17202,7 @@
       <c r="P785" s="8"/>
       <c r="Q785" s="8"/>
       <c r="R785" s="9"/>
-      <c r="S785" s="46"/>
+      <c r="S785" s="34"/>
       <c r="T785" s="31"/>
     </row>
     <row r="786" spans="6:20" x14ac:dyDescent="0.25">
@@ -17103,7 +17219,7 @@
       <c r="P786" s="8"/>
       <c r="Q786" s="8"/>
       <c r="R786" s="9"/>
-      <c r="S786" s="46"/>
+      <c r="S786" s="34"/>
       <c r="T786" s="31"/>
     </row>
     <row r="787" spans="6:20" x14ac:dyDescent="0.25">
@@ -17120,7 +17236,7 @@
       <c r="P787" s="8"/>
       <c r="Q787" s="8"/>
       <c r="R787" s="9"/>
-      <c r="S787" s="46"/>
+      <c r="S787" s="34"/>
       <c r="T787" s="31"/>
     </row>
     <row r="788" spans="6:20" x14ac:dyDescent="0.25">
@@ -17137,7 +17253,7 @@
       <c r="P788" s="8"/>
       <c r="Q788" s="8"/>
       <c r="R788" s="9"/>
-      <c r="S788" s="46"/>
+      <c r="S788" s="34"/>
       <c r="T788" s="31"/>
     </row>
     <row r="789" spans="6:20" x14ac:dyDescent="0.25">
@@ -17154,7 +17270,7 @@
       <c r="P789" s="8"/>
       <c r="Q789" s="8"/>
       <c r="R789" s="9"/>
-      <c r="S789" s="46"/>
+      <c r="S789" s="34"/>
       <c r="T789" s="31"/>
     </row>
     <row r="790" spans="6:20" x14ac:dyDescent="0.25">
@@ -17171,7 +17287,7 @@
       <c r="P790" s="8"/>
       <c r="Q790" s="8"/>
       <c r="R790" s="9"/>
-      <c r="S790" s="46"/>
+      <c r="S790" s="34"/>
       <c r="T790" s="31"/>
     </row>
     <row r="791" spans="6:20" x14ac:dyDescent="0.25">
@@ -17188,7 +17304,7 @@
       <c r="P791" s="8"/>
       <c r="Q791" s="8"/>
       <c r="R791" s="9"/>
-      <c r="S791" s="46"/>
+      <c r="S791" s="34"/>
       <c r="T791" s="31"/>
     </row>
     <row r="792" spans="6:20" x14ac:dyDescent="0.25">
@@ -17205,7 +17321,7 @@
       <c r="P792" s="8"/>
       <c r="Q792" s="8"/>
       <c r="R792" s="9"/>
-      <c r="S792" s="46"/>
+      <c r="S792" s="34"/>
       <c r="T792" s="31"/>
     </row>
     <row r="793" spans="6:20" x14ac:dyDescent="0.25">
@@ -17222,7 +17338,7 @@
       <c r="P793" s="8"/>
       <c r="Q793" s="8"/>
       <c r="R793" s="9"/>
-      <c r="S793" s="46"/>
+      <c r="S793" s="34"/>
       <c r="T793" s="31"/>
     </row>
     <row r="794" spans="6:20" x14ac:dyDescent="0.25">
@@ -17239,7 +17355,7 @@
       <c r="P794" s="8"/>
       <c r="Q794" s="8"/>
       <c r="R794" s="9"/>
-      <c r="S794" s="46"/>
+      <c r="S794" s="34"/>
       <c r="T794" s="31"/>
     </row>
     <row r="795" spans="6:20" x14ac:dyDescent="0.25">
@@ -17256,7 +17372,7 @@
       <c r="P795" s="8"/>
       <c r="Q795" s="8"/>
       <c r="R795" s="9"/>
-      <c r="S795" s="46"/>
+      <c r="S795" s="34"/>
       <c r="T795" s="31"/>
     </row>
     <row r="796" spans="6:20" x14ac:dyDescent="0.25">
@@ -17273,7 +17389,7 @@
       <c r="P796" s="8"/>
       <c r="Q796" s="8"/>
       <c r="R796" s="9"/>
-      <c r="S796" s="46"/>
+      <c r="S796" s="34"/>
       <c r="T796" s="31"/>
     </row>
     <row r="797" spans="6:20" x14ac:dyDescent="0.25">
@@ -17290,7 +17406,7 @@
       <c r="P797" s="8"/>
       <c r="Q797" s="8"/>
       <c r="R797" s="9"/>
-      <c r="S797" s="46"/>
+      <c r="S797" s="34"/>
       <c r="T797" s="31"/>
     </row>
     <row r="798" spans="6:20" x14ac:dyDescent="0.25">
@@ -17307,7 +17423,7 @@
       <c r="P798" s="8"/>
       <c r="Q798" s="8"/>
       <c r="R798" s="9"/>
-      <c r="S798" s="46"/>
+      <c r="S798" s="34"/>
       <c r="T798" s="31"/>
     </row>
     <row r="799" spans="6:20" x14ac:dyDescent="0.25">
@@ -17324,7 +17440,7 @@
       <c r="P799" s="8"/>
       <c r="Q799" s="8"/>
       <c r="R799" s="9"/>
-      <c r="S799" s="46"/>
+      <c r="S799" s="34"/>
       <c r="T799" s="31"/>
     </row>
     <row r="800" spans="6:20" x14ac:dyDescent="0.25">
@@ -17341,7 +17457,7 @@
       <c r="P800" s="8"/>
       <c r="Q800" s="8"/>
       <c r="R800" s="9"/>
-      <c r="S800" s="46"/>
+      <c r="S800" s="34"/>
       <c r="T800" s="31"/>
     </row>
     <row r="801" spans="6:20" x14ac:dyDescent="0.25">
@@ -17358,7 +17474,7 @@
       <c r="P801" s="8"/>
       <c r="Q801" s="8"/>
       <c r="R801" s="9"/>
-      <c r="S801" s="46"/>
+      <c r="S801" s="34"/>
       <c r="T801" s="31"/>
     </row>
     <row r="802" spans="6:20" x14ac:dyDescent="0.25">
@@ -17375,7 +17491,7 @@
       <c r="P802" s="8"/>
       <c r="Q802" s="8"/>
       <c r="R802" s="9"/>
-      <c r="S802" s="46"/>
+      <c r="S802" s="34"/>
       <c r="T802" s="31"/>
     </row>
     <row r="803" spans="6:20" x14ac:dyDescent="0.25">
@@ -17392,7 +17508,7 @@
       <c r="P803" s="8"/>
       <c r="Q803" s="8"/>
       <c r="R803" s="9"/>
-      <c r="S803" s="46"/>
+      <c r="S803" s="34"/>
       <c r="T803" s="31"/>
     </row>
     <row r="804" spans="6:20" x14ac:dyDescent="0.25">
@@ -17409,7 +17525,7 @@
       <c r="P804" s="8"/>
       <c r="Q804" s="8"/>
       <c r="R804" s="9"/>
-      <c r="S804" s="46"/>
+      <c r="S804" s="34"/>
       <c r="T804" s="31"/>
     </row>
     <row r="805" spans="6:20" x14ac:dyDescent="0.25">
@@ -17426,7 +17542,7 @@
       <c r="P805" s="8"/>
       <c r="Q805" s="8"/>
       <c r="R805" s="9"/>
-      <c r="S805" s="46"/>
+      <c r="S805" s="34"/>
       <c r="T805" s="31"/>
     </row>
     <row r="806" spans="6:20" x14ac:dyDescent="0.25">
@@ -17443,7 +17559,7 @@
       <c r="P806" s="8"/>
       <c r="Q806" s="8"/>
       <c r="R806" s="9"/>
-      <c r="S806" s="46"/>
+      <c r="S806" s="34"/>
       <c r="T806" s="31"/>
     </row>
     <row r="807" spans="6:20" x14ac:dyDescent="0.25">
@@ -17460,7 +17576,7 @@
       <c r="P807" s="8"/>
       <c r="Q807" s="8"/>
       <c r="R807" s="9"/>
-      <c r="S807" s="46"/>
+      <c r="S807" s="34"/>
       <c r="T807" s="31"/>
     </row>
     <row r="808" spans="6:20" x14ac:dyDescent="0.25">
@@ -17477,7 +17593,7 @@
       <c r="P808" s="8"/>
       <c r="Q808" s="8"/>
       <c r="R808" s="9"/>
-      <c r="S808" s="46"/>
+      <c r="S808" s="34"/>
       <c r="T808" s="31"/>
     </row>
     <row r="809" spans="6:20" x14ac:dyDescent="0.25">
@@ -17494,7 +17610,7 @@
       <c r="P809" s="8"/>
       <c r="Q809" s="8"/>
       <c r="R809" s="9"/>
-      <c r="S809" s="46"/>
+      <c r="S809" s="34"/>
       <c r="T809" s="31"/>
     </row>
     <row r="810" spans="6:20" x14ac:dyDescent="0.25">
@@ -17511,7 +17627,7 @@
       <c r="P810" s="8"/>
       <c r="Q810" s="8"/>
       <c r="R810" s="9"/>
-      <c r="S810" s="46"/>
+      <c r="S810" s="34"/>
       <c r="T810" s="31"/>
     </row>
     <row r="811" spans="6:20" x14ac:dyDescent="0.25">
@@ -17528,7 +17644,7 @@
       <c r="P811" s="8"/>
       <c r="Q811" s="8"/>
       <c r="R811" s="9"/>
-      <c r="S811" s="46"/>
+      <c r="S811" s="34"/>
       <c r="T811" s="31"/>
     </row>
     <row r="812" spans="6:20" x14ac:dyDescent="0.25">
@@ -17545,7 +17661,7 @@
       <c r="P812" s="8"/>
       <c r="Q812" s="8"/>
       <c r="R812" s="9"/>
-      <c r="S812" s="46"/>
+      <c r="S812" s="34"/>
       <c r="T812" s="31"/>
     </row>
     <row r="813" spans="6:20" x14ac:dyDescent="0.25">
@@ -17562,7 +17678,7 @@
       <c r="P813" s="8"/>
       <c r="Q813" s="8"/>
       <c r="R813" s="9"/>
-      <c r="S813" s="46"/>
+      <c r="S813" s="34"/>
       <c r="T813" s="31"/>
     </row>
     <row r="814" spans="6:20" x14ac:dyDescent="0.25">
@@ -17579,7 +17695,7 @@
       <c r="P814" s="8"/>
       <c r="Q814" s="8"/>
       <c r="R814" s="9"/>
-      <c r="S814" s="46"/>
+      <c r="S814" s="34"/>
       <c r="T814" s="31"/>
     </row>
     <row r="815" spans="6:20" x14ac:dyDescent="0.25">
@@ -17596,7 +17712,7 @@
       <c r="P815" s="8"/>
       <c r="Q815" s="8"/>
       <c r="R815" s="9"/>
-      <c r="S815" s="46"/>
+      <c r="S815" s="34"/>
       <c r="T815" s="31"/>
     </row>
     <row r="816" spans="6:20" x14ac:dyDescent="0.25">
@@ -17613,7 +17729,7 @@
       <c r="P816" s="8"/>
       <c r="Q816" s="8"/>
       <c r="R816" s="9"/>
-      <c r="S816" s="46"/>
+      <c r="S816" s="34"/>
       <c r="T816" s="31"/>
     </row>
     <row r="817" spans="6:20" x14ac:dyDescent="0.25">
@@ -17630,7 +17746,7 @@
       <c r="P817" s="8"/>
       <c r="Q817" s="8"/>
       <c r="R817" s="9"/>
-      <c r="S817" s="46"/>
+      <c r="S817" s="34"/>
       <c r="T817" s="31"/>
     </row>
     <row r="818" spans="6:20" x14ac:dyDescent="0.25">
@@ -17647,7 +17763,7 @@
       <c r="P818" s="8"/>
       <c r="Q818" s="8"/>
       <c r="R818" s="9"/>
-      <c r="S818" s="46"/>
+      <c r="S818" s="34"/>
       <c r="T818" s="31"/>
     </row>
     <row r="819" spans="6:20" x14ac:dyDescent="0.25">
@@ -17664,7 +17780,7 @@
       <c r="P819" s="8"/>
       <c r="Q819" s="8"/>
       <c r="R819" s="9"/>
-      <c r="S819" s="46"/>
+      <c r="S819" s="34"/>
       <c r="T819" s="31"/>
     </row>
     <row r="820" spans="6:20" x14ac:dyDescent="0.25">
@@ -17681,7 +17797,7 @@
       <c r="P820" s="8"/>
       <c r="Q820" s="8"/>
       <c r="R820" s="9"/>
-      <c r="S820" s="46"/>
+      <c r="S820" s="34"/>
       <c r="T820" s="31"/>
     </row>
     <row r="821" spans="6:20" x14ac:dyDescent="0.25">
@@ -17698,7 +17814,7 @@
       <c r="P821" s="8"/>
       <c r="Q821" s="8"/>
       <c r="R821" s="9"/>
-      <c r="S821" s="46"/>
+      <c r="S821" s="34"/>
       <c r="T821" s="31"/>
     </row>
     <row r="822" spans="6:20" x14ac:dyDescent="0.25">
@@ -17715,7 +17831,7 @@
       <c r="P822" s="8"/>
       <c r="Q822" s="8"/>
       <c r="R822" s="9"/>
-      <c r="S822" s="46"/>
+      <c r="S822" s="34"/>
       <c r="T822" s="31"/>
     </row>
     <row r="823" spans="6:20" x14ac:dyDescent="0.25">
@@ -17732,7 +17848,7 @@
       <c r="P823" s="8"/>
       <c r="Q823" s="8"/>
       <c r="R823" s="9"/>
-      <c r="S823" s="46"/>
+      <c r="S823" s="34"/>
       <c r="T823" s="31"/>
     </row>
     <row r="824" spans="6:20" x14ac:dyDescent="0.25">
@@ -17749,7 +17865,7 @@
       <c r="P824" s="8"/>
       <c r="Q824" s="8"/>
       <c r="R824" s="9"/>
-      <c r="S824" s="46"/>
+      <c r="S824" s="34"/>
       <c r="T824" s="31"/>
     </row>
     <row r="825" spans="6:20" x14ac:dyDescent="0.25">
@@ -17766,7 +17882,7 @@
       <c r="P825" s="8"/>
       <c r="Q825" s="8"/>
       <c r="R825" s="9"/>
-      <c r="S825" s="46"/>
+      <c r="S825" s="34"/>
       <c r="T825" s="31"/>
     </row>
     <row r="826" spans="6:20" x14ac:dyDescent="0.25">
@@ -17783,7 +17899,7 @@
       <c r="P826" s="8"/>
       <c r="Q826" s="8"/>
       <c r="R826" s="9"/>
-      <c r="S826" s="46"/>
+      <c r="S826" s="34"/>
       <c r="T826" s="31"/>
     </row>
     <row r="827" spans="6:20" x14ac:dyDescent="0.25">
@@ -17800,7 +17916,7 @@
       <c r="P827" s="8"/>
       <c r="Q827" s="8"/>
       <c r="R827" s="9"/>
-      <c r="S827" s="46"/>
+      <c r="S827" s="34"/>
       <c r="T827" s="31"/>
     </row>
     <row r="828" spans="6:20" x14ac:dyDescent="0.25">
@@ -17817,7 +17933,7 @@
       <c r="P828" s="8"/>
       <c r="Q828" s="8"/>
       <c r="R828" s="9"/>
-      <c r="S828" s="46"/>
+      <c r="S828" s="34"/>
       <c r="T828" s="31"/>
     </row>
     <row r="829" spans="6:20" x14ac:dyDescent="0.25">
@@ -17834,7 +17950,7 @@
       <c r="P829" s="8"/>
       <c r="Q829" s="8"/>
       <c r="R829" s="9"/>
-      <c r="S829" s="46"/>
+      <c r="S829" s="34"/>
       <c r="T829" s="31"/>
     </row>
     <row r="830" spans="6:20" x14ac:dyDescent="0.25">
@@ -17851,7 +17967,7 @@
       <c r="P830" s="8"/>
       <c r="Q830" s="8"/>
       <c r="R830" s="9"/>
-      <c r="S830" s="46"/>
+      <c r="S830" s="34"/>
       <c r="T830" s="31"/>
     </row>
   </sheetData>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1DE15F-3254-4B1B-A229-80CA15471A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD470A8-2344-4998-9115-03C6B01F5035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="464" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -689,15 +689,6 @@
     <t>subject_application_version: 2.1b34.x</t>
   </si>
   <si>
-    <t>5778b020f3522159</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.dc99d82c032f3b614725e1eeb1b868b4ef1dc22a6340a6187aeacc41e824920c.4200b408ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T16:18:24.143Z</t>
-  </si>
-  <si>
     <t>l'applicativo non gestisce le conclusioni come campo separato dal testo del referto</t>
   </si>
   <si>
@@ -979,6 +970,15 @@
   </si>
   <si>
     <t>EBIT SRL</t>
+  </si>
+  <si>
+    <t>2023-04-06T18:28:31.133Z</t>
+  </si>
+  <si>
+    <t>2c9a3c70152daa99</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.4593f5131573b1875ee37c7c650601063b1d344a6ddac47ca0324982cac35ab1.2b7b49a6c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC6FE8D-20B5-4094-9F18-656AE8EE60BF}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2904,11 +2904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T830"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D2" s="40"/>
       <c r="F2" s="7"/>
@@ -3180,16 +3180,16 @@
         <v>30</v>
       </c>
       <c r="F10" s="17">
-        <v>44993</v>
+        <v>45022</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>40</v>
@@ -3227,19 +3227,19 @@
         <v>44993</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
@@ -3273,19 +3273,19 @@
         <v>44993</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
@@ -3319,13 +3319,13 @@
         <v>44994</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>40</v>
@@ -3363,37 +3363,37 @@
         <v>44994</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20"/>
       <c r="S14" s="35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="T14" s="30" t="s">
         <v>125</v>
@@ -3419,37 +3419,37 @@
         <v>44994</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
       <c r="S15" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T15" s="30" t="s">
         <v>125</v>
@@ -3482,13 +3482,13 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
@@ -3519,37 +3519,37 @@
         <v>44994</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20"/>
       <c r="S17" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T17" s="30" t="s">
         <v>125</v>
@@ -3575,29 +3575,29 @@
         <v>44994</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P18" s="19" t="s">
         <v>100</v>
@@ -3605,7 +3605,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
       <c r="S18" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T18" s="30" t="s">
         <v>125</v>
@@ -3631,37 +3631,37 @@
         <v>44994</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
       <c r="S19" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T19" s="30" t="s">
         <v>125</v>
@@ -3687,37 +3687,37 @@
         <v>44995</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
       <c r="S20" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="T20" s="30" t="s">
         <v>125</v>
@@ -3743,37 +3743,37 @@
         <v>44994</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
       <c r="S21" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="T21" s="30" t="s">
         <v>125</v>
@@ -3799,37 +3799,37 @@
         <v>44994</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M22" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
       <c r="S22" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="T22" s="30" t="s">
         <v>125</v>
@@ -3855,37 +3855,37 @@
         <v>44994</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M23" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
       <c r="S23" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T23" s="30" t="s">
         <v>125</v>
@@ -3911,29 +3911,29 @@
         <v>44995</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P24" s="19" t="s">
         <v>100</v>
@@ -3941,7 +3941,7 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
       <c r="S24" s="35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="T24" s="30" t="s">
         <v>125</v>
@@ -3967,37 +3967,37 @@
         <v>44994</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M25" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
       <c r="S25" s="35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T25" s="30" t="s">
         <v>125</v>
@@ -4023,37 +4023,37 @@
         <v>44994</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M26" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
       <c r="S26" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="T26" s="30" t="s">
         <v>125</v>
@@ -4079,37 +4079,37 @@
         <v>44994</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M27" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20"/>
       <c r="S27" s="35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="T27" s="30" t="s">
         <v>125</v>
@@ -4139,7 +4139,7 @@
         <v>100</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -4173,37 +4173,37 @@
         <v>44995</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M29" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
       <c r="S29" s="35" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="T29" s="30" t="s">
         <v>125</v>
@@ -4233,7 +4233,7 @@
         <v>100</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
@@ -4271,7 +4271,7 @@
         <v>100</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -4309,7 +4309,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -4347,7 +4347,7 @@
         <v>100</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -4385,7 +4385,7 @@
         <v>100</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -4419,37 +4419,37 @@
         <v>44995</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J35" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
       <c r="S35" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T35" s="30" t="s">
         <v>125</v>
@@ -20223,15 +20223,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -20481,6 +20472,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
@@ -20501,14 +20501,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20528,6 +20520,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD470A8-2344-4998-9115-03C6B01F5035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180C0042-99F1-4825-A3AB-7C5C0048415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="464" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="227">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -689,18 +689,6 @@
     <t>subject_application_version: 2.1b34.x</t>
   </si>
   <si>
-    <t>l'applicativo non gestisce le conclusioni come campo separato dal testo del referto</t>
-  </si>
-  <si>
-    <t>2023-03-08T17:21:18.743Z</t>
-  </si>
-  <si>
-    <t>729f283b4adfc6d4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.187859189abe6ac7e64b26f66ea72529bab08fd6772df590fbf1422e7e57dc6e.e00595294b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.acd69857c2b944e280f2745e5db8eaa0cddd510501b35e875236f7f2ca46f6e7.df223dfdab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -979,6 +967,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.4593f5131573b1875ee37c7c650601063b1d344a6ddac47ca0324982cac35ab1.2b7b49a6c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-07T09:31:51.547Z</t>
+  </si>
+  <si>
+    <t>a7329aa9dd6894c4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.b6e9cc7d6e35348960a1e69139949d231d3400619b002067638abc31c5b4242e.4e6c1f288f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2905,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,7 +2950,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="41" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D2" s="40"/>
       <c r="F2" s="7"/>
@@ -3183,13 +3180,13 @@
         <v>45022</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>40</v>
@@ -3224,23 +3221,21 @@
         <v>32</v>
       </c>
       <c r="F11" s="17">
-        <v>44993</v>
+        <v>45023</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
@@ -3273,19 +3268,19 @@
         <v>44993</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
@@ -3319,13 +3314,13 @@
         <v>44994</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>40</v>
@@ -3363,13 +3358,13 @@
         <v>44994</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>40</v>
@@ -3382,18 +3377,18 @@
         <v>100</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O14" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20"/>
       <c r="S14" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="T14" s="30" t="s">
         <v>125</v>
@@ -3419,13 +3414,13 @@
         <v>44994</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>40</v>
@@ -3438,18 +3433,18 @@
         <v>100</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
       <c r="S15" s="35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T15" s="30" t="s">
         <v>125</v>
@@ -3482,13 +3477,13 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
@@ -3519,13 +3514,13 @@
         <v>44994</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>40</v>
@@ -3538,18 +3533,18 @@
         <v>100</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O17" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20"/>
       <c r="S17" s="35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="T17" s="30" t="s">
         <v>125</v>
@@ -3575,13 +3570,13 @@
         <v>44994</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>40</v>
@@ -3594,7 +3589,7 @@
         <v>100</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O18" s="19" t="s">
         <v>40</v>
@@ -3605,7 +3600,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
       <c r="S18" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T18" s="30" t="s">
         <v>125</v>
@@ -3631,13 +3626,13 @@
         <v>44994</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>40</v>
@@ -3650,18 +3645,18 @@
         <v>100</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
       <c r="S19" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T19" s="30" t="s">
         <v>125</v>
@@ -3687,13 +3682,13 @@
         <v>44995</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>40</v>
@@ -3706,18 +3701,18 @@
         <v>100</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
       <c r="S20" s="35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="T20" s="30" t="s">
         <v>125</v>
@@ -3743,13 +3738,13 @@
         <v>44994</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>40</v>
@@ -3762,18 +3757,18 @@
         <v>100</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
       <c r="S21" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="T21" s="30" t="s">
         <v>125</v>
@@ -3799,13 +3794,13 @@
         <v>44994</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>40</v>
@@ -3818,18 +3813,18 @@
         <v>100</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
       <c r="S22" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="T22" s="30" t="s">
         <v>125</v>
@@ -3855,13 +3850,13 @@
         <v>44994</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>40</v>
@@ -3874,18 +3869,18 @@
         <v>100</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
       <c r="S23" s="35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T23" s="30" t="s">
         <v>125</v>
@@ -3911,13 +3906,13 @@
         <v>44995</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>40</v>
@@ -3930,7 +3925,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>40</v>
@@ -3941,7 +3936,7 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
       <c r="S24" s="35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T24" s="30" t="s">
         <v>125</v>
@@ -3967,13 +3962,13 @@
         <v>44994</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>40</v>
@@ -3986,18 +3981,18 @@
         <v>100</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
       <c r="S25" s="35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T25" s="30" t="s">
         <v>125</v>
@@ -4023,13 +4018,13 @@
         <v>44994</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>40</v>
@@ -4042,18 +4037,18 @@
         <v>100</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
       <c r="S26" s="35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T26" s="30" t="s">
         <v>125</v>
@@ -4079,13 +4074,13 @@
         <v>44994</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>40</v>
@@ -4098,18 +4093,18 @@
         <v>100</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20"/>
       <c r="S27" s="35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T27" s="30" t="s">
         <v>125</v>
@@ -4139,7 +4134,7 @@
         <v>100</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -4173,13 +4168,13 @@
         <v>44995</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>40</v>
@@ -4192,18 +4187,18 @@
         <v>100</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
       <c r="S29" s="35" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="T29" s="30" t="s">
         <v>125</v>
@@ -4233,7 +4228,7 @@
         <v>100</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
@@ -4271,7 +4266,7 @@
         <v>100</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -4309,7 +4304,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -4347,7 +4342,7 @@
         <v>100</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -4385,7 +4380,7 @@
         <v>100</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -4419,13 +4414,13 @@
         <v>44995</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J35" s="19" t="s">
         <v>40</v>
@@ -4438,18 +4433,18 @@
         <v>100</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
       <c r="S35" s="35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="T35" s="30" t="s">
         <v>125</v>
@@ -20223,6 +20218,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -20472,15 +20476,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
@@ -20501,6 +20496,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20520,14 +20523,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180C0042-99F1-4825-A3AB-7C5C0048415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144E69F4-8AA4-44E2-A7B2-BC4628837EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="464" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="90" windowWidth="24855" windowHeight="15555" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="210">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -689,27 +689,6 @@
     <t>subject_application_version: 2.1b34.x</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.acd69857c2b944e280f2745e5db8eaa0cddd510501b35e875236f7f2ca46f6e7.df223dfdab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e78202ef5d70343b</t>
-  </si>
-  <si>
-    <t>2023-03-08T17:36:30.200Z</t>
-  </si>
-  <si>
-    <t>c049c710b19711c7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.39e5f3ab703f95bbef517b6ec82973d0e6e2cb349d7ae5f2196fcb2bbcec4f4f.c28f8357be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-09T10:10:47.263Z</t>
-  </si>
-  <si>
-    <t>storia clinica e suggerimenti per il medico non sono campi gestiti dall'applicativo</t>
-  </si>
-  <si>
     <t>948da432939ef3c4</t>
   </si>
   <si>
@@ -731,30 +710,6 @@
     <t>title : "Campo token JWT non valido.", "detail" : "Il campo action_id non Ã¨ corretto"</t>
   </si>
   <si>
-    <t>per eseguireil test è stato forzato a mano il campo action id a TEST</t>
-  </si>
-  <si>
-    <t>4814701ee9ca56b3</t>
-  </si>
-  <si>
-    <t>"title" : "Campo token JWT non valido.", "detail" : "Il campo person_id non Ã¨ valorizzato", "instance" : "/jwt-mandatory-field-missing"</t>
-  </si>
-  <si>
-    <t>l'applicativo non consente l'invio senza la presenza del Codice Fiscale, per i test è stato forzato vuoto e bypassati i sistemi di validazione interni.</t>
-  </si>
-  <si>
-    <t>2023-03-09T13:15:16.300Z</t>
-  </si>
-  <si>
-    <t>2023-03-09T14:52:20.840Z</t>
-  </si>
-  <si>
-    <t>aa4bfb227bc23ebe</t>
-  </si>
-  <si>
-    <t>"title" : "Campo token JWT non valido.", "detail" : "Il codice fiscale nel campo person_id non Ã¨ corretto", "instance" : "/jwt-mandatory-field-malformed"</t>
-  </si>
-  <si>
     <t>l'applicativo consente i vaori N e V, è stato forzato per il test il valore R</t>
   </si>
   <si>
@@ -896,18 +851,6 @@
     <t>52fd375a8c189cb0</t>
   </si>
   <si>
-    <t>2023-03-10T13:07:46.997Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.287f835b5e7251d5c219cdf94b1d479d291c97afcb0986fe5c9ac7768dd3e476.2f453a8ba4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>64607fd7aac52204</t>
-  </si>
-  <si>
-    <t>l'applicativo non consente di lasciar vuota la città di residenza, abbiamo svuotato a mano il campo per eseguire il test.</t>
-  </si>
-  <si>
     <t>[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
   </si>
   <si>
@@ -935,12 +878,6 @@
     <t>2023-03-10T13:59:50.070Z</t>
   </si>
   <si>
-    <t>per eseguireil test è stato forzato a mano il campo purpose of use vuoto</t>
-  </si>
-  <si>
-    <t>l'applicativo converte in maiuscoli eventuali caratteri minuscoli, per il test abbiamo forzato il valore</t>
-  </si>
-  <si>
     <t>il valore del priorityCode è stato forzato con un valore non consentito per poter eseguire il test</t>
   </si>
   <si>
@@ -950,13 +887,6 @@
     <t>non verificabile</t>
   </si>
   <si>
-    <t>non verifcabile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.  
-</t>
-  </si>
-  <si>
     <t>EBIT SRL</t>
   </si>
   <si>
@@ -976,6 +906,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.b6e9cc7d6e35348960a1e69139949d231d3400619b002067638abc31c5b4242e.4e6c1f288f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>i campi opzionali storia clinica e suggerimenti per il medico non sono campi gestiti dall'applicativo</t>
+  </si>
+  <si>
+    <t>le sezioni opzionali del test case non sono gestite</t>
+  </si>
+  <si>
+    <t>il campo è obbligatorio nell'applicativo</t>
+  </si>
+  <si>
+    <t>l'applicativo converte in maiuscoli eventuali caratteri minuscoli, non ammessi</t>
+  </si>
+  <si>
+    <t>l'indirizzo di residenza non è gestito perché opzionale</t>
+  </si>
+  <si>
+    <t>segnalato nella maschera di monitoraggio integrazioni</t>
   </si>
 </sst>
 </file>
@@ -2902,10 +2850,10 @@
   <dimension ref="A1:T830"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,7 +2898,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="41" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="D2" s="40"/>
       <c r="F2" s="7"/>
@@ -3180,13 +3128,13 @@
         <v>45022</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>40</v>
@@ -3224,13 +3172,13 @@
         <v>45023</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>40</v>
@@ -3264,23 +3212,15 @@
       <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17">
-        <v>44993</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>131</v>
-      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="19" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
@@ -3310,22 +3250,16 @@
       <c r="E13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>205</v>
+      </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -3358,38 +3292,36 @@
         <v>44994</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="O14" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20"/>
-      <c r="S14" s="35" t="s">
-        <v>213</v>
-      </c>
+      <c r="S14" s="35"/>
       <c r="T14" s="30" t="s">
         <v>125</v>
       </c>
@@ -3414,38 +3346,36 @@
         <v>44994</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>100</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
-      <c r="S15" s="35" t="s">
-        <v>145</v>
-      </c>
+      <c r="S15" s="35"/>
       <c r="T15" s="30" t="s">
         <v>125</v>
       </c>
@@ -3477,13 +3407,13 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
@@ -3510,42 +3440,24 @@
       <c r="E17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>140</v>
-      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="N17" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>217</v>
-      </c>
+      <c r="K17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="20"/>
-      <c r="S17" s="35" t="s">
-        <v>148</v>
-      </c>
+      <c r="S17" s="35"/>
       <c r="T17" s="30" t="s">
         <v>125</v>
       </c>
@@ -3566,42 +3478,24 @@
       <c r="E18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>140</v>
-      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="N18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="K18" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
-      <c r="S18" s="35" t="s">
-        <v>214</v>
-      </c>
+      <c r="S18" s="35"/>
       <c r="T18" s="30" t="s">
         <v>125</v>
       </c>
@@ -3626,13 +3520,13 @@
         <v>44994</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>40</v>
@@ -3645,18 +3539,18 @@
         <v>100</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
       <c r="S19" s="35" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="T19" s="30" t="s">
         <v>125</v>
@@ -3678,42 +3572,24 @@
       <c r="E20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="17">
-        <v>44995</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>201</v>
-      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>218</v>
-      </c>
+      <c r="K20" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
-      <c r="S20" s="35" t="s">
-        <v>203</v>
-      </c>
+      <c r="S20" s="35"/>
       <c r="T20" s="30" t="s">
         <v>125</v>
       </c>
@@ -3738,13 +3614,13 @@
         <v>44994</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>40</v>
@@ -3757,18 +3633,18 @@
         <v>100</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
       <c r="S21" s="35" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="T21" s="30" t="s">
         <v>125</v>
@@ -3794,13 +3670,13 @@
         <v>44994</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>40</v>
@@ -3813,18 +3689,18 @@
         <v>100</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
       <c r="S22" s="35" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="T22" s="30" t="s">
         <v>125</v>
@@ -3850,13 +3726,13 @@
         <v>44994</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>40</v>
@@ -3869,18 +3745,18 @@
         <v>100</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
       <c r="S23" s="35" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T23" s="30" t="s">
         <v>125</v>
@@ -3906,13 +3782,13 @@
         <v>44995</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>40</v>
@@ -3925,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>40</v>
@@ -3936,7 +3812,7 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
       <c r="S24" s="35" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="T24" s="30" t="s">
         <v>125</v>
@@ -3962,13 +3838,13 @@
         <v>44994</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>40</v>
@@ -3981,18 +3857,18 @@
         <v>100</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
       <c r="S25" s="35" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="T25" s="30" t="s">
         <v>125</v>
@@ -4018,13 +3894,13 @@
         <v>44994</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>40</v>
@@ -4037,18 +3913,18 @@
         <v>100</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
       <c r="S26" s="35" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="T26" s="30" t="s">
         <v>125</v>
@@ -4074,13 +3950,13 @@
         <v>44994</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>40</v>
@@ -4093,18 +3969,18 @@
         <v>100</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20"/>
       <c r="S27" s="35" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="T27" s="30" t="s">
         <v>125</v>
@@ -4134,7 +4010,7 @@
         <v>100</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -4168,13 +4044,13 @@
         <v>44995</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>40</v>
@@ -4187,18 +4063,18 @@
         <v>100</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
       <c r="S29" s="35" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="T29" s="30" t="s">
         <v>125</v>
@@ -4228,7 +4104,7 @@
         <v>100</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
@@ -4266,7 +4142,7 @@
         <v>100</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -4304,7 +4180,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -4342,7 +4218,7 @@
         <v>100</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -4380,7 +4256,7 @@
         <v>100</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -4414,13 +4290,13 @@
         <v>44995</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="J35" s="19" t="s">
         <v>40</v>
@@ -4433,18 +4309,18 @@
         <v>100</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
       <c r="S35" s="35" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="T35" s="30" t="s">
         <v>125</v>
@@ -20218,15 +20094,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -20476,6 +20343,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
@@ -20496,14 +20372,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20523,6 +20391,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144E69F4-8AA4-44E2-A7B2-BC4628837EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9851A682-9E48-4ED6-9F23-D39E936F7B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="90" windowWidth="24855" windowHeight="15555" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28935" yWindow="0" windowWidth="24855" windowHeight="15480" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="203">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -689,27 +689,6 @@
     <t>subject_application_version: 2.1b34.x</t>
   </si>
   <si>
-    <t>948da432939ef3c4</t>
-  </si>
-  <si>
-    <t>2023-03-09T11:26:03.933Z</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>"title : "Campo token JWT non valido.",   "detail" : "Il campo purpose_of_use non Ã¨ valorizzato"</t>
-  </si>
-  <si>
-    <t>8131dd0fa415407c</t>
-  </si>
-  <si>
-    <t>2023-03-09T11:42:48.063Z</t>
-  </si>
-  <si>
-    <t>title : "Campo token JWT non valido.", "detail" : "Il campo action_id non Ã¨ corretto"</t>
-  </si>
-  <si>
     <t>l'applicativo consente i vaori N e V, è stato forzato per il test il valore R</t>
   </si>
   <si>
@@ -923,7 +902,7 @@
     <t>l'indirizzo di residenza non è gestito perché opzionale</t>
   </si>
   <si>
-    <t>segnalato nella maschera di monitoraggio integrazioni</t>
+    <t>il campo è obbligatorio nell'applicativo e nel motore di integrazione</t>
   </si>
 </sst>
 </file>
@@ -2853,7 +2832,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +2877,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="41" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D2" s="40"/>
       <c r="F2" s="7"/>
@@ -3128,13 +3107,13 @@
         <v>45022</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>40</v>
@@ -3172,13 +3151,13 @@
         <v>45023</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>40</v>
@@ -3220,7 +3199,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
@@ -3258,7 +3237,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
@@ -3288,37 +3267,21 @@
       <c r="E14" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>209</v>
-      </c>
+      <c r="K14" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="20"/>
       <c r="S14" s="35"/>
@@ -3342,37 +3305,21 @@
       <c r="E15" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>209</v>
-      </c>
+      <c r="K15" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="20"/>
       <c r="S15" s="35"/>
@@ -3407,13 +3354,13 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
@@ -3448,7 +3395,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -3486,7 +3433,7 @@
         <v>100</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -3520,13 +3467,13 @@
         <v>44994</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>40</v>
@@ -3539,18 +3486,18 @@
         <v>100</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
       <c r="S19" s="35" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T19" s="30" t="s">
         <v>125</v>
@@ -3580,7 +3527,7 @@
         <v>100</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -3614,13 +3561,13 @@
         <v>44994</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>40</v>
@@ -3633,18 +3580,18 @@
         <v>100</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
       <c r="S21" s="35" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="T21" s="30" t="s">
         <v>125</v>
@@ -3670,13 +3617,13 @@
         <v>44994</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>40</v>
@@ -3689,18 +3636,18 @@
         <v>100</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
       <c r="S22" s="35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="T22" s="30" t="s">
         <v>125</v>
@@ -3726,13 +3673,13 @@
         <v>44994</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>40</v>
@@ -3745,18 +3692,18 @@
         <v>100</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
       <c r="S23" s="35" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="T23" s="30" t="s">
         <v>125</v>
@@ -3782,13 +3729,13 @@
         <v>44995</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>40</v>
@@ -3801,7 +3748,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>40</v>
@@ -3812,7 +3759,7 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
       <c r="S24" s="35" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="T24" s="30" t="s">
         <v>125</v>
@@ -3838,13 +3785,13 @@
         <v>44994</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>40</v>
@@ -3857,18 +3804,18 @@
         <v>100</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
       <c r="S25" s="35" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T25" s="30" t="s">
         <v>125</v>
@@ -3894,13 +3841,13 @@
         <v>44994</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>40</v>
@@ -3913,18 +3860,18 @@
         <v>100</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
       <c r="S26" s="35" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T26" s="30" t="s">
         <v>125</v>
@@ -3950,13 +3897,13 @@
         <v>44994</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>40</v>
@@ -3969,18 +3916,18 @@
         <v>100</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20"/>
       <c r="S27" s="35" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="T27" s="30" t="s">
         <v>125</v>
@@ -4010,7 +3957,7 @@
         <v>100</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -4044,13 +3991,13 @@
         <v>44995</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>40</v>
@@ -4063,18 +4010,18 @@
         <v>100</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
       <c r="S29" s="35" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="T29" s="30" t="s">
         <v>125</v>
@@ -4104,7 +4051,7 @@
         <v>100</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
@@ -4142,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -4180,7 +4127,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -4218,7 +4165,7 @@
         <v>100</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -4256,7 +4203,7 @@
         <v>100</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -4290,13 +4237,13 @@
         <v>44995</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J35" s="19" t="s">
         <v>40</v>
@@ -4309,18 +4256,18 @@
         <v>100</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
       <c r="S35" s="35" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="T35" s="30" t="s">
         <v>125</v>
@@ -20094,6 +20041,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -20343,15 +20299,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
@@ -20372,6 +20319,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20391,14 +20346,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9851A682-9E48-4ED6-9F23-D39E936F7B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6CE58-1D12-4D06-96B9-AA6D18876E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="0" windowWidth="24855" windowHeight="15480" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="17520" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -710,9 +710,6 @@
     <t>forzato a mano il valore TEST al posto di RAD_PROG</t>
   </si>
   <si>
-    <t>"title" : "Errore vocabolario.", "detail" : "Almeno uno dei seguenti vocaboli non Ã¨ censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]"</t>
-  </si>
-  <si>
     <t>24070f0d2e7edcc5</t>
   </si>
   <si>
@@ -731,15 +728,6 @@
     <t>2023-03-09T18:33:08.007Z</t>
   </si>
   <si>
-    <t>[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25']</t>
-  </si>
-  <si>
-    <t>[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
-  </si>
-  <si>
-    <t>[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.49110f3f289fa31fae0a56a0858d124dc6b935439a027ebe743404f3421abe0d.438a3de211^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -747,9 +735,6 @@
   </si>
   <si>
     <t>2023-03-09T18:45:12.037Z</t>
-  </si>
-  <si>
-    <t>ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
   </si>
   <si>
     <t>3b77b98b1790acc5</t>
@@ -764,9 +749,6 @@
     <t>rimosso manualmente il valore dell'Id extension relativo all'accesison number, inibiti i controlli del nostro applicativo per consentire l'uscita del campo vuoto</t>
   </si>
   <si>
-    <t>ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
-  </si>
-  <si>
     <t>rimosso manualmente il valore del code relativo all'esame eseguito, inibiti i controlli del nostro applicativo per consentire l'uscita del campo vuoto</t>
   </si>
   <si>
@@ -777,9 +759,6 @@
   </si>
   <si>
     <t>2023-03-09T19:42:30.107Z</t>
-  </si>
-  <si>
-    <t>[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.]</t>
   </si>
   <si>
     <t>è stato forzato il campo text del referto a uscire vuoto, altrimenti sempre valorizzato</t>
@@ -815,9 +794,6 @@
     <t>la sezione observation/value relativa alle diagnosi non è gestita dall'applicativo</t>
   </si>
   <si>
-    <t>"title" : "Errore semantico.", "detail" : "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
-  </si>
-  <si>
     <t>forzatoa la tipologia di accesso con un valore non ammesso (TEST)</t>
   </si>
   <si>
@@ -830,9 +806,6 @@
     <t>52fd375a8c189cb0</t>
   </si>
   <si>
-    <t>[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.ae1bedff0c8d0c0a7088ef67d679b2b40ad56a80edd9c6914c91a4d9965108ea.c3c79b1fe3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -840,9 +813,6 @@
   </si>
   <si>
     <t>2023-03-10T13:27:06.087Z</t>
-  </si>
-  <si>
-    <t>ERROR: -1,-1 cvc-datatype-valid.1.2.3: '' is not a valid value of union type 'uid'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'root' on element 'id' is not valid with respect to its type, 'uid'.</t>
   </si>
   <si>
     <t>la sezione entry non può non comparire, è stato forzato manualmente per il test</t>
@@ -861,9 +831,6 @@
   </si>
   <si>
     <t xml:space="preserve"> l'evento viene inserito in una coda di uscita gestibile dall'utente tramite una consolle di monitoraggio. La coda è configurabile per avvisare automaticamente l'Help Desk</t>
-  </si>
-  <si>
-    <t>non verificabile</t>
   </si>
   <si>
     <t>EBIT SRL</t>
@@ -903,6 +870,62 @@
   </si>
   <si>
     <t>il campo è obbligatorio nell'applicativo e nel motore di integrazione</t>
+  </si>
+  <si>
+    <t>La procedura operativa di gestione dell’errore è la seguente: 
+1. La mancata trasmissione del documento viene registrata nel sistema e per la specifica posizione ( esame oggetto di refertazione )  viene registrato uno stato di non completamento.
+2. Attraverso le componenti del sistema di monitoraggio di integrazione, l’utente amministrativo autorizzato viene informato di posizioni oggetto di mancata trasmissione. A fronte della risoluzione della anomalia, mediante attività di backend, il documento viene posto automaticamente nella coda di trasmissione ed il sistema procede all’immediato invio.
+3. Ove necessario, in  base alla tipologia della anomalia riscontrata, può essere necessaria la produzione di una versione sostitutiva del documento da parte del medico refertante.</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25']</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+"title" : "Errore vocabolario.", "detail" : "Almeno uno dei seguenti vocaboli non Ã¨ censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]"</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.]</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+ERROR: -1,-1 cvc-datatype-valid.1.2.3: '' is not a valid value of union type 'uid'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'root' on element 'id' is not valid with respect to its type, 'uid'.</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+"title" : "Errore semantico.", "detail" : "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC6FE8D-20B5-4094-9F18-656AE8EE60BF}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2829,10 +2852,10 @@
   <dimension ref="A1:T830"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,7 +2900,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="41" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D2" s="40"/>
       <c r="F2" s="7"/>
@@ -3107,13 +3130,13 @@
         <v>45022</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>40</v>
@@ -3151,13 +3174,13 @@
         <v>45023</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>40</v>
@@ -3199,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
@@ -3237,7 +3260,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
@@ -3275,7 +3298,7 @@
         <v>100</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
@@ -3313,7 +3336,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -3354,13 +3377,13 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
@@ -3395,7 +3418,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -3433,7 +3456,7 @@
         <v>100</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -3447,7 +3470,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>77</v>
       </c>
@@ -3467,13 +3490,13 @@
         <v>44994</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>40</v>
@@ -3483,16 +3506,16 @@
         <v>40</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
@@ -3527,7 +3550,7 @@
         <v>100</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -3541,7 +3564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>79</v>
       </c>
@@ -3561,13 +3584,13 @@
         <v>44994</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H21" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>40</v>
@@ -3577,16 +3600,16 @@
         <v>40</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
@@ -3597,7 +3620,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>80</v>
       </c>
@@ -3617,13 +3640,13 @@
         <v>44994</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>40</v>
@@ -3633,16 +3656,16 @@
         <v>40</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
@@ -3653,7 +3676,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>81</v>
       </c>
@@ -3689,16 +3712,16 @@
         <v>40</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
@@ -3709,7 +3732,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>82</v>
       </c>
@@ -3729,13 +3752,13 @@
         <v>44995</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>40</v>
@@ -3745,27 +3768,27 @@
         <v>40</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
       <c r="S24" s="35" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T24" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>83</v>
       </c>
@@ -3785,13 +3808,13 @@
         <v>44994</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>40</v>
@@ -3801,27 +3824,27 @@
         <v>40</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
       <c r="S25" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="T25" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>84</v>
       </c>
@@ -3841,13 +3864,13 @@
         <v>44994</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>40</v>
@@ -3857,27 +3880,27 @@
         <v>40</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
       <c r="S26" s="35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="T26" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>85</v>
       </c>
@@ -3897,13 +3920,13 @@
         <v>44994</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>40</v>
@@ -3913,21 +3936,21 @@
         <v>40</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20"/>
       <c r="S27" s="35" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T27" s="30" t="s">
         <v>125</v>
@@ -3957,7 +3980,7 @@
         <v>100</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -3971,7 +3994,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>87</v>
       </c>
@@ -3991,13 +4014,13 @@
         <v>44995</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>40</v>
@@ -4007,21 +4030,21 @@
         <v>40</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
       <c r="S29" s="35" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="T29" s="30" t="s">
         <v>125</v>
@@ -4051,7 +4074,7 @@
         <v>100</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
@@ -4089,7 +4112,7 @@
         <v>100</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -4127,7 +4150,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -4165,7 +4188,7 @@
         <v>100</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -4203,7 +4226,7 @@
         <v>100</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -4217,7 +4240,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>93</v>
       </c>
@@ -4237,13 +4260,13 @@
         <v>44995</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J35" s="19" t="s">
         <v>40</v>
@@ -4253,21 +4276,21 @@
         <v>40</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
       <c r="S35" s="35" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="T35" s="30" t="s">
         <v>125</v>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6CE58-1D12-4D06-96B9-AA6D18876E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E088FC-F6DE-43E8-889E-363C3FBED9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="17520" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28875" windowHeight="15480" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="218">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -927,12 +927,68 @@
 Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
 "title" : "Errore semantico.", "detail" : "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-09-20T15:42:36.960Z</t>
+  </si>
+  <si>
+    <t>ba744235c0982da3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a8a52ff8607a2e5ed11b83cb04d452bf3a9ed38d6e681f109347757dd84edfd9.0061e771fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>l'ospedalizzazione legata alla BPCO non viene trattata poiché Suitestensa è utilizzato per le lettere di dimissione in ambito cardiologico</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-09-20T17:23:39.103Z</t>
+  </si>
+  <si>
+    <t>0cb7f69dd5903495</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.f57eaf84fca19f8a37acfbc97d9312c3131f1f1e6c7bdb0fd3955da4cb4bfaa7.3417077500^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,6 +1089,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1284,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1405,6 +1466,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2849,13 +2937,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T830"/>
+  <dimension ref="A1:T834"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,173 +3198,169 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+    <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
+        <v>6</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="52">
+        <v>45189</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <v>7</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
+        <v>8</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="52">
+        <v>45189</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49">
+        <v>9</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>11</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="17">
-        <v>45022</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>12</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="17">
-        <v>45023</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>13</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>14</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>25</v>
@@ -3285,21 +3369,27 @@
         <v>28</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="17">
+        <v>45022</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>182</v>
+      </c>
       <c r="J14" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>191</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -3309,12 +3399,12 @@
       <c r="R14" s="20"/>
       <c r="S14" s="35"/>
       <c r="T14" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>25</v>
@@ -3323,21 +3413,27 @@
         <v>28</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="17">
+        <v>45023</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="J15" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>191</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -3347,12 +3443,12 @@
       <c r="R15" s="20"/>
       <c r="S15" s="35"/>
       <c r="T15" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>25</v>
@@ -3361,42 +3457,36 @@
         <v>28</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>178</v>
-      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
-      <c r="R16" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="R16" s="20"/>
       <c r="S16" s="35"/>
       <c r="T16" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>25</v>
@@ -3405,10 +3495,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
@@ -3418,7 +3508,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -3429,12 +3519,12 @@
       <c r="R17" s="20"/>
       <c r="S17" s="35"/>
       <c r="T17" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>25</v>
@@ -3443,10 +3533,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
@@ -3456,7 +3546,7 @@
         <v>100</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -3470,9 +3560,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>25</v>
@@ -3481,54 +3571,36 @@
         <v>28</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>144</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>192</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
-      <c r="S19" s="35" t="s">
-        <v>131</v>
-      </c>
+      <c r="S19" s="35"/>
       <c r="T19" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>25</v>
@@ -3537,36 +3609,42 @@
         <v>28</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>190</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="N20" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
+      <c r="R20" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="S20" s="35"/>
       <c r="T20" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>25</v>
@@ -3575,54 +3653,36 @@
         <v>28</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>142</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>192</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
-      <c r="S21" s="35" t="s">
-        <v>132</v>
-      </c>
+      <c r="S21" s="35"/>
       <c r="T21" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>25</v>
@@ -3631,54 +3691,36 @@
         <v>28</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>139</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>192</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
-      <c r="S22" s="35" t="s">
-        <v>133</v>
-      </c>
+      <c r="S22" s="35"/>
       <c r="T22" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>25</v>
@@ -3687,22 +3729,22 @@
         <v>28</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F23" s="17">
         <v>44994</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>40</v>
@@ -3715,7 +3757,7 @@
         <v>40</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>40</v>
@@ -3726,15 +3768,15 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
       <c r="S23" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T23" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>25</v>
@@ -3743,54 +3785,36 @@
         <v>28</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="17">
-        <v>44995</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>170</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>192</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="35" t="s">
-        <v>177</v>
-      </c>
+      <c r="S24" s="35"/>
       <c r="T24" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>25</v>
@@ -3799,22 +3823,22 @@
         <v>28</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F25" s="17">
         <v>44994</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>40</v>
@@ -3827,7 +3851,7 @@
         <v>40</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>40</v>
@@ -3838,7 +3862,7 @@
       <c r="Q25" s="19"/>
       <c r="R25" s="20"/>
       <c r="S25" s="35" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="T25" s="30" t="s">
         <v>125</v>
@@ -3846,7 +3870,7 @@
     </row>
     <row r="26" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>25</v>
@@ -3855,22 +3879,22 @@
         <v>28</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F26" s="17">
         <v>44994</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>40</v>
@@ -3883,7 +3907,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>40</v>
@@ -3894,7 +3918,7 @@
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
       <c r="S26" s="35" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="T26" s="30" t="s">
         <v>125</v>
@@ -3902,7 +3926,7 @@
     </row>
     <row r="27" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>25</v>
@@ -3911,22 +3935,22 @@
         <v>28</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F27" s="17">
         <v>44994</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>40</v>
@@ -3939,7 +3963,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>40</v>
@@ -3950,15 +3974,15 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="20"/>
       <c r="S27" s="35" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="T27" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>25</v>
@@ -3967,36 +3991,54 @@
         <v>28</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="F28" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="J28" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="35"/>
+      <c r="S28" s="35" t="s">
+        <v>177</v>
+      </c>
       <c r="T28" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>25</v>
@@ -4005,22 +4047,22 @@
         <v>28</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F29" s="17">
-        <v>44995</v>
+        <v>44994</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>40</v>
@@ -4033,7 +4075,7 @@
         <v>40</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>40</v>
@@ -4044,15 +4086,15 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
       <c r="S29" s="35" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="T29" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>25</v>
@@ -4061,36 +4103,54 @@
         <v>28</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="F30" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="J30" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="20"/>
-      <c r="S30" s="35"/>
+      <c r="S30" s="35" t="s">
+        <v>151</v>
+      </c>
       <c r="T30" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>25</v>
@@ -4099,36 +4159,54 @@
         <v>28</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="F31" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="J31" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="20"/>
-      <c r="S31" s="35"/>
+      <c r="S31" s="35" t="s">
+        <v>155</v>
+      </c>
       <c r="T31" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>25</v>
@@ -4137,10 +4215,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
@@ -4150,7 +4228,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -4164,9 +4242,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>25</v>
@@ -4175,36 +4253,54 @@
         <v>28</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="F33" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="J33" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="20"/>
-      <c r="S33" s="35"/>
+      <c r="S33" s="35" t="s">
+        <v>173</v>
+      </c>
       <c r="T33" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>25</v>
@@ -4213,10 +4309,10 @@
         <v>28</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -4226,7 +4322,7 @@
         <v>100</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -4240,9 +4336,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>25</v>
@@ -4251,118 +4347,202 @@
         <v>28</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="17">
-        <v>44995</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>168</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P35" s="19" t="s">
-        <v>192</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
-      <c r="S35" s="35" t="s">
-        <v>166</v>
-      </c>
+      <c r="S35" s="35"/>
       <c r="T35" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="31"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="31"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="31"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="31"/>
+    <row r="36" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>90</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>91</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>92</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>93</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P39" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="T39" s="30" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F40" s="7"/>
@@ -17811,8 +17991,76 @@
       <c r="S830" s="34"/>
       <c r="T830" s="31"/>
     </row>
+    <row r="831" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F831" s="7"/>
+      <c r="G831" s="7"/>
+      <c r="H831" s="7"/>
+      <c r="I831" s="7"/>
+      <c r="J831" s="8"/>
+      <c r="K831" s="8"/>
+      <c r="L831" s="8"/>
+      <c r="M831" s="8"/>
+      <c r="N831" s="8"/>
+      <c r="O831" s="8"/>
+      <c r="P831" s="8"/>
+      <c r="Q831" s="8"/>
+      <c r="R831" s="9"/>
+      <c r="S831" s="34"/>
+      <c r="T831" s="31"/>
+    </row>
+    <row r="832" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F832" s="7"/>
+      <c r="G832" s="7"/>
+      <c r="H832" s="7"/>
+      <c r="I832" s="7"/>
+      <c r="J832" s="8"/>
+      <c r="K832" s="8"/>
+      <c r="L832" s="8"/>
+      <c r="M832" s="8"/>
+      <c r="N832" s="8"/>
+      <c r="O832" s="8"/>
+      <c r="P832" s="8"/>
+      <c r="Q832" s="8"/>
+      <c r="R832" s="9"/>
+      <c r="S832" s="34"/>
+      <c r="T832" s="31"/>
+    </row>
+    <row r="833" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F833" s="7"/>
+      <c r="G833" s="7"/>
+      <c r="H833" s="7"/>
+      <c r="I833" s="7"/>
+      <c r="J833" s="8"/>
+      <c r="K833" s="8"/>
+      <c r="L833" s="8"/>
+      <c r="M833" s="8"/>
+      <c r="N833" s="8"/>
+      <c r="O833" s="8"/>
+      <c r="P833" s="8"/>
+      <c r="Q833" s="8"/>
+      <c r="R833" s="9"/>
+      <c r="S833" s="34"/>
+      <c r="T833" s="31"/>
+    </row>
+    <row r="834" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F834" s="7"/>
+      <c r="G834" s="7"/>
+      <c r="H834" s="7"/>
+      <c r="I834" s="7"/>
+      <c r="J834" s="8"/>
+      <c r="K834" s="8"/>
+      <c r="L834" s="8"/>
+      <c r="M834" s="8"/>
+      <c r="N834" s="8"/>
+      <c r="O834" s="8"/>
+      <c r="P834" s="8"/>
+      <c r="Q834" s="8"/>
+      <c r="R834" s="9"/>
+      <c r="S834" s="34"/>
+      <c r="T834" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:T35" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A9:T39" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -17832,19 +18080,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J35</xm:sqref>
+          <xm:sqref>J14:J39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q10:Q35</xm:sqref>
+          <xm:sqref>Q14:Q39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{172AE6BC-1BED-4065-86D7-76D10C9574F5}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:M8 O1:O8 L10:M1048576 O10:O1048576</xm:sqref>
+          <xm:sqref>L1:M8 O1:O8 L14:M1048576 O14:O1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -20052,27 +20300,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -20322,34 +20549,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
-    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20369,6 +20590,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
+    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E088FC-F6DE-43E8-889E-363C3FBED9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88629F1-92EF-4BE3-B02B-AAD055A27399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28875" windowHeight="15480" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="259">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -980,6 +980,232 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+    </r>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+    </r>
+  </si>
+  <si>
+    <t>VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.cc9bcd6875060ec6e226bea3c782b9fd441a12d842216e08d124e98a7209506b.d956583c46^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f1610a21dd877f95</t>
+  </si>
+  <si>
+    <t>2023-09-26T16:26:24.763Z</t>
+  </si>
+  <si>
+    <t>il periodo di somministrazione della terapia non è gestito dall'applicativo</t>
+  </si>
+  <si>
+    <t>la codifica della terapia non è gestita dall'applicativo</t>
+  </si>
+  <si>
+    <t>il campo è obbligatorio nel motore di integrazione con i valori V e N</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.b3dbd14480730adfa769a826b526e075250defcea4ceb99a8e15b7cf965ee8af.d65d7313c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3cb31331a2a71b56</t>
+  </si>
+  <si>
+    <t>Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: CodiceErrato]</t>
+  </si>
+  <si>
+    <t>2023-09-27T17:17:00.600Z</t>
+  </si>
+  <si>
+    <t>il riferimento temporale per distinguere naamnesi prossima da remota non è gestito dall'applicativo</t>
+  </si>
 </sst>
 </file>
 
@@ -988,7 +1214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,6 +1317,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1445,28 +1678,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,6 +1704,28 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2937,13 +3170,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T834"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T849"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,9 +3188,9 @@
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="55.85546875" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="31.85546875" style="36" customWidth="1"/>
@@ -2983,14 +3217,14 @@
       <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="49"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3008,14 +3242,14 @@
       <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="49"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3033,12 +3267,12 @@
       <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3057,12 +3291,12 @@
       <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="49"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3080,8 +3314,8 @@
       <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3199,166 +3433,176 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
+      <c r="A10" s="37">
         <v>6</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="40">
         <v>45189</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57" t="s">
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="37">
         <v>7</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57" t="s">
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49">
+      <c r="A12" s="37">
         <v>8</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="40">
         <v>45189</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57" t="s">
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
+      <c r="A13" s="37">
         <v>9</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57" t="s">
+      <c r="F13" s="40">
+        <v>45195</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -3402,7 +3646,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -3446,7 +3690,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -3484,7 +3728,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>14</v>
       </c>
@@ -3523,46 +3767,46 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>31</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="37">
+        <v>29</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="C18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="19" t="s">
         <v>100</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="30" t="s">
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>25</v>
@@ -3571,10 +3815,10 @@
         <v>28</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -3598,9 +3842,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>25</v>
@@ -3609,118 +3853,118 @@
         <v>28</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>178</v>
-      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
-      <c r="R20" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="R20" s="20"/>
       <c r="S20" s="35"/>
       <c r="T20" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>75</v>
-      </c>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37">
+        <v>37</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="C21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="19" t="s">
         <v>100</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>76</v>
-      </c>
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37">
+        <v>45</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="44"/>
+      <c r="T22" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
         <v>47</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>77</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>25</v>
@@ -3729,654 +3973,514 @@
         <v>28</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>144</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="L23" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="19" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="Q23" s="19"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="35" t="s">
-        <v>131</v>
-      </c>
+      <c r="R23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="35"/>
       <c r="T23" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>78</v>
-      </c>
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37">
+        <v>63</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19" t="s">
+      <c r="C24" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42" t="s">
         <v>100</v>
       </c>
       <c r="K24" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37">
+        <v>64</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <v>65</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37">
+        <v>66</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="30" t="s">
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>79</v>
-      </c>
-      <c r="B25" s="15" t="s">
+    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
+        <v>67</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="19" t="s">
+      <c r="C28" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <v>68</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37">
+        <v>69</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37">
+        <v>70</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37">
+        <v>71</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37">
+        <v>72</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37">
+        <v>73</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="40">
+        <v>45196</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="J34" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19" t="s">
+      <c r="K34" s="42"/>
+      <c r="L34" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M34" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="O25" s="19" t="s">
+      <c r="N34" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="19" t="s">
+      <c r="P34" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="T25" s="30" t="s">
+      <c r="Q34" s="42"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <v>80</v>
-      </c>
-      <c r="B26" s="15" t="s">
+    <row r="35" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
+        <v>74</v>
+      </c>
+      <c r="B35" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="T26" s="30" t="s">
+      <c r="C35" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>81</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="T27" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
-        <v>82</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="17">
-        <v>44995</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="T28" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
-        <v>83</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P29" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="T29" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
-        <v>84</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="O30" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="T30" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
-        <v>85</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="17">
-        <v>44994</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="T31" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
-        <v>86</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
-        <v>87</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="17">
-        <v>44995</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P33" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="T33" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
-        <v>88</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
-        <v>89</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>25</v>
@@ -4385,10 +4489,10 @@
         <v>28</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
@@ -4398,7 +4502,7 @@
         <v>100</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
@@ -4412,9 +4516,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>25</v>
@@ -4423,10 +4527,10 @@
         <v>28</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
@@ -4436,7 +4540,7 @@
         <v>100</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
@@ -4450,9 +4554,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>25</v>
@@ -4461,36 +4565,54 @@
         <v>28</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="F38" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="J38" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="Q38" s="19"/>
       <c r="R38" s="20"/>
-      <c r="S38" s="35"/>
+      <c r="S38" s="35" t="s">
+        <v>131</v>
+      </c>
       <c r="T38" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>25</v>
@@ -4499,307 +4621,766 @@
         <v>28</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="17">
-        <v>44995</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>168</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N39" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="O39" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P39" s="19" t="s">
-        <v>192</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="35" t="s">
-        <v>166</v>
-      </c>
+      <c r="S39" s="35"/>
       <c r="T39" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="31"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="31"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="31"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="31"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="31"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="31"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="31"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="31"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="31"/>
-    </row>
-    <row r="49" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="31"/>
-    </row>
-    <row r="50" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="31"/>
-    </row>
-    <row r="51" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="31"/>
-    </row>
-    <row r="52" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="31"/>
-    </row>
-    <row r="53" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="31"/>
-    </row>
-    <row r="54" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="31"/>
-    </row>
-    <row r="55" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>79</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="T40" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>80</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="T41" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>81</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="T42" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>82</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="T43" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>83</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="T44" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>84</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="O45" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="T45" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>85</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="17">
+        <v>44994</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O46" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="T46" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>86</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>87</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O48" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="T48" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>88</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>89</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>90</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>91</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>92</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>93</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="17">
+        <v>44995</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O54" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="T54" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -4816,7 +5397,7 @@
       <c r="S55" s="34"/>
       <c r="T55" s="31"/>
     </row>
-    <row r="56" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -4833,7 +5414,7 @@
       <c r="S56" s="34"/>
       <c r="T56" s="31"/>
     </row>
-    <row r="57" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -4850,7 +5431,7 @@
       <c r="S57" s="34"/>
       <c r="T57" s="31"/>
     </row>
-    <row r="58" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -4867,7 +5448,7 @@
       <c r="S58" s="34"/>
       <c r="T58" s="31"/>
     </row>
-    <row r="59" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -4884,7 +5465,7 @@
       <c r="S59" s="34"/>
       <c r="T59" s="31"/>
     </row>
-    <row r="60" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -4901,7 +5482,7 @@
       <c r="S60" s="34"/>
       <c r="T60" s="31"/>
     </row>
-    <row r="61" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -4918,7 +5499,7 @@
       <c r="S61" s="34"/>
       <c r="T61" s="31"/>
     </row>
-    <row r="62" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -4935,7 +5516,7 @@
       <c r="S62" s="34"/>
       <c r="T62" s="31"/>
     </row>
-    <row r="63" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -4952,7 +5533,7 @@
       <c r="S63" s="34"/>
       <c r="T63" s="31"/>
     </row>
-    <row r="64" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -18059,8 +18640,269 @@
       <c r="S834" s="34"/>
       <c r="T834" s="31"/>
     </row>
+    <row r="835" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F835" s="7"/>
+      <c r="G835" s="7"/>
+      <c r="H835" s="7"/>
+      <c r="I835" s="7"/>
+      <c r="J835" s="8"/>
+      <c r="K835" s="8"/>
+      <c r="L835" s="8"/>
+      <c r="M835" s="8"/>
+      <c r="N835" s="8"/>
+      <c r="O835" s="8"/>
+      <c r="P835" s="8"/>
+      <c r="Q835" s="8"/>
+      <c r="R835" s="9"/>
+      <c r="S835" s="34"/>
+      <c r="T835" s="31"/>
+    </row>
+    <row r="836" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F836" s="7"/>
+      <c r="G836" s="7"/>
+      <c r="H836" s="7"/>
+      <c r="I836" s="7"/>
+      <c r="J836" s="8"/>
+      <c r="K836" s="8"/>
+      <c r="L836" s="8"/>
+      <c r="M836" s="8"/>
+      <c r="N836" s="8"/>
+      <c r="O836" s="8"/>
+      <c r="P836" s="8"/>
+      <c r="Q836" s="8"/>
+      <c r="R836" s="9"/>
+      <c r="S836" s="34"/>
+      <c r="T836" s="31"/>
+    </row>
+    <row r="837" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F837" s="7"/>
+      <c r="G837" s="7"/>
+      <c r="H837" s="7"/>
+      <c r="I837" s="7"/>
+      <c r="J837" s="8"/>
+      <c r="K837" s="8"/>
+      <c r="L837" s="8"/>
+      <c r="M837" s="8"/>
+      <c r="N837" s="8"/>
+      <c r="O837" s="8"/>
+      <c r="P837" s="8"/>
+      <c r="Q837" s="8"/>
+      <c r="R837" s="9"/>
+      <c r="S837" s="34"/>
+      <c r="T837" s="31"/>
+    </row>
+    <row r="838" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F838" s="7"/>
+      <c r="G838" s="7"/>
+      <c r="H838" s="7"/>
+      <c r="I838" s="7"/>
+      <c r="J838" s="8"/>
+      <c r="K838" s="8"/>
+      <c r="L838" s="8"/>
+      <c r="M838" s="8"/>
+      <c r="N838" s="8"/>
+      <c r="O838" s="8"/>
+      <c r="P838" s="8"/>
+      <c r="Q838" s="8"/>
+      <c r="R838" s="9"/>
+      <c r="S838" s="34"/>
+      <c r="T838" s="31"/>
+    </row>
+    <row r="839" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F839" s="7"/>
+      <c r="G839" s="7"/>
+      <c r="H839" s="7"/>
+      <c r="I839" s="7"/>
+      <c r="J839" s="8"/>
+      <c r="K839" s="8"/>
+      <c r="L839" s="8"/>
+      <c r="M839" s="8"/>
+      <c r="N839" s="8"/>
+      <c r="O839" s="8"/>
+      <c r="P839" s="8"/>
+      <c r="Q839" s="8"/>
+      <c r="R839" s="9"/>
+      <c r="S839" s="34"/>
+      <c r="T839" s="31"/>
+    </row>
+    <row r="840" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F840" s="7"/>
+      <c r="G840" s="7"/>
+      <c r="H840" s="7"/>
+      <c r="I840" s="7"/>
+      <c r="J840" s="8"/>
+      <c r="K840" s="8"/>
+      <c r="L840" s="8"/>
+      <c r="M840" s="8"/>
+      <c r="N840" s="8"/>
+      <c r="O840" s="8"/>
+      <c r="P840" s="8"/>
+      <c r="Q840" s="8"/>
+      <c r="R840" s="9"/>
+      <c r="S840" s="34"/>
+      <c r="T840" s="31"/>
+    </row>
+    <row r="841" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F841" s="7"/>
+      <c r="G841" s="7"/>
+      <c r="H841" s="7"/>
+      <c r="I841" s="7"/>
+      <c r="J841" s="8"/>
+      <c r="K841" s="8"/>
+      <c r="L841" s="8"/>
+      <c r="M841" s="8"/>
+      <c r="N841" s="8"/>
+      <c r="O841" s="8"/>
+      <c r="P841" s="8"/>
+      <c r="Q841" s="8"/>
+      <c r="R841" s="9"/>
+      <c r="S841" s="34"/>
+      <c r="T841" s="31"/>
+    </row>
+    <row r="842" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F842" s="7"/>
+      <c r="G842" s="7"/>
+      <c r="H842" s="7"/>
+      <c r="I842" s="7"/>
+      <c r="J842" s="8"/>
+      <c r="K842" s="8"/>
+      <c r="L842" s="8"/>
+      <c r="M842" s="8"/>
+      <c r="N842" s="8"/>
+      <c r="O842" s="8"/>
+      <c r="P842" s="8"/>
+      <c r="Q842" s="8"/>
+      <c r="R842" s="9"/>
+      <c r="S842" s="34"/>
+      <c r="T842" s="31"/>
+    </row>
+    <row r="843" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F843" s="7"/>
+      <c r="G843" s="7"/>
+      <c r="H843" s="7"/>
+      <c r="I843" s="7"/>
+      <c r="J843" s="8"/>
+      <c r="K843" s="8"/>
+      <c r="L843" s="8"/>
+      <c r="M843" s="8"/>
+      <c r="N843" s="8"/>
+      <c r="O843" s="8"/>
+      <c r="P843" s="8"/>
+      <c r="Q843" s="8"/>
+      <c r="R843" s="9"/>
+      <c r="S843" s="34"/>
+      <c r="T843" s="31"/>
+    </row>
+    <row r="844" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F844" s="7"/>
+      <c r="G844" s="7"/>
+      <c r="H844" s="7"/>
+      <c r="I844" s="7"/>
+      <c r="J844" s="8"/>
+      <c r="K844" s="8"/>
+      <c r="L844" s="8"/>
+      <c r="M844" s="8"/>
+      <c r="N844" s="8"/>
+      <c r="O844" s="8"/>
+      <c r="P844" s="8"/>
+      <c r="Q844" s="8"/>
+      <c r="R844" s="9"/>
+      <c r="S844" s="34"/>
+      <c r="T844" s="31"/>
+    </row>
+    <row r="845" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F845" s="7"/>
+      <c r="G845" s="7"/>
+      <c r="H845" s="7"/>
+      <c r="I845" s="7"/>
+      <c r="J845" s="8"/>
+      <c r="K845" s="8"/>
+      <c r="L845" s="8"/>
+      <c r="M845" s="8"/>
+      <c r="N845" s="8"/>
+      <c r="O845" s="8"/>
+      <c r="P845" s="8"/>
+      <c r="Q845" s="8"/>
+      <c r="R845" s="9"/>
+      <c r="S845" s="34"/>
+      <c r="T845" s="31"/>
+    </row>
+    <row r="846" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F846" s="7"/>
+      <c r="G846" s="7"/>
+      <c r="H846" s="7"/>
+      <c r="I846" s="7"/>
+      <c r="J846" s="8"/>
+      <c r="K846" s="8"/>
+      <c r="L846" s="8"/>
+      <c r="M846" s="8"/>
+      <c r="N846" s="8"/>
+      <c r="O846" s="8"/>
+      <c r="P846" s="8"/>
+      <c r="Q846" s="8"/>
+      <c r="R846" s="9"/>
+      <c r="S846" s="34"/>
+      <c r="T846" s="31"/>
+    </row>
+    <row r="847" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F847" s="7"/>
+      <c r="G847" s="7"/>
+      <c r="H847" s="7"/>
+      <c r="I847" s="7"/>
+      <c r="J847" s="8"/>
+      <c r="K847" s="8"/>
+      <c r="L847" s="8"/>
+      <c r="M847" s="8"/>
+      <c r="N847" s="8"/>
+      <c r="O847" s="8"/>
+      <c r="P847" s="8"/>
+      <c r="Q847" s="8"/>
+      <c r="R847" s="9"/>
+      <c r="S847" s="34"/>
+      <c r="T847" s="31"/>
+    </row>
+    <row r="848" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F848" s="7"/>
+      <c r="G848" s="7"/>
+      <c r="H848" s="7"/>
+      <c r="I848" s="7"/>
+      <c r="J848" s="8"/>
+      <c r="K848" s="8"/>
+      <c r="L848" s="8"/>
+      <c r="M848" s="8"/>
+      <c r="N848" s="8"/>
+      <c r="O848" s="8"/>
+      <c r="P848" s="8"/>
+      <c r="Q848" s="8"/>
+      <c r="R848" s="9"/>
+      <c r="S848" s="34"/>
+      <c r="T848" s="31"/>
+    </row>
+    <row r="849" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F849" s="7"/>
+      <c r="G849" s="7"/>
+      <c r="H849" s="7"/>
+      <c r="I849" s="7"/>
+      <c r="J849" s="8"/>
+      <c r="K849" s="8"/>
+      <c r="L849" s="8"/>
+      <c r="M849" s="8"/>
+      <c r="N849" s="8"/>
+      <c r="O849" s="8"/>
+      <c r="P849" s="8"/>
+      <c r="Q849" s="8"/>
+      <c r="R849" s="9"/>
+      <c r="S849" s="34"/>
+      <c r="T849" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:T39" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A9:T54" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="LDO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -18080,19 +18922,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J14:J39</xm:sqref>
+          <xm:sqref>J14:J21 J23 J36:J54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q14:Q39</xm:sqref>
+          <xm:sqref>Q14:Q17 Q19:Q20 Q23 Q36:Q54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{172AE6BC-1BED-4065-86D7-76D10C9574F5}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:M8 O1:O8 L14:M1048576 O14:O1048576</xm:sqref>
+          <xm:sqref>L1:M8 O1:O8 O36:O1048576 O14:O17 L14:M17 L19:M20 O19:O20 O23 L23:M23 L36:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -20300,6 +21142,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -20549,28 +21412,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
+    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20590,33 +21459,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
-    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88629F1-92EF-4BE3-B02B-AAD055A27399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C0E0F9-6E30-4C97-905F-784B5FC2C6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="255">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -936,15 +936,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-09-20T15:42:36.960Z</t>
-  </si>
-  <si>
-    <t>ba744235c0982da3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a8a52ff8607a2e5ed11b83cb04d452bf3a9ed38d6e681f109347757dd84edfd9.0061e771fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT2</t>
   </si>
   <si>
@@ -962,15 +953,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-09-20T17:23:39.103Z</t>
-  </si>
-  <si>
-    <t>0cb7f69dd5903495</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.f57eaf84fca19f8a37acfbc97d9312c3131f1f1e6c7bdb0fd3955da4cb4bfaa7.3417077500^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
@@ -1174,15 +1156,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.cc9bcd6875060ec6e226bea3c782b9fd441a12d842216e08d124e98a7209506b.d956583c46^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f1610a21dd877f95</t>
-  </si>
-  <si>
-    <t>2023-09-26T16:26:24.763Z</t>
-  </si>
-  <si>
     <t>il periodo di somministrazione della terapia non è gestito dall'applicativo</t>
   </si>
   <si>
@@ -1204,7 +1177,22 @@
     <t>2023-09-27T17:17:00.600Z</t>
   </si>
   <si>
-    <t>il riferimento temporale per distinguere naamnesi prossima da remota non è gestito dall'applicativo</t>
+    <t>2023-09-29T13:13:13.800Z</t>
+  </si>
+  <si>
+    <t>9ff67298181124b5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.97882b29e1e1a8634253aae9af10816b882260dfbc671c1010ee55c69868af42.1dd9958328^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>il riferimento temporale per distinguere anamnesi prossima da remota non è gestito dall'applicativo</t>
+  </si>
+  <si>
+    <t>alcuni dettagli non vengono trattati separatamente dall'applicativo</t>
+  </si>
+  <si>
+    <t>alcuni dettagli opzionali non vengono trattati separatamente dall'applicativo</t>
   </si>
 </sst>
 </file>
@@ -3174,10 +3162,10 @@
   <dimension ref="A1:T849"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,16 +3437,16 @@
         <v>204</v>
       </c>
       <c r="F10" s="40">
-        <v>45189</v>
+        <v>45198</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>40</v>
@@ -3487,10 +3475,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="41"/>
@@ -3500,7 +3488,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
@@ -3525,27 +3513,21 @@
         <v>27</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="40">
-        <v>45189</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>215</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="42"/>
+        <v>100</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>253</v>
+      </c>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
@@ -3569,27 +3551,21 @@
         <v>27</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="40">
-        <v>45195</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>248</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="42"/>
+        <v>100</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>254</v>
+      </c>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
@@ -3777,10 +3753,10 @@
         <v>27</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
@@ -3891,10 +3867,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
@@ -3929,10 +3905,10 @@
         <v>27</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
@@ -4017,10 +3993,10 @@
         <v>27</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="41"/>
@@ -4055,10 +4031,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="41"/>
@@ -4093,10 +4069,10 @@
         <v>27</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="41"/>
@@ -4106,7 +4082,7 @@
         <v>100</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="L26" s="42"/>
       <c r="M26" s="42"/>
@@ -4131,10 +4107,10 @@
         <v>27</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="41"/>
@@ -4169,10 +4145,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="41"/>
@@ -4207,10 +4183,10 @@
         <v>27</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="41"/>
@@ -4245,10 +4221,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="41"/>
@@ -4283,10 +4259,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="41"/>
@@ -4321,10 +4297,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="41"/>
@@ -4334,7 +4310,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
@@ -4359,10 +4335,10 @@
         <v>27</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="41"/>
@@ -4372,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="L33" s="42"/>
       <c r="M33" s="42"/>
@@ -4397,22 +4373,22 @@
         <v>27</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F34" s="40">
         <v>45196</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J34" s="42" t="s">
         <v>40</v>
@@ -4425,7 +4401,7 @@
         <v>40</v>
       </c>
       <c r="N34" s="42" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O34" s="42" t="s">
         <v>40</v>
@@ -4451,10 +4427,10 @@
         <v>27</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="41"/>
@@ -4464,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L35" s="42"/>
       <c r="M35" s="42"/>
@@ -21142,27 +21118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -21412,34 +21367,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
-    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21459,6 +21408,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
+    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C0E0F9-6E30-4C97-905F-784B5FC2C6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C33A7E-2CFB-4205-B8EC-4CE1D22FFC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1177,15 +1177,6 @@
     <t>2023-09-27T17:17:00.600Z</t>
   </si>
   <si>
-    <t>2023-09-29T13:13:13.800Z</t>
-  </si>
-  <si>
-    <t>9ff67298181124b5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.97882b29e1e1a8634253aae9af10816b882260dfbc671c1010ee55c69868af42.1dd9958328^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>il riferimento temporale per distinguere anamnesi prossima da remota non è gestito dall'applicativo</t>
   </si>
   <si>
@@ -1193,6 +1184,15 @@
   </si>
   <si>
     <t>alcuni dettagli opzionali non vengono trattati separatamente dall'applicativo</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.37b02a3d772c6318b9a9b8519b0d0507d5e8900872288ea2dc19d346455496da.2d6de5f501^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-09-30T14:40:10.097Z</t>
+  </si>
+  <si>
+    <t>3125ad62f1df4b0e</t>
   </si>
 </sst>
 </file>
@@ -3165,7 +3165,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3437,16 +3437,16 @@
         <v>204</v>
       </c>
       <c r="F10" s="40">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>40</v>
@@ -3526,7 +3526,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
@@ -3564,7 +3564,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
@@ -4310,7 +4310,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
@@ -21118,6 +21118,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -21367,28 +21388,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
+    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21408,33 +21435,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
-    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C33A7E-2CFB-4205-B8EC-4CE1D22FFC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A975963-3B3C-4650-A50C-F930819EB1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1186,13 +1186,13 @@
     <t>alcuni dettagli opzionali non vengono trattati separatamente dall'applicativo</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.37b02a3d772c6318b9a9b8519b0d0507d5e8900872288ea2dc19d346455496da.2d6de5f501^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-09-30T14:40:10.097Z</t>
-  </si>
-  <si>
-    <t>3125ad62f1df4b0e</t>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.de35863cec36e9b8f04626f27070ee671905a22648dadee00104eb292c4573aa.5a67103c53^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0891931e1747b733</t>
+  </si>
+  <si>
+    <t>2023-10-10T11:34:27.417Z</t>
   </si>
 </sst>
 </file>
@@ -3165,7 +3165,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3437,13 +3437,13 @@
         <v>204</v>
       </c>
       <c r="F10" s="40">
-        <v>45199</v>
+        <v>45209</v>
       </c>
       <c r="G10" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>253</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>254</v>
       </c>
       <c r="I10" s="41" t="s">
         <v>252</v>
@@ -21118,27 +21118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C548C50377FF94DA5992E79C7BD108D" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="79da61cccba856d26d04def5fd5409fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xmlns:ns3="74204614-352d-415a-b69e-46d10468735d" xmlns:ns4="e1629bc7-f521-4968-9d85-8991e5c0d15e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb6e121baa4fd234d2adc618a44a0dc9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
@@ -21388,34 +21367,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
-    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFF6DC8-B71B-416A-B7FD-9F7BDC6DDC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21435,6 +21408,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e1629bc7-f521-4968-9d85-8991e5c0d15e"/>
+    <ds:schemaRef ds:uri="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A975963-3B3C-4650-A50C-F930819EB1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8BDE0D-5D59-4A54-B162-934BC70C54C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="1170" windowWidth="21600" windowHeight="11295" tabRatio="424" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -3165,7 +3165,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21368,15 +21368,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e1629bc7-f521-4968-9d85-8991e5c0d15e" xsi:nil="true"/>
@@ -21386,6 +21377,15 @@
     <Descrizione xmlns="4b14fa8f-0c88-4113-956d-8f7b7d25bf6d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21409,14 +21409,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
@@ -21435,6 +21427,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D590A8-F472-45DC-B749-057FAA4F118E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7918FE03-3846-4590-BBFA-E3A607C70BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29565" yWindow="435" windowWidth="27750" windowHeight="15105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1860" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$256</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="709">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3478,6 +3478,50 @@
     <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
 Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
 [ERRORE-b7| Sezione Dicom Object Catalog: La sezione deve avere l'elemento 'entry' di tipo 'act'.]</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <t>"Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione ""https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo ""action_id"" con la stringa ""TEST"" (valore non ammesso)."</t>
+  </si>
+  <si>
+    <t>"Precondizioni:
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione ""https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo ""purpose_of_use""."</t>
+  </si>
+  <si>
+    <t>3bd3edb2b8eb6f81</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>2023-11-16T09:31:45.950Z</t>
+  </si>
+  <si>
+    <t>"type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403,"instance":"/jwt-mandatory-field-missing"</t>
+  </si>
+  <si>
+    <t>il caso è stato forzato modificando manualmente il dato per poter eseguire il test, in produzione non può avvenire</t>
+  </si>
+  <si>
+    <t>"title":"Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403,"instance":"/jwt-mandatory-field-malformed"</t>
+  </si>
+  <si>
+    <t>ba9aacd2f808681f</t>
+  </si>
+  <si>
+    <t>2023-11-16T10:08:00.090Z</t>
   </si>
 </sst>
 </file>
@@ -4261,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="273" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6400,13 +6444,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T871"/>
+  <dimension ref="A1:T873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7019,7 +7063,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>31</v>
       </c>
@@ -7057,68 +7101,86 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>75</v>
+        <v>697</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="35" t="s">
-        <v>595</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
+        <v>700</v>
+      </c>
+      <c r="F20" s="23">
+        <v>45246</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="35" t="s">
+        <v>608</v>
+      </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
+      <c r="S20" s="37" t="s">
+        <v>705</v>
+      </c>
       <c r="T20" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="35" t="s">
         <v>595</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="35" t="s">
         <v>606</v>
       </c>
       <c r="L21" s="25"/>
@@ -7133,106 +7195,112 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="25"/>
+        <v>595</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>606</v>
+      </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="35" t="s">
-        <v>607</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="P22" s="35" t="s">
-        <v>608</v>
-      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
       <c r="Q22" s="25"/>
-      <c r="R22" s="26" t="s">
-        <v>80</v>
-      </c>
+      <c r="R22" s="26"/>
       <c r="S22" s="27"/>
       <c r="T22" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>82</v>
+        <v>698</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+        <v>699</v>
+      </c>
+      <c r="F23" s="23">
+        <v>45246</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>702</v>
+      </c>
       <c r="J23" s="25" t="s">
         <v>80</v>
       </c>
       <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="L23" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="N23" s="25" t="s">
-        <v>607</v>
+        <v>706</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="35" t="s">
         <v>608</v>
       </c>
       <c r="Q23" s="25"/>
-      <c r="R23" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="S23" s="27"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="37" t="s">
+        <v>705</v>
+      </c>
       <c r="T23" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>79</v>
@@ -7247,13 +7315,13 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="O24" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="P24" s="25" t="s">
+      <c r="P24" s="35" t="s">
         <v>608</v>
       </c>
       <c r="Q24" s="25"/>
@@ -7265,85 +7333,97 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="35" t="s">
-        <v>595</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>606</v>
-      </c>
+      <c r="J25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
+      <c r="N25" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>608</v>
+      </c>
       <c r="Q25" s="25"/>
-      <c r="R25" s="26"/>
+      <c r="R25" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="S25" s="27"/>
       <c r="T25" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="35" t="s">
-        <v>595</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>609</v>
-      </c>
+      <c r="J26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
+      <c r="N26" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>608</v>
+      </c>
       <c r="Q26" s="25"/>
-      <c r="R26" s="26"/>
+      <c r="R26" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="S26" s="27"/>
       <c r="T26" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>44</v>
@@ -7352,10 +7432,10 @@
         <v>47</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
@@ -7365,7 +7445,7 @@
         <v>595</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -7379,9 +7459,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>44</v>
@@ -7390,10 +7470,10 @@
         <v>47</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
@@ -7403,7 +7483,7 @@
         <v>595</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -7417,9 +7497,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>44</v>
@@ -7428,10 +7508,10 @@
         <v>47</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="24"/>
@@ -7441,7 +7521,7 @@
         <v>595</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -7455,9 +7535,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>44</v>
@@ -7466,10 +7546,10 @@
         <v>47</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
@@ -7479,7 +7559,7 @@
         <v>595</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -7495,7 +7575,7 @@
     </row>
     <row r="31" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>44</v>
@@ -7504,10 +7584,10 @@
         <v>47</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="24"/>
@@ -7533,7 +7613,7 @@
     </row>
     <row r="32" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>44</v>
@@ -7542,10 +7622,10 @@
         <v>47</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="24"/>
@@ -7571,7 +7651,7 @@
     </row>
     <row r="33" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>44</v>
@@ -7580,10 +7660,10 @@
         <v>47</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="24"/>
@@ -7593,7 +7673,7 @@
         <v>595</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
@@ -7609,7 +7689,7 @@
     </row>
     <row r="34" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>44</v>
@@ -7618,10 +7698,10 @@
         <v>47</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="24"/>
@@ -7631,7 +7711,7 @@
         <v>595</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
@@ -7645,9 +7725,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>44</v>
@@ -7656,42 +7736,26 @@
         <v>47</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="33">
-        <v>45196</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>614</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>616</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="M35" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="O35" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="P35" s="35" t="s">
-        <v>618</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="26"/>
       <c r="S35" s="27"/>
@@ -7701,7 +7765,7 @@
     </row>
     <row r="36" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>44</v>
@@ -7710,10 +7774,10 @@
         <v>47</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="24"/>
@@ -7723,7 +7787,7 @@
         <v>595</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -7737,37 +7801,53 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="K37" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
+        <v>105</v>
+      </c>
+      <c r="F37" s="33">
+        <v>45196</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>614</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="O37" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" s="35" t="s">
+        <v>618</v>
+      </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="26"/>
       <c r="S37" s="27"/>
@@ -7777,29 +7857,29 @@
     </row>
     <row r="38" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="35" t="s">
         <v>595</v>
       </c>
-      <c r="K38" s="25" t="s">
-        <v>609</v>
+      <c r="K38" s="35" t="s">
+        <v>619</v>
       </c>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
@@ -7813,9 +7893,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>44</v>
@@ -7824,10 +7904,10 @@
         <v>56</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="24"/>
@@ -7837,7 +7917,7 @@
         <v>595</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -7851,9 +7931,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>44</v>
@@ -7862,10 +7942,10 @@
         <v>56</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
@@ -7875,7 +7955,7 @@
         <v>595</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
@@ -7889,9 +7969,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>44</v>
@@ -7900,10 +7980,10 @@
         <v>56</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="24"/>
@@ -7913,7 +7993,7 @@
         <v>595</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
@@ -7927,9 +8007,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>44</v>
@@ -7938,10 +8018,10 @@
         <v>56</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="24"/>
@@ -7951,7 +8031,7 @@
         <v>595</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
@@ -7965,9 +8045,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>44</v>
@@ -7976,54 +8056,36 @@
         <v>56</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="23">
-        <v>45244</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>675</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="I43" s="24" t="s">
-        <v>676</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M43" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N43" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="O43" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P43" s="35" t="s">
-        <v>618</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="26"/>
-      <c r="S43" s="37" t="s">
-        <v>690</v>
-      </c>
+      <c r="S43" s="27"/>
       <c r="T43" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>44</v>
@@ -8032,54 +8094,36 @@
         <v>56</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="23">
-        <v>45244</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>678</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>679</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>677</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N44" s="25" t="s">
-        <v>691</v>
-      </c>
-      <c r="O44" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P44" s="25" t="s">
-        <v>618</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
-      <c r="S44" s="37" t="s">
-        <v>692</v>
-      </c>
+      <c r="S44" s="27"/>
       <c r="T44" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>44</v>
@@ -8088,36 +8132,54 @@
         <v>56</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+        <v>121</v>
+      </c>
+      <c r="F45" s="23">
+        <v>45244</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>676</v>
+      </c>
       <c r="J45" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="K45" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="O45" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" s="35" t="s">
+        <v>618</v>
+      </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="26"/>
-      <c r="S45" s="27"/>
+      <c r="S45" s="37" t="s">
+        <v>690</v>
+      </c>
       <c r="T45" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>44</v>
@@ -8126,22 +8188,22 @@
         <v>56</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F46" s="23">
         <v>45244</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>80</v>
@@ -8171,9 +8233,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>44</v>
@@ -8182,10 +8244,10 @@
         <v>56</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="24"/>
@@ -8195,7 +8257,7 @@
         <v>595</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -8209,9 +8271,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>44</v>
@@ -8220,36 +8282,54 @@
         <v>56</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
+        <v>127</v>
+      </c>
+      <c r="F48" s="23">
+        <v>45244</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>681</v>
+      </c>
       <c r="J48" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="K48" s="25" t="s">
-        <v>623</v>
-      </c>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M48" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="O48" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" s="25" t="s">
+        <v>618</v>
+      </c>
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
-      <c r="S48" s="27"/>
+      <c r="S48" s="37" t="s">
+        <v>692</v>
+      </c>
       <c r="T48" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>44</v>
@@ -8258,54 +8338,36 @@
         <v>56</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" s="23">
-        <v>45244</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>684</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>683</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>685</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>696</v>
-      </c>
-      <c r="O49" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P49" s="25" t="s">
-        <v>618</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="26"/>
-      <c r="S49" s="37" t="s">
-        <v>693</v>
-      </c>
+      <c r="S49" s="27"/>
       <c r="T49" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>44</v>
@@ -8314,10 +8376,10 @@
         <v>56</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="24"/>
@@ -8327,7 +8389,7 @@
         <v>595</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
@@ -8341,9 +8403,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>44</v>
@@ -8352,36 +8414,54 @@
         <v>56</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
+        <v>133</v>
+      </c>
+      <c r="F51" s="23">
+        <v>45244</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>685</v>
+      </c>
       <c r="J51" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="K51" s="25" t="s">
-        <v>625</v>
-      </c>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M51" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N51" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="O51" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51" s="25" t="s">
+        <v>618</v>
+      </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="26"/>
-      <c r="S51" s="27"/>
+      <c r="S51" s="37" t="s">
+        <v>693</v>
+      </c>
       <c r="T51" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>44</v>
@@ -8390,10 +8470,10 @@
         <v>56</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="24"/>
@@ -8403,7 +8483,7 @@
         <v>595</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
@@ -8417,9 +8497,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>44</v>
@@ -8428,10 +8508,10 @@
         <v>56</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" s="24"/>
@@ -8441,7 +8521,7 @@
         <v>595</v>
       </c>
       <c r="K53" s="25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
@@ -8455,9 +8535,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>44</v>
@@ -8466,10 +8546,10 @@
         <v>56</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="24"/>
@@ -8479,7 +8559,7 @@
         <v>595</v>
       </c>
       <c r="K54" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
@@ -8493,9 +8573,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="210" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>44</v>
@@ -8504,83 +8584,59 @@
         <v>56</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" s="23">
-        <v>45244</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>688</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>687</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
       <c r="J55" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M55" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N55" s="25" t="s">
-        <v>694</v>
-      </c>
-      <c r="O55" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P55" s="25" t="s">
-        <v>618</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
       <c r="Q55" s="25"/>
       <c r="R55" s="26"/>
-      <c r="S55" s="37" t="s">
-        <v>695</v>
-      </c>
+      <c r="S55" s="27"/>
       <c r="T55" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" s="23">
-        <v>45240</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="H56" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>631</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K56" s="25"/>
+        <v>595</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>628</v>
+      </c>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
@@ -8590,50 +8646,68 @@
       <c r="R56" s="26"/>
       <c r="S56" s="27"/>
       <c r="T56" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="210" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
+        <v>145</v>
+      </c>
+      <c r="F57" s="23">
+        <v>45244</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>687</v>
+      </c>
       <c r="J57" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="K57" s="25" t="s">
-        <v>633</v>
-      </c>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M57" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N57" s="25" t="s">
+        <v>694</v>
+      </c>
+      <c r="O57" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" s="25" t="s">
+        <v>618</v>
+      </c>
       <c r="Q57" s="25"/>
       <c r="R57" s="26"/>
-      <c r="S57" s="27"/>
+      <c r="S57" s="37" t="s">
+        <v>695</v>
+      </c>
       <c r="T57" s="28" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>44</v>
@@ -8642,21 +8716,27 @@
         <v>74</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
+        <v>147</v>
+      </c>
+      <c r="F58" s="23">
+        <v>45240</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>631</v>
+      </c>
       <c r="J58" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="K58" s="25" t="s">
-        <v>632</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K58" s="25"/>
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
       <c r="N58" s="25"/>
@@ -8671,7 +8751,7 @@
     </row>
     <row r="59" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>44</v>
@@ -8680,10 +8760,10 @@
         <v>74</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="24"/>
@@ -8693,7 +8773,7 @@
         <v>595</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
@@ -8707,9 +8787,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>44</v>
@@ -8718,10 +8798,10 @@
         <v>74</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="24"/>
@@ -8731,7 +8811,7 @@
         <v>595</v>
       </c>
       <c r="K60" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
@@ -8742,12 +8822,12 @@
       <c r="R60" s="26"/>
       <c r="S60" s="27"/>
       <c r="T60" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>44</v>
@@ -8756,10 +8836,10 @@
         <v>74</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="24"/>
@@ -8769,7 +8849,7 @@
         <v>595</v>
       </c>
       <c r="K61" s="25" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
@@ -8780,12 +8860,12 @@
       <c r="R61" s="26"/>
       <c r="S61" s="27"/>
       <c r="T61" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>44</v>
@@ -8794,10 +8874,10 @@
         <v>74</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="24"/>
@@ -8807,7 +8887,7 @@
         <v>595</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -8823,7 +8903,7 @@
     </row>
     <row r="63" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>44</v>
@@ -8832,10 +8912,10 @@
         <v>74</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="24"/>
@@ -8845,7 +8925,7 @@
         <v>595</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -8861,7 +8941,7 @@
     </row>
     <row r="64" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>44</v>
@@ -8870,10 +8950,10 @@
         <v>74</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="24"/>
@@ -8883,7 +8963,7 @@
         <v>595</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
@@ -8899,7 +8979,7 @@
     </row>
     <row r="65" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>44</v>
@@ -8908,10 +8988,10 @@
         <v>74</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="24"/>
@@ -8921,7 +9001,7 @@
         <v>595</v>
       </c>
       <c r="K65" s="25" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
@@ -8935,9 +9015,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>44</v>
@@ -8946,54 +9026,36 @@
         <v>74</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F66" s="23">
-        <v>45240</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>644</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>641</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M66" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N66" s="25" t="s">
-        <v>642</v>
-      </c>
-      <c r="O66" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P66" s="25" t="s">
-        <v>618</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="K66" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
       <c r="Q66" s="25"/>
       <c r="R66" s="26"/>
-      <c r="S66" s="37" t="s">
-        <v>643</v>
-      </c>
+      <c r="S66" s="27"/>
       <c r="T66" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>44</v>
@@ -9002,42 +9064,26 @@
         <v>74</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F67" s="23">
-        <v>45240</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>647</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>646</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M67" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N67" s="25" t="s">
-        <v>645</v>
-      </c>
-      <c r="O67" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P67" s="25" t="s">
-        <v>618</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="K67" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
       <c r="Q67" s="25"/>
       <c r="R67" s="26"/>
       <c r="S67" s="27"/>
@@ -9045,9 +9091,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>44</v>
@@ -9056,36 +9102,54 @@
         <v>74</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
+        <v>167</v>
+      </c>
+      <c r="F68" s="23">
+        <v>45240</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>641</v>
+      </c>
       <c r="J68" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="K68" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M68" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N68" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="O68" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P68" s="25" t="s">
+        <v>618</v>
+      </c>
       <c r="Q68" s="25"/>
       <c r="R68" s="26"/>
-      <c r="S68" s="27"/>
+      <c r="S68" s="37" t="s">
+        <v>643</v>
+      </c>
       <c r="T68" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>44</v>
@@ -9094,22 +9158,22 @@
         <v>74</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F69" s="23">
         <v>45240</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="J69" s="25" t="s">
         <v>80</v>
@@ -9122,7 +9186,7 @@
         <v>80</v>
       </c>
       <c r="N69" s="25" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="O69" s="25" t="s">
         <v>80</v>
@@ -9137,9 +9201,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>44</v>
@@ -9148,10 +9212,10 @@
         <v>74</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="24"/>
@@ -9161,7 +9225,7 @@
         <v>595</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
@@ -9169,17 +9233,15 @@
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
       <c r="Q70" s="25"/>
-      <c r="R70" s="26" t="s">
-        <v>650</v>
-      </c>
+      <c r="R70" s="26"/>
       <c r="S70" s="27"/>
       <c r="T70" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>44</v>
@@ -9188,27 +9250,41 @@
         <v>74</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
+        <v>173</v>
+      </c>
+      <c r="F71" s="23">
+        <v>45240</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>658</v>
+      </c>
       <c r="J71" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="K71" s="25" t="s">
-        <v>662</v>
-      </c>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M71" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N71" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="O71" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="P71" s="25" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="Q71" s="25"/>
       <c r="R71" s="26"/>
@@ -9219,7 +9295,7 @@
     </row>
     <row r="72" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>44</v>
@@ -9228,10 +9304,10 @@
         <v>74</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="24"/>
@@ -9241,17 +9317,17 @@
         <v>595</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
-      <c r="P72" s="25" t="s">
-        <v>652</v>
-      </c>
+      <c r="P72" s="25"/>
       <c r="Q72" s="25"/>
-      <c r="R72" s="26"/>
+      <c r="R72" s="26" t="s">
+        <v>650</v>
+      </c>
       <c r="S72" s="27"/>
       <c r="T72" s="28" t="s">
         <v>68</v>
@@ -9259,7 +9335,7 @@
     </row>
     <row r="73" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>44</v>
@@ -9268,10 +9344,10 @@
         <v>74</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="24"/>
@@ -9281,14 +9357,14 @@
         <v>595</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
       <c r="P73" s="25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="Q73" s="25"/>
       <c r="R73" s="26"/>
@@ -9299,7 +9375,7 @@
     </row>
     <row r="74" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>44</v>
@@ -9308,10 +9384,10 @@
         <v>74</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="24"/>
@@ -9321,14 +9397,14 @@
         <v>595</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
       <c r="P74" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Q74" s="25"/>
       <c r="R74" s="26"/>
@@ -9339,7 +9415,7 @@
     </row>
     <row r="75" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>44</v>
@@ -9348,10 +9424,10 @@
         <v>74</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="24"/>
@@ -9361,14 +9437,14 @@
         <v>595</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
       <c r="P75" s="25" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q75" s="25"/>
       <c r="R75" s="26"/>
@@ -9379,7 +9455,7 @@
     </row>
     <row r="76" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>44</v>
@@ -9388,10 +9464,10 @@
         <v>74</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="24"/>
@@ -9401,14 +9477,14 @@
         <v>595</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
       <c r="P76" s="25" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Q76" s="25"/>
       <c r="R76" s="26"/>
@@ -9419,7 +9495,7 @@
     </row>
     <row r="77" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>44</v>
@@ -9428,10 +9504,10 @@
         <v>74</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="24"/>
@@ -9441,13 +9517,15 @@
         <v>595</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
+      <c r="P77" s="25" t="s">
+        <v>655</v>
+      </c>
       <c r="Q77" s="25"/>
       <c r="R77" s="26"/>
       <c r="S77" s="27"/>
@@ -9457,7 +9535,7 @@
     </row>
     <row r="78" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>44</v>
@@ -9466,10 +9544,10 @@
         <v>74</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="24"/>
@@ -9479,13 +9557,15 @@
         <v>595</v>
       </c>
       <c r="K78" s="25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
+      <c r="P78" s="25" t="s">
+        <v>656</v>
+      </c>
       <c r="Q78" s="25"/>
       <c r="R78" s="26"/>
       <c r="S78" s="27"/>
@@ -9493,28 +9573,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
+      <c r="J79" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="K79" s="25" t="s">
+        <v>666</v>
+      </c>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
       <c r="N79" s="25"/>
@@ -9524,31 +9608,35 @@
       <c r="R79" s="26"/>
       <c r="S79" s="27"/>
       <c r="T79" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F80" s="23"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
+      <c r="J80" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="K80" s="25" t="s">
+        <v>667</v>
+      </c>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
       <c r="N80" s="25"/>
@@ -9558,24 +9646,24 @@
       <c r="R80" s="26"/>
       <c r="S80" s="27"/>
       <c r="T80" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="24"/>
@@ -9595,21 +9683,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
+        <v>193</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>201</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="24"/>
@@ -9631,19 +9719,19 @@
     </row>
     <row r="83" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="24"/>
@@ -9663,21 +9751,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="24"/>
@@ -9694,24 +9782,24 @@
       <c r="R84" s="26"/>
       <c r="S84" s="27"/>
       <c r="T84" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="24"/>
@@ -9728,12 +9816,12 @@
       <c r="R85" s="26"/>
       <c r="S85" s="27"/>
       <c r="T85" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>192</v>
@@ -9742,10 +9830,10 @@
         <v>45</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="24"/>
@@ -9767,7 +9855,7 @@
     </row>
     <row r="87" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>192</v>
@@ -9776,10 +9864,10 @@
         <v>45</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="24"/>
@@ -9799,9 +9887,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>192</v>
@@ -9810,10 +9898,10 @@
         <v>45</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="24"/>
@@ -9833,9 +9921,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>192</v>
@@ -9844,10 +9932,10 @@
         <v>45</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="24"/>
@@ -9869,7 +9957,7 @@
     </row>
     <row r="90" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>192</v>
@@ -9878,10 +9966,10 @@
         <v>45</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="24"/>
@@ -9901,21 +9989,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C91" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="24"/>
@@ -9937,19 +10025,19 @@
     </row>
     <row r="92" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C92" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="24"/>
@@ -9969,21 +10057,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="20">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C93" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="24"/>
@@ -10005,19 +10093,19 @@
     </row>
     <row r="94" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="24"/>
@@ -10037,21 +10125,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="24"/>
@@ -10068,24 +10156,24 @@
       <c r="R95" s="26"/>
       <c r="S95" s="27"/>
       <c r="T95" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="24"/>
@@ -10102,24 +10190,24 @@
       <c r="R96" s="26"/>
       <c r="S96" s="27"/>
       <c r="T96" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
@@ -10139,21 +10227,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="24"/>
@@ -10175,19 +10263,19 @@
     </row>
     <row r="99" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F99" s="23"/>
       <c r="G99" s="24"/>
@@ -10207,21 +10295,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F100" s="23"/>
       <c r="G100" s="24"/>
@@ -10238,24 +10326,24 @@
       <c r="R100" s="26"/>
       <c r="S100" s="27"/>
       <c r="T100" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="24"/>
@@ -10272,12 +10360,12 @@
       <c r="R101" s="26"/>
       <c r="S101" s="27"/>
       <c r="T101" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B102" s="21" t="s">
         <v>192</v>
@@ -10286,10 +10374,10 @@
         <v>47</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="24"/>
@@ -10311,7 +10399,7 @@
     </row>
     <row r="103" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B103" s="21" t="s">
         <v>192</v>
@@ -10320,10 +10408,10 @@
         <v>47</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="24"/>
@@ -10343,9 +10431,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B104" s="21" t="s">
         <v>192</v>
@@ -10354,10 +10442,10 @@
         <v>47</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="24"/>
@@ -10377,9 +10465,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B105" s="21" t="s">
         <v>192</v>
@@ -10388,10 +10476,10 @@
         <v>47</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="24"/>
@@ -10413,7 +10501,7 @@
     </row>
     <row r="106" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>192</v>
@@ -10422,10 +10510,10 @@
         <v>47</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="24"/>
@@ -10445,21 +10533,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="24"/>
@@ -10481,19 +10569,19 @@
     </row>
     <row r="108" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="24"/>
@@ -10513,21 +10601,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="24"/>
@@ -10549,19 +10637,19 @@
     </row>
     <row r="110" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C110" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="24"/>
@@ -10581,21 +10669,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="24"/>
@@ -10612,24 +10700,24 @@
       <c r="R111" s="26"/>
       <c r="S111" s="27"/>
       <c r="T111" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="24"/>
@@ -10646,24 +10734,24 @@
       <c r="R112" s="26"/>
       <c r="S112" s="27"/>
       <c r="T112" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C113" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="24"/>
@@ -10683,21 +10771,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C114" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="24"/>
@@ -10719,19 +10807,19 @@
     </row>
     <row r="115" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C115" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="24"/>
@@ -10751,21 +10839,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C116" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="24"/>
@@ -10782,24 +10870,24 @@
       <c r="R116" s="26"/>
       <c r="S116" s="27"/>
       <c r="T116" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="24"/>
@@ -10816,12 +10904,12 @@
       <c r="R117" s="26"/>
       <c r="S117" s="27"/>
       <c r="T117" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B118" s="21" t="s">
         <v>192</v>
@@ -10830,10 +10918,10 @@
         <v>56</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="24"/>
@@ -10855,7 +10943,7 @@
     </row>
     <row r="119" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B119" s="21" t="s">
         <v>192</v>
@@ -10864,10 +10952,10 @@
         <v>56</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="24"/>
@@ -10887,9 +10975,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B120" s="21" t="s">
         <v>192</v>
@@ -10898,10 +10986,10 @@
         <v>56</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="24"/>
@@ -10921,9 +11009,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>192</v>
@@ -10932,10 +11020,10 @@
         <v>56</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="24"/>
@@ -10957,7 +11045,7 @@
     </row>
     <row r="122" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B122" s="21" t="s">
         <v>192</v>
@@ -10966,10 +11054,10 @@
         <v>56</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="24"/>
@@ -10989,21 +11077,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C123" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="24"/>
@@ -11025,19 +11113,19 @@
     </row>
     <row r="124" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C124" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="24"/>
@@ -11057,21 +11145,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="24"/>
@@ -11093,19 +11181,19 @@
     </row>
     <row r="126" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24"/>
@@ -11125,21 +11213,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="24"/>
@@ -11156,24 +11244,24 @@
       <c r="R127" s="26"/>
       <c r="S127" s="27"/>
       <c r="T127" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="24"/>
@@ -11190,24 +11278,24 @@
       <c r="R128" s="26"/>
       <c r="S128" s="27"/>
       <c r="T128" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C129" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="24"/>
@@ -11227,21 +11315,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C130" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="24"/>
@@ -11263,19 +11351,19 @@
     </row>
     <row r="131" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="24"/>
@@ -11295,21 +11383,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C132" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="24"/>
@@ -11326,24 +11414,24 @@
       <c r="R132" s="26"/>
       <c r="S132" s="27"/>
       <c r="T132" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C133" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F133" s="23"/>
       <c r="G133" s="24"/>
@@ -11360,12 +11448,12 @@
       <c r="R133" s="26"/>
       <c r="S133" s="27"/>
       <c r="T133" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B134" s="21" t="s">
         <v>192</v>
@@ -11374,10 +11462,10 @@
         <v>65</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F134" s="23"/>
       <c r="G134" s="24"/>
@@ -11399,7 +11487,7 @@
     </row>
     <row r="135" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B135" s="21" t="s">
         <v>192</v>
@@ -11408,10 +11496,10 @@
         <v>65</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="24"/>
@@ -11431,9 +11519,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B136" s="21" t="s">
         <v>192</v>
@@ -11442,10 +11530,10 @@
         <v>65</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F136" s="23"/>
       <c r="G136" s="24"/>
@@ -11465,9 +11553,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="20">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B137" s="21" t="s">
         <v>192</v>
@@ -11476,10 +11564,10 @@
         <v>65</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F137" s="23"/>
       <c r="G137" s="24"/>
@@ -11501,7 +11589,7 @@
     </row>
     <row r="138" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="20">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B138" s="21" t="s">
         <v>192</v>
@@ -11510,10 +11598,10 @@
         <v>65</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F138" s="23"/>
       <c r="G138" s="24"/>
@@ -11533,21 +11621,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C139" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="F139" s="23"/>
       <c r="G139" s="24"/>
@@ -11569,19 +11657,19 @@
     </row>
     <row r="140" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C140" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F140" s="23"/>
       <c r="G140" s="24"/>
@@ -11601,21 +11689,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C141" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="F141" s="23"/>
       <c r="G141" s="24"/>
@@ -11637,19 +11725,19 @@
     </row>
     <row r="142" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C142" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F142" s="23"/>
       <c r="G142" s="24"/>
@@ -11669,21 +11757,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F143" s="23"/>
       <c r="G143" s="24"/>
@@ -11700,24 +11788,24 @@
       <c r="R143" s="26"/>
       <c r="S143" s="27"/>
       <c r="T143" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F144" s="23"/>
       <c r="G144" s="24"/>
@@ -11734,24 +11822,24 @@
       <c r="R144" s="26"/>
       <c r="S144" s="27"/>
       <c r="T144" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C145" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F145" s="23"/>
       <c r="G145" s="24"/>
@@ -11771,21 +11859,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C146" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F146" s="23"/>
       <c r="G146" s="24"/>
@@ -11807,19 +11895,19 @@
     </row>
     <row r="147" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C147" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F147" s="23"/>
       <c r="G147" s="24"/>
@@ -11839,21 +11927,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C148" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="24"/>
@@ -11870,24 +11958,24 @@
       <c r="R148" s="26"/>
       <c r="S148" s="27"/>
       <c r="T148" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C149" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F149" s="23"/>
       <c r="G149" s="24"/>
@@ -11904,12 +11992,12 @@
       <c r="R149" s="26"/>
       <c r="S149" s="27"/>
       <c r="T149" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B150" s="21" t="s">
         <v>192</v>
@@ -11918,10 +12006,10 @@
         <v>66</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F150" s="23"/>
       <c r="G150" s="24"/>
@@ -11943,7 +12031,7 @@
     </row>
     <row r="151" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B151" s="21" t="s">
         <v>192</v>
@@ -11952,10 +12040,10 @@
         <v>66</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F151" s="23"/>
       <c r="G151" s="24"/>
@@ -11975,9 +12063,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B152" s="21" t="s">
         <v>192</v>
@@ -11986,10 +12074,10 @@
         <v>66</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F152" s="23"/>
       <c r="G152" s="24"/>
@@ -12009,9 +12097,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>192</v>
@@ -12020,10 +12108,10 @@
         <v>66</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F153" s="23"/>
       <c r="G153" s="24"/>
@@ -12045,7 +12133,7 @@
     </row>
     <row r="154" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B154" s="21" t="s">
         <v>192</v>
@@ -12054,10 +12142,10 @@
         <v>66</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F154" s="23"/>
       <c r="G154" s="24"/>
@@ -12077,21 +12165,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C155" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
@@ -12113,19 +12201,19 @@
     </row>
     <row r="156" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C156" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
@@ -12145,21 +12233,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C157" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
@@ -12181,19 +12269,19 @@
     </row>
     <row r="158" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C158" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F158" s="23"/>
       <c r="G158" s="24"/>
@@ -12213,21 +12301,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F159" s="23"/>
       <c r="G159" s="24"/>
@@ -12244,24 +12332,24 @@
       <c r="R159" s="26"/>
       <c r="S159" s="27"/>
       <c r="T159" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E160" s="22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F160" s="23"/>
       <c r="G160" s="24"/>
@@ -12278,24 +12366,24 @@
       <c r="R160" s="26"/>
       <c r="S160" s="27"/>
       <c r="T160" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C161" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F161" s="23"/>
       <c r="G161" s="24"/>
@@ -12315,21 +12403,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C162" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F162" s="23"/>
       <c r="G162" s="24"/>
@@ -12351,19 +12439,19 @@
     </row>
     <row r="163" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E163" s="22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F163" s="23"/>
       <c r="G163" s="24"/>
@@ -12383,21 +12471,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="24"/>
@@ -12414,24 +12502,24 @@
       <c r="R164" s="26"/>
       <c r="S164" s="27"/>
       <c r="T164" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="24"/>
@@ -12448,12 +12536,12 @@
       <c r="R165" s="26"/>
       <c r="S165" s="27"/>
       <c r="T165" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B166" s="21" t="s">
         <v>192</v>
@@ -12462,10 +12550,10 @@
         <v>67</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="24"/>
@@ -12487,7 +12575,7 @@
     </row>
     <row r="167" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B167" s="21" t="s">
         <v>192</v>
@@ -12496,10 +12584,10 @@
         <v>67</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F167" s="23"/>
       <c r="G167" s="24"/>
@@ -12519,9 +12607,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B168" s="21" t="s">
         <v>192</v>
@@ -12530,10 +12618,10 @@
         <v>67</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F168" s="23"/>
       <c r="G168" s="24"/>
@@ -12553,9 +12641,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B169" s="21" t="s">
         <v>192</v>
@@ -12564,10 +12652,10 @@
         <v>67</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="24"/>
@@ -12589,7 +12677,7 @@
     </row>
     <row r="170" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B170" s="21" t="s">
         <v>192</v>
@@ -12598,10 +12686,10 @@
         <v>67</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
@@ -12621,21 +12709,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>222</v>
+        <v>374</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
@@ -12657,19 +12745,19 @@
     </row>
     <row r="172" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
@@ -12689,21 +12777,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>381</v>
+        <v>222</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
@@ -12725,19 +12813,19 @@
     </row>
     <row r="174" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
@@ -12757,21 +12845,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F175" s="23"/>
       <c r="G175" s="24"/>
@@ -12788,24 +12876,24 @@
       <c r="R175" s="26"/>
       <c r="S175" s="27"/>
       <c r="T175" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F176" s="23"/>
       <c r="G176" s="24"/>
@@ -12822,24 +12910,24 @@
       <c r="R176" s="26"/>
       <c r="S176" s="27"/>
       <c r="T176" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C177" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="24"/>
@@ -12859,21 +12947,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C178" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F178" s="23"/>
       <c r="G178" s="24"/>
@@ -12895,19 +12983,19 @@
     </row>
     <row r="179" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="24"/>
@@ -12927,21 +13015,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C180" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="24"/>
@@ -12958,24 +13046,24 @@
       <c r="R180" s="26"/>
       <c r="S180" s="27"/>
       <c r="T180" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="24"/>
@@ -12992,12 +13080,12 @@
       <c r="R181" s="26"/>
       <c r="S181" s="27"/>
       <c r="T181" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B182" s="21" t="s">
         <v>192</v>
@@ -13006,10 +13094,10 @@
         <v>74</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="24"/>
@@ -13031,7 +13119,7 @@
     </row>
     <row r="183" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B183" s="21" t="s">
         <v>192</v>
@@ -13040,10 +13128,10 @@
         <v>74</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="24"/>
@@ -13063,9 +13151,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B184" s="21" t="s">
         <v>192</v>
@@ -13074,10 +13162,10 @@
         <v>74</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F184" s="23"/>
       <c r="G184" s="24"/>
@@ -13097,9 +13185,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B185" s="21" t="s">
         <v>192</v>
@@ -13108,10 +13196,10 @@
         <v>74</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E185" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F185" s="23"/>
       <c r="G185" s="24"/>
@@ -13133,7 +13221,7 @@
     </row>
     <row r="186" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B186" s="21" t="s">
         <v>192</v>
@@ -13142,10 +13230,10 @@
         <v>74</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="24"/>
@@ -13165,21 +13253,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C187" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>222</v>
+        <v>405</v>
       </c>
       <c r="F187" s="23"/>
       <c r="G187" s="24"/>
@@ -13201,19 +13289,19 @@
     </row>
     <row r="188" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C188" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="24"/>
@@ -13233,21 +13321,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C189" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>412</v>
+        <v>222</v>
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="24"/>
@@ -13269,19 +13357,19 @@
     </row>
     <row r="190" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C190" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="24"/>
@@ -13301,21 +13389,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="24"/>
@@ -13332,24 +13420,24 @@
       <c r="R191" s="26"/>
       <c r="S191" s="27"/>
       <c r="T191" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F192" s="23"/>
       <c r="G192" s="24"/>
@@ -13366,24 +13454,24 @@
       <c r="R192" s="26"/>
       <c r="S192" s="27"/>
       <c r="T192" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C193" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="24"/>
@@ -13403,21 +13491,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C194" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F194" s="23"/>
       <c r="G194" s="24"/>
@@ -13439,19 +13527,19 @@
     </row>
     <row r="195" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C195" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" s="24"/>
@@ -13471,21 +13559,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C196" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" s="24"/>
@@ -13502,24 +13590,24 @@
       <c r="R196" s="26"/>
       <c r="S196" s="27"/>
       <c r="T196" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="197" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C197" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" s="24"/>
@@ -13536,12 +13624,12 @@
       <c r="R197" s="26"/>
       <c r="S197" s="27"/>
       <c r="T197" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>192</v>
@@ -13550,10 +13638,10 @@
         <v>71</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F198" s="23"/>
       <c r="G198" s="24"/>
@@ -13575,7 +13663,7 @@
     </row>
     <row r="199" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>192</v>
@@ -13584,10 +13672,10 @@
         <v>71</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F199" s="23"/>
       <c r="G199" s="24"/>
@@ -13607,9 +13695,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B200" s="21" t="s">
         <v>192</v>
@@ -13618,10 +13706,10 @@
         <v>71</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F200" s="23"/>
       <c r="G200" s="24"/>
@@ -13641,9 +13729,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B201" s="21" t="s">
         <v>192</v>
@@ -13652,10 +13740,10 @@
         <v>71</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="24"/>
@@ -13677,7 +13765,7 @@
     </row>
     <row r="202" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B202" s="21" t="s">
         <v>192</v>
@@ -13686,10 +13774,10 @@
         <v>71</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E202" s="22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="24"/>
@@ -13709,21 +13797,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>222</v>
+        <v>436</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" s="24"/>
@@ -13745,19 +13833,19 @@
     </row>
     <row r="204" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" s="24"/>
@@ -13777,21 +13865,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>443</v>
+        <v>222</v>
       </c>
       <c r="F205" s="23"/>
       <c r="G205" s="24"/>
@@ -13813,19 +13901,19 @@
     </row>
     <row r="206" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F206" s="23"/>
       <c r="G206" s="24"/>
@@ -13845,21 +13933,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F207" s="23"/>
       <c r="G207" s="24"/>
@@ -13879,21 +13967,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F208" s="23"/>
       <c r="G208" s="24"/>
@@ -13913,21 +14001,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F209" s="23"/>
       <c r="G209" s="24"/>
@@ -13947,21 +14035,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F210" s="23"/>
       <c r="G210" s="24"/>
@@ -13981,21 +14069,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F211" s="23"/>
       <c r="G211" s="24"/>
@@ -14015,21 +14103,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="24"/>
@@ -14049,21 +14137,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F213" s="23"/>
       <c r="G213" s="24"/>
@@ -14083,21 +14171,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F214" s="23"/>
       <c r="G214" s="24"/>
@@ -14117,21 +14205,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F215" s="23"/>
       <c r="G215" s="24"/>
@@ -14151,21 +14239,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F216" s="23"/>
       <c r="G216" s="24"/>
@@ -14185,21 +14273,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F217" s="23"/>
       <c r="G217" s="24"/>
@@ -14219,21 +14307,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="20">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F218" s="23"/>
       <c r="G218" s="24"/>
@@ -14253,21 +14341,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="20">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F219" s="23"/>
       <c r="G219" s="24"/>
@@ -14287,21 +14375,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F220" s="23"/>
       <c r="G220" s="24"/>
@@ -14323,19 +14411,19 @@
     </row>
     <row r="221" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F221" s="23"/>
       <c r="G221" s="24"/>
@@ -14355,21 +14443,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="20">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F222" s="23"/>
       <c r="G222" s="24"/>
@@ -14391,19 +14479,19 @@
     </row>
     <row r="223" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="20">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F223" s="23"/>
       <c r="G223" s="24"/>
@@ -14423,21 +14511,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F224" s="23"/>
       <c r="G224" s="24"/>
@@ -14457,21 +14545,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F225" s="23"/>
       <c r="G225" s="24"/>
@@ -14491,21 +14579,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F226" s="23"/>
       <c r="G226" s="24"/>
@@ -14525,21 +14613,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F227" s="23"/>
       <c r="G227" s="24"/>
@@ -14559,21 +14647,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F228" s="23"/>
       <c r="G228" s="24"/>
@@ -14593,21 +14681,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F229" s="23"/>
       <c r="G229" s="24"/>
@@ -14627,21 +14715,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F230" s="23"/>
       <c r="G230" s="24"/>
@@ -14661,21 +14749,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F231" s="23"/>
       <c r="G231" s="24"/>
@@ -14695,21 +14783,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F232" s="23"/>
       <c r="G232" s="24"/>
@@ -14731,19 +14819,19 @@
     </row>
     <row r="233" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E233" s="22" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F233" s="23"/>
       <c r="G233" s="24"/>
@@ -14763,21 +14851,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F234" s="23"/>
       <c r="G234" s="24"/>
@@ -14799,19 +14887,19 @@
     </row>
     <row r="235" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F235" s="23"/>
       <c r="G235" s="24"/>
@@ -14831,21 +14919,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F236" s="23"/>
       <c r="G236" s="24"/>
@@ -14865,21 +14953,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E237" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F237" s="23"/>
       <c r="G237" s="24"/>
@@ -14899,21 +14987,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="20">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F238" s="23"/>
       <c r="G238" s="24"/>
@@ -14933,21 +15021,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="20">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F239" s="23"/>
       <c r="G239" s="24"/>
@@ -14967,21 +15055,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E240" s="22" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F240" s="23"/>
       <c r="G240" s="24"/>
@@ -15003,19 +15091,19 @@
     </row>
     <row r="241" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="20">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B241" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E241" s="22" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F241" s="23"/>
       <c r="G241" s="24"/>
@@ -15037,19 +15125,19 @@
     </row>
     <row r="242" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B242" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E242" s="22" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F242" s="23"/>
       <c r="G242" s="24"/>
@@ -15071,19 +15159,19 @@
     </row>
     <row r="243" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B243" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F243" s="23"/>
       <c r="G243" s="24"/>
@@ -15105,19 +15193,19 @@
     </row>
     <row r="244" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B244" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F244" s="23"/>
       <c r="G244" s="24"/>
@@ -15139,19 +15227,19 @@
     </row>
     <row r="245" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B245" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E245" s="22" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F245" s="23"/>
       <c r="G245" s="24"/>
@@ -15173,19 +15261,19 @@
     </row>
     <row r="246" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B246" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F246" s="23"/>
       <c r="G246" s="24"/>
@@ -15207,19 +15295,19 @@
     </row>
     <row r="247" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B247" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E247" s="22" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F247" s="23"/>
       <c r="G247" s="24"/>
@@ -15241,19 +15329,19 @@
     </row>
     <row r="248" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B248" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E248" s="22" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F248" s="23"/>
       <c r="G248" s="24"/>
@@ -15275,19 +15363,19 @@
     </row>
     <row r="249" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F249" s="23"/>
       <c r="G249" s="24"/>
@@ -15309,19 +15397,19 @@
     </row>
     <row r="250" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B250" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F250" s="23"/>
       <c r="G250" s="24"/>
@@ -15343,19 +15431,19 @@
     </row>
     <row r="251" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B251" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E251" s="22" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F251" s="23"/>
       <c r="G251" s="24"/>
@@ -15377,19 +15465,19 @@
     </row>
     <row r="252" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B252" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F252" s="23"/>
       <c r="G252" s="24"/>
@@ -15411,19 +15499,19 @@
     </row>
     <row r="253" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B253" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E253" s="22" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F253" s="23"/>
       <c r="G253" s="24"/>
@@ -15445,19 +15533,19 @@
     </row>
     <row r="254" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B254" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C254" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E254" s="22" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F254" s="23"/>
       <c r="G254" s="24"/>
@@ -15477,39 +15565,73 @@
         <v>68</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F255" s="12"/>
-      <c r="G255" s="12"/>
-      <c r="H255" s="12"/>
-      <c r="I255" s="12"/>
-      <c r="J255" s="13"/>
-      <c r="K255" s="13"/>
-      <c r="L255" s="13"/>
-      <c r="M255" s="13"/>
-      <c r="N255" s="13"/>
-      <c r="O255" s="13"/>
-      <c r="P255" s="13"/>
-      <c r="Q255" s="13"/>
-      <c r="R255" s="14"/>
-      <c r="S255" s="2"/>
-      <c r="T255" s="15"/>
-    </row>
-    <row r="256" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F256" s="12"/>
-      <c r="G256" s="12"/>
-      <c r="H256" s="12"/>
-      <c r="I256" s="12"/>
-      <c r="J256" s="13"/>
-      <c r="K256" s="13"/>
-      <c r="L256" s="13"/>
-      <c r="M256" s="13"/>
-      <c r="N256" s="13"/>
-      <c r="O256" s="13"/>
-      <c r="P256" s="13"/>
-      <c r="Q256" s="13"/>
-      <c r="R256" s="14"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="15"/>
+    <row r="255" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="20">
+        <v>366</v>
+      </c>
+      <c r="B255" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C255" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D255" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="E255" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="F255" s="23"/>
+      <c r="G255" s="24"/>
+      <c r="H255" s="24"/>
+      <c r="I255" s="24"/>
+      <c r="J255" s="25"/>
+      <c r="K255" s="25"/>
+      <c r="L255" s="25"/>
+      <c r="M255" s="25"/>
+      <c r="N255" s="25"/>
+      <c r="O255" s="25"/>
+      <c r="P255" s="25"/>
+      <c r="Q255" s="25"/>
+      <c r="R255" s="26"/>
+      <c r="S255" s="27"/>
+      <c r="T255" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="20">
+        <v>367</v>
+      </c>
+      <c r="B256" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C256" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D256" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="E256" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="F256" s="23"/>
+      <c r="G256" s="24"/>
+      <c r="H256" s="24"/>
+      <c r="I256" s="24"/>
+      <c r="J256" s="25"/>
+      <c r="K256" s="25"/>
+      <c r="L256" s="25"/>
+      <c r="M256" s="25"/>
+      <c r="N256" s="25"/>
+      <c r="O256" s="25"/>
+      <c r="P256" s="25"/>
+      <c r="Q256" s="25"/>
+      <c r="R256" s="26"/>
+      <c r="S256" s="27"/>
+      <c r="T256" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="257" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F257" s="12"/>
@@ -18878,10 +19000,38 @@
       <c r="T454" s="15"/>
     </row>
     <row r="455" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T455" s="13"/>
+      <c r="F455" s="12"/>
+      <c r="G455" s="12"/>
+      <c r="H455" s="12"/>
+      <c r="I455" s="12"/>
+      <c r="J455" s="13"/>
+      <c r="K455" s="13"/>
+      <c r="L455" s="13"/>
+      <c r="M455" s="13"/>
+      <c r="N455" s="13"/>
+      <c r="O455" s="13"/>
+      <c r="P455" s="13"/>
+      <c r="Q455" s="13"/>
+      <c r="R455" s="14"/>
+      <c r="S455" s="2"/>
+      <c r="T455" s="15"/>
     </row>
     <row r="456" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T456" s="13"/>
+      <c r="F456" s="12"/>
+      <c r="G456" s="12"/>
+      <c r="H456" s="12"/>
+      <c r="I456" s="12"/>
+      <c r="J456" s="13"/>
+      <c r="K456" s="13"/>
+      <c r="L456" s="13"/>
+      <c r="M456" s="13"/>
+      <c r="N456" s="13"/>
+      <c r="O456" s="13"/>
+      <c r="P456" s="13"/>
+      <c r="Q456" s="13"/>
+      <c r="R456" s="14"/>
+      <c r="S456" s="2"/>
+      <c r="T456" s="15"/>
     </row>
     <row r="457" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T457" s="13"/>
@@ -20128,8 +20278,14 @@
     <row r="871" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T871" s="13"/>
     </row>
+    <row r="872" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T872" s="13"/>
+    </row>
+    <row r="873" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T873" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:T254" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A9:T256" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="VALIDAZIONE"/>
@@ -20155,13 +20311,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J14:J15 J39 J49 J41:J47 O45 O47:O48 L47:M48 L50:M54 O50:O54 O36:O43 L36:M43 L45:M45 O10:O21 J64:J78 L56:M78 O56:O78 J55:J62 O24:O34 L10:M34 J22:J24</xm:sqref>
+          <xm:sqref>J14:J15 J41 J51 J43:J49 O47 O49:O50 L49:M50 L52:M56 O52:O56 O38:O45 L38:M45 L47:M47 O10:O23 J66:J80 L58:M80 O58:O80 J57:J64 O26:O36 L10:M36 J24:J26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q47:Q48 Q50:Q54 Q45 Q56:Q78 Q10:Q43</xm:sqref>
+          <xm:sqref>Q49:Q50 Q52:Q56 Q47 Q58:Q80 Q10:Q45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7918FE03-3846-4590-BBFA-E3A607C70BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947536E4-3452-43CA-9817-F4F98525ADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1860" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57255" yWindow="-1740" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -3262,15 +3262,6 @@
     <t>la sezione observation/value relativa alle diagnosi non è gestita dall'applicativo</t>
   </si>
   <si>
-    <t>2023-11-10T15:32:48.090Z</t>
-  </si>
-  <si>
-    <t>40d07fc652aa9928</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.3.1.4.4.85426c270db34674e48ca78ecae30496cbdffdbe67573888bc125f41c14db920.d11696f361^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>l'applicativo non gestisce esami di tipo ginecologico, ma cardiologico</t>
   </si>
   <si>
@@ -3522,6 +3513,15 @@
   </si>
   <si>
     <t>2023-11-16T10:08:00.090Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.3.1.4.4.928c364e8d88e56821b0d24c1509b1f0f0e9df504fbffc5f5ec8323420ecb16b.1108a76f91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>30c1a3e701b9fda2</t>
+  </si>
+  <si>
+    <t>2023-11-16T18:37:34.977Z</t>
   </si>
 </sst>
 </file>
@@ -6447,10 +6447,10 @@
   <dimension ref="A1:T873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6881,13 +6881,13 @@
         <v>45244</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>80</v>
@@ -6925,13 +6925,13 @@
         <v>45244</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>80</v>
@@ -7112,22 +7112,22 @@
         <v>74</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>697</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>700</v>
       </c>
       <c r="F20" s="23">
         <v>45246</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>80</v>
@@ -7140,7 +7140,7 @@
         <v>80</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="O20" s="25" t="s">
         <v>80</v>
@@ -7151,7 +7151,7 @@
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
       <c r="S20" s="37" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="T20" s="28" t="s">
         <v>68</v>
@@ -7244,22 +7244,22 @@
         <v>74</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F23" s="23">
         <v>45246</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>80</v>
@@ -7272,7 +7272,7 @@
         <v>80</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>80</v>
@@ -7283,7 +7283,7 @@
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
       <c r="S23" s="37" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="T23" s="28" t="s">
         <v>68</v>
@@ -7993,7 +7993,7 @@
         <v>595</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
@@ -8069,7 +8069,7 @@
         <v>595</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
@@ -8107,7 +8107,7 @@
         <v>595</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
@@ -8141,13 +8141,13 @@
         <v>45244</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>80</v>
@@ -8160,7 +8160,7 @@
         <v>80</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="O45" s="25" t="s">
         <v>80</v>
@@ -8171,7 +8171,7 @@
       <c r="Q45" s="25"/>
       <c r="R45" s="26"/>
       <c r="S45" s="37" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="T45" s="28" t="s">
         <v>68</v>
@@ -8197,13 +8197,13 @@
         <v>45244</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>80</v>
@@ -8216,7 +8216,7 @@
         <v>80</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="O46" s="25" t="s">
         <v>80</v>
@@ -8227,7 +8227,7 @@
       <c r="Q46" s="25"/>
       <c r="R46" s="26"/>
       <c r="S46" s="37" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="T46" s="28" t="s">
         <v>68</v>
@@ -8257,7 +8257,7 @@
         <v>595</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
@@ -8291,13 +8291,13 @@
         <v>45244</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J48" s="25" t="s">
         <v>80</v>
@@ -8310,7 +8310,7 @@
         <v>80</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="O48" s="25" t="s">
         <v>80</v>
@@ -8321,7 +8321,7 @@
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
       <c r="S48" s="37" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="T48" s="28" t="s">
         <v>68</v>
@@ -8351,7 +8351,7 @@
         <v>595</v>
       </c>
       <c r="K49" s="25" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
@@ -8423,13 +8423,13 @@
         <v>45244</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="J51" s="25" t="s">
         <v>80</v>
@@ -8442,7 +8442,7 @@
         <v>80</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="O51" s="25" t="s">
         <v>80</v>
@@ -8453,7 +8453,7 @@
       <c r="Q51" s="25"/>
       <c r="R51" s="26"/>
       <c r="S51" s="37" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="T51" s="28" t="s">
         <v>68</v>
@@ -8669,13 +8669,13 @@
         <v>45244</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J57" s="25" t="s">
         <v>80</v>
@@ -8688,7 +8688,7 @@
         <v>80</v>
       </c>
       <c r="N57" s="25" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="O57" s="25" t="s">
         <v>80</v>
@@ -8699,7 +8699,7 @@
       <c r="Q57" s="25"/>
       <c r="R57" s="26"/>
       <c r="S57" s="37" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="T57" s="28" t="s">
         <v>68</v>
@@ -8722,16 +8722,16 @@
         <v>147</v>
       </c>
       <c r="F58" s="23">
-        <v>45240</v>
+        <v>45246</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="J58" s="25" t="s">
         <v>80</v>
@@ -8773,7 +8773,7 @@
         <v>595</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
@@ -8811,7 +8811,7 @@
         <v>595</v>
       </c>
       <c r="K60" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
@@ -8849,7 +8849,7 @@
         <v>595</v>
       </c>
       <c r="K61" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
@@ -8887,7 +8887,7 @@
         <v>595</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -8925,7 +8925,7 @@
         <v>595</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
@@ -8963,7 +8963,7 @@
         <v>595</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
@@ -9039,7 +9039,7 @@
         <v>595</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
@@ -9077,7 +9077,7 @@
         <v>595</v>
       </c>
       <c r="K67" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
@@ -9111,13 +9111,13 @@
         <v>45240</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J68" s="25" t="s">
         <v>80</v>
@@ -9130,7 +9130,7 @@
         <v>80</v>
       </c>
       <c r="N68" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="O68" s="25" t="s">
         <v>80</v>
@@ -9141,7 +9141,7 @@
       <c r="Q68" s="25"/>
       <c r="R68" s="26"/>
       <c r="S68" s="37" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="T68" s="28" t="s">
         <v>68</v>
@@ -9167,13 +9167,13 @@
         <v>45240</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="J69" s="25" t="s">
         <v>80</v>
@@ -9186,7 +9186,7 @@
         <v>80</v>
       </c>
       <c r="N69" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O69" s="25" t="s">
         <v>80</v>
@@ -9225,7 +9225,7 @@
         <v>595</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
@@ -9259,13 +9259,13 @@
         <v>45240</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>80</v>
@@ -9278,7 +9278,7 @@
         <v>80</v>
       </c>
       <c r="N71" s="25" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="O71" s="25" t="s">
         <v>80</v>
@@ -9317,7 +9317,7 @@
         <v>595</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
@@ -9326,7 +9326,7 @@
       <c r="P72" s="25"/>
       <c r="Q72" s="25"/>
       <c r="R72" s="26" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="S72" s="27"/>
       <c r="T72" s="28" t="s">
@@ -9357,14 +9357,14 @@
         <v>595</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
       <c r="P73" s="25" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="Q73" s="25"/>
       <c r="R73" s="26"/>
@@ -9397,14 +9397,14 @@
         <v>595</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
       <c r="P74" s="25" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="Q74" s="25"/>
       <c r="R74" s="26"/>
@@ -9437,14 +9437,14 @@
         <v>595</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
       <c r="P75" s="25" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Q75" s="25"/>
       <c r="R75" s="26"/>
@@ -9477,14 +9477,14 @@
         <v>595</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
       <c r="P76" s="25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="Q76" s="25"/>
       <c r="R76" s="26"/>
@@ -9517,14 +9517,14 @@
         <v>595</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
       <c r="P77" s="25" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q77" s="25"/>
       <c r="R77" s="26"/>
@@ -9557,14 +9557,14 @@
         <v>595</v>
       </c>
       <c r="K78" s="25" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
       <c r="P78" s="25" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="Q78" s="25"/>
       <c r="R78" s="26"/>
@@ -9597,7 +9597,7 @@
         <v>595</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
@@ -9635,7 +9635,7 @@
         <v>595</v>
       </c>
       <c r="K80" s="25" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947536E4-3452-43CA-9817-F4F98525ADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39303053-0B2B-4C58-8FD8-E7EC851FA51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57255" yWindow="-1740" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="717">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3522,6 +3522,32 @@
   </si>
   <si>
     <t>2023-11-16T18:37:34.977Z</t>
+  </si>
+  <si>
+    <t>Lo stato del record per il quale non è stata completata la trasmissione viene evidenziato all’operatore nella consolle di monitoraggio.
+Nelle evidenze dell’errore viene anche registrato  l'errore ricevuto:
+Errore vocabolario. È stato trovato almeno un dizionario presente in Blocklist: [2.16.840.1.113883.2.9.2.9999.6.11]</t>
+  </si>
+  <si>
+    <t>i valori del @Code e del @CodeSystem nell'entry/act/code dell'esame eseguito,  forzati con valori non consentiti per poter eseguire il test, hanno generato un errore di vocabolario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il motore di integrazione attende un tempo configurabile, passato il quale mostrerà all'utente il messaggio di "connection timeout".  </t>
+  </si>
+  <si>
+    <t>In questo caso l'evento viene inserito in una coda di uscita gestibile dall'utente tramite una consolle di monitoraggio. Il pdf contiene comunque al suo interno il CDA2 per poi essere conferito al FSE in un secondo momento, grazie al riprocessamento dalla consolle di monitoraggio. La coda è configurabile per avvisare automaticamente il nostro Help Desk</t>
+  </si>
+  <si>
+    <t>2023-11-22T13:05:21.160Z</t>
+  </si>
+  <si>
+    <t>3c6c3d34d9883680</t>
+  </si>
+  <si>
+    <t>2023-11-22T14:27:11.190Z</t>
+  </si>
+  <si>
+    <t>f8c14d53682dd9aa</t>
   </si>
 </sst>
 </file>
@@ -6447,10 +6473,10 @@
   <dimension ref="A1:T873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6624,7 +6650,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -6641,7 +6667,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -6703,7 +6729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>6</v>
       </c>
@@ -6747,7 +6773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>7</v>
       </c>
@@ -6785,7 +6811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>8</v>
       </c>
@@ -6823,7 +6849,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>9</v>
       </c>
@@ -6861,7 +6887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>11</v>
       </c>
@@ -6905,7 +6931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>12</v>
       </c>
@@ -6949,7 +6975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>13</v>
       </c>
@@ -6987,7 +7013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>14</v>
       </c>
@@ -7025,7 +7051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>29</v>
       </c>
@@ -7063,7 +7089,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>31</v>
       </c>
@@ -7173,24 +7199,42 @@
       <c r="E21" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="35" t="s">
-        <v>595</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
+      <c r="F21" s="23">
+        <v>45252</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>608</v>
+      </c>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
+      <c r="S21" s="37" t="s">
+        <v>702</v>
+      </c>
       <c r="T21" s="28" t="s">
         <v>68</v>
       </c>
@@ -7211,24 +7255,42 @@
       <c r="E22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="F22" s="23">
+        <v>45252</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>699</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="35" t="s">
+        <v>608</v>
+      </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
-      <c r="S22" s="27"/>
+      <c r="S22" s="37" t="s">
+        <v>702</v>
+      </c>
       <c r="T22" s="28" t="s">
         <v>68</v>
       </c>
@@ -7377,7 +7439,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>48</v>
       </c>
@@ -7401,16 +7463,20 @@
         <v>80</v>
       </c>
       <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="L26" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="N26" s="25" t="s">
-        <v>607</v>
+        <v>711</v>
       </c>
       <c r="O26" s="25" t="s">
         <v>80</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>608</v>
+        <v>712</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26" t="s">
@@ -7421,7 +7487,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>63</v>
       </c>
@@ -7459,7 +7525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>64</v>
       </c>
@@ -7497,7 +7563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>65</v>
       </c>
@@ -7535,7 +7601,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>66</v>
       </c>
@@ -7573,7 +7639,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>67</v>
       </c>
@@ -7611,7 +7677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>68</v>
       </c>
@@ -7649,7 +7715,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>69</v>
       </c>
@@ -7687,7 +7753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>70</v>
       </c>
@@ -7725,7 +7791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>71</v>
       </c>
@@ -7763,7 +7829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>72</v>
       </c>
@@ -7801,7 +7867,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>73</v>
       </c>
@@ -7855,7 +7921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>74</v>
       </c>
@@ -7893,7 +7959,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>75</v>
       </c>
@@ -7931,7 +7997,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>76</v>
       </c>
@@ -7969,7 +8035,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>77</v>
       </c>
@@ -8007,7 +8073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>78</v>
       </c>
@@ -8045,7 +8111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>79</v>
       </c>
@@ -8083,7 +8149,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>80</v>
       </c>
@@ -8121,7 +8187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>81</v>
       </c>
@@ -8177,7 +8243,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>82</v>
       </c>
@@ -8233,7 +8299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>83</v>
       </c>
@@ -8271,7 +8337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>84</v>
       </c>
@@ -8310,7 +8376,7 @@
         <v>80</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="O48" s="25" t="s">
         <v>80</v>
@@ -8321,13 +8387,13 @@
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
       <c r="S48" s="37" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="T48" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>85</v>
       </c>
@@ -8365,7 +8431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>86</v>
       </c>
@@ -8403,7 +8469,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>87</v>
       </c>
@@ -8459,7 +8525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>88</v>
       </c>
@@ -8497,7 +8563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>89</v>
       </c>
@@ -8535,7 +8601,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>90</v>
       </c>
@@ -8573,7 +8639,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>91</v>
       </c>
@@ -8611,7 +8677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>92</v>
       </c>
@@ -8649,7 +8715,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="210" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
         <v>93</v>
       </c>
@@ -8705,7 +8771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>147</v>
       </c>
@@ -8749,7 +8815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>148</v>
       </c>
@@ -8787,7 +8853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>149</v>
       </c>
@@ -8825,7 +8891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>150</v>
       </c>
@@ -8863,7 +8929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>151</v>
       </c>
@@ -8901,7 +8967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>152</v>
       </c>
@@ -8939,7 +9005,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>153</v>
       </c>
@@ -8977,7 +9043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>154</v>
       </c>
@@ -9015,7 +9081,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>155</v>
       </c>
@@ -9053,7 +9119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>156</v>
       </c>
@@ -9091,7 +9157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>157</v>
       </c>
@@ -9147,7 +9213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>158</v>
       </c>
@@ -9201,7 +9267,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>159</v>
       </c>
@@ -9293,7 +9359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>161</v>
       </c>
@@ -9333,7 +9399,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>162</v>
       </c>
@@ -9373,7 +9439,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>163</v>
       </c>
@@ -9413,7 +9479,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>164</v>
       </c>
@@ -9453,7 +9519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>165</v>
       </c>
@@ -9493,7 +9559,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>166</v>
       </c>
@@ -9533,7 +9599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>167</v>
       </c>
@@ -9573,7 +9639,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>168</v>
       </c>
@@ -9611,7 +9677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>169</v>
       </c>
@@ -20289,6 +20355,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="VALIDAZIONE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="SI"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -20311,7 +20382,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J14:J15 J41 J51 J43:J49 O47 O49:O50 L49:M50 L52:M56 O52:O56 O38:O45 L38:M45 L47:M47 O10:O23 J66:J80 L58:M80 O58:O80 J57:J64 O26:O36 L10:M36 J24:J26</xm:sqref>
+          <xm:sqref>J14:J15 J41 J51 J43:J49 O47 O49:O50 L49:M50 L52:M56 O52:O56 O38:O45 L38:M45 L47:M47 J66:J80 L58:M80 O58:O80 J57:J64 O26:O36 J24:J26 O10:O23 L10:M36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
+++ b/GATEWAY/A1#111EBITSRLXXXX/EBITSRL/SUITESTENSA/2.1b34.x/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE Accreditamento\it-fse-accreditamento\GATEWAY\A1#111EBITSRLXXXX\EBITSRL\SUITESTENSA\2.1b34.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39303053-0B2B-4C58-8FD8-E7EC851FA51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E817AEC-C95E-40A4-B664-369B644516F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="551" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="714">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3538,16 +3538,7 @@
     <t>In questo caso l'evento viene inserito in una coda di uscita gestibile dall'utente tramite una consolle di monitoraggio. Il pdf contiene comunque al suo interno il CDA2 per poi essere conferito al FSE in un secondo momento, grazie al riprocessamento dalla consolle di monitoraggio. La coda è configurabile per avvisare automaticamente il nostro Help Desk</t>
   </si>
   <si>
-    <t>2023-11-22T13:05:21.160Z</t>
-  </si>
-  <si>
-    <t>3c6c3d34d9883680</t>
-  </si>
-  <si>
-    <t>2023-11-22T14:27:11.190Z</t>
-  </si>
-  <si>
-    <t>f8c14d53682dd9aa</t>
+    <t>il campo token JWT "action_id" è valorizzato con un dato fisso "CREATE" e non può essere modificato lato applicativo, ma solo con un untervento forzato e volontario sul motore di integrazione. In produzione non è un caso che può realizzarsi.</t>
   </si>
 </sst>
 </file>
@@ -6473,10 +6464,10 @@
   <dimension ref="A1:T873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6773,7 +6764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>7</v>
       </c>
@@ -6811,7 +6802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>8</v>
       </c>
@@ -6849,7 +6840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>9</v>
       </c>
@@ -6975,7 +6966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>13</v>
       </c>
@@ -7013,7 +7004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>14</v>
       </c>
@@ -7051,7 +7042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>29</v>
       </c>
@@ -7089,7 +7080,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>31</v>
       </c>
@@ -7199,42 +7190,24 @@
       <c r="E21" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="23">
-        <v>45252</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>715</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>716</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>699</v>
-      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>703</v>
-      </c>
-      <c r="O21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P21" s="35" t="s">
-        <v>608</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="35"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
-      <c r="S21" s="37" t="s">
-        <v>702</v>
-      </c>
+      <c r="S21" s="37"/>
       <c r="T21" s="28" t="s">
         <v>68</v>
       </c>
@@ -7255,42 +7228,26 @@
       <c r="E22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="23">
-        <v>45252</v>
-      </c>
-      <c r="G22" s="24" t="s">
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="K22" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>714</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>699</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>703</v>
-      </c>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="P22" s="35" t="s">
-        <v>608</v>
-      </c>
+      <c r="P22" s="35"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
-      <c r="S22" s="37" t="s">
-        <v>702</v>
-      </c>
+      <c r="S22" s="37"/>
       <c r="T22" s="28" t="s">
         <v>68</v>
       </c>
@@ -7487,7 +7444,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>63</v>
       </c>
@@ -7525,7 +7482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>64</v>
       </c>
@@ -7563,7 +7520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>65</v>
       </c>
@@ -7601,7 +7558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>66</v>
       </c>
@@ -7639,7 +7596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>67</v>
       </c>
@@ -7677,7 +7634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>68</v>
       </c>
@@ -7715,7 +7672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>69</v>
       </c>
@@ -7753,7 +7710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>70</v>
       </c>
@@ -7791,7 +7748,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>71</v>
       </c>
@@ -7829,7 +7786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>72</v>
       </c>
@@ -7921,7 +7878,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>74</v>
       </c>
@@ -7959,7 +7916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>75</v>
       </c>
@@ -7997,7 +7954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>76</v>
       </c>
@@ -8035,7 +7992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>77</v>
       </c>
@@ -8073,7 +8030,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>78</v>
       </c>
@@ -8111,7 +8068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>79</v>
       </c>
@@ -8149,7 +8106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>80</v>
       </c>
@@ -8299,7 +8256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>83</v>
       </c>
@@ -8393,7 +8350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>85</v>
       </c>
@@ -8431,7 +8388,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>86</v>
       </c>
@@ -8525,7 +8482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>88</v>
       </c>
@@ -8563,7 +8520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>89</v>
       </c>
@@ -8601,7 +8558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>90</v>
       </c>
@@ -8639,7 +8596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>91</v>
       </c>
@@ -8677,7 +8634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>92</v>
       </c>
@@ -8815,7 +8772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>148</v>
       </c>
@@ -8853,7 +8810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>149</v>
       </c>
@@ -8891,7 +8848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>150</v>
       </c>
@@ -8929,7 +8886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>151</v>
       </c>
@@ -8967,7 +8924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>152</v>
       </c>
@@ -9005,7 +8962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>153</v>
       </c>
@@ -9043,7 +9000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>154</v>
       </c>
@@ -9081,7 +9038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>155</v>
       </c>
@@ -9119,7 +9076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>156</v>
       </c>
@@ -9267,7 +9224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>159</v>
       </c>
@@ -9305,7 +9262,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>160</v>
       </c>
@@ -9359,7 +9316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
         <v>161</v>
       </c>
@@ -9399,7 +9356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>162</v>
       </c>
@@ -9439,7 +9396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
         <v>163</v>
       </c>
@@ -9479,7 +9436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>164</v>
       </c>
@@ -9519,7 +9476,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>165</v>
       </c>
@@ -9559,7 +9516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>166</v>
       </c>
@@ -9599,7 +9556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>167</v>
       </c>
@@ -9639,7 +9596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>168</v>
       </c>
@@ -9677,7 +9634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>169</v>
       </c>
@@ -20355,11 +20312,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="VALIDAZIONE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="SI"/>
       </filters>
     </filterColumn>
   </autoFilter>
